--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE60654C-3BDD-481E-9356-C8C900538ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD1B33-135B-456F-8F4A-A711342A7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="300" windowWidth="27045" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="299">
   <si>
     <t>#</t>
   </si>
@@ -1465,10 +1465,6 @@
     <t>20000004</t>
   </si>
   <si>
-    <t>735,-9,-1200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>-400,-9,2206</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1670,6 +1666,43 @@
   </si>
   <si>
     <t>-1383,-9,1550</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_CangKu</t>
+  </si>
+  <si>
+    <t>NPC_DuanZao</t>
+  </si>
+  <si>
+    <t>NPC_LianJin</t>
+  </si>
+  <si>
+    <t>NPC_FuHua</t>
+  </si>
+  <si>
+    <t>NPC_BaoXiang</t>
+  </si>
+  <si>
+    <t>NPC_CaiFeng</t>
+  </si>
+  <si>
+    <t>NPC_ZhuanZhi</t>
+  </si>
+  <si>
+    <t>735,-9,-1250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2239,0,318</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000016</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2254,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X105"/>
+  <dimension ref="C1:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2516,7 +2549,7 @@
         <v>20001001</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N6" s="3">
         <v>-50</v>
@@ -2546,7 +2579,7 @@
         <v>20001002</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N7" s="3">
         <v>-340</v>
@@ -2570,11 +2603,11 @@
       <c r="I8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="28">
-        <v>20001023</v>
+      <c r="L8" s="28" t="s">
+        <v>288</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="N8" s="3">
         <v>-180</v>
@@ -2602,7 +2635,7 @@
         <v>20001024</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N9" s="3">
         <v>-223</v>
@@ -2611,10 +2644,10 @@
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="1">
@@ -2630,21 +2663,21 @@
         <v>20001007</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" s="3">
         <v>-180</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="1">
@@ -2657,10 +2690,10 @@
         <v>181</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N11" s="1">
         <v>-450</v>
@@ -2668,7 +2701,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -2678,10 +2711,10 @@
     </row>
     <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="1">
@@ -2697,21 +2730,21 @@
         <v>20001024</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N12" s="3">
         <v>-90</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>251</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="1">
@@ -2727,21 +2760,21 @@
         <v>20001024</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N13" s="3">
         <v>90</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>253</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="1">
@@ -2754,24 +2787,24 @@
         <v>181</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" s="3">
         <v>35</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>265</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="1">
@@ -2783,25 +2816,25 @@
       <c r="I15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="28">
-        <v>20001024</v>
+      <c r="L15" s="28" t="s">
+        <v>291</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N15" s="3">
         <v>-50</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="1">
@@ -2813,11 +2846,11 @@
       <c r="I16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="28">
-        <v>20001024</v>
+      <c r="L16" s="28" t="s">
+        <v>292</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
@@ -2826,13 +2859,13 @@
     </row>
     <row r="17" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="G17" s="1">
         <v>1007</v>
@@ -2843,17 +2876,17 @@
       <c r="I17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="28">
-        <v>20001024</v>
+      <c r="L17" s="28" t="s">
+        <v>293</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N17" s="3">
         <v>120</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2863,13 +2896,13 @@
     </row>
     <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="G18" s="1">
         <v>1006</v>
@@ -2880,17 +2913,17 @@
       <c r="I18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L18" s="28">
-        <v>20001024</v>
+      <c r="L18" s="28" t="s">
+        <v>289</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N18" s="3">
         <v>52</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2900,13 +2933,13 @@
     </row>
     <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="G19" s="1">
         <v>1008</v>
@@ -2917,17 +2950,17 @@
       <c r="I19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L19" s="28">
-        <v>20001024</v>
+      <c r="L19" s="28" t="s">
+        <v>290</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -2937,10 +2970,10 @@
     </row>
     <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="1">
@@ -2952,17 +2985,17 @@
       <c r="I20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="28">
-        <v>20001024</v>
+      <c r="L20" s="28" t="s">
+        <v>294</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N20" s="3">
         <v>-172</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2972,43 +3005,46 @@
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1">
+        <v>1022</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="N21" s="3">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E22" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F22" s="16">
         <v>10001101</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="16">
-        <v>10001201</v>
       </c>
       <c r="G22" s="1">
         <v>1009</v>
@@ -3020,76 +3056,79 @@
         <v>181</v>
       </c>
       <c r="L22" s="28">
+        <v>20001001</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="15">
         <v>20001002</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="E23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16">
+        <v>10001201</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="28">
+        <v>20001002</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>-45</v>
       </c>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="16">
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="16">
         <v>20001003</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="H23" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="28">
-        <v>20001003</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N23" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="15">
-        <v>20001004</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="F24" s="16"/>
       <c r="H24" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L24" s="28">
+        <v>20001003</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N24" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="15">
         <v>20001004</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="N24" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="16">
-        <v>20001005</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="16"/>
       <c r="H25" s="6" t="s">
@@ -3099,21 +3138,21 @@
         <v>181</v>
       </c>
       <c r="L25" s="28">
-        <v>20001005</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="N25" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="16">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>52</v>
@@ -3126,392 +3165,392 @@
         <v>181</v>
       </c>
       <c r="L26" s="28">
-        <v>20001006</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N26" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="16">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="16"/>
       <c r="H27" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L27" s="28">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N27" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="16">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" s="16"/>
       <c r="H28" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L28" s="28">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N28" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="16">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" s="16"/>
       <c r="H29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="28">
+        <v>20001008</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="16">
+        <v>20001009</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="H30" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="28">
+      <c r="I30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30" s="28">
         <v>20001009</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M30" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" s="3">
         <v>35</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="Q30" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="3:24" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="19">
+    <row r="31" spans="3:24" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="19">
         <v>20001010</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="23"/>
-      <c r="L30" s="29">
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" s="23"/>
+      <c r="L31" s="29">
         <v>20001010</v>
       </c>
-      <c r="M30" s="20" t="s">
+      <c r="M31" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N31" s="20">
         <v>180</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="26" t="s">
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-    </row>
-    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="16">
-        <v>20001011</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="H31" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="28">
-        <v>20001011</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
     </row>
     <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="16">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="16"/>
       <c r="H32" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L32" s="28">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N32" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="16">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="16"/>
       <c r="H33" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="28">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N33" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="16">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="16"/>
       <c r="H34" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="28">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N34" s="3">
         <v>180</v>
       </c>
       <c r="Q34" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="16">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F35" s="16"/>
       <c r="H35" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L35" s="28">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N35" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="16">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="16"/>
       <c r="H36" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L36" s="28">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N36" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="16">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="16"/>
       <c r="H37" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="28">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N37" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="16">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="16"/>
       <c r="H38" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="L38" s="30">
-        <v>0</v>
+      <c r="L38" s="28">
+        <v>20001017</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N38" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q38" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="16">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="16"/>
       <c r="H39" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="28">
-        <v>20001019</v>
+      <c r="J39" s="1"/>
+      <c r="L39" s="30">
+        <v>0</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N39" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="16">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F40" s="16"/>
       <c r="H40" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
@@ -3520,21 +3559,21 @@
         <v>20001019</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N40" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="16">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="16"/>
       <c r="H41" s="6" t="s">
@@ -3544,137 +3583,134 @@
         <v>181</v>
       </c>
       <c r="L41" s="28">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N41" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="16">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="16"/>
       <c r="H42" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="28">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N42" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q42" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="16">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" s="16"/>
-      <c r="G43" s="1">
-        <v>1004</v>
-      </c>
       <c r="H43" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="28">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N43" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q43" s="16"/>
+        <v>-106</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="16">
+        <v>20001023</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="28">
+        <v>20001023</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N44" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="16">
         <v>20001024</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="H44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="28">
+      <c r="F45" s="16"/>
+      <c r="H45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="28">
         <v>20001024</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N45" s="3">
         <v>-152</v>
-      </c>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="16">
-        <v>10002101</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N45" s="3">
-        <v>-147</v>
       </c>
       <c r="Q45" s="16"/>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="16">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G46" s="1">
         <v>1009</v>
@@ -3686,65 +3722,68 @@
         <v>181</v>
       </c>
       <c r="L46" s="28">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N46" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q46" s="16"/>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="F47" s="16">
+        <v>10002201</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1009</v>
+      </c>
       <c r="H47" s="6" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="11">
-        <v>20001007</v>
+      <c r="L47" s="28">
+        <v>20001002</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N47" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q47" s="16"/>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F48" s="16"/>
       <c r="H48" s="6" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="28">
-        <v>20001005</v>
+      <c r="L48" s="11">
+        <v>20001007</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N48" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q48" s="17" t="s">
         <v>132</v>
@@ -3752,23 +3791,23 @@
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F49" s="16"/>
       <c r="H49" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="11">
-        <v>20001009</v>
+      <c r="L49" s="28">
+        <v>20001005</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N49" s="3">
         <v>180</v>
@@ -3779,23 +3818,23 @@
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F50" s="16"/>
       <c r="H50" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="28">
-        <v>20001005</v>
+      <c r="L50" s="11">
+        <v>20001009</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N50" s="3">
         <v>180</v>
@@ -3806,14 +3845,14 @@
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F51" s="16"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
@@ -3822,18 +3861,18 @@
         <v>20001005</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N51" s="3">
         <v>180</v>
       </c>
       <c r="Q51" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>52</v>
@@ -3855,15 +3894,15 @@
         <v>180</v>
       </c>
       <c r="Q52" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F53" s="16"/>
       <c r="H53" s="6" t="s">
@@ -3872,14 +3911,14 @@
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="11">
-        <v>20001017</v>
+      <c r="L53" s="28">
+        <v>20001005</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N53" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q53" s="17" t="s">
         <v>134</v>
@@ -3887,43 +3926,40 @@
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="16">
-        <v>10003101</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F54" s="16"/>
       <c r="H54" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="28">
-        <v>20001001</v>
+      <c r="L54" s="11">
+        <v>20001017</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N54" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q54" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="16">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G55" s="1">
         <v>1009</v>
@@ -3935,65 +3971,68 @@
         <v>181</v>
       </c>
       <c r="L55" s="28">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N55" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q55" s="16"/>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F56" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="F56" s="16">
+        <v>10003201</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1009</v>
+      </c>
       <c r="H56" s="6" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="11">
-        <v>20001007</v>
+      <c r="L56" s="28">
+        <v>20001002</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N56" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q56" s="16"/>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F57" s="16"/>
       <c r="H57" s="6" t="s">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q57" s="17" t="s">
         <v>132</v>
@@ -4001,26 +4040,26 @@
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" s="16"/>
       <c r="H58" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N58" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="17" t="s">
         <v>132</v>
@@ -4028,26 +4067,26 @@
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F59" s="16"/>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="28">
-        <v>20001005</v>
+      <c r="L59" s="11">
+        <v>20001017</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N59" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q59" s="17" t="s">
         <v>132</v>
@@ -4055,10 +4094,10 @@
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F60" s="16"/>
       <c r="H60" s="6" t="s">
@@ -4071,18 +4110,18 @@
         <v>20001005</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N60" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q60" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>52</v>
@@ -4104,31 +4143,31 @@
         <v>180</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F62" s="16"/>
       <c r="H62" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L62" s="28">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="N62" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q62" s="17" t="s">
         <v>134</v>
@@ -4136,26 +4175,26 @@
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F63" s="16"/>
       <c r="H63" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="11">
-        <v>20001011</v>
+      <c r="L63" s="28">
+        <v>20001008</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="N63" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q63" s="17" t="s">
         <v>134</v>
@@ -4163,43 +4202,40 @@
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="16">
-        <v>10004101</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F64" s="16"/>
       <c r="H64" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="28">
-        <v>20001001</v>
+      <c r="L64" s="11">
+        <v>20001011</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N64" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q64" s="16"/>
+        <v>-180</v>
+      </c>
+      <c r="Q64" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" s="16">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G65" s="1">
         <v>1009</v>
@@ -4211,65 +4247,68 @@
         <v>181</v>
       </c>
       <c r="L65" s="28">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N65" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="16"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F66" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="F66" s="16">
+        <v>10004201</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1009</v>
+      </c>
       <c r="H66" s="6" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="11">
-        <v>20001007</v>
+      <c r="L66" s="28">
+        <v>20001002</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q66" s="16"/>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F67" s="16"/>
       <c r="H67" s="6" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L67" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N67" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="17" t="s">
         <v>132</v>
@@ -4277,26 +4316,26 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F68" s="16"/>
       <c r="H68" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L68" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N68" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q68" s="17" t="s">
         <v>132</v>
@@ -4304,34 +4343,34 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F69" s="16"/>
       <c r="H69" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="28">
-        <v>20001005</v>
+      <c r="L69" s="11">
+        <v>20001013</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N69" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q69" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>52</v>
@@ -4353,31 +4392,31 @@
         <v>180</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F71" s="16"/>
       <c r="H71" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="11">
-        <v>20001015</v>
+      <c r="L71" s="28">
+        <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N71" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q71" s="17" t="s">
         <v>134</v>
@@ -4385,14 +4424,14 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F72" s="16"/>
       <c r="H72" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
@@ -4401,10 +4440,10 @@
         <v>20001015</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N72" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q72" s="17" t="s">
         <v>134</v>
@@ -4412,43 +4451,40 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="16">
-        <v>10005101</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F73" s="16"/>
       <c r="H73" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="28">
-        <v>20001001</v>
+      <c r="L73" s="11">
+        <v>20001015</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N73" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q73" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="16">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G74" s="1">
         <v>1009</v>
@@ -4460,65 +4496,68 @@
         <v>181</v>
       </c>
       <c r="L74" s="28">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N74" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q74" s="16"/>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="F75" s="16">
+        <v>10005201</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1009</v>
+      </c>
       <c r="H75" s="6" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L75" s="28">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N75" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q75" s="17" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q75" s="16"/>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F76" s="16"/>
       <c r="H76" s="6" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="11">
-        <v>20001012</v>
+      <c r="L76" s="28">
+        <v>20001003</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N76" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q76" s="17" t="s">
         <v>132</v>
@@ -4526,26 +4565,26 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F77" s="16"/>
       <c r="H77" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N77" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q77" s="17" t="s">
         <v>132</v>
@@ -4553,26 +4592,26 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F78" s="16"/>
       <c r="H78" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N78" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q78" s="17" t="s">
         <v>132</v>
@@ -4580,34 +4619,34 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F79" s="16"/>
       <c r="H79" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="28">
-        <v>20001005</v>
+      <c r="L79" s="11">
+        <v>20001013</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q79" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>52</v>
@@ -4629,15 +4668,15 @@
         <v>180</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="16">
-        <v>20099001</v>
+      <c r="C81" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F81" s="16"/>
       <c r="H81" s="6" t="s">
@@ -4646,8 +4685,8 @@
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="11" t="s">
-        <v>47</v>
+      <c r="L81" s="28">
+        <v>20001005</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>194</v>
@@ -4656,15 +4695,15 @@
         <v>180</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="16">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" s="16"/>
       <c r="H82" s="6" t="s">
@@ -4683,15 +4722,15 @@
         <v>180</v>
       </c>
       <c r="Q82" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="16">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F83" s="16"/>
       <c r="H83" s="6" t="s">
@@ -4710,15 +4749,15 @@
         <v>180</v>
       </c>
       <c r="Q83" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="16">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F84" s="16"/>
       <c r="H84" s="6" t="s">
@@ -4737,15 +4776,15 @@
         <v>180</v>
       </c>
       <c r="Q84" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="16">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F85" s="16"/>
       <c r="H85" s="6" t="s">
@@ -4764,15 +4803,15 @@
         <v>180</v>
       </c>
       <c r="Q85" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="16">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F86" s="16"/>
       <c r="H86" s="6" t="s">
@@ -4781,8 +4820,8 @@
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="28">
-        <v>20001005</v>
+      <c r="L86" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>194</v>
@@ -4791,10 +4830,36 @@
         <v>180</v>
       </c>
       <c r="Q86" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="16">
+        <v>20099006</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="H87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L87" s="28">
+        <v>20001005</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N87" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q87" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4813,6 +4878,7 @@
     <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CD1B33-135B-456F-8F4A-A711342A7B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFC730-641C-4EFD-95E3-950122ED2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="615" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="302">
   <si>
     <t>#</t>
   </si>
@@ -1465,18 +1465,6 @@
     <t>20000004</t>
   </si>
   <si>
-    <t>-400,-9,2206</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1269,-9,-1922</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2342,-9,-2109</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000005</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1500,10 +1488,6 @@
     <t>20000006</t>
   </si>
   <si>
-    <t>2458,-9,-1651</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>快来看看有没有你的邮件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1540,10 +1524,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1882,-9,1050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1931,-9,2043</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1581,10 +1561,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3911,-9,164</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000011</t>
   </si>
   <si>
@@ -1592,10 +1568,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-1935,-9,-173</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>裁缝大师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1638,18 +1610,6 @@
     <t>20000014</t>
   </si>
   <si>
-    <t>2805,-9,1451</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-643,-9,1598</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1647,-9,-946</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000012</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1665,10 +1625,6 @@
     <t>20000015</t>
   </si>
   <si>
-    <t>-1383,-9,1550</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_CangKu</t>
   </si>
   <si>
@@ -1690,10 +1646,6 @@
     <t>NPC_ZhuanZhi</t>
   </si>
   <si>
-    <t>735,-9,-1250</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>补偿大师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1703,6 +1655,66 @@
   </si>
   <si>
     <t>20000016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1394,-29,4347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5671,-96,2162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5663,-75,2965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>882,374,6308</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3849,-442,1527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4963,357,4965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1305,345,6417</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3095,-420,-5199</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5266,-250,-3636</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5523,-247,-318</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987,-428,1137</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506,-31,3674</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4288,606,4787</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1887,7 +1899,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1920,13 +1932,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1962,18 +1971,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2287,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X106"/>
+  <dimension ref="C1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2300,7 +2297,7 @@
     <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="6" customWidth="1"/>
     <col min="9" max="10" width="10.875" style="6" customWidth="1"/>
@@ -2312,11 +2309,11 @@
     <col min="16" max="16" width="9" style="8" customWidth="1"/>
     <col min="17" max="17" width="35.625" style="8" customWidth="1"/>
     <col min="18" max="19" width="9" style="8"/>
-    <col min="20" max="20" width="14.125" style="12" customWidth="1"/>
-    <col min="21" max="21" width="14" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="9" style="12"/>
+    <col min="20" max="20" width="14.125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="14" style="3" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.875" style="3" customWidth="1"/>
+    <col min="24" max="24" width="9" style="3"/>
     <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2336,7 +2333,7 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2378,19 +2375,19 @@
       <c r="S3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="13" t="s">
+      <c r="X3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2402,7 +2399,7 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -2444,19 +2441,19 @@
       <c r="S4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="W4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2468,7 +2465,7 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2510,30 +2507,30 @@
       <c r="S5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>10001101</v>
       </c>
       <c r="G6" s="1">
@@ -2545,25 +2542,25 @@
       <c r="I6" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="15">
         <v>20001001</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>237</v>
+      <c r="M6" s="17" t="s">
+        <v>290</v>
       </c>
       <c r="N6" s="3">
-        <v>-50</v>
-      </c>
-      <c r="Q6" s="16"/>
+        <v>-90</v>
+      </c>
+      <c r="Q6" s="15"/>
     </row>
     <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>10001201</v>
       </c>
       <c r="G7" s="1">
@@ -2575,25 +2572,25 @@
       <c r="I7" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="15">
         <v>20001002</v>
       </c>
-      <c r="M7" s="18" t="s">
-        <v>236</v>
+      <c r="M7" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="N7" s="3">
-        <v>-340</v>
-      </c>
-      <c r="Q7" s="16"/>
+        <v>-280</v>
+      </c>
+      <c r="Q7" s="15"/>
     </row>
     <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1">
         <v>1004</v>
       </c>
@@ -2603,25 +2600,25 @@
       <c r="I8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>295</v>
+      <c r="L8" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="N8" s="3">
         <v>-180</v>
       </c>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="1">
         <v>1015</v>
       </c>
@@ -2631,25 +2628,25 @@
       <c r="I9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="15">
         <v>20001024</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-280</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="N9" s="3">
-        <v>-223</v>
-      </c>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="E10" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="15"/>
       <c r="G10" s="1">
         <v>1017</v>
       </c>
@@ -2659,27 +2656,26 @@
       <c r="I10" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="15">
         <v>20001007</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>240</v>
+      <c r="M10" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="N10" s="3">
         <v>-180</v>
       </c>
-      <c r="Q10" s="16" t="s">
-        <v>246</v>
+      <c r="Q10" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="15" t="s">
-        <v>243</v>
+      <c r="C11" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>238</v>
+      </c>
       <c r="G11" s="1">
         <v>1005</v>
       </c>
@@ -2690,33 +2686,28 @@
         <v>181</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>300</v>
       </c>
       <c r="N11" s="1">
-        <v>-450</v>
+        <v>-180</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F12" s="16"/>
+      <c r="C12" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="1">
         <v>1018</v>
       </c>
@@ -2726,27 +2717,27 @@
       <c r="I12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="15">
         <v>20001024</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>255</v>
+      <c r="M12" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="N12" s="3">
         <v>-90</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="1">
         <v>1019</v>
       </c>
@@ -2756,27 +2747,27 @@
       <c r="I13" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="15">
         <v>20001024</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>253</v>
+      <c r="M13" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="N13" s="3">
         <v>90</v>
       </c>
-      <c r="Q13" s="16" t="s">
-        <v>246</v>
+      <c r="Q13" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="16"/>
+      <c r="C14" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="15"/>
       <c r="G14" s="1">
         <v>1016</v>
       </c>
@@ -2786,27 +2777,27 @@
       <c r="I14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>254</v>
+      <c r="L14" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="N14" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>246</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="16"/>
+      <c r="C15" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="1">
         <v>1020</v>
       </c>
@@ -2816,27 +2807,27 @@
       <c r="I15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>265</v>
+      <c r="L15" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="N15" s="3">
-        <v>-50</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>264</v>
+        <v>-270</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="F16" s="16"/>
+      <c r="C16" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="1">
         <v>1021</v>
       </c>
@@ -2846,26 +2837,26 @@
       <c r="I16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>268</v>
+      <c r="L16" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>297</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="15" t="s">
-        <v>283</v>
+      <c r="C17" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G17" s="1">
         <v>1007</v>
@@ -2876,33 +2867,28 @@
       <c r="I17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M17" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="M17" s="32" t="s">
-        <v>282</v>
-      </c>
       <c r="N17" s="3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G18" s="1">
         <v>1006</v>
@@ -2913,33 +2899,28 @@
       <c r="I18" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="M18" s="32" t="s">
-        <v>281</v>
+      <c r="L18" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>301</v>
       </c>
       <c r="N18" s="3">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="15" t="s">
-        <v>279</v>
+      <c r="C19" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G19" s="1">
         <v>1008</v>
@@ -2950,32 +2931,26 @@
       <c r="I19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>280</v>
+      <c r="L19" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>292</v>
       </c>
       <c r="N19" s="3">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
+        <v>270</v>
+      </c>
     </row>
     <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
-        <v>286</v>
+      <c r="C20" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>274</v>
+      </c>
       <c r="G20" s="1">
         <v>1002</v>
       </c>
@@ -2985,32 +2960,26 @@
       <c r="I20" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>287</v>
+      <c r="L20" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>296</v>
       </c>
       <c r="N20" s="3">
-        <v>-172</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="15" t="s">
-        <v>298</v>
+      <c r="C21" s="14" t="s">
+        <v>286</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>284</v>
+      </c>
       <c r="G21" s="1">
         <v>1022</v>
       </c>
@@ -3020,61 +2989,55 @@
       <c r="I21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L21" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>297</v>
+      <c r="L21" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>285</v>
       </c>
       <c r="N21" s="3">
         <v>145</v>
       </c>
       <c r="Q21" s="11"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
     </row>
     <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1002</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="N22" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="N22" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="16">
-        <v>10001201</v>
       </c>
       <c r="G23" s="1">
         <v>1009</v>
@@ -3085,662 +3048,662 @@
       <c r="I23" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N23" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14">
         <v>20001002</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="E24" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N24" s="3">
         <v>-45</v>
       </c>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="16">
-        <v>20001003</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="H24" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="28">
-        <v>20001003</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N24" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="H25" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N25" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14">
         <v>20001004</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="H25" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="28">
+      <c r="F26" s="15"/>
+      <c r="H26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="15">
         <v>20001004</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="M26" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="3">
         <v>90</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q26" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="16">
+    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="15">
         <v>20001005</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="28">
+      <c r="F27" s="15"/>
+      <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="15">
         <v>20001005</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <v>-45</v>
       </c>
-      <c r="Q26" s="17" t="s">
+      <c r="Q27" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="16">
+    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="15">
         <v>20001006</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="H27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="28">
+      <c r="F28" s="15"/>
+      <c r="H28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="15">
         <v>20001006</v>
       </c>
-      <c r="M27" s="18" t="s">
+      <c r="M28" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N28" s="3">
         <v>45</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q28" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="16">
+    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="15">
         <v>20001007</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="H28" s="6" t="s">
+      <c r="F29" s="15"/>
+      <c r="H29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="28">
+      <c r="I29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="15">
         <v>20001007</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M29" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <v>150</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="Q29" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="16">
+    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="15">
         <v>20001008</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="H29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="28">
+      <c r="F30" s="15"/>
+      <c r="H30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30" s="15">
         <v>20001008</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M30" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N30" s="3">
         <v>-155</v>
       </c>
-      <c r="Q29" s="17" t="s">
+      <c r="Q30" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="16">
+    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="15">
         <v>20001009</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="H30" s="6" t="s">
+      <c r="F31" s="15"/>
+      <c r="H31" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="28">
+      <c r="I31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" s="15">
         <v>20001009</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="N30" s="3">
+      <c r="M31" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="N31" s="3">
         <v>35</v>
       </c>
-      <c r="Q30" s="17" t="s">
+      <c r="Q31" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="3:24" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="19">
+    <row r="32" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="18">
         <v>20001010</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="J31" s="23"/>
-      <c r="L31" s="29">
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="L32" s="20">
         <v>20001010</v>
       </c>
-      <c r="M31" s="20" t="s">
+      <c r="M32" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N32" s="19">
         <v>180</v>
       </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26" t="s">
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-    </row>
-    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="16">
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+    </row>
+    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="15">
         <v>20001011</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="H32" s="6" t="s">
+      <c r="F33" s="15"/>
+      <c r="H33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="28">
+      <c r="I33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" s="15">
         <v>20001011</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="M33" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N33" s="3">
         <v>-180</v>
       </c>
-      <c r="Q32" s="17" t="s">
+      <c r="Q33" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="16">
+    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="15">
         <v>20001012</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="H33" s="6" t="s">
+      <c r="F34" s="15"/>
+      <c r="H34" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="28">
+      <c r="I34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="15">
         <v>20001012</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N34" s="3">
         <v>80</v>
       </c>
-      <c r="Q33" s="17" t="s">
+      <c r="Q34" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="16">
+    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="15">
         <v>20001013</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="H34" s="6" t="s">
+      <c r="F35" s="15"/>
+      <c r="H35" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="28">
+      <c r="I35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="15">
         <v>20001013</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M35" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="N34" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="16">
-        <v>20001014</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="H35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="28">
-        <v>20001014</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="N35" s="3">
         <v>180</v>
       </c>
-      <c r="Q35" s="17" t="s">
+      <c r="Q35" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="15">
+        <v>20001014</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="H36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="15">
+        <v>20001014</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N36" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q36" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="16">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="15">
         <v>20001015</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="H36" s="6" t="s">
+      <c r="F37" s="15"/>
+      <c r="H37" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="28">
+      <c r="I37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="15">
         <v>20001015</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N37" s="3">
         <v>128</v>
       </c>
-      <c r="Q36" s="17" t="s">
+      <c r="Q37" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="16">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="15">
         <v>20001016</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="H37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="28">
+      <c r="F38" s="15"/>
+      <c r="H38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" s="15">
         <v>20001016</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N38" s="3">
         <v>180</v>
       </c>
-      <c r="Q37" s="17" t="s">
+      <c r="Q38" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="16">
+    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="15">
         <v>20001017</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="H38" s="6" t="s">
+      <c r="F39" s="15"/>
+      <c r="H39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L38" s="28">
+      <c r="I39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="15">
         <v>20001017</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N39" s="3">
         <v>120</v>
       </c>
-      <c r="Q38" s="17" t="s">
+      <c r="Q39" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="16">
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="15">
         <v>20001018</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="H39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="L39" s="30">
+      <c r="F40" s="15"/>
+      <c r="H40" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="L40" s="11">
         <v>0</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N40" s="3">
         <v>180</v>
       </c>
-      <c r="Q39" s="17" t="s">
+      <c r="Q40" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="16">
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="15">
         <v>20001019</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="H40" s="6" t="s">
+      <c r="F41" s="15"/>
+      <c r="H41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L40" s="28">
+      <c r="I41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41" s="15">
         <v>20001019</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <v>-180</v>
       </c>
-      <c r="Q40" s="17" t="s">
+      <c r="Q41" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="16">
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="15">
         <v>20001020</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="H41" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L41" s="28">
+      <c r="F42" s="15"/>
+      <c r="H42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="15">
         <v>20001019</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <v>180</v>
       </c>
-      <c r="Q41" s="17" t="s">
+      <c r="Q42" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="16">
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="15">
         <v>20001021</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="H42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L42" s="28">
+      <c r="F43" s="15"/>
+      <c r="H43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="15">
         <v>20001021</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="3">
         <v>-180</v>
       </c>
-      <c r="Q42" s="17" t="s">
+      <c r="Q43" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="16">
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15">
         <v>20001022</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="H43" s="6" t="s">
+      <c r="F44" s="15"/>
+      <c r="H44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="28">
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="15">
         <v>20001022</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N44" s="3">
         <v>-106</v>
       </c>
-      <c r="Q43" s="17" t="s">
+      <c r="Q44" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="16">
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="15">
         <v>20001023</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="1">
+      <c r="F45" s="15"/>
+      <c r="G45" s="1">
         <v>1004</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="28">
+      <c r="H45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="15">
         <v>20001023</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N45" s="3">
         <v>180</v>
       </c>
-      <c r="Q44" s="16"/>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="16">
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="15">
         <v>20001024</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="H45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45" s="28">
+      <c r="F46" s="15"/>
+      <c r="H46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="15">
         <v>20001024</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N46" s="3">
         <v>-152</v>
       </c>
-      <c r="Q45" s="16"/>
-    </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="15" t="s">
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="15">
         <v>10002101</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L46" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-147</v>
-      </c>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="16">
-        <v>10002201</v>
       </c>
       <c r="G47" s="1">
         <v>1009</v>
@@ -3751,167 +3714,170 @@
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-147</v>
+      </c>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="15">
         <v>20001002</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <v>-129</v>
       </c>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="15" t="s">
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="H48" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="11">
+      <c r="F49" s="15"/>
+      <c r="H49" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="11">
         <v>20001007</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>-131</v>
       </c>
-      <c r="Q48" s="17" t="s">
+      <c r="Q49" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="15" t="s">
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="H49" s="6" t="s">
+      <c r="F50" s="15"/>
+      <c r="H50" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="28">
+      <c r="I50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" s="15">
         <v>20001005</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="N49" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F50" s="16"/>
-      <c r="H50" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50" s="11">
-        <v>20001009</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="N50" s="3">
         <v>180</v>
       </c>
-      <c r="Q50" s="17" t="s">
+      <c r="Q50" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="16"/>
+      <c r="C51" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="28">
-        <v>20001005</v>
+      <c r="L51" s="11">
+        <v>20001009</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N51" s="3">
         <v>180</v>
       </c>
-      <c r="Q51" s="17" t="s">
+      <c r="Q51" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="16"/>
+      <c r="C52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L52" s="15">
         <v>20001005</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N52" s="3">
         <v>180</v>
       </c>
-      <c r="Q52" s="17" t="s">
-        <v>133</v>
+      <c r="Q52" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="16" t="s">
+      <c r="C53" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="16"/>
+      <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="28">
+      <c r="L53" s="15">
         <v>20001005</v>
       </c>
       <c r="M53" s="3" t="s">
@@ -3920,76 +3886,73 @@
       <c r="N53" s="3">
         <v>180</v>
       </c>
-      <c r="Q53" s="17" t="s">
+      <c r="Q53" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="H54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N54" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q54" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="15" t="s">
+    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="H54" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L54" s="11">
+      <c r="F55" s="15"/>
+      <c r="H55" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L55" s="11">
         <v>20001017</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M55" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N55" s="3">
         <v>27</v>
       </c>
-      <c r="Q54" s="17" t="s">
+      <c r="Q55" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="15" t="s">
+    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F56" s="15">
         <v>10003101</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L55" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N55" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q55" s="16"/>
-    </row>
-    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="16">
-        <v>10003201</v>
       </c>
       <c r="G56" s="1">
         <v>1009</v>
@@ -4000,167 +3963,170 @@
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="28">
+      <c r="L56" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N56" s="3">
+        <v>123</v>
+      </c>
+      <c r="Q56" s="15"/>
+    </row>
+    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L57" s="15">
         <v>20001002</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M57" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N57" s="3">
         <v>45</v>
       </c>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="15" t="s">
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="H57" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L57" s="11">
+      <c r="F58" s="15"/>
+      <c r="H58" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L58" s="11">
         <v>20001007</v>
       </c>
-      <c r="M57" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N58" s="3">
         <v>90</v>
       </c>
-      <c r="Q57" s="17" t="s">
+      <c r="Q58" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="15" t="s">
+    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="H58" s="6" t="s">
+      <c r="F59" s="15"/>
+      <c r="H59" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L58" s="11">
+      <c r="I59" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L59" s="11">
         <v>20001011</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M59" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N59" s="3">
         <v>180</v>
       </c>
-      <c r="Q58" s="17" t="s">
+      <c r="Q59" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="15" t="s">
+    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="H59" s="6" t="s">
+      <c r="F60" s="15"/>
+      <c r="H60" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L59" s="11">
+      <c r="I60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" s="11">
         <v>20001017</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M60" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N60" s="3">
         <v>95</v>
       </c>
-      <c r="Q59" s="17" t="s">
+      <c r="Q60" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="15" t="s">
+    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="H60" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L60" s="28">
+      <c r="F61" s="15"/>
+      <c r="H61" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" s="15">
         <v>20001005</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N61" s="3">
         <v>-70</v>
       </c>
-      <c r="Q60" s="17" t="s">
+      <c r="Q61" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="15" t="s">
+    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="H61" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="28">
-        <v>20001005</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N61" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q61" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="16"/>
+      <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="28">
+      <c r="L62" s="15">
         <v>20001005</v>
       </c>
       <c r="M62" s="3" t="s">
@@ -4169,103 +4135,100 @@
       <c r="N62" s="3">
         <v>180</v>
       </c>
-      <c r="Q62" s="17" t="s">
+      <c r="Q62" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="H63" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L63" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N63" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q63" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="15" t="s">
+    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="16"/>
-      <c r="H63" s="6" t="s">
+      <c r="F64" s="15"/>
+      <c r="H64" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L63" s="28">
+      <c r="I64" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L64" s="15">
         <v>20001008</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="N63" s="3">
+      <c r="M64" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N64" s="3">
         <v>-70</v>
       </c>
-      <c r="Q63" s="17" t="s">
+      <c r="Q64" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="15" t="s">
+    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E65" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="H64" s="6" t="s">
+      <c r="F65" s="15"/>
+      <c r="H65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L64" s="11">
+      <c r="I65" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L65" s="11">
         <v>20001011</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M65" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N65" s="3">
         <v>-180</v>
       </c>
-      <c r="Q64" s="17" t="s">
+      <c r="Q65" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="15" t="s">
+    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F66" s="15">
         <v>10004101</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L65" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="N65" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q65" s="16"/>
-    </row>
-    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="16">
-        <v>10004201</v>
       </c>
       <c r="G66" s="1">
         <v>1009</v>
@@ -4276,140 +4239,143 @@
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="28">
+      <c r="L66" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N66" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L67" s="15">
         <v>20001002</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="M67" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N67" s="3">
         <v>-41</v>
       </c>
-      <c r="Q66" s="16"/>
-    </row>
-    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="15" t="s">
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E68" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F67" s="16"/>
-      <c r="H67" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L67" s="11">
+      <c r="F68" s="15"/>
+      <c r="H68" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L68" s="11">
         <v>20001007</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="M68" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="Q67" s="17" t="s">
+      <c r="Q68" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="15" t="s">
+    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E69" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="H68" s="6" t="s">
+      <c r="F69" s="15"/>
+      <c r="H69" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L68" s="11">
+      <c r="I69" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L69" s="11">
         <v>20001017</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M69" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N69" s="3">
         <v>101</v>
       </c>
-      <c r="Q68" s="17" t="s">
+      <c r="Q69" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="15" t="s">
+    <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E70" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="H69" s="6" t="s">
+      <c r="F70" s="15"/>
+      <c r="H70" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L69" s="11">
+      <c r="I70" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L70" s="11">
         <v>20001013</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M70" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N70" s="3">
         <v>-3</v>
       </c>
-      <c r="Q69" s="17" t="s">
+      <c r="Q70" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="15" t="s">
+    <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="H70" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L70" s="28">
-        <v>20001005</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N70" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q70" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="16"/>
+      <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="28">
+      <c r="L71" s="15">
         <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
@@ -4418,47 +4384,47 @@
       <c r="N71" s="3">
         <v>180</v>
       </c>
-      <c r="Q71" s="17" t="s">
+      <c r="Q71" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="15"/>
+      <c r="H72" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L72" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N72" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q72" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="15" t="s">
+    <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E73" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="H72" s="6" t="s">
+      <c r="F73" s="15"/>
+      <c r="H73" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L72" s="11">
-        <v>20001015</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q72" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="H73" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
@@ -4467,54 +4433,51 @@
         <v>20001015</v>
       </c>
       <c r="M73" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="N73" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="H74" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L74" s="11">
+        <v>20001015</v>
+      </c>
+      <c r="M74" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N74" s="3">
         <v>83</v>
       </c>
-      <c r="Q73" s="17" t="s">
+      <c r="Q74" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="15" t="s">
+    <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E75" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="15">
         <v>10005101</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L74" s="28">
-        <v>20001001</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="N74" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q74" s="16"/>
-    </row>
-    <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F75" s="16">
-        <v>10005201</v>
       </c>
       <c r="G75" s="1">
         <v>1009</v>
@@ -4525,167 +4488,170 @@
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="28">
+      <c r="L75" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N75" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q75" s="15"/>
+    </row>
+    <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L76" s="15">
         <v>20001002</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N76" s="3">
         <v>-44</v>
       </c>
-      <c r="Q75" s="16"/>
-    </row>
-    <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="15" t="s">
+      <c r="Q76" s="15"/>
+    </row>
+    <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E77" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="H76" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L76" s="28">
+      <c r="F77" s="15"/>
+      <c r="H77" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L77" s="15">
         <v>20001003</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N77" s="3">
         <v>180</v>
       </c>
-      <c r="Q76" s="17" t="s">
+      <c r="Q77" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="15" t="s">
+    <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E78" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="H77" s="6" t="s">
+      <c r="F78" s="15"/>
+      <c r="H78" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L77" s="11">
+      <c r="I78" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L78" s="11">
         <v>20001012</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M78" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N78" s="3">
         <v>92</v>
       </c>
-      <c r="Q77" s="17" t="s">
+      <c r="Q78" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="15" t="s">
+    <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E79" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="H78" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L78" s="11">
+      <c r="F79" s="15"/>
+      <c r="H79" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L79" s="11">
         <v>20001015</v>
       </c>
-      <c r="M78" s="3" t="s">
+      <c r="M79" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N79" s="3">
         <v>180</v>
       </c>
-      <c r="Q78" s="17" t="s">
+      <c r="Q79" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="15" t="s">
+    <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E80" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="H79" s="6" t="s">
+      <c r="F80" s="15"/>
+      <c r="H80" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L79" s="11">
+      <c r="I80" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L80" s="11">
         <v>20001013</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M80" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N80" s="3">
         <v>145</v>
       </c>
-      <c r="Q79" s="17" t="s">
+      <c r="Q80" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="15" t="s">
+    <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E81" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="H80" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L80" s="28">
-        <v>20001005</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N80" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q80" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F81" s="16"/>
+      <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="28">
+      <c r="L81" s="15">
         <v>20001005</v>
       </c>
       <c r="M81" s="3" t="s">
@@ -4694,26 +4660,26 @@
       <c r="N81" s="3">
         <v>180</v>
       </c>
-      <c r="Q81" s="17" t="s">
-        <v>134</v>
+      <c r="Q81" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="16">
-        <v>20099001</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F82" s="16"/>
+      <c r="C82" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="11" t="s">
-        <v>47</v>
+      <c r="L82" s="15">
+        <v>20001005</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>194</v>
@@ -4721,18 +4687,18 @@
       <c r="N82" s="3">
         <v>180</v>
       </c>
-      <c r="Q82" s="17" t="s">
-        <v>149</v>
+      <c r="Q82" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="16">
-        <v>20099002</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="16"/>
+      <c r="C83" s="15">
+        <v>20099001</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
         <v>157</v>
       </c>
@@ -4748,18 +4714,18 @@
       <c r="N83" s="3">
         <v>180</v>
       </c>
-      <c r="Q83" s="17" t="s">
-        <v>150</v>
+      <c r="Q83" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="16">
-        <v>20099003</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="16"/>
+      <c r="C84" s="15">
+        <v>20099002</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
         <v>157</v>
       </c>
@@ -4775,18 +4741,18 @@
       <c r="N84" s="3">
         <v>180</v>
       </c>
-      <c r="Q84" s="17" t="s">
-        <v>151</v>
+      <c r="Q84" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="16">
-        <v>20099004</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F85" s="16"/>
+      <c r="C85" s="15">
+        <v>20099003</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
         <v>157</v>
       </c>
@@ -4802,18 +4768,18 @@
       <c r="N85" s="3">
         <v>180</v>
       </c>
-      <c r="Q85" s="17" t="s">
-        <v>152</v>
+      <c r="Q85" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="16">
-        <v>20099005</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="16"/>
+      <c r="C86" s="15">
+        <v>20099004</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
         <v>157</v>
       </c>
@@ -4829,26 +4795,26 @@
       <c r="N86" s="3">
         <v>180</v>
       </c>
-      <c r="Q86" s="17" t="s">
-        <v>153</v>
+      <c r="Q86" s="16" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="16">
-        <v>20099006</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F87" s="16"/>
+      <c r="C87" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="28">
-        <v>20001005</v>
+      <c r="L87" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>194</v>
@@ -4856,11 +4822,37 @@
       <c r="N87" s="3">
         <v>180</v>
       </c>
-      <c r="Q87" s="17" t="s">
+      <c r="Q87" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="15"/>
+      <c r="H88" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L88" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N88" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q88" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4879,6 +4871,7 @@
     <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFC730-641C-4EFD-95E3-950122ED2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501335A-4312-4F75-9514-E60167F48599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29625" yWindow="615" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1646,14 +1646,6 @@
     <t>NPC_ZhuanZhi</t>
   </si>
   <si>
-    <t>补偿大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2239,0,318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000016</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1715,6 +1707,14 @@
   </si>
   <si>
     <t>-4288,606,4787</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大使</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1415,-404,-1472</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2287,7 +2287,7 @@
   <dimension ref="C1:X107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2546,7 +2546,7 @@
         <v>20001001</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="N6" s="3">
         <v>-90</v>
@@ -2576,7 +2576,7 @@
         <v>20001002</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N7" s="3">
         <v>-280</v>
@@ -2604,7 +2604,7 @@
         <v>277</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N8" s="3">
         <v>-180</v>
@@ -2632,7 +2632,7 @@
         <v>20001024</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N9" s="3">
         <v>-280</v>
@@ -2689,7 +2689,7 @@
         <v>239</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="N11" s="1">
         <v>-180</v>
@@ -2781,7 +2781,7 @@
         <v>251</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>280</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="N15" s="3">
         <v>-270</v>
@@ -2841,7 +2841,7 @@
         <v>281</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N16" s="3">
         <v>45</v>
@@ -2871,7 +2871,7 @@
         <v>282</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N17" s="3">
         <v>90</v>
@@ -2903,7 +2903,7 @@
         <v>278</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N18" s="3">
         <v>90</v>
@@ -2935,7 +2935,7 @@
         <v>279</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N19" s="3">
         <v>125</v>
@@ -2964,7 +2964,7 @@
         <v>283</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -2975,10 +2975,10 @@
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G21" s="1">
         <v>1022</v>
@@ -2993,19 +2993,19 @@
         <v>283</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="N21" s="3">
-        <v>145</v>
+        <v>-90</v>
       </c>
       <c r="Q21" s="11"/>
     </row>
     <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>1002</v>
@@ -3020,7 +3020,7 @@
         <v>283</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="N22" s="3">
         <v>180</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E501335A-4312-4F75-9514-E60167F48599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7735302-DC0B-4B65-BC0E-681DB1E022DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="615" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="307">
   <si>
     <t>#</t>
   </si>
@@ -1715,6 +1715,26 @@
   </si>
   <si>
     <t>-1415,-404,-1472</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城卫队长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城弓手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2284,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X107"/>
+  <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2524,18 +2544,13 @@
       </c>
     </row>
     <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>231</v>
+      <c r="C6" s="15">
+        <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="15">
-        <v>10001101</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1009</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="H6" s="6" t="s">
         <v>157</v>
       </c>
@@ -2543,29 +2558,24 @@
         <v>181</v>
       </c>
       <c r="L6" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>-90</v>
-      </c>
-      <c r="Q6" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>232</v>
+      <c r="C7" s="15">
+        <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1009</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F7" s="15"/>
       <c r="H7" s="6" t="s">
         <v>157</v>
       </c>
@@ -2573,55 +2583,49 @@
         <v>181</v>
       </c>
       <c r="L7" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>286</v>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-280</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14" t="s">
-        <v>233</v>
+      <c r="C8" s="15">
+        <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="1">
-        <v>1004</v>
-      </c>
       <c r="H8" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>285</v>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q8" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>234</v>
+      <c r="C9" s="15">
+        <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="1">
-        <v>1015</v>
-      </c>
       <c r="H9" s="6" t="s">
         <v>157</v>
       </c>
@@ -2629,26 +2633,33 @@
         <v>181</v>
       </c>
       <c r="L9" s="15">
-        <v>20001024</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>287</v>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-280</v>
-      </c>
-      <c r="Q9" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10001101</v>
+      </c>
       <c r="G10" s="1">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>157</v>
@@ -2657,27 +2668,28 @@
         <v>181</v>
       </c>
       <c r="L10" s="15">
-        <v>20001007</v>
+        <v>20001001</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="N10" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-90</v>
+      </c>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10001201</v>
       </c>
       <c r="G11" s="1">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>157</v>
@@ -2685,31 +2697,27 @@
       <c r="I11" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-180</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="11" t="s">
-        <v>241</v>
-      </c>
+      <c r="L11" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-280</v>
+      </c>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>157</v>
@@ -2717,29 +2725,27 @@
       <c r="I12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L12" s="15">
-        <v>20001024</v>
+      <c r="L12" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N12" s="3">
-        <v>-90</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-180</v>
+      </c>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="1">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>157</v>
@@ -2751,25 +2757,23 @@
         <v>20001024</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="N13" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-280</v>
+      </c>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>157</v>
@@ -2777,14 +2781,14 @@
       <c r="I14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="15" t="s">
-        <v>251</v>
+      <c r="L14" s="15">
+        <v>20001007</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="Q14" s="15" t="s">
         <v>242</v>
@@ -2792,44 +2796,45 @@
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="G15" s="1">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-270</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>259</v>
+      <c r="L15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="N15" s="1">
+        <v>-180</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="1">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>157</v>
@@ -2837,29 +2842,29 @@
       <c r="I16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>281</v>
+      <c r="L16" s="15">
+        <v>20001024</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="N16" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-90</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="1">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>157</v>
@@ -2867,369 +2872,381 @@
       <c r="I17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>291</v>
+      <c r="L17" s="15">
+        <v>20001024</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="N17" s="3">
         <v>90</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1">
+        <v>1020</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-270</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1">
+        <v>1021</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N20" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1007</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="N21" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="1">
         <v>1006</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="15" t="s">
+      <c r="H22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M22" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N22" s="3">
         <v>90</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q22" s="11" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
+    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="1">
         <v>1008</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="H23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M23" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N23" s="3">
         <v>125</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q23" s="11" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
+    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G24" s="1">
         <v>1002</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="H24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M24" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q24" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="14" t="s">
+    <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G25" s="1">
         <v>1022</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="H25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M25" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N25" s="3">
         <v>-90</v>
       </c>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="14" t="s">
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G26" s="1">
         <v>1002</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="15" t="s">
+      <c r="H26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M26" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N26" s="3">
         <v>180</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
+    <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F27" s="15">
         <v>10001101</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G27" s="1">
         <v>1009</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="15">
         <v>20001001</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N27" s="3">
         <v>60</v>
       </c>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14">
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14">
         <v>20001002</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F28" s="15">
         <v>10001201</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G28" s="1">
         <v>1009</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="H28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="15">
         <v>20001002</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N28" s="3">
         <v>-45</v>
       </c>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="15">
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="15">
         <v>20001003</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="H25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N25" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="15">
-        <v>20001004</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N26" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="H27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="H28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="F29" s="15"/>
       <c r="H29" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L29" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>190</v>
+        <v>20001003</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N29" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="15">
-        <v>20001008</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14">
+        <v>20001004</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F30" s="15"/>
       <c r="H30" s="6" t="s">
@@ -3239,334 +3256,333 @@
         <v>181</v>
       </c>
       <c r="L30" s="15">
-        <v>20001008</v>
+        <v>20001004</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N30" s="3">
-        <v>-155</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="15">
-        <v>20001009</v>
+        <v>20001005</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15"/>
       <c r="H31" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L31" s="15">
-        <v>20001009</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>252</v>
+        <v>20001005</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N31" s="3">
-        <v>35</v>
+        <v>-45</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="18">
-        <v>20001010</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="L32" s="20">
-        <v>20001010</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N32" s="19">
-        <v>180</v>
-      </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-    </row>
-    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="15">
+        <v>20001006</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="H32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="15">
+        <v>20001006</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="15">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F33" s="15"/>
       <c r="H33" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>192</v>
+        <v>20001007</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="N33" s="3">
-        <v>-180</v>
+        <v>150</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="15">
-        <v>20001012</v>
+        <v>20001008</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>195</v>
+        <v>20001008</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="N34" s="3">
-        <v>80</v>
+        <v>-155</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="15">
-        <v>20001013</v>
+        <v>20001009</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F35" s="15"/>
       <c r="H35" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001013</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>196</v>
+        <v>20001009</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="N35" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="18">
+        <v>20001010</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="L36" s="20">
+        <v>20001010</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q35" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15">
-        <v>20001014</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="H36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="15">
-        <v>20001014</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="N36" s="19">
         <v>180</v>
       </c>
-      <c r="Q36" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="15">
-        <v>20001015</v>
+        <v>20001011</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="15">
-        <v>20001015</v>
+        <v>20001011</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N37" s="3">
-        <v>128</v>
+        <v>-180</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001016</v>
+        <v>20001012</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001016</v>
+        <v>20001012</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N38" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001017</v>
+        <v>20001013</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001017</v>
+        <v>20001013</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N39" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001018</v>
+        <v>20001014</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="L40" s="11">
-        <v>0</v>
+      <c r="L40" s="15">
+        <v>20001014</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N40" s="3">
         <v>180</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001019</v>
+        <v>20001015</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001019</v>
+        <v>20001015</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N41" s="3">
-        <v>-180</v>
+        <v>128</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001020</v>
+        <v>20001016</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
@@ -3576,7 +3592,7 @@
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001019</v>
+        <v>20001016</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>194</v>
@@ -3585,97 +3601,97 @@
         <v>180</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001021</v>
+        <v>20001017</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001021</v>
+        <v>20001017</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N43" s="3">
-        <v>-180</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001022</v>
+        <v>20001018</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="15">
-        <v>20001022</v>
+      <c r="J44" s="1"/>
+      <c r="L44" s="11">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N44" s="3">
-        <v>-106</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="1">
-        <v>1004</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q45" s="15"/>
-    </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-180</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001024</v>
+        <v>20001020</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
@@ -3685,221 +3701,222 @@
         <v>181</v>
       </c>
       <c r="L46" s="15">
+        <v>20001019</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N46" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="15">
+        <v>20001021</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="H47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="15">
+        <v>20001021</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="H48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-106</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N49" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="15">
         <v>20001024</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q46" s="15"/>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" s="3">
-        <v>-147</v>
-      </c>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="15">
-        <v>10002201</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N48" s="3">
-        <v>-129</v>
-      </c>
-      <c r="Q48" s="15"/>
-    </row>
-    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="H49" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="11">
-        <v>20001007</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N49" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="E50" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001005</v>
+        <v>20001024</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-152</v>
+      </c>
+      <c r="Q50" s="15"/>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F51" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1009</v>
+      </c>
       <c r="H51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="11">
-        <v>20001009</v>
+      <c r="L51" s="15">
+        <v>20001001</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N51" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-147</v>
+      </c>
+      <c r="Q51" s="15"/>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F52" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1009</v>
+      </c>
       <c r="H52" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q52" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q52" s="15"/>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="15">
-        <v>20001005</v>
+      <c r="L53" s="11">
+        <v>20001007</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
@@ -3908,85 +3925,77 @@
         <v>20001005</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="N54" s="3">
         <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="11">
-        <v>20001017</v>
+        <v>20001009</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N55" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1009</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N56" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q56" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
         <v>157</v>
       </c>
@@ -3994,105 +4003,115 @@
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="N57" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q57" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="11">
-        <v>20001007</v>
+      <c r="L58" s="15">
+        <v>20001005</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="N58" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="11">
-        <v>20001011</v>
+        <v>20001017</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1009</v>
+      </c>
       <c r="H60" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="11">
-        <v>20001017</v>
+      <c r="L60" s="15">
+        <v>20001001</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N60" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F61" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1009</v>
+      </c>
       <c r="H61" s="6" t="s">
         <v>157</v>
       </c>
@@ -4100,139 +4119,132 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N61" s="3">
-        <v>-70</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001005</v>
+      <c r="L62" s="11">
+        <v>20001007</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="15">
-        <v>20001005</v>
+      <c r="L63" s="11">
+        <v>20001011</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="N63" s="3">
         <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="15">
-        <v>20001008</v>
+      <c r="L64" s="11">
+        <v>20001017</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="N64" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="11">
-        <v>20001011</v>
+      <c r="L65" s="15">
+        <v>20001005</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N65" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
         <v>157</v>
       </c>
@@ -4240,29 +4252,26 @@
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="N66" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
         <v>157</v>
       </c>
@@ -4270,105 +4279,115 @@
         <v>181</v>
       </c>
       <c r="L67" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="N67" s="3">
-        <v>-41</v>
-      </c>
-      <c r="Q67" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001007</v>
+      <c r="L68" s="15">
+        <v>20001008</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="N68" s="3">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L69" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N69" s="3">
-        <v>101</v>
+        <v>-180</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F70" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1009</v>
+      </c>
       <c r="H70" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001013</v>
+      <c r="L70" s="15">
+        <v>20001001</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N70" s="3">
-        <v>-3</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F71" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1009</v>
+      </c>
       <c r="H71" s="6" t="s">
         <v>157</v>
       </c>
@@ -4376,112 +4395,105 @@
         <v>181</v>
       </c>
       <c r="L71" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="N71" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q71" s="16" t="s">
-        <v>133</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="11">
+        <v>20001007</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N72" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L73" s="11">
-        <v>20001015</v>
+        <v>20001017</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N73" s="3">
-        <v>-180</v>
+        <v>101</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L74" s="11">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N74" s="3">
-        <v>83</v>
+        <v>-3</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
         <v>157</v>
       </c>
@@ -4489,29 +4501,26 @@
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="N75" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q75" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q75" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
         <v>157</v>
       </c>
@@ -4519,184 +4528,192 @@
         <v>181</v>
       </c>
       <c r="L76" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="N76" s="3">
-        <v>-44</v>
-      </c>
-      <c r="Q76" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q76" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001003</v>
+      <c r="L77" s="11">
+        <v>20001015</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N77" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q77" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001012</v>
+        <v>20001015</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N78" s="3">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F79" s="15">
+        <v>10005101</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1009</v>
+      </c>
       <c r="H79" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="11">
-        <v>20001015</v>
+      <c r="L79" s="15">
+        <v>20001001</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F80" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1009</v>
+      </c>
       <c r="H80" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="11">
-        <v>20001013</v>
+      <c r="L80" s="15">
+        <v>20001002</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N80" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="N81" s="3">
         <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001005</v>
+      <c r="L82" s="11">
+        <v>20001012</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N82" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="15">
-        <v>20099001</v>
+      <c r="C83" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
@@ -4705,8 +4722,8 @@
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11" t="s">
-        <v>47</v>
+      <c r="L83" s="11">
+        <v>20001015</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>194</v>
@@ -4715,42 +4732,42 @@
         <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="15">
-        <v>20099002</v>
+      <c r="C84" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11" t="s">
-        <v>47</v>
+      <c r="L84" s="11">
+        <v>20001013</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N84" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="15">
-        <v>20099003</v>
+      <c r="C85" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
@@ -4759,8 +4776,8 @@
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11" t="s">
-        <v>47</v>
+      <c r="L85" s="15">
+        <v>20001005</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>194</v>
@@ -4769,15 +4786,15 @@
         <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="15">
-        <v>20099004</v>
+      <c r="C86" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
@@ -4786,8 +4803,8 @@
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="11" t="s">
-        <v>47</v>
+      <c r="L86" s="15">
+        <v>20001005</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>194</v>
@@ -4796,15 +4813,15 @@
         <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="15">
-        <v>20099005</v>
+        <v>20099001</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
@@ -4823,15 +4840,15 @@
         <v>180</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="15">
-        <v>20099006</v>
+        <v>20099002</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
@@ -4840,8 +4857,8 @@
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="15">
-        <v>20001005</v>
+      <c r="L88" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>194</v>
@@ -4850,13 +4867,117 @@
         <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="15">
+        <v>20099003</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="H89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="15">
+        <v>20099004</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="H90" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N90" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q90" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="H91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N91" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="15"/>
+      <c r="H92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L92" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N92" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q92" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4872,6 +4993,10 @@
     <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFC730-641C-4EFD-95E3-950122ED2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7735302-DC0B-4B65-BC0E-681DB1E022DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="615" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="307">
   <si>
     <t>#</t>
   </si>
@@ -1646,14 +1646,6 @@
     <t>NPC_ZhuanZhi</t>
   </si>
   <si>
-    <t>补偿大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2239,0,318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000016</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1715,6 +1707,34 @@
   </si>
   <si>
     <t>-4288,606,4787</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大使</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1415,-404,-1472</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城卫队长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城弓手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2284,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X107"/>
+  <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2524,18 +2544,13 @@
       </c>
     </row>
     <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>231</v>
+      <c r="C6" s="15">
+        <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="15">
-        <v>10001101</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1009</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="H6" s="6" t="s">
         <v>157</v>
       </c>
@@ -2543,29 +2558,24 @@
         <v>181</v>
       </c>
       <c r="L6" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>290</v>
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>-90</v>
-      </c>
-      <c r="Q6" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16"/>
     </row>
     <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>232</v>
+      <c r="C7" s="15">
+        <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1009</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F7" s="15"/>
       <c r="H7" s="6" t="s">
         <v>157</v>
       </c>
@@ -2573,55 +2583,49 @@
         <v>181</v>
       </c>
       <c r="L7" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>288</v>
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
       </c>
       <c r="N7" s="3">
-        <v>-280</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14" t="s">
-        <v>233</v>
+      <c r="C8" s="15">
+        <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>69</v>
+        <v>305</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="1">
-        <v>1004</v>
-      </c>
       <c r="H8" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>287</v>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q8" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>234</v>
+      <c r="C9" s="15">
+        <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="1">
-        <v>1015</v>
-      </c>
       <c r="H9" s="6" t="s">
         <v>157</v>
       </c>
@@ -2629,26 +2633,33 @@
         <v>181</v>
       </c>
       <c r="L9" s="15">
-        <v>20001024</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>289</v>
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>-280</v>
-      </c>
-      <c r="Q9" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="15">
+        <v>10001101</v>
+      </c>
       <c r="G10" s="1">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>157</v>
@@ -2657,27 +2668,28 @@
         <v>181</v>
       </c>
       <c r="L10" s="15">
-        <v>20001007</v>
+        <v>20001001</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="N10" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-90</v>
+      </c>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="15">
+        <v>10001201</v>
       </c>
       <c r="G11" s="1">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>157</v>
@@ -2685,31 +2697,27 @@
       <c r="I11" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="N11" s="1">
-        <v>-180</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="11" t="s">
-        <v>241</v>
-      </c>
+      <c r="L11" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-280</v>
+      </c>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>157</v>
@@ -2717,29 +2725,27 @@
       <c r="I12" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L12" s="15">
-        <v>20001024</v>
+      <c r="L12" s="15" t="s">
+        <v>277</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="N12" s="3">
-        <v>-90</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-180</v>
+      </c>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="1">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>157</v>
@@ -2751,25 +2757,23 @@
         <v>20001024</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="N13" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>242</v>
-      </c>
+        <v>-280</v>
+      </c>
+      <c r="Q13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="1">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>157</v>
@@ -2777,14 +2781,14 @@
       <c r="I14" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="15" t="s">
-        <v>251</v>
+      <c r="L14" s="15">
+        <v>20001007</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="Q14" s="15" t="s">
         <v>242</v>
@@ -2792,44 +2796,45 @@
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="G15" s="1">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="M15" s="17" t="s">
+      <c r="L15" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="N15" s="3">
-        <v>-270</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>259</v>
+      <c r="N15" s="1">
+        <v>-180</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="1">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>157</v>
@@ -2837,29 +2842,29 @@
       <c r="I16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="15" t="s">
-        <v>281</v>
+      <c r="L16" s="15">
+        <v>20001024</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="N16" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-90</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="1">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>157</v>
@@ -2867,369 +2872,381 @@
       <c r="I17" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>293</v>
+      <c r="L17" s="15">
+        <v>20001024</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="N17" s="3">
         <v>90</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="1">
+        <v>1020</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-270</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="1">
+        <v>1021</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N20" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1007</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="N21" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
+    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G22" s="1">
         <v>1006</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L18" s="15" t="s">
+      <c r="H22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="N18" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1008</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="N19" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1002</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1022</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="N21" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1002</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="M22" s="27" t="s">
         <v>299</v>
       </c>
       <c r="N22" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1008</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="N23" s="3">
+        <v>125</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1002</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1022</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-90</v>
+      </c>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1002</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="N26" s="3">
         <v>180</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q26" s="11" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
+    <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F27" s="15">
         <v>10001101</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G27" s="1">
         <v>1009</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="15">
         <v>20001001</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M27" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N27" s="3">
         <v>60</v>
       </c>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14">
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14">
         <v>20001002</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F28" s="15">
         <v>10001201</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G28" s="1">
         <v>1009</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="H28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="15">
         <v>20001002</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N28" s="3">
         <v>-45</v>
       </c>
-      <c r="Q24" s="15"/>
-    </row>
-    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="15">
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="15">
         <v>20001003</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="H25" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N25" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L26" s="15">
-        <v>20001004</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N26" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="H27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="H28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N28" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="F29" s="15"/>
       <c r="H29" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L29" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>190</v>
+        <v>20001003</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N29" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="15">
-        <v>20001008</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14">
+        <v>20001004</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F30" s="15"/>
       <c r="H30" s="6" t="s">
@@ -3239,334 +3256,333 @@
         <v>181</v>
       </c>
       <c r="L30" s="15">
-        <v>20001008</v>
+        <v>20001004</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N30" s="3">
-        <v>-155</v>
+        <v>90</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="15">
-        <v>20001009</v>
+        <v>20001005</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F31" s="15"/>
       <c r="H31" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L31" s="15">
-        <v>20001009</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>252</v>
+        <v>20001005</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N31" s="3">
-        <v>35</v>
+        <v>-45</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="18">
-        <v>20001010</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J32" s="22"/>
-      <c r="L32" s="20">
-        <v>20001010</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N32" s="19">
-        <v>180</v>
-      </c>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-    </row>
-    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="15">
+        <v>20001006</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="H32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="15">
+        <v>20001006</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="15">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F33" s="15"/>
       <c r="H33" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>192</v>
+        <v>20001007</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="N33" s="3">
-        <v>-180</v>
+        <v>150</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="15">
-        <v>20001012</v>
+        <v>20001008</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>195</v>
+        <v>20001008</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="N34" s="3">
-        <v>80</v>
+        <v>-155</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="15">
-        <v>20001013</v>
+        <v>20001009</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F35" s="15"/>
       <c r="H35" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001013</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>196</v>
+        <v>20001009</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="N35" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="18">
+        <v>20001010</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="L36" s="20">
+        <v>20001010</v>
+      </c>
+      <c r="M36" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q35" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15">
-        <v>20001014</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="H36" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="15">
-        <v>20001014</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N36" s="3">
+      <c r="N36" s="19">
         <v>180</v>
       </c>
-      <c r="Q36" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="15">
-        <v>20001015</v>
+        <v>20001011</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="15">
-        <v>20001015</v>
+        <v>20001011</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N37" s="3">
-        <v>128</v>
+        <v>-180</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001016</v>
+        <v>20001012</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001016</v>
+        <v>20001012</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N38" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001017</v>
+        <v>20001013</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001017</v>
+        <v>20001013</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N39" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001018</v>
+        <v>20001014</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="L40" s="11">
-        <v>0</v>
+      <c r="L40" s="15">
+        <v>20001014</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N40" s="3">
         <v>180</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001019</v>
+        <v>20001015</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001019</v>
+        <v>20001015</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N41" s="3">
-        <v>-180</v>
+        <v>128</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001020</v>
+        <v>20001016</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
@@ -3576,7 +3592,7 @@
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001019</v>
+        <v>20001016</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>194</v>
@@ -3585,97 +3601,97 @@
         <v>180</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001021</v>
+        <v>20001017</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001021</v>
+        <v>20001017</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N43" s="3">
-        <v>-180</v>
+        <v>120</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001022</v>
+        <v>20001018</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="15">
-        <v>20001022</v>
+      <c r="J44" s="1"/>
+      <c r="L44" s="11">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N44" s="3">
-        <v>-106</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="1">
-        <v>1004</v>
-      </c>
       <c r="H45" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q45" s="15"/>
-    </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-180</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001024</v>
+        <v>20001020</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
@@ -3685,221 +3701,222 @@
         <v>181</v>
       </c>
       <c r="L46" s="15">
+        <v>20001019</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N46" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="15">
+        <v>20001021</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="H47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="15">
+        <v>20001021</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="H48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-106</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N49" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="15">
         <v>20001024</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q46" s="15"/>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" s="3">
-        <v>-147</v>
-      </c>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="15">
-        <v>10002201</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N48" s="3">
-        <v>-129</v>
-      </c>
-      <c r="Q48" s="15"/>
-    </row>
-    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="H49" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="11">
-        <v>20001007</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="N49" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="14" t="s">
-        <v>75</v>
-      </c>
       <c r="E50" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001005</v>
+        <v>20001024</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-152</v>
+      </c>
+      <c r="Q50" s="15"/>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F51" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1009</v>
+      </c>
       <c r="H51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="11">
-        <v>20001009</v>
+      <c r="L51" s="15">
+        <v>20001001</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N51" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-147</v>
+      </c>
+      <c r="Q51" s="15"/>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F52" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1009</v>
+      </c>
       <c r="H52" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q52" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q52" s="15"/>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="15">
-        <v>20001005</v>
+      <c r="L53" s="11">
+        <v>20001007</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
@@ -3908,85 +3925,77 @@
         <v>20001005</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="N54" s="3">
         <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="11">
-        <v>20001017</v>
+        <v>20001009</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="N55" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1009</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N56" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q56" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
         <v>157</v>
       </c>
@@ -3994,105 +4003,115 @@
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="N57" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q57" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="11">
-        <v>20001007</v>
+      <c r="L58" s="15">
+        <v>20001005</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="N58" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="11">
-        <v>20001011</v>
+        <v>20001017</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F60" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1009</v>
+      </c>
       <c r="H60" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="11">
-        <v>20001017</v>
+      <c r="L60" s="15">
+        <v>20001001</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="N60" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F61" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1009</v>
+      </c>
       <c r="H61" s="6" t="s">
         <v>157</v>
       </c>
@@ -4100,139 +4119,132 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N61" s="3">
-        <v>-70</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001005</v>
+      <c r="L62" s="11">
+        <v>20001007</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="15">
-        <v>20001005</v>
+      <c r="L63" s="11">
+        <v>20001011</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="N63" s="3">
         <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="15">
-        <v>20001008</v>
+      <c r="L64" s="11">
+        <v>20001017</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="N64" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="11">
-        <v>20001011</v>
+      <c r="L65" s="15">
+        <v>20001005</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N65" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
         <v>157</v>
       </c>
@@ -4240,29 +4252,26 @@
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="N66" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q66" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
         <v>157</v>
       </c>
@@ -4270,105 +4279,115 @@
         <v>181</v>
       </c>
       <c r="L67" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="N67" s="3">
-        <v>-41</v>
-      </c>
-      <c r="Q67" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001007</v>
+      <c r="L68" s="15">
+        <v>20001008</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="N68" s="3">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L69" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N69" s="3">
-        <v>101</v>
+        <v>-180</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F70" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1009</v>
+      </c>
       <c r="H70" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001013</v>
+      <c r="L70" s="15">
+        <v>20001001</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N70" s="3">
-        <v>-3</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F71" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1009</v>
+      </c>
       <c r="H71" s="6" t="s">
         <v>157</v>
       </c>
@@ -4376,112 +4395,105 @@
         <v>181</v>
       </c>
       <c r="L71" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="N71" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q71" s="16" t="s">
-        <v>133</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="11">
+        <v>20001007</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N72" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L73" s="11">
-        <v>20001015</v>
+        <v>20001017</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N73" s="3">
-        <v>-180</v>
+        <v>101</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L74" s="11">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N74" s="3">
-        <v>83</v>
+        <v>-3</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
         <v>157</v>
       </c>
@@ -4489,29 +4501,26 @@
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="N75" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q75" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q75" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
         <v>157</v>
       </c>
@@ -4519,184 +4528,192 @@
         <v>181</v>
       </c>
       <c r="L76" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="N76" s="3">
-        <v>-44</v>
-      </c>
-      <c r="Q76" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q76" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001003</v>
+      <c r="L77" s="11">
+        <v>20001015</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N77" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q77" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001012</v>
+        <v>20001015</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="N78" s="3">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F79" s="15">
+        <v>10005101</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1009</v>
+      </c>
       <c r="H79" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="11">
-        <v>20001015</v>
+      <c r="L79" s="15">
+        <v>20001001</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F80" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1009</v>
+      </c>
       <c r="H80" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="11">
-        <v>20001013</v>
+      <c r="L80" s="15">
+        <v>20001002</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N80" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="N81" s="3">
         <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001005</v>
+      <c r="L82" s="11">
+        <v>20001012</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N82" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="15">
-        <v>20099001</v>
+      <c r="C83" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
@@ -4705,8 +4722,8 @@
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11" t="s">
-        <v>47</v>
+      <c r="L83" s="11">
+        <v>20001015</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>194</v>
@@ -4715,42 +4732,42 @@
         <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="15">
-        <v>20099002</v>
+      <c r="C84" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11" t="s">
-        <v>47</v>
+      <c r="L84" s="11">
+        <v>20001013</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N84" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="15">
-        <v>20099003</v>
+      <c r="C85" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
@@ -4759,8 +4776,8 @@
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11" t="s">
-        <v>47</v>
+      <c r="L85" s="15">
+        <v>20001005</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>194</v>
@@ -4769,15 +4786,15 @@
         <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="15">
-        <v>20099004</v>
+      <c r="C86" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
@@ -4786,8 +4803,8 @@
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="11" t="s">
-        <v>47</v>
+      <c r="L86" s="15">
+        <v>20001005</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>194</v>
@@ -4796,15 +4813,15 @@
         <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="15">
-        <v>20099005</v>
+        <v>20099001</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
@@ -4823,15 +4840,15 @@
         <v>180</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="15">
-        <v>20099006</v>
+        <v>20099002</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
@@ -4840,8 +4857,8 @@
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="15">
-        <v>20001005</v>
+      <c r="L88" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>194</v>
@@ -4850,13 +4867,117 @@
         <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="15">
+        <v>20099003</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="H89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N89" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="15">
+        <v>20099004</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="H90" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L90" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N90" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q90" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="H91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L91" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N91" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="15"/>
+      <c r="H92" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L92" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N92" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q92" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4872,6 +4993,10 @@
     <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7735302-DC0B-4B65-BC0E-681DB1E022DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A9B20-54B7-4B2E-AB0E-9FC7A249BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3133,7 +3133,7 @@
         <v>293</v>
       </c>
       <c r="G26" s="1">
-        <v>1002</v>
+        <v>1014</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>157</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522A9B20-54B7-4B2E-AB0E-9FC7A249BD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C9175-0D47-4431-BDD3-F8AEE0B452B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C9175-0D47-4431-BDD3-F8AEE0B452B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D19FE66-275F-46FA-80C8-82D5E77BF678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3105,9 +3105,6 @@
       <c r="E25" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="1">
-        <v>1022</v>
-      </c>
       <c r="H25" s="6" t="s">
         <v>181</v>
       </c>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D19FE66-275F-46FA-80C8-82D5E77BF678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEC15F-3EA6-457A-BB08-302430F4B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="308">
   <si>
     <t>#</t>
   </si>
@@ -1735,6 +1735,10 @@
   </si>
   <si>
     <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这可以购买你需要的商品！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2306,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3148,7 +3152,7 @@
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEC15F-3EA6-457A-BB08-302430F4B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87484F2-2F2A-4923-9C14-E5E385495960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="309">
   <si>
     <t>#</t>
   </si>
@@ -1739,6 +1739,10 @@
   </si>
   <si>
     <t>在这可以购买你需要的商品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储存箱</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2310,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M14" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2717,7 +2721,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87484F2-2F2A-4923-9C14-E5E385495960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDE363-1841-4E0D-A79C-ABEC1540BF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="312">
   <si>
     <t>#</t>
   </si>
@@ -1743,6 +1743,18 @@
   </si>
   <si>
     <t>仓库储存箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石制造商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987,-428,568</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2312,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X111"/>
+  <dimension ref="C1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3161,43 +3173,42 @@
     </row>
     <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="N27" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N27" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="15"/>
-    </row>
-    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="15">
-        <v>10001201</v>
       </c>
       <c r="G28" s="1">
         <v>1009</v>
@@ -3209,76 +3220,79 @@
         <v>181</v>
       </c>
       <c r="L28" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N28" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="14">
         <v>20001002</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="E29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N29" s="3">
         <v>-45</v>
       </c>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="15">
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="15">
         <v>20001003</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="H29" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N29" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F30" s="15"/>
       <c r="H30" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L30" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N30" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14">
         <v>20001004</v>
       </c>
-      <c r="M30" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N30" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="15"/>
       <c r="H31" s="6" t="s">
@@ -3288,21 +3302,21 @@
         <v>181</v>
       </c>
       <c r="L31" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N31" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>52</v>
@@ -3315,392 +3329,392 @@
         <v>181</v>
       </c>
       <c r="L32" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M32" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N32" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="15"/>
       <c r="H33" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N33" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N34" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="15"/>
       <c r="H35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q35" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="H36" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="15">
+      <c r="I36" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="15">
         <v>20001009</v>
       </c>
-      <c r="M35" s="17" t="s">
+      <c r="M36" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N36" s="3">
         <v>35</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="Q36" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="18">
+    <row r="37" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="18">
         <v>20001010</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J36" s="22"/>
-      <c r="L36" s="20">
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="L37" s="20">
         <v>20001010</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M37" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N37" s="19">
         <v>180</v>
       </c>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="25" t="s">
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-    </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="H37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N37" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N38" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N39" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L40" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N40" s="3">
         <v>180</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N41" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N42" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N43" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J44" s="1"/>
-      <c r="L44" s="11">
-        <v>0</v>
+      <c r="L44" s="15">
+        <v>20001017</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N44" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L45" s="15">
-        <v>20001019</v>
+      <c r="J45" s="1"/>
+      <c r="L45" s="11">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N45" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
@@ -3709,21 +3723,21 @@
         <v>20001019</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
@@ -3733,137 +3747,134 @@
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N47" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N48" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="1">
-        <v>1004</v>
-      </c>
       <c r="H49" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N49" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q49" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q49" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N50" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q50" s="15"/>
+    </row>
+    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="15">
         <v>20001024</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E51" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="H50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50" s="15">
+      <c r="F51" s="15"/>
+      <c r="H51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L51" s="15">
         <v>20001024</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N51" s="3">
         <v>-152</v>
-      </c>
-      <c r="Q50" s="15"/>
-    </row>
-    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L51" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N51" s="3">
-        <v>-147</v>
       </c>
       <c r="Q51" s="15"/>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F52" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G52" s="1">
         <v>1009</v>
@@ -3875,65 +3886,68 @@
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N52" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q52" s="15"/>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F53" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1009</v>
+      </c>
       <c r="H53" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="11">
-        <v>20001007</v>
+      <c r="L53" s="15">
+        <v>20001002</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N53" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q53" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q53" s="15"/>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="15">
-        <v>20001005</v>
+      <c r="L54" s="11">
+        <v>20001007</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N54" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q54" s="16" t="s">
         <v>132</v>
@@ -3941,23 +3955,23 @@
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L55" s="11">
-        <v>20001009</v>
+      <c r="L55" s="15">
+        <v>20001005</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N55" s="3">
         <v>180</v>
@@ -3968,23 +3982,23 @@
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="15">
-        <v>20001005</v>
+      <c r="L56" s="11">
+        <v>20001009</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N56" s="3">
         <v>180</v>
@@ -3995,14 +4009,14 @@
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
@@ -4011,18 +4025,18 @@
         <v>20001005</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N57" s="3">
         <v>180</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>52</v>
@@ -4044,15 +4058,15 @@
         <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
@@ -4061,14 +4075,14 @@
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="11">
-        <v>20001017</v>
+      <c r="L59" s="15">
+        <v>20001005</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N59" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="16" t="s">
         <v>134</v>
@@ -4076,43 +4090,40 @@
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="15">
-        <v>20001001</v>
+      <c r="L60" s="11">
+        <v>20001017</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N60" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q60" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F61" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G61" s="1">
         <v>1009</v>
@@ -4124,65 +4135,68 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N61" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F62" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1009</v>
+      </c>
       <c r="H62" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="11">
-        <v>20001007</v>
+      <c r="L62" s="15">
+        <v>20001002</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N62" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q62" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L63" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N63" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q63" s="16" t="s">
         <v>132</v>
@@ -4190,26 +4204,26 @@
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L64" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N64" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q64" s="16" t="s">
         <v>132</v>
@@ -4217,26 +4231,26 @@
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="15">
-        <v>20001005</v>
+      <c r="L65" s="11">
+        <v>20001017</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N65" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q65" s="16" t="s">
         <v>132</v>
@@ -4244,10 +4258,10 @@
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
@@ -4260,18 +4274,18 @@
         <v>20001005</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N66" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>52</v>
@@ -4293,31 +4307,31 @@
         <v>180</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L68" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N68" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>134</v>
@@ -4325,26 +4339,26 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="11">
-        <v>20001011</v>
+      <c r="L69" s="15">
+        <v>20001008</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="N69" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q69" s="16" t="s">
         <v>134</v>
@@ -4352,43 +4366,40 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="15">
-        <v>20001001</v>
+      <c r="L70" s="11">
+        <v>20001011</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N70" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q70" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F71" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G71" s="1">
         <v>1009</v>
@@ -4400,65 +4411,68 @@
         <v>181</v>
       </c>
       <c r="L71" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N71" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F72" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1009</v>
+      </c>
       <c r="H72" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="11">
-        <v>20001007</v>
+      <c r="L72" s="15">
+        <v>20001002</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q72" s="15"/>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L73" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N73" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="16" t="s">
         <v>132</v>
@@ -4466,26 +4480,26 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L74" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N74" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q74" s="16" t="s">
         <v>132</v>
@@ -4493,34 +4507,34 @@
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="15">
-        <v>20001005</v>
+      <c r="L75" s="11">
+        <v>20001013</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N75" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>52</v>
@@ -4542,31 +4556,31 @@
         <v>180</v>
       </c>
       <c r="Q76" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="11">
-        <v>20001015</v>
+      <c r="L77" s="15">
+        <v>20001005</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N77" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>134</v>
@@ -4574,14 +4588,14 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
@@ -4590,10 +4604,10 @@
         <v>20001015</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N78" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q78" s="16" t="s">
         <v>134</v>
@@ -4601,43 +4615,40 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="15">
-        <v>20001001</v>
+      <c r="L79" s="11">
+        <v>20001015</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N79" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q79" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F80" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G80" s="1">
         <v>1009</v>
@@ -4649,65 +4660,68 @@
         <v>181</v>
       </c>
       <c r="L80" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N80" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F81" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1009</v>
+      </c>
       <c r="H81" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N81" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q81" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q81" s="15"/>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="11">
-        <v>20001012</v>
+      <c r="L82" s="15">
+        <v>20001003</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N82" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>132</v>
@@ -4715,26 +4729,26 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L83" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N83" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>132</v>
@@ -4742,26 +4756,26 @@
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L84" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N84" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q84" s="16" t="s">
         <v>132</v>
@@ -4769,34 +4783,34 @@
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="15">
-        <v>20001005</v>
+      <c r="L85" s="11">
+        <v>20001013</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N85" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E86" s="15" t="s">
         <v>52</v>
@@ -4818,15 +4832,15 @@
         <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="15">
-        <v>20099001</v>
+      <c r="C87" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
@@ -4835,8 +4849,8 @@
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="11" t="s">
-        <v>47</v>
+      <c r="L87" s="15">
+        <v>20001005</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>194</v>
@@ -4845,15 +4859,15 @@
         <v>180</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
@@ -4872,15 +4886,15 @@
         <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
@@ -4899,15 +4913,15 @@
         <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
@@ -4926,15 +4940,15 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
@@ -4953,15 +4967,15 @@
         <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
@@ -4970,8 +4984,8 @@
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="15">
-        <v>20001005</v>
+      <c r="L92" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>194</v>
@@ -4980,10 +4994,36 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" s="15"/>
+      <c r="H93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L93" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N93" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q93" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5002,6 +5042,7 @@
     <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDE363-1841-4E0D-A79C-ABEC1540BF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CF2A0-880D-4360-A818-A7B58FC8C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>4987,-428,568</t>
+    <t>1853,-428,1348</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2326,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3194,7 +3194,7 @@
         <v>311</v>
       </c>
       <c r="N27" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
         <v>307</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962CF2A0-880D-4360-A818-A7B58FC8C512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829F4210-F7F1-4B31-B841-DBCF889CF8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2326,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829F4210-F7F1-4B31-B841-DBCF889CF8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24F841-4A6A-4A57-9F7B-2CCFFE23937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,11 @@
           </rPr>
           <t xml:space="preserve">
 对应Function
-功能表ID</t>
+功能表ID
+1  宠物兑换
+2  挑战之地
+&gt;100
+</t>
         </r>
       </text>
     </comment>
@@ -611,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="318">
   <si>
     <t>#</t>
   </si>
@@ -1622,139 +1626,162 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>NPC_CangKu</t>
+  </si>
+  <si>
+    <t>NPC_DuanZao</t>
+  </si>
+  <si>
+    <t>NPC_LianJin</t>
+  </si>
+  <si>
+    <t>NPC_FuHua</t>
+  </si>
+  <si>
+    <t>NPC_BaoXiang</t>
+  </si>
+  <si>
+    <t>NPC_CaiFeng</t>
+  </si>
+  <si>
+    <t>NPC_ZhuanZhi</t>
+  </si>
+  <si>
+    <t>20000016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1394,-29,4347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5671,-96,2162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5663,-75,2965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>882,374,6308</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3849,-442,1527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4963,357,4965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1305,345,6417</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3095,-420,-5199</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5266,-250,-3636</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5523,-247,-318</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987,-428,1137</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506,-31,3674</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4288,606,4787</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大使</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1415,-404,-1472</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城卫队长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城弓手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这可以购买你需要的商品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储存箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石制造商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1853,-428,1348</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000019</t>
+  </si>
+  <si>
+    <t>20000020</t>
+  </si>
+  <si>
     <t>20000015</t>
-  </si>
-  <si>
-    <t>NPC_CangKu</t>
-  </si>
-  <si>
-    <t>NPC_DuanZao</t>
-  </si>
-  <si>
-    <t>NPC_LianJin</t>
-  </si>
-  <si>
-    <t>NPC_FuHua</t>
-  </si>
-  <si>
-    <t>NPC_BaoXiang</t>
-  </si>
-  <si>
-    <t>NPC_CaiFeng</t>
-  </si>
-  <si>
-    <t>NPC_ZhuanZhi</t>
-  </si>
-  <si>
-    <t>20000016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1394,-29,4347</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5671,-96,2162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5663,-75,2965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>882,374,6308</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3849,-442,1527</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4963,357,4965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1305,345,6417</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍卖行商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3095,-420,-5199</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5266,-250,-3636</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5523,-247,-318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4987,-428,1137</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506,-31,3674</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4288,606,4787</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>补偿大使</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1415,-404,-1472</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城卫队长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城弓手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这可以购买你需要的商品！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库储存箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石制造商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1853,-428,1348</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说神兽-龙龙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说神兽-欢欢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2087,-428,1137</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2253,-428,1348</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2324,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X112"/>
+  <dimension ref="C1:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2568,7 +2595,7 @@
         <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="6" t="s">
@@ -2593,7 +2620,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="6" t="s">
@@ -2618,7 +2645,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="6" t="s">
@@ -2643,7 +2670,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="6" t="s">
@@ -2662,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2691,7 +2718,7 @@
         <v>20001001</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N10" s="3">
         <v>-90</v>
@@ -2721,7 +2748,7 @@
         <v>20001002</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N11" s="3">
         <v>-280</v>
@@ -2733,7 +2760,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
@@ -2746,10 +2773,10 @@
         <v>181</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N12" s="3">
         <v>-180</v>
@@ -2777,7 +2804,7 @@
         <v>20001024</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N13" s="3">
         <v>-280</v>
@@ -2834,7 +2861,7 @@
         <v>239</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N15" s="1">
         <v>-180</v>
@@ -2926,7 +2953,7 @@
         <v>251</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -2953,10 +2980,10 @@
         <v>181</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N19" s="3">
         <v>-270</v>
@@ -2983,10 +3010,10 @@
         <v>181</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N20" s="3">
         <v>45</v>
@@ -3013,10 +3040,10 @@
         <v>181</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N21" s="3">
         <v>90</v>
@@ -3045,10 +3072,10 @@
         <v>181</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N22" s="3">
         <v>90</v>
@@ -3077,10 +3104,10 @@
         <v>181</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N23" s="3">
         <v>125</v>
@@ -3091,7 +3118,7 @@
     </row>
     <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>274</v>
@@ -3106,10 +3133,10 @@
         <v>181</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -3120,22 +3147,22 @@
     </row>
     <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="27" t="s">
         <v>300</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>301</v>
       </c>
       <c r="N25" s="3">
         <v>-90</v>
@@ -3144,10 +3171,10 @@
     </row>
     <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G26" s="1">
         <v>1014</v>
@@ -3159,24 +3186,24 @@
         <v>181</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N26" s="3">
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="G27" s="1">
         <v>1022</v>
@@ -3188,113 +3215,121 @@
         <v>181</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F28" s="3">
+        <v>52</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="N28" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="3">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E30" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F30" s="15">
         <v>10001101</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G30" s="1">
         <v>1009</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="H30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L30" s="15">
         <v>20001001</v>
       </c>
-      <c r="M28" s="17" t="s">
+      <c r="M30" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N30" s="3">
         <v>60</v>
       </c>
-      <c r="Q28" s="15"/>
-    </row>
-    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q29" s="15"/>
-    </row>
-    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="H30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N30" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14">
-        <v>20001004</v>
+        <v>20001002</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F31" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1009</v>
+      </c>
       <c r="H31" s="6" t="s">
         <v>157</v>
       </c>
@@ -3302,51 +3337,49 @@
         <v>181</v>
       </c>
       <c r="L31" s="15">
-        <v>20001004</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>189</v>
+        <v>20001002</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="N31" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" s="15"/>
       <c r="H32" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L32" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N32" s="3">
-        <v>-45</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="15">
-        <v>20001006</v>
+      <c r="C33" s="14">
+        <v>20001004</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="15"/>
       <c r="H33" s="6" t="s">
@@ -3356,51 +3389,51 @@
         <v>181</v>
       </c>
       <c r="L33" s="15">
-        <v>20001006</v>
+        <v>20001004</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N33" s="3">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="15">
-        <v>20001007</v>
+        <v>20001005</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>190</v>
+        <v>20001005</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N34" s="3">
-        <v>150</v>
+        <v>-45</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="15">
-        <v>20001008</v>
+        <v>20001006</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F35" s="15"/>
       <c r="H35" s="6" t="s">
@@ -3410,279 +3443,279 @@
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001008</v>
+        <v>20001006</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N35" s="3">
-        <v>-155</v>
+        <v>45</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="15">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="15"/>
       <c r="H36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L36" s="15">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="N36" s="3">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="18">
-        <v>20001010</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J37" s="22"/>
-      <c r="L37" s="20">
-        <v>20001010</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N37" s="19">
-        <v>180</v>
-      </c>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="H37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001011</v>
+        <v>20001009</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>192</v>
+        <v>20001009</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="N38" s="3">
-        <v>-180</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="H39" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N39" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="18">
+        <v>20001010</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="L39" s="20">
+        <v>20001010</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N39" s="19">
+        <v>180</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001013</v>
+        <v>20001011</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L40" s="15">
-        <v>20001013</v>
+        <v>20001011</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N40" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001014</v>
+        <v>20001012</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001014</v>
+        <v>20001012</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N41" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N42" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001016</v>
+        <v>20001014</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001016</v>
+        <v>20001014</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N43" s="3">
         <v>180</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001017</v>
+        <v>20001015</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001017</v>
+        <v>20001015</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N44" s="3">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001018</v>
+        <v>20001016</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
@@ -3691,9 +3724,8 @@
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="L45" s="11">
-        <v>0</v>
+      <c r="L45" s="15">
+        <v>20001016</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>194</v>
@@ -3702,42 +3734,42 @@
         <v>180</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001019</v>
+        <v>20001017</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001019</v>
+        <v>20001017</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N46" s="3">
-        <v>-180</v>
+        <v>120</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001020</v>
+        <v>20001018</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
@@ -3746,8 +3778,9 @@
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="15">
-        <v>20001019</v>
+      <c r="J47" s="1"/>
+      <c r="L47" s="11">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>194</v>
@@ -3756,28 +3789,28 @@
         <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>-180</v>
@@ -3788,42 +3821,39 @@
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001022</v>
+        <v>20001020</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001022</v>
+        <v>20001019</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N49" s="3">
-        <v>-106</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001023</v>
+        <v>20001021</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="1">
-        <v>1004</v>
-      </c>
       <c r="H50" s="6" t="s">
         <v>157</v>
       </c>
@@ -3831,177 +3861,180 @@
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001023</v>
+        <v>20001021</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q50" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001024</v>
+        <v>20001022</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-106</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L52" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N52" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q52" s="15"/>
+    </row>
+    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="15">
         <v>20001024</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="E53" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="H53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" s="15">
+        <v>20001024</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N53" s="3">
         <v>-152</v>
-      </c>
-      <c r="Q51" s="15"/>
-    </row>
-    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L52" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N52" s="3">
-        <v>-147</v>
-      </c>
-      <c r="Q52" s="15"/>
-    </row>
-    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F53" s="15">
-        <v>10002201</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L53" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="N53" s="3">
-        <v>-129</v>
       </c>
       <c r="Q53" s="15"/>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F54" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1009</v>
+      </c>
       <c r="H54" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="11">
-        <v>20001007</v>
+      <c r="L54" s="15">
+        <v>20001001</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N54" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q54" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-147</v>
+      </c>
+      <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F55" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F55" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1009</v>
+      </c>
       <c r="H55" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N55" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q55" s="15"/>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="11">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N56" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q56" s="16" t="s">
         <v>132</v>
@@ -4009,14 +4042,14 @@
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
@@ -4025,7 +4058,7 @@
         <v>20001005</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N57" s="3">
         <v>180</v>
@@ -4036,41 +4069,41 @@
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="15">
-        <v>20001005</v>
+      <c r="L58" s="11">
+        <v>20001009</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="N58" s="3">
         <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
@@ -4079,21 +4112,21 @@
         <v>20001005</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N59" s="3">
         <v>180</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
@@ -4102,32 +4135,27 @@
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="11">
-        <v>20001017</v>
+      <c r="L60" s="15">
+        <v>20001005</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N60" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F61" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
         <v>157</v>
       </c>
@@ -4135,122 +4163,127 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N61" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q61" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001002</v>
+      <c r="L62" s="11">
+        <v>20001017</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N62" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q62" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F63" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F63" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1009</v>
+      </c>
       <c r="H63" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="11">
-        <v>20001007</v>
+      <c r="L63" s="15">
+        <v>20001001</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N63" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F64" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1009</v>
+      </c>
       <c r="H64" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="11">
-        <v>20001011</v>
+      <c r="L64" s="15">
+        <v>20001002</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N64" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q64" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L65" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N65" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q65" s="16" t="s">
         <v>132</v>
@@ -4258,26 +4291,26 @@
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="15">
-        <v>20001005</v>
+      <c r="L66" s="11">
+        <v>20001011</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N66" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q66" s="16" t="s">
         <v>132</v>
@@ -4285,37 +4318,37 @@
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="15">
-        <v>20001005</v>
+      <c r="L67" s="11">
+        <v>20001017</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="N67" s="3">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
@@ -4328,64 +4361,64 @@
         <v>20001005</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N68" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L69" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N69" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001011</v>
+      <c r="L70" s="15">
+        <v>20001005</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="N70" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q70" s="16" t="s">
         <v>134</v>
@@ -4393,140 +4426,140 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1009</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L71" s="15">
-        <v>20001001</v>
+        <v>20001008</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="N71" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q71" s="15"/>
+        <v>-70</v>
+      </c>
+      <c r="Q71" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001002</v>
+      <c r="L72" s="11">
+        <v>20001011</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N72" s="3">
-        <v>-41</v>
-      </c>
-      <c r="Q72" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q72" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F73" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1009</v>
+      </c>
       <c r="H73" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="11">
-        <v>20001007</v>
+      <c r="L73" s="15">
+        <v>20001001</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F74" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1009</v>
+      </c>
       <c r="H74" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="11">
-        <v>20001017</v>
+      <c r="L74" s="15">
+        <v>20001002</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N74" s="3">
-        <v>101</v>
-      </c>
-      <c r="Q74" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L75" s="11">
-        <v>20001013</v>
+        <v>20001007</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N75" s="3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="16" t="s">
         <v>132</v>
@@ -4534,107 +4567,107 @@
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="15">
-        <v>20001005</v>
+      <c r="L76" s="11">
+        <v>20001017</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="N76" s="3">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="Q76" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001005</v>
+      <c r="L77" s="11">
+        <v>20001013</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N77" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q77" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="11">
-        <v>20001015</v>
+      <c r="L78" s="15">
+        <v>20001005</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N78" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="11">
-        <v>20001015</v>
+      <c r="L79" s="15">
+        <v>20001005</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N79" s="3">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="Q79" s="16" t="s">
         <v>134</v>
@@ -4642,137 +4675,137 @@
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G80" s="1">
-        <v>1009</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="15">
-        <v>20001001</v>
+      <c r="L80" s="11">
+        <v>20001015</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N80" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q80" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q80" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="15">
-        <v>20001002</v>
+      <c r="L81" s="11">
+        <v>20001015</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N81" s="3">
-        <v>-44</v>
-      </c>
-      <c r="Q81" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q81" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F82" s="15">
+        <v>10005101</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1009</v>
+      </c>
       <c r="H82" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L82" s="15">
-        <v>20001003</v>
+        <v>20001001</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N82" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q82" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q82" s="15"/>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F83" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1009</v>
+      </c>
       <c r="H83" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11">
-        <v>20001012</v>
+      <c r="L83" s="15">
+        <v>20001002</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N83" s="3">
-        <v>92</v>
-      </c>
-      <c r="Q83" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11">
-        <v>20001015</v>
+      <c r="L84" s="15">
+        <v>20001003</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="N84" s="3">
         <v>180</v>
@@ -4783,26 +4816,26 @@
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L85" s="11">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N85" s="3">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>132</v>
@@ -4810,10 +4843,10 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
@@ -4822,8 +4855,8 @@
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="15">
-        <v>20001005</v>
+      <c r="L86" s="11">
+        <v>20001015</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>194</v>
@@ -4832,42 +4865,42 @@
         <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="15">
-        <v>20001005</v>
+      <c r="L87" s="11">
+        <v>20001013</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N87" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="15">
-        <v>20099001</v>
+      <c r="C88" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
@@ -4876,8 +4909,8 @@
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="11" t="s">
-        <v>47</v>
+      <c r="L88" s="15">
+        <v>20001005</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>194</v>
@@ -4886,15 +4919,15 @@
         <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="15">
-        <v>20099002</v>
+      <c r="C89" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
@@ -4903,8 +4936,8 @@
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="11" t="s">
-        <v>47</v>
+      <c r="L89" s="15">
+        <v>20001005</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>194</v>
@@ -4913,15 +4946,15 @@
         <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="15">
-        <v>20099003</v>
+        <v>20099001</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
@@ -4940,15 +4973,15 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="15">
-        <v>20099004</v>
+        <v>20099002</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
@@ -4967,15 +5000,15 @@
         <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="15">
-        <v>20099005</v>
+        <v>20099003</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
@@ -4994,15 +5027,15 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="15">
-        <v>20099006</v>
+        <v>20099004</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
@@ -5011,8 +5044,8 @@
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="15">
-        <v>20001005</v>
+      <c r="L93" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>194</v>
@@ -5021,11 +5054,63 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="15"/>
+      <c r="H94" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N94" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" s="15"/>
+      <c r="H95" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L95" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N95" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q95" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5043,6 +5128,8 @@
     <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24F841-4A6A-4A57-9F7B-2CCFFE23937B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD337F58-4590-4062-B9A6-06DF43083A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2353,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="C29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3234,9 +3234,6 @@
       <c r="E28" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="3">
-        <v>52</v>
-      </c>
       <c r="G28" s="1">
         <v>1</v>
       </c>
@@ -3245,6 +3242,9 @@
       </c>
       <c r="I28" s="6" t="s">
         <v>181</v>
+      </c>
+      <c r="J28" s="3">
+        <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>282</v>
@@ -3264,9 +3264,6 @@
       <c r="E29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F29" s="3">
-        <v>53</v>
-      </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
@@ -3275,6 +3272,9 @@
       </c>
       <c r="I29" s="6" t="s">
         <v>181</v>
+      </c>
+      <c r="J29" s="3">
+        <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>282</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD337F58-4590-4062-B9A6-06DF43083A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C7795-6C69-46F0-A20E-9E2A0ED220B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="1365" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="324">
   <si>
     <t>#</t>
   </si>
@@ -1769,19 +1769,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>传说神兽-龙龙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说神兽-欢欢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2087,-428,1137</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2253,-428,1348</t>
+    <t>20000021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_1</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenShou_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,607</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,357</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,107</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2351,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X114"/>
+  <dimension ref="C1:X115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="C29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3232,7 +3252,7 @@
         <v>311</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3247,13 +3267,13 @@
         <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N28" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="11"/>
     </row>
@@ -3262,7 +3282,7 @@
         <v>312</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3277,55 +3297,55 @@
         <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Q29" s="11"/>
     </row>
     <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="3">
+        <v>54</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="N30" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L30" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N30" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q30" s="15"/>
-    </row>
-    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="15">
-        <v>10001201</v>
       </c>
       <c r="G31" s="1">
         <v>1009</v>
@@ -3337,76 +3357,79 @@
         <v>181</v>
       </c>
       <c r="L31" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N31" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="15"/>
+    </row>
+    <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="14">
         <v>20001002</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="E32" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N32" s="3">
         <v>-45</v>
       </c>
-      <c r="Q31" s="15"/>
-    </row>
-    <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="15">
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="15">
         <v>20001003</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="H32" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N32" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F33" s="15"/>
       <c r="H33" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L33" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N33" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="14">
         <v>20001004</v>
       </c>
-      <c r="M33" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N33" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
@@ -3416,21 +3439,21 @@
         <v>181</v>
       </c>
       <c r="L34" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N34" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>52</v>
@@ -3443,392 +3466,392 @@
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N35" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="15"/>
       <c r="H36" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L36" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M36" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N36" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N37" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L38" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="H39" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L38" s="15">
+      <c r="I39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="15">
         <v>20001009</v>
       </c>
-      <c r="M38" s="17" t="s">
+      <c r="M39" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N39" s="3">
         <v>35</v>
       </c>
-      <c r="Q38" s="16" t="s">
+      <c r="Q39" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="18">
+    <row r="40" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="18">
         <v>20001010</v>
       </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="L39" s="20">
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="L40" s="20">
         <v>20001010</v>
       </c>
-      <c r="M39" s="19" t="s">
+      <c r="M40" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N40" s="19">
         <v>180</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="25" t="s">
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-    </row>
-    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="H40" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L40" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N40" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N41" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N42" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N43" s="3">
         <v>180</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N44" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N45" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N46" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="L47" s="11">
-        <v>0</v>
+      <c r="L47" s="15">
+        <v>20001017</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N47" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="15">
-        <v>20001019</v>
+      <c r="J48" s="1"/>
+      <c r="L48" s="11">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N48" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
@@ -3837,21 +3860,21 @@
         <v>20001019</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N49" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
@@ -3861,137 +3884,134 @@
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N50" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N51" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="15"/>
-      <c r="G52" s="1">
-        <v>1004</v>
-      </c>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q52" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L53" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N53" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q53" s="15"/>
+    </row>
+    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="15">
         <v>20001024</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E54" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="H53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L53" s="15">
+      <c r="F54" s="15"/>
+      <c r="H54" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" s="15">
         <v>20001024</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N54" s="3">
         <v>-152</v>
-      </c>
-      <c r="Q53" s="15"/>
-    </row>
-    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L54" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N54" s="3">
-        <v>-147</v>
       </c>
       <c r="Q54" s="15"/>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G55" s="1">
         <v>1009</v>
@@ -4003,65 +4023,68 @@
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N55" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q55" s="15"/>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F56" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1009</v>
+      </c>
       <c r="H56" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="11">
-        <v>20001007</v>
+      <c r="L56" s="15">
+        <v>20001002</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N56" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q56" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q56" s="15"/>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L57" s="15">
-        <v>20001005</v>
+      <c r="L57" s="11">
+        <v>20001007</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q57" s="16" t="s">
         <v>132</v>
@@ -4069,23 +4092,23 @@
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="11">
-        <v>20001009</v>
+      <c r="L58" s="15">
+        <v>20001005</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N58" s="3">
         <v>180</v>
@@ -4096,23 +4119,23 @@
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="15">
-        <v>20001005</v>
+      <c r="L59" s="11">
+        <v>20001009</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N59" s="3">
         <v>180</v>
@@ -4123,14 +4146,14 @@
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
@@ -4139,18 +4162,18 @@
         <v>20001005</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N60" s="3">
         <v>180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>52</v>
@@ -4172,15 +4195,15 @@
         <v>180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
@@ -4189,14 +4212,14 @@
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="11">
-        <v>20001017</v>
+      <c r="L62" s="15">
+        <v>20001005</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N62" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q62" s="16" t="s">
         <v>134</v>
@@ -4204,43 +4227,40 @@
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="15">
-        <v>20001001</v>
+      <c r="L63" s="11">
+        <v>20001017</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N63" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q63" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G64" s="1">
         <v>1009</v>
@@ -4252,65 +4272,68 @@
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N64" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F65" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1009</v>
+      </c>
       <c r="H65" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="11">
-        <v>20001007</v>
+      <c r="L65" s="15">
+        <v>20001002</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N65" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L66" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N66" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q66" s="16" t="s">
         <v>132</v>
@@ -4318,26 +4341,26 @@
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L67" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N67" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q67" s="16" t="s">
         <v>132</v>
@@ -4345,26 +4368,26 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="15">
-        <v>20001005</v>
+      <c r="L68" s="11">
+        <v>20001017</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N68" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>132</v>
@@ -4372,10 +4395,10 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
@@ -4388,18 +4411,18 @@
         <v>20001005</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N69" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>52</v>
@@ -4421,31 +4444,31 @@
         <v>180</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L71" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N71" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
         <v>134</v>
@@ -4453,26 +4476,26 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="11">
-        <v>20001011</v>
+      <c r="L72" s="15">
+        <v>20001008</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="N72" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>134</v>
@@ -4480,43 +4503,40 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="15">
-        <v>20001001</v>
+      <c r="L73" s="11">
+        <v>20001011</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N73" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q73" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G74" s="1">
         <v>1009</v>
@@ -4528,65 +4548,68 @@
         <v>181</v>
       </c>
       <c r="L74" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N74" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F75" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1009</v>
+      </c>
       <c r="H75" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="11">
-        <v>20001007</v>
+      <c r="L75" s="15">
+        <v>20001002</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N75" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L76" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N76" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>132</v>
@@ -4594,26 +4617,26 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N77" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>132</v>
@@ -4621,34 +4644,34 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="15">
-        <v>20001005</v>
+      <c r="L78" s="11">
+        <v>20001013</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N78" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>52</v>
@@ -4670,31 +4693,31 @@
         <v>180</v>
       </c>
       <c r="Q79" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="11">
-        <v>20001015</v>
+      <c r="L80" s="15">
+        <v>20001005</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N80" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>134</v>
@@ -4702,14 +4725,14 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
@@ -4718,10 +4741,10 @@
         <v>20001015</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N81" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>134</v>
@@ -4729,43 +4752,40 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001001</v>
+      <c r="L82" s="11">
+        <v>20001015</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N82" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q82" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G83" s="1">
         <v>1009</v>
@@ -4777,65 +4797,68 @@
         <v>181</v>
       </c>
       <c r="L83" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N83" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F84" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F84" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1009</v>
+      </c>
       <c r="H84" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L84" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N84" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q84" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11">
-        <v>20001012</v>
+      <c r="L85" s="15">
+        <v>20001003</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N85" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>132</v>
@@ -4843,26 +4866,26 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L86" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N86" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>132</v>
@@ -4870,26 +4893,26 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L87" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N87" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q87" s="16" t="s">
         <v>132</v>
@@ -4897,34 +4920,34 @@
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="15">
-        <v>20001005</v>
+      <c r="L88" s="11">
+        <v>20001013</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N88" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>52</v>
@@ -4946,15 +4969,15 @@
         <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="15">
-        <v>20099001</v>
+      <c r="C90" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
@@ -4963,8 +4986,8 @@
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="11" t="s">
-        <v>47</v>
+      <c r="L90" s="15">
+        <v>20001005</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>194</v>
@@ -4973,15 +4996,15 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
@@ -5000,15 +5023,15 @@
         <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
@@ -5027,15 +5050,15 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
@@ -5054,15 +5077,15 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
@@ -5081,15 +5104,15 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5098,8 +5121,8 @@
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="15">
-        <v>20001005</v>
+      <c r="L95" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>194</v>
@@ -5108,10 +5131,36 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="15"/>
+      <c r="H96" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L96" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N96" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q96" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5130,6 +5179,7 @@
     <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C7795-6C69-46F0-A20E-9E2A0ED220B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820A9F1-F491-4636-82CA-83255F6FDBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="1365" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="327">
   <si>
     <t>#</t>
   </si>
@@ -1802,6 +1802,18 @@
   </si>
   <si>
     <t>1156,-428,107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5015,-430,-2904</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1986,7 +1998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2064,6 +2076,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2371,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X115"/>
+  <dimension ref="C1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2618,11 +2633,11 @@
         <v>301</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="H6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>181</v>
+      <c r="H6" s="28">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <v>0</v>
@@ -2643,11 +2658,11 @@
         <v>302</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="H7" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>181</v>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <v>0</v>
@@ -2668,11 +2683,11 @@
         <v>304</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="H8" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>181</v>
+      <c r="H8" s="28">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <v>0</v>
       </c>
       <c r="L8" s="15">
         <v>0</v>
@@ -2693,11 +2708,11 @@
         <v>303</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="H9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>181</v>
+      <c r="H9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <v>0</v>
       </c>
       <c r="L9" s="15">
         <v>0</v>
@@ -2723,16 +2738,16 @@
         <v>48</v>
       </c>
       <c r="F10" s="15">
-        <v>10001101</v>
+        <v>200001</v>
       </c>
       <c r="G10" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>181</v>
+        <v>1012</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0</v>
       </c>
       <c r="L10" s="15">
         <v>20001001</v>
@@ -2758,11 +2773,11 @@
       <c r="G11" s="1">
         <v>1009</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>181</v>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0</v>
       </c>
       <c r="L11" s="15">
         <v>20001002</v>
@@ -2786,11 +2801,11 @@
       <c r="G12" s="1">
         <v>1004</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>181</v>
+      <c r="H12" s="28">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>276</v>
@@ -2814,11 +2829,11 @@
       <c r="G13" s="1">
         <v>1015</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>181</v>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <v>0</v>
       </c>
       <c r="L13" s="15">
         <v>20001024</v>
@@ -2842,11 +2857,11 @@
       <c r="G14" s="1">
         <v>1017</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>181</v>
+      <c r="H14" s="28">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0</v>
       </c>
       <c r="L14" s="15">
         <v>20001007</v>
@@ -2871,11 +2886,11 @@
       <c r="G15" s="1">
         <v>1005</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>181</v>
+      <c r="H15" s="28">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>0</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>239</v>
@@ -2903,11 +2918,11 @@
       <c r="G16" s="1">
         <v>1018</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>181</v>
+      <c r="H16" s="28">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
       </c>
       <c r="L16" s="15">
         <v>20001024</v>
@@ -2933,11 +2948,11 @@
       <c r="G17" s="1">
         <v>1019</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>181</v>
+      <c r="H17" s="28">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>0</v>
       </c>
       <c r="L17" s="15">
         <v>20001024</v>
@@ -2963,11 +2978,11 @@
       <c r="G18" s="1">
         <v>1016</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>181</v>
+      <c r="H18" s="28">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <v>0</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>251</v>
@@ -2993,11 +3008,11 @@
       <c r="G19" s="1">
         <v>1020</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>181</v>
+      <c r="H19" s="28">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>279</v>
@@ -3023,11 +3038,11 @@
       <c r="G20" s="1">
         <v>1021</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>181</v>
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>280</v>
@@ -3053,11 +3068,11 @@
       <c r="G21" s="1">
         <v>1007</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>181</v>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>281</v>
@@ -3085,11 +3100,11 @@
       <c r="G22" s="1">
         <v>1006</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>181</v>
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>277</v>
@@ -3117,11 +3132,11 @@
       <c r="G23" s="1">
         <v>1008</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>181</v>
+      <c r="H23" s="28">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
         <v>278</v>
@@ -3146,11 +3161,11 @@
       <c r="G24" s="1">
         <v>1002</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>181</v>
+      <c r="H24" s="28">
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
         <v>282</v>
@@ -3172,11 +3187,11 @@
       <c r="E25" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>181</v>
+      <c r="H25" s="28">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <v>0</v>
       </c>
       <c r="L25" s="15" t="s">
         <v>282</v>
@@ -3199,11 +3214,11 @@
       <c r="G26" s="1">
         <v>1014</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>181</v>
+      <c r="H26" s="28">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>282</v>
@@ -3228,11 +3243,11 @@
       <c r="G27" s="1">
         <v>1022</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>181</v>
+      <c r="H27" s="28">
+        <v>0</v>
+      </c>
+      <c r="I27" s="28">
+        <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>282</v>
@@ -3257,11 +3272,11 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>181</v>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="28">
+        <v>0</v>
       </c>
       <c r="J28" s="3">
         <v>52</v>
@@ -3287,11 +3302,11 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>181</v>
+      <c r="H29" s="28">
+        <v>0</v>
+      </c>
+      <c r="I29" s="28">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>53</v>
@@ -3317,11 +3332,11 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>181</v>
+      <c r="H30" s="28">
+        <v>0</v>
+      </c>
+      <c r="I30" s="28">
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>54</v>
@@ -3339,16 +3354,16 @@
     </row>
     <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>48</v>
+        <v>325</v>
       </c>
       <c r="F31" s="15">
-        <v>10001101</v>
+        <v>100001</v>
       </c>
       <c r="G31" s="1">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>157</v>
@@ -3356,26 +3371,26 @@
       <c r="I31" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L31" s="15">
-        <v>20001001</v>
-      </c>
-      <c r="M31" s="17" t="s">
-        <v>186</v>
+      <c r="L31" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>326</v>
       </c>
       <c r="N31" s="3">
-        <v>60</v>
+        <v>-110</v>
       </c>
       <c r="Q31" s="15"/>
     </row>
     <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="14">
-        <v>20001002</v>
+      <c r="C32" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G32" s="1">
         <v>1009</v>
@@ -3387,76 +3402,79 @@
         <v>181</v>
       </c>
       <c r="L32" s="15">
+        <v>20001001</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14">
         <v>20001002</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="E33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L33" s="15">
+        <v>20001002</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N33" s="3">
         <v>-45</v>
       </c>
-      <c r="Q32" s="15"/>
-    </row>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="15">
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="15">
         <v>20001003</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="H33" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N33" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F34" s="15"/>
       <c r="H34" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L34" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="14">
         <v>20001004</v>
       </c>
-      <c r="M34" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N34" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="15"/>
       <c r="H35" s="6" t="s">
@@ -3466,21 +3484,21 @@
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N35" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>52</v>
@@ -3493,392 +3511,392 @@
         <v>181</v>
       </c>
       <c r="L36" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N36" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N37" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N38" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L39" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q39" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="H40" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="15">
+      <c r="I40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L40" s="15">
         <v>20001009</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M40" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N40" s="3">
         <v>35</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q40" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="18">
+    <row r="41" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="18">
         <v>20001010</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22" t="s">
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I40" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="L40" s="20">
+      <c r="I41" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="L41" s="20">
         <v>20001010</v>
       </c>
-      <c r="M40" s="19" t="s">
+      <c r="M41" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N41" s="19">
         <v>180</v>
       </c>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="25" t="s">
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-    </row>
-    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="H41" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L41" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N41" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q41" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N42" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N43" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N44" s="3">
         <v>180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N45" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N46" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N47" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="L48" s="11">
-        <v>0</v>
+      <c r="L48" s="15">
+        <v>20001017</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N48" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="15">
-        <v>20001019</v>
+      <c r="J49" s="1"/>
+      <c r="L49" s="11">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N49" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
@@ -3887,21 +3905,21 @@
         <v>20001019</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
@@ -3911,81 +3929,83 @@
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N51" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N52" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="15"/>
-      <c r="G53" s="1">
-        <v>1004</v>
-      </c>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q53" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F54" s="15"/>
+      <c r="G54" s="1">
+        <v>1004</v>
+      </c>
       <c r="H54" s="6" t="s">
         <v>157</v>
       </c>
@@ -3993,29 +4013,24 @@
         <v>181</v>
       </c>
       <c r="L54" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N54" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q54" s="15"/>
+    </row>
+    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="15">
         <v>20001024</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N54" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q54" s="15"/>
-    </row>
-    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
         <v>157</v>
       </c>
@@ -4023,25 +4038,25 @@
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N55" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q55" s="15"/>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F56" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G56" s="1">
         <v>1009</v>
@@ -4053,65 +4068,68 @@
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N56" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q56" s="15"/>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F57" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1009</v>
+      </c>
       <c r="H57" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L57" s="11">
-        <v>20001007</v>
+      <c r="L57" s="15">
+        <v>20001002</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N57" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q57" s="15"/>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="15">
-        <v>20001005</v>
+      <c r="L58" s="11">
+        <v>20001007</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N58" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q58" s="16" t="s">
         <v>132</v>
@@ -4119,23 +4137,23 @@
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="11">
-        <v>20001009</v>
+      <c r="L59" s="15">
+        <v>20001005</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N59" s="3">
         <v>180</v>
@@ -4146,23 +4164,23 @@
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="15">
-        <v>20001005</v>
+      <c r="L60" s="11">
+        <v>20001009</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N60" s="3">
         <v>180</v>
@@ -4173,14 +4191,14 @@
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
@@ -4189,18 +4207,18 @@
         <v>20001005</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N61" s="3">
         <v>180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>52</v>
@@ -4222,15 +4240,15 @@
         <v>180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
@@ -4239,14 +4257,14 @@
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="11">
-        <v>20001017</v>
+      <c r="L63" s="15">
+        <v>20001005</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N63" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
         <v>134</v>
@@ -4254,43 +4272,40 @@
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="15">
-        <v>20001001</v>
+      <c r="L64" s="11">
+        <v>20001017</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N64" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q64" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G65" s="1">
         <v>1009</v>
@@ -4302,65 +4317,68 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N65" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F66" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1009</v>
+      </c>
       <c r="H66" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="11">
-        <v>20001007</v>
+      <c r="L66" s="15">
+        <v>20001002</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N66" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q66" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L67" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N67" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q67" s="16" t="s">
         <v>132</v>
@@ -4368,26 +4386,26 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L68" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N68" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>132</v>
@@ -4395,26 +4413,26 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="15">
-        <v>20001005</v>
+      <c r="L69" s="11">
+        <v>20001017</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N69" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q69" s="16" t="s">
         <v>132</v>
@@ -4422,10 +4440,10 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
@@ -4438,18 +4456,18 @@
         <v>20001005</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N70" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>52</v>
@@ -4471,31 +4489,31 @@
         <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L72" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N72" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>134</v>
@@ -4503,26 +4521,26 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="11">
-        <v>20001011</v>
+      <c r="L73" s="15">
+        <v>20001008</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="N73" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q73" s="16" t="s">
         <v>134</v>
@@ -4530,43 +4548,40 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="15">
-        <v>20001001</v>
+      <c r="L74" s="11">
+        <v>20001011</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N74" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q74" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q74" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G75" s="1">
         <v>1009</v>
@@ -4578,65 +4593,68 @@
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N75" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F76" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F76" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1009</v>
+      </c>
       <c r="H76" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="11">
-        <v>20001007</v>
+      <c r="L76" s="15">
+        <v>20001002</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N77" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>132</v>
@@ -4644,26 +4662,26 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N78" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q78" s="16" t="s">
         <v>132</v>
@@ -4671,34 +4689,34 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="15">
-        <v>20001005</v>
+      <c r="L79" s="11">
+        <v>20001013</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q79" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>52</v>
@@ -4720,31 +4738,31 @@
         <v>180</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="11">
-        <v>20001015</v>
+      <c r="L81" s="15">
+        <v>20001005</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N81" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>134</v>
@@ -4752,14 +4770,14 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
@@ -4768,10 +4786,10 @@
         <v>20001015</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N82" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>134</v>
@@ -4779,43 +4797,40 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G83" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15">
-        <v>20001001</v>
+      <c r="L83" s="11">
+        <v>20001015</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N83" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q83" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q83" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F84" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G84" s="1">
         <v>1009</v>
@@ -4827,65 +4842,68 @@
         <v>181</v>
       </c>
       <c r="L84" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N84" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F85" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F85" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1009</v>
+      </c>
       <c r="H85" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L85" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N85" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q85" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="11">
-        <v>20001012</v>
+      <c r="L86" s="15">
+        <v>20001003</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N86" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>132</v>
@@ -4893,26 +4911,26 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L87" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N87" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q87" s="16" t="s">
         <v>132</v>
@@ -4920,26 +4938,26 @@
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L88" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N88" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
         <v>132</v>
@@ -4947,34 +4965,34 @@
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="15">
-        <v>20001005</v>
+      <c r="L89" s="11">
+        <v>20001013</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N89" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>52</v>
@@ -4996,15 +5014,15 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="15">
-        <v>20099001</v>
+      <c r="C91" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
@@ -5013,8 +5031,8 @@
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="11" t="s">
-        <v>47</v>
+      <c r="L91" s="15">
+        <v>20001005</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>194</v>
@@ -5023,15 +5041,15 @@
         <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
@@ -5050,15 +5068,15 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
@@ -5077,15 +5095,15 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
@@ -5104,15 +5122,15 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5131,15 +5149,15 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
@@ -5148,8 +5166,8 @@
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L96" s="15">
-        <v>20001005</v>
+      <c r="L96" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>194</v>
@@ -5158,28 +5176,55 @@
         <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="H97" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L97" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N97" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q97" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C820A9F1-F491-4636-82CA-83255F6FDBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF08123-9A8A-4A59-AA7E-05DF64499CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="333">
   <si>
     <t>#</t>
   </si>
@@ -1814,6 +1814,30 @@
   </si>
   <si>
     <t>5015,-430,-2904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 神器商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5109,-428,-2968</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1747,-428,-3552</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1998,7 +2022,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2076,9 +2100,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2386,10 +2407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X116"/>
+  <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2633,10 +2654,10 @@
         <v>301</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="H6" s="28">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="L6" s="15">
@@ -2658,10 +2679,10 @@
         <v>302</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="H7" s="28">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="L7" s="15">
@@ -2683,10 +2704,10 @@
         <v>304</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="H8" s="28">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="L8" s="15">
@@ -2708,10 +2729,10 @@
         <v>303</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="H9" s="28">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="L9" s="15">
@@ -2743,10 +2764,10 @@
       <c r="G10" s="1">
         <v>1012</v>
       </c>
-      <c r="H10" s="28">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="L10" s="15">
@@ -2773,10 +2794,10 @@
       <c r="G11" s="1">
         <v>1009</v>
       </c>
-      <c r="H11" s="28">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="L11" s="15">
@@ -2801,10 +2822,10 @@
       <c r="G12" s="1">
         <v>1004</v>
       </c>
-      <c r="H12" s="28">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
@@ -2829,10 +2850,10 @@
       <c r="G13" s="1">
         <v>1015</v>
       </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="L13" s="15">
@@ -2857,10 +2878,10 @@
       <c r="G14" s="1">
         <v>1017</v>
       </c>
-      <c r="H14" s="28">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="L14" s="15">
@@ -2886,10 +2907,10 @@
       <c r="G15" s="1">
         <v>1005</v>
       </c>
-      <c r="H15" s="28">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="L15" s="11" t="s">
@@ -2918,10 +2939,10 @@
       <c r="G16" s="1">
         <v>1018</v>
       </c>
-      <c r="H16" s="28">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="L16" s="15">
@@ -2948,10 +2969,10 @@
       <c r="G17" s="1">
         <v>1019</v>
       </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="L17" s="15">
@@ -2978,10 +2999,10 @@
       <c r="G18" s="1">
         <v>1016</v>
       </c>
-      <c r="H18" s="28">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="15" t="s">
@@ -3008,10 +3029,10 @@
       <c r="G19" s="1">
         <v>1020</v>
       </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
@@ -3038,10 +3059,10 @@
       <c r="G20" s="1">
         <v>1021</v>
       </c>
-      <c r="H20" s="28">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
@@ -3068,10 +3089,10 @@
       <c r="G21" s="1">
         <v>1007</v>
       </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
@@ -3100,10 +3121,10 @@
       <c r="G22" s="1">
         <v>1006</v>
       </c>
-      <c r="H22" s="28">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
@@ -3132,10 +3153,10 @@
       <c r="G23" s="1">
         <v>1008</v>
       </c>
-      <c r="H23" s="28">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
@@ -3161,10 +3182,10 @@
       <c r="G24" s="1">
         <v>1002</v>
       </c>
-      <c r="H24" s="28">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
@@ -3187,10 +3208,10 @@
       <c r="E25" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H25" s="28">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="15" t="s">
@@ -3214,10 +3235,10 @@
       <c r="G26" s="1">
         <v>1014</v>
       </c>
-      <c r="H26" s="28">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
@@ -3240,13 +3261,16 @@
       <c r="E27" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="F27" s="3">
+        <v>4</v>
+      </c>
       <c r="G27" s="1">
         <v>1022</v>
       </c>
-      <c r="H27" s="28">
-        <v>0</v>
-      </c>
-      <c r="I27" s="28">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
@@ -3272,10 +3296,10 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="28">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="3">
@@ -3302,10 +3326,10 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="28">
-        <v>0</v>
-      </c>
-      <c r="I29" s="28">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="3">
@@ -3332,10 +3356,10 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="28">
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="3">
@@ -3384,99 +3408,108 @@
     </row>
     <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1022</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1023</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-30</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F34" s="15">
         <v>10001101</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G34" s="1">
         <v>1009</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L32" s="15">
+      <c r="I34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="15">
         <v>20001001</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M34" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N34" s="3">
         <v>60</v>
       </c>
-      <c r="Q32" s="15"/>
-    </row>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L33" s="15">
-        <v>20001002</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q33" s="15"/>
-    </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="H34" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N34" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>131</v>
-      </c>
+      <c r="Q34" s="15"/>
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14">
-        <v>20001004</v>
+        <v>20001002</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F35" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1009</v>
+      </c>
       <c r="H35" s="6" t="s">
         <v>157</v>
       </c>
@@ -3484,51 +3517,49 @@
         <v>181</v>
       </c>
       <c r="L35" s="15">
-        <v>20001004</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>189</v>
+        <v>20001002</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="N35" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-45</v>
+      </c>
+      <c r="Q35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F36" s="15"/>
       <c r="H36" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L36" s="15">
-        <v>20001005</v>
+        <v>20001003</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N36" s="3">
-        <v>-45</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="15">
-        <v>20001006</v>
+      <c r="C37" s="14">
+        <v>20001004</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
@@ -3538,51 +3569,51 @@
         <v>181</v>
       </c>
       <c r="L37" s="15">
-        <v>20001006</v>
+        <v>20001004</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N37" s="3">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="15">
-        <v>20001007</v>
+        <v>20001005</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001007</v>
-      </c>
-      <c r="M38" s="17" t="s">
-        <v>190</v>
+        <v>20001005</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N38" s="3">
-        <v>150</v>
+        <v>-45</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001008</v>
+        <v>20001006</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
@@ -3592,279 +3623,279 @@
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001008</v>
+        <v>20001006</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N39" s="3">
-        <v>-155</v>
+        <v>45</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L40" s="15">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="N40" s="3">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="18">
-        <v>20001010</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="20"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="H41" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I41" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="L41" s="20">
-        <v>20001010</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N41" s="19">
-        <v>180</v>
-      </c>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
+      <c r="I41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q41" s="16" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001011</v>
+        <v>20001009</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>192</v>
+        <v>20001009</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="N42" s="3">
-        <v>-180</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="H43" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N43" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>139</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="18">
+        <v>20001010</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="L43" s="20">
+        <v>20001010</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="N43" s="19">
+        <v>180</v>
+      </c>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001013</v>
+        <v>20001011</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001013</v>
+        <v>20001011</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N44" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001014</v>
+        <v>20001012</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001014</v>
+        <v>20001012</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N45" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N46" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001016</v>
+        <v>20001014</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001016</v>
+        <v>20001014</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N47" s="3">
         <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001017</v>
+        <v>20001015</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001017</v>
+        <v>20001015</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N48" s="3">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001018</v>
+        <v>20001016</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
@@ -3873,9 +3904,8 @@
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="L49" s="11">
-        <v>0</v>
+      <c r="L49" s="15">
+        <v>20001016</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>194</v>
@@ -3884,42 +3914,42 @@
         <v>180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001019</v>
+        <v>20001017</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001019</v>
+        <v>20001017</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N50" s="3">
-        <v>-180</v>
+        <v>120</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001020</v>
+        <v>20001018</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
@@ -3928,8 +3958,9 @@
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="15">
-        <v>20001019</v>
+      <c r="J51" s="1"/>
+      <c r="L51" s="11">
+        <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>194</v>
@@ -3938,28 +3969,28 @@
         <v>180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>-180</v>
@@ -3970,42 +4001,39 @@
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001022</v>
+        <v>20001020</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001022</v>
+        <v>20001019</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N53" s="3">
-        <v>-106</v>
+        <v>180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001023</v>
+        <v>20001021</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="1">
-        <v>1004</v>
-      </c>
       <c r="H54" s="6" t="s">
         <v>157</v>
       </c>
@@ -4013,53 +4041,55 @@
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001023</v>
+        <v>20001021</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N54" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q54" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001024</v>
+        <v>20001022</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001024</v>
+        <v>20001022</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N55" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q55" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="14" t="s">
-        <v>71</v>
+      <c r="C56" s="15">
+        <v>20001023</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="15">
-        <v>10002101</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F56" s="15"/>
       <c r="G56" s="1">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>157</v>
@@ -4068,29 +4098,24 @@
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001001</v>
+        <v>20001023</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="N56" s="3">
-        <v>-147</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="15"/>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="14" t="s">
-        <v>72</v>
+      <c r="C57" s="15">
+        <v>20001024</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="15">
-        <v>10002201</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
         <v>157</v>
       </c>
@@ -4098,92 +4123,98 @@
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001002</v>
+        <v>20001024</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N57" s="3">
-        <v>-129</v>
+        <v>-152</v>
       </c>
       <c r="Q57" s="15"/>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F58" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1009</v>
+      </c>
       <c r="H58" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="11">
-        <v>20001007</v>
+      <c r="L58" s="15">
+        <v>20001001</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N58" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q58" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-147</v>
+      </c>
+      <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F59" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F59" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1009</v>
+      </c>
       <c r="H59" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001005</v>
+        <v>20001002</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q59" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>155</v>
+        <v>253</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L60" s="11">
-        <v>20001009</v>
+        <v>20001007</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N60" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q60" s="16" t="s">
         <v>132</v>
@@ -4191,14 +4222,14 @@
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
@@ -4207,7 +4238,7 @@
         <v>20001005</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N61" s="3">
         <v>180</v>
@@ -4218,41 +4249,41 @@
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001005</v>
+      <c r="L62" s="11">
+        <v>20001009</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="N62" s="3">
         <v>180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
@@ -4261,21 +4292,21 @@
         <v>20001005</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N63" s="3">
         <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
@@ -4284,32 +4315,27 @@
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="11">
-        <v>20001017</v>
+      <c r="L64" s="15">
+        <v>20001005</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N64" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
         <v>157</v>
       </c>
@@ -4317,122 +4343,127 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N65" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q65" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q65" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="15">
-        <v>20001002</v>
+      <c r="L66" s="11">
+        <v>20001017</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N66" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q66" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F67" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1009</v>
+      </c>
       <c r="H67" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="11">
-        <v>20001007</v>
+      <c r="L67" s="15">
+        <v>20001001</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N67" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q67" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q67" s="15"/>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F68" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F68" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1009</v>
+      </c>
       <c r="H68" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001011</v>
+      <c r="L68" s="15">
+        <v>20001002</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N68" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L69" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N69" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q69" s="16" t="s">
         <v>132</v>
@@ -4440,26 +4471,26 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="15">
-        <v>20001005</v>
+      <c r="L70" s="11">
+        <v>20001011</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N70" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q70" s="16" t="s">
         <v>132</v>
@@ -4467,37 +4498,37 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="15">
-        <v>20001005</v>
+      <c r="L71" s="11">
+        <v>20001017</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="N71" s="3">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
@@ -4510,64 +4541,64 @@
         <v>20001005</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N72" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L73" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N73" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="11">
-        <v>20001011</v>
+      <c r="L74" s="15">
+        <v>20001005</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="N74" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q74" s="16" t="s">
         <v>134</v>
@@ -4575,140 +4606,140 @@
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1009</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001001</v>
+        <v>20001008</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="N75" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q75" s="15"/>
+        <v>-70</v>
+      </c>
+      <c r="Q75" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="15">
-        <v>20001002</v>
+      <c r="L76" s="11">
+        <v>20001011</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N76" s="3">
-        <v>-41</v>
-      </c>
-      <c r="Q76" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q76" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F77" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F77" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1009</v>
+      </c>
       <c r="H77" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="11">
-        <v>20001007</v>
+      <c r="L77" s="15">
+        <v>20001001</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="N77" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F78" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1009</v>
+      </c>
       <c r="H78" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="11">
-        <v>20001017</v>
+      <c r="L78" s="15">
+        <v>20001002</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N78" s="3">
-        <v>101</v>
-      </c>
-      <c r="Q78" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L79" s="11">
-        <v>20001013</v>
+        <v>20001007</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N79" s="3">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="16" t="s">
         <v>132</v>
@@ -4716,107 +4747,107 @@
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="15">
-        <v>20001005</v>
+      <c r="L80" s="11">
+        <v>20001017</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="N80" s="3">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="15">
-        <v>20001005</v>
+      <c r="L81" s="11">
+        <v>20001013</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N81" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="11">
-        <v>20001015</v>
+      <c r="L82" s="15">
+        <v>20001005</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N82" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11">
-        <v>20001015</v>
+      <c r="L83" s="15">
+        <v>20001005</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N83" s="3">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>134</v>
@@ -4824,137 +4855,137 @@
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1009</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="15">
-        <v>20001001</v>
+      <c r="L84" s="11">
+        <v>20001015</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N84" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q84" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q84" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F85" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="15">
-        <v>20001002</v>
+      <c r="L85" s="11">
+        <v>20001015</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N85" s="3">
-        <v>-44</v>
-      </c>
-      <c r="Q85" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q85" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F86" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F86" s="15">
+        <v>10005101</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1009</v>
+      </c>
       <c r="H86" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L86" s="15">
-        <v>20001003</v>
+        <v>20001001</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N86" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q86" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F87" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F87" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1009</v>
+      </c>
       <c r="H87" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="11">
-        <v>20001012</v>
+      <c r="L87" s="15">
+        <v>20001002</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N87" s="3">
-        <v>92</v>
-      </c>
-      <c r="Q87" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="11">
-        <v>20001015</v>
+      <c r="L88" s="15">
+        <v>20001003</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="N88" s="3">
         <v>180</v>
@@ -4965,26 +4996,26 @@
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L89" s="11">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N89" s="3">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="Q89" s="16" t="s">
         <v>132</v>
@@ -4992,10 +5023,10 @@
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
@@ -5004,8 +5035,8 @@
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="15">
-        <v>20001005</v>
+      <c r="L90" s="11">
+        <v>20001015</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>194</v>
@@ -5014,42 +5045,42 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="15">
-        <v>20001005</v>
+      <c r="L91" s="11">
+        <v>20001013</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N91" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="15">
-        <v>20099001</v>
+      <c r="C92" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
@@ -5058,8 +5089,8 @@
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="11" t="s">
-        <v>47</v>
+      <c r="L92" s="15">
+        <v>20001005</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>194</v>
@@ -5068,15 +5099,15 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="15">
-        <v>20099002</v>
+      <c r="C93" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
@@ -5085,8 +5116,8 @@
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="11" t="s">
-        <v>47</v>
+      <c r="L93" s="15">
+        <v>20001005</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>194</v>
@@ -5095,15 +5126,15 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="15">
-        <v>20099003</v>
+        <v>20099001</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
@@ -5122,15 +5153,15 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="15">
-        <v>20099004</v>
+        <v>20099002</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5149,15 +5180,15 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="15">
-        <v>20099005</v>
+        <v>20099003</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
@@ -5176,15 +5207,15 @@
         <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="15">
-        <v>20099006</v>
+        <v>20099004</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
@@ -5193,8 +5224,8 @@
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="15">
-        <v>20001005</v>
+      <c r="L97" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>194</v>
@@ -5203,11 +5234,63 @@
         <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F98" s="15"/>
+      <c r="H98" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N98" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q98" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="15"/>
+      <c r="H99" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L99" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N99" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q99" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5225,6 +5308,8 @@
     <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF08123-9A8A-4A59-AA7E-05DF64499CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C231E-0BFC-4E64-B7F1-CC48A4F520ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -180,10 +180,13 @@
           <t xml:space="preserve">
 对应Function
 功能表ID
-1  宠物兑换
+1  神兽兑换
 2  挑战之地
-&gt;100
-</t>
+3  循环任务
+4  魔能老人
+5  补偿大师
+&gt;1000  FunctionConfig
+ </t>
         </r>
       </text>
     </comment>
@@ -2409,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3208,6 +3211,9 @@
       <c r="E25" s="1" t="s">
         <v>299</v>
       </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>331</v>
       </c>
       <c r="G33" s="1">
-        <v>1023</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF08123-9A8A-4A59-AA7E-05DF64499CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109835AC-D4E1-4F7D-A379-A7EDE29EE409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="341">
   <si>
     <t>#</t>
   </si>
@@ -1629,215 +1629,241 @@
     <t>NPC_CangKu</t>
   </si>
   <si>
+    <t>NPC_LianJin</t>
+  </si>
+  <si>
+    <t>NPC_FuHua</t>
+  </si>
+  <si>
+    <t>NPC_BaoXiang</t>
+  </si>
+  <si>
+    <t>NPC_CaiFeng</t>
+  </si>
+  <si>
+    <t>NPC_ZhuanZhi</t>
+  </si>
+  <si>
+    <t>20000016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1394,-29,4347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5671,-96,2162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5663,-75,2965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>882,374,6308</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3849,-442,1527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4963,357,4965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1305,345,6417</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3095,-420,-5199</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5266,-250,-3636</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5523,-247,-318</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987,-428,1137</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506,-31,3674</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4288,606,4787</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大使</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1415,-404,-1472</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城卫队长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城弓手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这可以购买你需要的商品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储存箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石制造商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1853,-428,1348</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000019</t>
+  </si>
+  <si>
+    <t>20000020</t>
+  </si>
+  <si>
+    <t>20000015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_1</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenShou_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,607</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,357</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5015,-430,-2904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 神器商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1747,-428,-3552</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenMi</t>
+  </si>
+  <si>
+    <t>NPC_LaoTou</t>
+  </si>
+  <si>
+    <t>NPC_Shu</t>
+  </si>
+  <si>
     <t>NPC_DuanZao</t>
-  </si>
-  <si>
-    <t>NPC_LianJin</t>
-  </si>
-  <si>
-    <t>NPC_FuHua</t>
-  </si>
-  <si>
-    <t>NPC_BaoXiang</t>
-  </si>
-  <si>
-    <t>NPC_CaiFeng</t>
-  </si>
-  <si>
-    <t>NPC_ZhuanZhi</t>
-  </si>
-  <si>
-    <t>20000016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1394,-29,4347</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5671,-96,2162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5663,-75,2965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>882,374,6308</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3849,-442,1527</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4963,357,4965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1305,345,6417</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍卖行商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3095,-420,-5199</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5266,-250,-3636</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5523,-247,-318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4987,-428,1137</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506,-31,3674</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4288,606,4787</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>补偿大使</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1415,-404,-1472</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城卫队长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城弓手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这可以购买你需要的商品！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库储存箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石制造商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1853,-428,1348</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000019</t>
-  </si>
-  <si>
-    <t>20000020</t>
-  </si>
-  <si>
-    <t>20000015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神兽:精灵麋鹿</t>
-  </si>
-  <si>
-    <t>神兽:幽光晴晴</t>
-  </si>
-  <si>
-    <t>神兽:仙界魔龙</t>
-  </si>
-  <si>
-    <t>NPC_ShenShou_1</t>
-  </si>
-  <si>
-    <t>NPC_ShenShou_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ShenShou_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,607</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,357</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,107</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5015,-430,-2904</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000023</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 神器商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5109,-428,-2968</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏金猎人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1747,-428,-3552</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenQi</t>
+  </si>
+  <si>
+    <t>NPC_LaoTou_2</t>
+  </si>
+  <si>
+    <t>NPC_ShangJin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ZaHuo</t>
+  </si>
+  <si>
+    <t>NPC_WuQi</t>
+  </si>
+  <si>
+    <t>3816,-428,-3622</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1931,6 +1957,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2022,7 +2062,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2099,6 +2139,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2409,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2651,7 +2713,7 @@
         <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="1">
@@ -2676,7 +2738,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="1">
@@ -2701,7 +2763,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="1">
@@ -2726,7 +2788,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="1">
@@ -2745,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2770,11 +2832,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
-        <v>20001001</v>
+      <c r="L10" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N10" s="3">
         <v>-90</v>
@@ -2800,11 +2862,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="15">
-        <v>20001002</v>
+      <c r="L11" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N11" s="3">
         <v>-280</v>
@@ -2816,7 +2878,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
@@ -2832,7 +2894,7 @@
         <v>276</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N12" s="3">
         <v>-180</v>
@@ -2856,46 +2918,57 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="L13" s="15">
-        <v>20001024</v>
+      <c r="L13" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N13" s="3">
         <v>-280</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
+    <row r="14" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="1">
+      <c r="F14" s="30"/>
+      <c r="G14" s="31">
         <v>1017</v>
       </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="H14" s="31">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>0</v>
+      </c>
+      <c r="J14" s="32"/>
+      <c r="L14" s="30">
         <v>20001007</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="29">
         <v>-180</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="30" t="s">
         <v>242</v>
       </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
@@ -2917,7 +2990,7 @@
         <v>239</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N15" s="1">
         <v>-180</v>
@@ -2928,67 +3001,89 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
+    <row r="16" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="1">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31">
         <v>1018</v>
       </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="H16" s="31">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>0</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="L16" s="30">
         <v>20001024</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="29">
         <v>-90</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="30" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14" t="s">
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+    </row>
+    <row r="17" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="1">
+      <c r="F17" s="30"/>
+      <c r="G17" s="31">
         <v>1019</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="H17" s="31">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>0</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="L17" s="30">
         <v>20001024</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="29">
         <v>90</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="30" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+    </row>
+    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14" t="s">
         <v>247</v>
       </c>
@@ -3009,7 +3104,7 @@
         <v>251</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3018,7 +3113,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
         <v>258</v>
       </c>
@@ -3036,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N19" s="3">
         <v>-270</v>
@@ -3048,7 +3143,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14" t="s">
         <v>260</v>
       </c>
@@ -3066,17 +3161,17 @@
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N20" s="3">
         <v>45</v>
       </c>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
         <v>273</v>
       </c>
@@ -3096,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N21" s="3">
         <v>90</v>
@@ -3108,7 +3203,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
         <v>271</v>
       </c>
@@ -3128,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N22" s="3">
         <v>90</v>
@@ -3140,7 +3235,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14" t="s">
         <v>272</v>
       </c>
@@ -3160,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N23" s="3">
         <v>125</v>
@@ -3172,9 +3267,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>274</v>
@@ -3189,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -3201,36 +3296,36 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>300</v>
       </c>
       <c r="N25" s="3">
         <v>-90</v>
       </c>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="G26" s="1">
         <v>1014</v>
@@ -3242,24 +3337,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N26" s="3">
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -3274,24 +3369,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M27" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3302,26 +3397,26 @@
       <c r="I28" s="1">
         <v>0</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="1">
         <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N28" s="3">
         <v>90</v>
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3332,26 +3427,26 @@
       <c r="I29" s="1">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="1">
         <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N29" s="3">
         <v>90</v>
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3362,26 +3457,26 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="1">
         <v>54</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N30" s="3">
         <v>90</v>
       </c>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>324</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>325</v>
       </c>
       <c r="F31" s="15">
         <v>100001</v>
@@ -3396,22 +3491,22 @@
         <v>181</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N31" s="3">
         <v>-110</v>
       </c>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -3426,24 +3521,24 @@
         <v>0</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>277</v>
+        <v>335</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="N32" s="3">
-        <v>-180</v>
+        <v>-30</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G33" s="1">
         <v>1023</v>
@@ -3455,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N33" s="3">
         <v>-30</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,8 +3581,8 @@
       <c r="I34" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L34" s="15">
-        <v>20001001</v>
+      <c r="L34" s="15" t="s">
+        <v>339</v>
       </c>
       <c r="M34" s="17" t="s">
         <v>186</v>
@@ -3516,8 +3611,8 @@
       <c r="I35" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L35" s="15">
-        <v>20001002</v>
+      <c r="L35" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>185</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109835AC-D4E1-4F7D-A379-A7EDE29EE409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDBF85B-8A0E-43CE-B8AA-61F550AFA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -181,8 +181,11 @@
 对应Function
 功能表ID
 1  宠物兑换
-2  挑战之地
-&gt;100
+2  挑战之地 
+3  循环任务
+4  魔能老人
+5  补偿大师
+&gt;1000 functionconfig
 </t>
         </r>
       </text>
@@ -2471,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3303,6 +3306,9 @@
       <c r="E25" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
       <c r="H25" s="1">
         <v>0</v>
       </c>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDBF85B-8A0E-43CE-B8AA-61F550AFA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEAE20-D73C-4F8F-A6A6-BE2B5DCA1836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2474,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3547,7 +3547,7 @@
         <v>329</v>
       </c>
       <c r="G33" s="1">
-        <v>1023</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEAE20-D73C-4F8F-A6A6-BE2B5DCA1836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889083E-C286-4C39-B4DA-C2F7A314F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="342">
   <si>
     <t>#</t>
   </si>
@@ -1867,6 +1867,10 @@
   </si>
   <si>
     <t>3816,-428,-3622</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我这里可以接取赏金任务,可以领取许许多多的金币奖励哦！</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2474,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3565,7 +3569,7 @@
         <v>-30</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A889083E-C286-4C39-B4DA-C2F7A314F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C4C34-43B2-4313-82AC-8A1DBEBBD4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2478,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39C4C34-43B2-4313-82AC-8A1DBEBBD4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC4D8C-5193-4F98-9754-F78EB0780B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="347">
   <si>
     <t>#</t>
   </si>
@@ -1488,389 +1488,410 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>20000006</t>
+  </si>
+  <si>
+    <t>快来看看有没有你的邮件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这里是属于你的安全领地.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>领地兑换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼中心</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1882,-9,1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1931,-9,2043</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc_Rank</t>
+  </si>
+  <si>
+    <t>-3364,-9,-876</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15088,3459,-7500</t>
+  </si>
+  <si>
+    <t>20000010</t>
+  </si>
+  <si>
+    <t>宠物蛋培养</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000011</t>
+  </si>
+  <si>
+    <t>幸运探宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁缝大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我做的衣服很好看,想学习就要准备好金币噢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打造的武器是这里最出色的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>药剂可以帮助你在逆境中战胜困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000013</t>
+  </si>
+  <si>
+    <t>20000014</t>
+  </si>
+  <si>
+    <t>20000012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>转职大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择一个合适的职业尤为重要！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_CangKu</t>
+  </si>
+  <si>
+    <t>NPC_LianJin</t>
+  </si>
+  <si>
+    <t>NPC_FuHua</t>
+  </si>
+  <si>
+    <t>NPC_BaoXiang</t>
+  </si>
+  <si>
+    <t>NPC_CaiFeng</t>
+  </si>
+  <si>
+    <t>NPC_ZhuanZhi</t>
+  </si>
+  <si>
+    <t>20000016</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1394,-29,4347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5671,-96,2162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5663,-75,2965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>882,374,6308</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3849,-442,1527</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4963,357,4965</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1305,345,6417</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000017</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍卖行商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3095,-420,-5199</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5266,-250,-3636</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5523,-247,-318</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4987,-428,1137</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1506,-31,3674</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4288,606,4787</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿大使</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1415,-404,-1472</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫兵</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城卫队长</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>护城弓手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这可以购买你需要的商品！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库储存箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000018</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石制造商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1853,-428,1348</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000019</t>
+  </si>
+  <si>
+    <t>20000020</t>
+  </si>
+  <si>
+    <t>20000015</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000021</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽:精灵麋鹿</t>
+  </si>
+  <si>
+    <t>神兽:幽光晴晴</t>
+  </si>
+  <si>
+    <t>神兽:仙界魔龙</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_1</t>
+  </si>
+  <si>
+    <t>NPC_ShenShou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenShou_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,607</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,357</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1156,-428,107</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000022</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5015,-430,-2904</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000023</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 神器商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1747,-428,-3552</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenMi</t>
+  </si>
+  <si>
+    <t>NPC_LaoTou</t>
+  </si>
+  <si>
+    <t>NPC_Shu</t>
+  </si>
+  <si>
+    <t>NPC_DuanZao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenQi</t>
+  </si>
+  <si>
+    <t>NPC_ShangJin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ZaHuo</t>
+  </si>
+  <si>
+    <t>NPC_WuQi</t>
+  </si>
+  <si>
+    <t>3816,-428,-3622</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我这里可以接取赏金任务,可以领取许许多多的金币奖励哦！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集珍宝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里有许许多多的商品但是限量噢!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_LaoTou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4658,-85,3444</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_LaoTou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>NPC_Mail</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20000006</t>
-  </si>
-  <si>
-    <t>快来看看有没有你的邮件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这里是属于你的安全领地.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>领地兑换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修炼中心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排行榜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1882,-9,1050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1931,-9,2043</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Npc_Rank</t>
-  </si>
-  <si>
-    <t>-3364,-9,-876</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15088,3459,-7500</t>
-  </si>
-  <si>
-    <t>20000010</t>
-  </si>
-  <si>
-    <t>宠物蛋培养</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000011</t>
-  </si>
-  <si>
-    <t>幸运探宝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁缝大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我做的衣服很好看,想学习就要准备好金币噢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻造大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打造的武器是这里最出色的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼金大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>药剂可以帮助你在逆境中战胜困难</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000013</t>
-  </si>
-  <si>
-    <t>20000014</t>
-  </si>
-  <si>
-    <t>20000012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>转职大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择一个合适的职业尤为重要！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_CangKu</t>
-  </si>
-  <si>
-    <t>NPC_LianJin</t>
-  </si>
-  <si>
-    <t>NPC_FuHua</t>
-  </si>
-  <si>
-    <t>NPC_BaoXiang</t>
-  </si>
-  <si>
-    <t>NPC_CaiFeng</t>
-  </si>
-  <si>
-    <t>NPC_ZhuanZhi</t>
-  </si>
-  <si>
-    <t>20000016</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1394,-29,4347</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5671,-96,2162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5663,-75,2965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>882,374,6308</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3849,-442,1527</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4963,357,4965</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1305,345,6417</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000017</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍卖行商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3095,-420,-5199</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5266,-250,-3636</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5523,-247,-318</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4987,-428,1137</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1506,-31,3674</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4288,606,4787</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>补偿大使</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1415,-404,-1472</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫兵</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卫士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城卫队长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>护城弓手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎你来到这个城市,不过要小心周围,敌人总是喜欢这样偷袭。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在这可以购买你需要的商品！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库储存箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000018</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石制造商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1853,-428,1348</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000019</t>
-  </si>
-  <si>
-    <t>20000020</t>
-  </si>
-  <si>
-    <t>20000015</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000021</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神兽:精灵麋鹿</t>
-  </si>
-  <si>
-    <t>神兽:幽光晴晴</t>
-  </si>
-  <si>
-    <t>神兽:仙界魔龙</t>
-  </si>
-  <si>
-    <t>NPC_ShenShou_1</t>
-  </si>
-  <si>
-    <t>NPC_ShenShou_2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ShenShou_3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,607</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,357</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1156,-428,107</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000022</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5015,-430,-2904</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000023</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 神器商人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>赏金猎人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1747,-428,-3552</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ShenMi</t>
-  </si>
-  <si>
-    <t>NPC_LaoTou</t>
-  </si>
-  <si>
-    <t>NPC_Shu</t>
-  </si>
-  <si>
-    <t>NPC_DuanZao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ShenQi</t>
-  </si>
-  <si>
-    <t>NPC_LaoTou_2</t>
-  </si>
-  <si>
-    <t>NPC_ShangJin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC_ZaHuo</t>
-  </si>
-  <si>
-    <t>NPC_WuQi</t>
-  </si>
-  <si>
-    <t>3816,-428,-3622</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>在我这里可以接取赏金任务,可以领取许许多多的金币奖励哦！</t>
+    <t>20000025</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1878,7 +1899,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1979,6 +2000,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2069,7 +2097,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,6 +2197,9 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2476,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X118"/>
+  <dimension ref="C1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2720,7 +2751,7 @@
         <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="1">
@@ -2745,7 +2776,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="1">
@@ -2770,7 +2801,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="1">
@@ -2795,7 +2826,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="1">
@@ -2814,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2840,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N10" s="3">
         <v>-90</v>
@@ -2870,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N11" s="3">
         <v>-280</v>
@@ -2885,7 +2916,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
@@ -2898,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N12" s="3">
         <v>-180</v>
@@ -2926,10 +2957,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N13" s="3">
         <v>-280</v>
@@ -2967,7 +2998,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
@@ -2979,7 +3010,7 @@
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>238</v>
@@ -2993,11 +3024,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>239</v>
+      <c r="L15" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N15" s="1">
         <v>-180</v>
@@ -3005,16 +3036,16 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="31">
@@ -3031,7 +3062,7 @@
         <v>20001024</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N16" s="29">
         <v>-90</v>
@@ -3039,7 +3070,7 @@
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
       <c r="Q16" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
@@ -3051,11 +3082,11 @@
     </row>
     <row r="17" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="31">
@@ -3072,7 +3103,7 @@
         <v>20001024</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N17" s="29">
         <v>90</v>
@@ -3080,7 +3111,7 @@
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
       <c r="Q17" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
@@ -3092,10 +3123,10 @@
     </row>
     <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="1">
@@ -3108,24 +3139,24 @@
         <v>0</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="1">
@@ -3138,24 +3169,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N19" s="3">
         <v>-270</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="1">
@@ -3168,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N20" s="3">
         <v>45</v>
@@ -3180,13 +3211,13 @@
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="G21" s="1">
         <v>1007</v>
@@ -3198,27 +3229,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N21" s="3">
         <v>90</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="G22" s="1">
         <v>1006</v>
@@ -3230,27 +3261,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N22" s="3">
         <v>90</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="G23" s="1">
         <v>1008</v>
@@ -3262,24 +3293,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N23" s="3">
         <v>125</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G24" s="1">
         <v>1002</v>
@@ -3291,24 +3322,24 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -3320,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N25" s="3">
         <v>-90</v>
@@ -3332,10 +3363,10 @@
     </row>
     <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="G26" s="1">
         <v>1014</v>
@@ -3347,24 +3378,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N26" s="3">
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -3379,24 +3410,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3411,10 +3442,10 @@
         <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N28" s="3">
         <v>90</v>
@@ -3423,10 +3454,10 @@
     </row>
     <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3441,10 +3472,10 @@
         <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N29" s="3">
         <v>90</v>
@@ -3453,10 +3484,10 @@
     </row>
     <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3471,10 +3502,10 @@
         <v>54</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N30" s="3">
         <v>90</v>
@@ -3483,10 +3514,10 @@
     </row>
     <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>324</v>
       </c>
       <c r="F31" s="15">
         <v>100001</v>
@@ -3501,10 +3532,10 @@
         <v>181</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N31" s="3">
         <v>-110</v>
@@ -3513,10 +3544,10 @@
     </row>
     <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -3531,24 +3562,24 @@
         <v>0</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="N32" s="3">
         <v>-30</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3560,57 +3591,53 @@
         <v>0</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N33" s="3">
         <v>-30</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F34" s="36">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1024</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-30</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="M34" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N34" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q34" s="15"/>
-    </row>
-    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="15">
-        <v>10001201</v>
       </c>
       <c r="G35" s="1">
         <v>1009</v>
@@ -3622,76 +3649,79 @@
         <v>181</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="M35" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N35" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N36" s="3">
         <v>-45</v>
       </c>
-      <c r="Q35" s="15"/>
-    </row>
-    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15">
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="15">
         <v>20001003</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E37" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="H36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N36" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F37" s="15"/>
       <c r="H37" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L37" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N37" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q37" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="14">
         <v>20001004</v>
       </c>
-      <c r="M37" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N37" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
@@ -3701,21 +3731,21 @@
         <v>181</v>
       </c>
       <c r="L38" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N38" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>52</v>
@@ -3728,392 +3758,392 @@
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N39" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="15"/>
       <c r="H40" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L40" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M40" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N40" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N41" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="H43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L42" s="15">
+      <c r="I43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="15">
         <v>20001009</v>
       </c>
-      <c r="M42" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="M43" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N43" s="3">
         <v>35</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="Q43" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="18">
+    <row r="44" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="18">
         <v>20001010</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22" t="s">
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I43" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="22"/>
-      <c r="L43" s="20">
+      <c r="I44" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="L44" s="20">
         <v>20001010</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="M44" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N44" s="19">
         <v>180</v>
       </c>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="25" t="s">
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-    </row>
-    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="H44" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N44" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
     </row>
     <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N45" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N46" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N47" s="3">
         <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N48" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N49" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N50" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="L51" s="11">
-        <v>0</v>
+      <c r="L51" s="15">
+        <v>20001017</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N51" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L52" s="15">
-        <v>20001019</v>
+      <c r="J52" s="1"/>
+      <c r="L52" s="11">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N52" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
@@ -4122,21 +4152,21 @@
         <v>20001019</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
@@ -4146,81 +4176,83 @@
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N54" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N55" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="1">
-        <v>1004</v>
-      </c>
       <c r="H56" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N56" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q56" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q56" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F57" s="15"/>
+      <c r="G57" s="1">
+        <v>1004</v>
+      </c>
       <c r="H57" s="6" t="s">
         <v>157</v>
       </c>
@@ -4228,29 +4260,24 @@
         <v>181</v>
       </c>
       <c r="L57" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N57" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="15">
         <v>20001024</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N57" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q57" s="15"/>
-    </row>
-    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E58" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
         <v>157</v>
       </c>
@@ -4258,25 +4285,25 @@
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N58" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q58" s="15"/>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G59" s="1">
         <v>1009</v>
@@ -4288,65 +4315,68 @@
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N59" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F60" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1009</v>
+      </c>
       <c r="H60" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="11">
-        <v>20001007</v>
+      <c r="L60" s="15">
+        <v>20001002</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N60" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L61" s="15">
-        <v>20001005</v>
+      <c r="L61" s="11">
+        <v>20001007</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N61" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q61" s="16" t="s">
         <v>132</v>
@@ -4354,23 +4384,23 @@
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="11">
-        <v>20001009</v>
+      <c r="L62" s="15">
+        <v>20001005</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N62" s="3">
         <v>180</v>
@@ -4381,23 +4411,23 @@
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="15">
-        <v>20001005</v>
+      <c r="L63" s="11">
+        <v>20001009</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N63" s="3">
         <v>180</v>
@@ -4408,14 +4438,14 @@
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
@@ -4424,18 +4454,18 @@
         <v>20001005</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N64" s="3">
         <v>180</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>52</v>
@@ -4457,15 +4487,15 @@
         <v>180</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
@@ -4474,14 +4504,14 @@
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="11">
-        <v>20001017</v>
+      <c r="L66" s="15">
+        <v>20001005</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N66" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q66" s="16" t="s">
         <v>134</v>
@@ -4489,43 +4519,40 @@
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="15">
-        <v>20001001</v>
+      <c r="L67" s="11">
+        <v>20001017</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N67" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q67" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G68" s="1">
         <v>1009</v>
@@ -4537,65 +4564,68 @@
         <v>181</v>
       </c>
       <c r="L68" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N68" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F69" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F69" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1009</v>
+      </c>
       <c r="H69" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="11">
-        <v>20001007</v>
+      <c r="L69" s="15">
+        <v>20001002</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N69" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L70" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N70" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q70" s="16" t="s">
         <v>132</v>
@@ -4603,26 +4633,26 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L71" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N71" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
         <v>132</v>
@@ -4630,26 +4660,26 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="11">
+        <v>20001017</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N72" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>132</v>
@@ -4657,10 +4687,10 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
@@ -4673,18 +4703,18 @@
         <v>20001005</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N73" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>52</v>
@@ -4706,31 +4736,31 @@
         <v>180</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="N75" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
         <v>134</v>
@@ -4738,26 +4768,26 @@
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="11">
-        <v>20001011</v>
+      <c r="L76" s="15">
+        <v>20001008</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="N76" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>134</v>
@@ -4765,43 +4795,40 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001001</v>
+      <c r="L77" s="11">
+        <v>20001011</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N77" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q77" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q77" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G78" s="1">
         <v>1009</v>
@@ -4813,65 +4840,68 @@
         <v>181</v>
       </c>
       <c r="L78" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N78" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F79" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F79" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1009</v>
+      </c>
       <c r="H79" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="11">
-        <v>20001007</v>
+      <c r="L79" s="15">
+        <v>20001002</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N79" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L80" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N80" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>132</v>
@@ -4879,26 +4909,26 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N81" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>132</v>
@@ -4906,34 +4936,34 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001005</v>
+      <c r="L82" s="11">
+        <v>20001013</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N82" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>52</v>
@@ -4955,31 +4985,31 @@
         <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11">
-        <v>20001015</v>
+      <c r="L84" s="15">
+        <v>20001005</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N84" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q84" s="16" t="s">
         <v>134</v>
@@ -4987,14 +5017,14 @@
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
@@ -5003,10 +5033,10 @@
         <v>20001015</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N85" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>134</v>
@@ -5014,43 +5044,40 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="15">
-        <v>20001001</v>
+      <c r="L86" s="11">
+        <v>20001015</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N86" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q86" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q86" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F87" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G87" s="1">
         <v>1009</v>
@@ -5062,65 +5089,68 @@
         <v>181</v>
       </c>
       <c r="L87" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N87" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F88" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1009</v>
+      </c>
       <c r="H88" s="6" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L88" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N88" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q88" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="11">
-        <v>20001012</v>
+      <c r="L89" s="15">
+        <v>20001003</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N89" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
         <v>132</v>
@@ -5128,26 +5158,26 @@
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L90" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N90" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>132</v>
@@ -5155,26 +5185,26 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L91" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N91" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>132</v>
@@ -5182,34 +5212,34 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="15">
-        <v>20001005</v>
+      <c r="L92" s="11">
+        <v>20001013</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N92" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>52</v>
@@ -5231,15 +5261,15 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="15">
-        <v>20099001</v>
+      <c r="C94" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
@@ -5248,8 +5278,8 @@
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>47</v>
+      <c r="L94" s="15">
+        <v>20001005</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>194</v>
@@ -5258,15 +5288,15 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5285,15 +5315,15 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
@@ -5312,15 +5342,15 @@
         <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
@@ -5339,15 +5369,15 @@
         <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
@@ -5366,15 +5396,15 @@
         <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
@@ -5383,8 +5413,8 @@
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="15">
-        <v>20001005</v>
+      <c r="L99" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>194</v>
@@ -5393,10 +5423,36 @@
         <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="15"/>
+      <c r="H100" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L100" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N100" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q100" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5415,6 +5471,7 @@
     <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFC4D8C-5193-4F98-9754-F78EB0780B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32C90C-B2D0-4EED-BE5C-C4979AA90829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2510,7 +2510,7 @@
   <dimension ref="C1:X119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3597,7 +3597,7 @@
         <v>343</v>
       </c>
       <c r="N33" s="3">
-        <v>-30</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="11" t="s">
         <v>339</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A32C90C-B2D0-4EED-BE5C-C4979AA90829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5C1AA-6F5E-4256-8C03-7EC19D99E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29625" yWindow="915" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -1892,6 +1892,18 @@
   </si>
   <si>
     <t>20000025</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000026</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>附魔大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>989,357,8471</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2507,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X119"/>
+  <dimension ref="C1:X120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3631,43 +3643,45 @@
     </row>
     <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="3">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1026</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-144</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E36" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M35" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N35" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q35" s="15"/>
-    </row>
-    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="15">
-        <v>10001201</v>
       </c>
       <c r="G36" s="1">
         <v>1009</v>
@@ -3679,76 +3693,79 @@
         <v>181</v>
       </c>
       <c r="L36" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N36" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N37" s="3">
         <v>-45</v>
       </c>
-      <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="15">
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="15">
         <v>20001003</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E38" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="H37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N37" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F38" s="15"/>
       <c r="H38" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L38" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N38" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q38" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="14">
         <v>20001004</v>
       </c>
-      <c r="M38" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N38" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
@@ -3758,21 +3775,21 @@
         <v>181</v>
       </c>
       <c r="L39" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N39" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>52</v>
@@ -3785,392 +3802,392 @@
         <v>181</v>
       </c>
       <c r="L40" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N40" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M41" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N41" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N42" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="H44" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="15">
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="15">
         <v>20001009</v>
       </c>
-      <c r="M43" s="17" t="s">
+      <c r="M44" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N44" s="3">
         <v>35</v>
       </c>
-      <c r="Q43" s="16" t="s">
+      <c r="Q44" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="18">
+    <row r="45" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="18">
         <v>20001010</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20" t="s">
+      <c r="D45" s="19"/>
+      <c r="E45" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22" t="s">
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I44" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="L44" s="20">
+      <c r="I45" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="L45" s="20">
         <v>20001010</v>
       </c>
-      <c r="M44" s="19" t="s">
+      <c r="M45" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N45" s="19">
         <v>180</v>
       </c>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="25" t="s">
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-    </row>
-    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="H45" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N45" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N46" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N47" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N48" s="3">
         <v>180</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N49" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N51" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="L52" s="11">
-        <v>0</v>
+      <c r="L52" s="15">
+        <v>20001017</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L53" s="15">
-        <v>20001019</v>
+      <c r="J53" s="1"/>
+      <c r="L53" s="11">
+        <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N53" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
@@ -4179,21 +4196,21 @@
         <v>20001019</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
@@ -4203,81 +4220,83 @@
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N55" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N56" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="1">
-        <v>1004</v>
-      </c>
       <c r="H57" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q57" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F58" s="15"/>
+      <c r="G58" s="1">
+        <v>1004</v>
+      </c>
       <c r="H58" s="6" t="s">
         <v>157</v>
       </c>
@@ -4285,29 +4304,24 @@
         <v>181</v>
       </c>
       <c r="L58" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N58" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="15">
         <v>20001024</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N58" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q58" s="15"/>
-    </row>
-    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E59" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
         <v>157</v>
       </c>
@@ -4315,25 +4329,25 @@
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N59" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q59" s="15"/>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G60" s="1">
         <v>1009</v>
@@ -4345,65 +4359,68 @@
         <v>181</v>
       </c>
       <c r="L60" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N60" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q60" s="15"/>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F61" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F61" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1009</v>
+      </c>
       <c r="H61" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L61" s="11">
-        <v>20001007</v>
+      <c r="L61" s="15">
+        <v>20001002</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N61" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001005</v>
+      <c r="L62" s="11">
+        <v>20001007</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q62" s="16" t="s">
         <v>132</v>
@@ -4411,23 +4428,23 @@
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="11">
-        <v>20001009</v>
+      <c r="L63" s="15">
+        <v>20001005</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N63" s="3">
         <v>180</v>
@@ -4438,23 +4455,23 @@
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="15">
-        <v>20001005</v>
+      <c r="L64" s="11">
+        <v>20001009</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N64" s="3">
         <v>180</v>
@@ -4465,14 +4482,14 @@
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
@@ -4481,18 +4498,18 @@
         <v>20001005</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N65" s="3">
         <v>180</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>52</v>
@@ -4514,15 +4531,15 @@
         <v>180</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
@@ -4531,14 +4548,14 @@
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="11">
-        <v>20001017</v>
+      <c r="L67" s="15">
+        <v>20001005</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N67" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q67" s="16" t="s">
         <v>134</v>
@@ -4546,43 +4563,40 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="15">
-        <v>20001001</v>
+      <c r="L68" s="11">
+        <v>20001017</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N68" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q68" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q68" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F69" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G69" s="1">
         <v>1009</v>
@@ -4594,65 +4608,68 @@
         <v>181</v>
       </c>
       <c r="L69" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N69" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F70" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1009</v>
+      </c>
       <c r="H70" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001007</v>
+      <c r="L70" s="15">
+        <v>20001002</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N70" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L71" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N71" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q71" s="16" t="s">
         <v>132</v>
@@ -4660,26 +4677,26 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L72" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N72" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>132</v>
@@ -4687,26 +4704,26 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="15">
-        <v>20001005</v>
+      <c r="L73" s="11">
+        <v>20001017</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N73" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q73" s="16" t="s">
         <v>132</v>
@@ -4714,10 +4731,10 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
@@ -4730,18 +4747,18 @@
         <v>20001005</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N74" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>52</v>
@@ -4763,31 +4780,31 @@
         <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L76" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="N76" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>134</v>
@@ -4795,26 +4812,26 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="11">
-        <v>20001011</v>
+      <c r="L77" s="15">
+        <v>20001008</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="N77" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>134</v>
@@ -4822,43 +4839,40 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="15">
-        <v>20001001</v>
+      <c r="L78" s="11">
+        <v>20001011</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N78" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q78" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q78" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G79" s="1">
         <v>1009</v>
@@ -4870,65 +4884,68 @@
         <v>181</v>
       </c>
       <c r="L79" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N79" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F80" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1009</v>
+      </c>
       <c r="H80" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="11">
-        <v>20001007</v>
+      <c r="L80" s="15">
+        <v>20001002</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N81" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>132</v>
@@ -4936,26 +4953,26 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L82" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N82" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>132</v>
@@ -4963,34 +4980,34 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15">
-        <v>20001005</v>
+      <c r="L83" s="11">
+        <v>20001013</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N83" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>52</v>
@@ -5012,31 +5029,31 @@
         <v>180</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11">
-        <v>20001015</v>
+      <c r="L85" s="15">
+        <v>20001005</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N85" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>134</v>
@@ -5044,14 +5061,14 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
@@ -5060,10 +5077,10 @@
         <v>20001015</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N86" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>134</v>
@@ -5071,43 +5088,40 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="15">
-        <v>20001001</v>
+      <c r="L87" s="11">
+        <v>20001015</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N87" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q87" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q87" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F88" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G88" s="1">
         <v>1009</v>
@@ -5119,65 +5133,68 @@
         <v>181</v>
       </c>
       <c r="L88" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N88" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F89" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F89" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1009</v>
+      </c>
       <c r="H89" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L89" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N89" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q89" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q89" s="15"/>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="11">
-        <v>20001012</v>
+      <c r="L90" s="15">
+        <v>20001003</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N90" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>132</v>
@@ -5185,26 +5202,26 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L91" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N91" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>132</v>
@@ -5212,26 +5229,26 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L92" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N92" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
         <v>132</v>
@@ -5239,34 +5256,34 @@
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="15">
-        <v>20001005</v>
+      <c r="L93" s="11">
+        <v>20001013</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N93" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>52</v>
@@ -5288,15 +5305,15 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="15">
-        <v>20099001</v>
+      <c r="C95" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5305,8 +5322,8 @@
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="11" t="s">
-        <v>47</v>
+      <c r="L95" s="15">
+        <v>20001005</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>194</v>
@@ -5315,15 +5332,15 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
@@ -5342,15 +5359,15 @@
         <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
@@ -5369,15 +5386,15 @@
         <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
@@ -5396,15 +5413,15 @@
         <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
@@ -5423,15 +5440,15 @@
         <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
@@ -5440,8 +5457,8 @@
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="15">
-        <v>20001005</v>
+      <c r="L100" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>194</v>
@@ -5450,10 +5467,36 @@
         <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" s="15"/>
+      <c r="H101" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L101" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N101" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q101" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5472,6 +5515,7 @@
     <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F5C1AA-6F5E-4256-8C03-7EC19D99E308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4A131-34A3-441E-B8CD-FAB844D6DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29625" yWindow="915" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="351">
   <si>
     <t>#</t>
   </si>
@@ -1904,6 +1904,10 @@
   </si>
   <si>
     <t>989,357,8471</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ZhuanZhi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2522,7 +2526,7 @@
   <dimension ref="C1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="J31" sqref="J31:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3661,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M35" s="27" t="s">
         <v>349</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D4A131-34A3-441E-B8CD-FAB844D6DB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EA85B-A3BF-4366-98F0-3CF3A51F8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="915" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="315" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="365">
   <si>
     <t>#</t>
   </si>
@@ -1908,6 +1908,59 @@
   </si>
   <si>
     <t>NPC_ZhuanZhi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境之地</t>
+  </si>
+  <si>
+    <t>我这里是个奇妙的地方,你有兴趣就进来看看吧，说不定会有意外收获哦。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密境传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说在密境中有一直守护在这里的巨兽,挑战并击败它可以获得丰厚的奖励</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战之地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>像试试自己差距嘛,那就来我这里吧。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000028</t>
+  </si>
+  <si>
+    <t>20000029</t>
+  </si>
+  <si>
+    <t>20000027</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2555,-58,2044</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2920,-395,-2682</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_LaoTou_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2507,-400,220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShenQi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2523,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X120"/>
+  <dimension ref="C1:X123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:L35"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3679,205 +3732,203 @@
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2000001</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="6">
+        <v>2000002</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="N37" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>2000003</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="N38" s="3">
+        <v>90</v>
+      </c>
+      <c r="O38" s="27"/>
+      <c r="Q38" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F39" s="15">
         <v>10001101</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G39" s="1">
         <v>1009</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M36" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N36" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="15"/>
-    </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="15">
-        <v>10001201</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N37" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="H38" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L38" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N38" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="15"/>
       <c r="H39" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L39" s="15">
-        <v>20001004</v>
+      <c r="L39" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="15">
-        <v>20001005</v>
+      <c r="C40" s="14">
+        <v>20001002</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F40" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1009</v>
+      </c>
       <c r="H40" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="15">
-        <v>20001005</v>
+      <c r="L40" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N40" s="3">
         <v>-45</v>
       </c>
-      <c r="Q40" s="16" t="s">
-        <v>133</v>
-      </c>
+      <c r="Q40" s="15"/>
     </row>
     <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="15">
-        <v>20001006</v>
+        <v>20001003</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="15"/>
       <c r="H41" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L41" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>188</v>
+        <v>20001003</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N41" s="3">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="15">
-        <v>20001007</v>
+      <c r="C42" s="14">
+        <v>20001004</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
-        <v>20001007</v>
+        <v>20001004</v>
       </c>
       <c r="M42" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N42" s="3">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
@@ -3887,361 +3938,360 @@
         <v>181</v>
       </c>
       <c r="L43" s="15">
-        <v>20001008</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>191</v>
+        <v>20001005</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N43" s="3">
-        <v>-155</v>
+        <v>-45</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="15">
-        <v>20001009</v>
+        <v>20001006</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001009</v>
+        <v>20001006</v>
       </c>
       <c r="M44" s="17" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="N44" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="18">
-        <v>20001010</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="L45" s="20">
-        <v>20001010</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="N45" s="19">
-        <v>180</v>
-      </c>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="15">
+        <v>20001007</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="H45" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="15">
+        <v>20001007</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N45" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001011</v>
+        <v>20001008</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>192</v>
+        <v>20001008</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="N46" s="3">
-        <v>-180</v>
+        <v>-155</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001012</v>
+        <v>20001009</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>195</v>
+        <v>20001009</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N47" s="3">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="15">
-        <v>20001013</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="H48" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="15">
-        <v>20001013</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N48" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="18">
+        <v>20001010</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J48" s="22"/>
+      <c r="L48" s="20">
+        <v>20001010</v>
+      </c>
+      <c r="M48" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Q48" s="16" t="s">
-        <v>140</v>
-      </c>
+      <c r="N48" s="19">
+        <v>180</v>
+      </c>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001014</v>
+        <v>20001011</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001014</v>
+        <v>20001011</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N49" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N50" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001016</v>
+        <v>20001013</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001016</v>
+        <v>20001013</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N51" s="3">
         <v>180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001017</v>
+        <v>20001014</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001017</v>
+        <v>20001014</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N52" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001018</v>
+        <v>20001015</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="L53" s="11">
-        <v>0</v>
+      <c r="L53" s="15">
+        <v>20001015</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001019</v>
+        <v>20001016</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001019</v>
+        <v>20001016</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N54" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001020</v>
+        <v>20001017</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001019</v>
+        <v>20001017</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N55" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001021</v>
+        <v>20001018</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
@@ -4250,57 +4300,55 @@
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L56" s="15">
-        <v>20001021</v>
+      <c r="J56" s="1"/>
+      <c r="L56" s="11">
+        <v>0</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N56" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001022</v>
+        <v>20001019</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001022</v>
+        <v>20001019</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001023</v>
+        <v>20001020</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F58" s="15"/>
-      <c r="G58" s="1">
-        <v>1004</v>
-      </c>
       <c r="H58" s="6" t="s">
         <v>157</v>
       </c>
@@ -4308,7 +4356,7 @@
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001023</v>
+        <v>20001019</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>194</v>
@@ -4316,14 +4364,16 @@
       <c r="N58" s="3">
         <v>180</v>
       </c>
-      <c r="Q58" s="15"/>
+      <c r="Q58" s="16" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001024</v>
+        <v>20001021</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
@@ -4333,58 +4383,55 @@
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001024</v>
+        <v>20001021</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N59" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q59" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="14" t="s">
-        <v>71</v>
+      <c r="C60" s="15">
+        <v>20001022</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F60" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1009</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L60" s="15">
-        <v>20001001</v>
+        <v>20001022</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N60" s="3">
-        <v>-147</v>
-      </c>
-      <c r="Q60" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="14" t="s">
-        <v>72</v>
+      <c r="C61" s="15">
+        <v>20001023</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="15">
-        <v>10002201</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F61" s="15"/>
       <c r="G61" s="1">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>157</v>
@@ -4393,119 +4440,123 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001002</v>
+        <v>20001023</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="N61" s="3">
-        <v>-129</v>
+        <v>180</v>
       </c>
       <c r="Q61" s="15"/>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="14" t="s">
-        <v>73</v>
+      <c r="C62" s="15">
+        <v>20001024</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="11">
-        <v>20001007</v>
+      <c r="L62" s="15">
+        <v>20001024</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N62" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q62" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-152</v>
+      </c>
+      <c r="Q62" s="15"/>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F63" s="15">
+        <v>10002101</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1009</v>
+      </c>
       <c r="H63" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L63" s="15">
-        <v>20001005</v>
+        <v>20001001</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N63" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-147</v>
+      </c>
+      <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F64" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1009</v>
+      </c>
       <c r="H64" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L64" s="11">
-        <v>20001009</v>
+      <c r="L64" s="15">
+        <v>20001002</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N64" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q64" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="15">
-        <v>20001005</v>
+      <c r="L65" s="11">
+        <v>20001007</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N65" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q65" s="16" t="s">
         <v>132</v>
@@ -4513,14 +4564,14 @@
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
@@ -4529,82 +4580,77 @@
         <v>20001005</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="N66" s="3">
         <v>180</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="15">
-        <v>20001005</v>
+      <c r="L67" s="11">
+        <v>20001009</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="N67" s="3">
         <v>180</v>
       </c>
       <c r="Q67" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001017</v>
+      <c r="L68" s="15">
+        <v>20001005</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N68" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q68" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
         <v>157</v>
       </c>
@@ -4612,29 +4658,26 @@
         <v>181</v>
       </c>
       <c r="L69" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N69" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q69" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q69" s="16" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" s="15">
-        <v>10003201</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
         <v>157</v>
       </c>
@@ -4642,119 +4685,127 @@
         <v>181</v>
       </c>
       <c r="L70" s="15">
-        <v>20001002</v>
+        <v>20001005</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="N70" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q70" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q70" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L71" s="11">
-        <v>20001007</v>
+        <v>20001017</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N71" s="3">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F72" s="15">
+        <v>10003101</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1009</v>
+      </c>
       <c r="H72" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="11">
-        <v>20001011</v>
+      <c r="L72" s="15">
+        <v>20001001</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N72" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q72" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q72" s="15"/>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F73" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1009</v>
+      </c>
       <c r="H73" s="6" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="11">
-        <v>20001017</v>
+      <c r="L73" s="15">
+        <v>20001002</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N73" s="3">
-        <v>95</v>
-      </c>
-      <c r="Q73" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>157</v>
+        <v>253</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="15">
-        <v>20001005</v>
+      <c r="L74" s="11">
+        <v>20001007</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N74" s="3">
-        <v>-70</v>
+        <v>90</v>
       </c>
       <c r="Q74" s="16" t="s">
         <v>132</v>
@@ -4762,125 +4813,120 @@
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="15">
-        <v>20001005</v>
+      <c r="L75" s="11">
+        <v>20001011</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="N75" s="3">
         <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="15">
-        <v>20001005</v>
+      <c r="L76" s="11">
+        <v>20001017</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="N76" s="3">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="Q76" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="N77" s="3">
         <v>-70</v>
       </c>
       <c r="Q77" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="11">
-        <v>20001011</v>
+      <c r="L78" s="15">
+        <v>20001005</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="N78" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
         <v>157</v>
       </c>
@@ -4888,248 +4934,248 @@
         <v>181</v>
       </c>
       <c r="L79" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="N79" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q79" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" s="15">
-        <v>10004201</v>
-      </c>
-      <c r="G80" s="1">
-        <v>1009</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L80" s="15">
-        <v>20001002</v>
+        <v>20001008</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="N80" s="3">
-        <v>-41</v>
-      </c>
-      <c r="Q80" s="15"/>
+        <v>-70</v>
+      </c>
+      <c r="Q80" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="11">
-        <v>20001007</v>
+        <v>20001011</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="F82" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F82" s="15">
+        <v>10004101</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1009</v>
+      </c>
       <c r="H82" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="11">
-        <v>20001017</v>
+      <c r="L82" s="15">
+        <v>20001001</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N82" s="3">
-        <v>101</v>
-      </c>
-      <c r="Q82" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q82" s="15"/>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F83" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F83" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1009</v>
+      </c>
       <c r="H83" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11">
-        <v>20001013</v>
+      <c r="L83" s="15">
+        <v>20001002</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N83" s="3">
-        <v>-3</v>
-      </c>
-      <c r="Q83" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="15">
-        <v>20001005</v>
+      <c r="L84" s="11">
+        <v>20001007</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="N84" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="15">
-        <v>20001005</v>
+      <c r="L85" s="11">
+        <v>20001017</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="N85" s="3">
-        <v>180</v>
+        <v>101</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L86" s="11">
-        <v>20001015</v>
+        <v>20001013</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N86" s="3">
-        <v>-180</v>
+        <v>-3</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="11">
-        <v>20001015</v>
+      <c r="L87" s="15">
+        <v>20001005</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="N87" s="3">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1009</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
         <v>157</v>
       </c>
@@ -5137,149 +5183,154 @@
         <v>181</v>
       </c>
       <c r="L88" s="15">
-        <v>20001001</v>
+        <v>20001005</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="N88" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q88" s="15"/>
+        <v>180</v>
+      </c>
+      <c r="Q88" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F89" s="15">
-        <v>10005201</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1009</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="15">
-        <v>20001002</v>
+      <c r="L89" s="11">
+        <v>20001015</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="N89" s="3">
-        <v>-44</v>
-      </c>
-      <c r="Q89" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="15">
-        <v>20001003</v>
+      <c r="L90" s="11">
+        <v>20001015</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N90" s="3">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F91" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="F91" s="15">
+        <v>10005101</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1009</v>
+      </c>
       <c r="H91" s="6" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="11">
-        <v>20001012</v>
+      <c r="L91" s="15">
+        <v>20001001</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N91" s="3">
-        <v>92</v>
-      </c>
-      <c r="Q91" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q91" s="15"/>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F92" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F92" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1009</v>
+      </c>
       <c r="H92" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="11">
-        <v>20001015</v>
+      <c r="L92" s="15">
+        <v>20001002</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="N92" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q92" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q92" s="15"/>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="11">
-        <v>20001013</v>
+      <c r="L93" s="15">
+        <v>20001003</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N93" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
         <v>132</v>
@@ -5287,37 +5338,37 @@
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L94" s="15">
-        <v>20001005</v>
+      <c r="L94" s="11">
+        <v>20001012</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N94" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
@@ -5326,8 +5377,8 @@
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="15">
-        <v>20001005</v>
+      <c r="L95" s="11">
+        <v>20001015</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>194</v>
@@ -5336,42 +5387,42 @@
         <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="15">
-        <v>20099001</v>
+      <c r="C96" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>47</v>
+      <c r="L96" s="11">
+        <v>20001013</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N96" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q96" s="16" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="15">
-        <v>20099002</v>
+      <c r="C97" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
@@ -5380,8 +5431,8 @@
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="11" t="s">
-        <v>47</v>
+      <c r="L97" s="15">
+        <v>20001005</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>194</v>
@@ -5390,15 +5441,15 @@
         <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="15">
-        <v>20099003</v>
+      <c r="C98" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
@@ -5407,8 +5458,8 @@
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L98" s="11" t="s">
-        <v>47</v>
+      <c r="L98" s="15">
+        <v>20001005</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>194</v>
@@ -5417,15 +5468,15 @@
         <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="15">
-        <v>20099004</v>
+        <v>20099001</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
@@ -5444,15 +5495,15 @@
         <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="15">
-        <v>20099005</v>
+        <v>20099002</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
@@ -5471,15 +5522,15 @@
         <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="15">
-        <v>20099006</v>
+        <v>20099003</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
@@ -5488,8 +5539,8 @@
       <c r="I101" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L101" s="15">
-        <v>20001005</v>
+      <c r="L101" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>194</v>
@@ -5498,12 +5549,90 @@
         <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="15">
+        <v>20099004</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="H102" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N102" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q102" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="15">
+        <v>20099005</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="H103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N103" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q103" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="15"/>
+      <c r="H104" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L104" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N104" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q104" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5520,6 +5649,9 @@
     <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8EA85B-A3BF-4366-98F0-3CF3A51F8CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D86D0-3BF3-449A-A4D7-3BB347ED5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="315" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1911,9 +1911,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>梦境之地</t>
-  </si>
-  <si>
     <t>我这里是个奇妙的地方,你有兴趣就进来看看吧，说不定会有意外收获哦。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1961,6 +1958,10 @@
   </si>
   <si>
     <t>NPC_ShenQi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏之地</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2579,7 +2580,7 @@
   <dimension ref="C1:X123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3732,10 +3733,10 @@
     </row>
     <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -3744,24 +3745,24 @@
         <v>2000001</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N36" s="3">
         <v>-180</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -3773,21 +3774,21 @@
         <v>336</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N37" s="3">
         <v>90</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G38" s="1">
         <v>2</v>
@@ -3796,17 +3797,17 @@
         <v>2000003</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N38" s="3">
         <v>90</v>
       </c>
       <c r="O38" s="27"/>
       <c r="Q38" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D86D0-3BF3-449A-A4D7-3BB347ED5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C5ECE-3AE7-476A-9A3A-E085E0E302AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="369">
   <si>
     <t>#</t>
   </si>
@@ -1962,6 +1962,22 @@
   </si>
   <si>
     <t>宝藏之地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000030</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼副本</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3120,-395,-2682</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2577,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X123"/>
+  <dimension ref="C1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3644,7 +3660,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
         <v>327</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14" t="s">
         <v>346</v>
       </c>
@@ -3699,7 +3715,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
         <v>347</v>
       </c>
@@ -3731,7 +3747,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
         <v>358</v>
       </c>
@@ -3757,7 +3773,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14" t="s">
         <v>356</v>
       </c>
@@ -3783,7 +3799,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
         <v>357</v>
       </c>
@@ -3810,45 +3826,42 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="N39" s="3">
+        <v>90</v>
+      </c>
+      <c r="O39" s="27"/>
+      <c r="Q39" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M39" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N39" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="15"/>
-    </row>
-    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="15">
-        <v>10001201</v>
       </c>
       <c r="G40" s="1">
         <v>1009</v>
@@ -3860,76 +3873,79 @@
         <v>181</v>
       </c>
       <c r="L40" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N40" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="M41" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N41" s="3">
         <v>-45</v>
       </c>
-      <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="15">
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="15">
         <v>20001003</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="H41" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L41" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N41" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q41" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F42" s="15"/>
       <c r="H42" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L42" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N42" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q42" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="14">
         <v>20001004</v>
       </c>
-      <c r="M42" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E43" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
@@ -3939,21 +3955,21 @@
         <v>181</v>
       </c>
       <c r="L43" s="15">
+        <v>20001004</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N43" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15">
         <v>20001005</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N43" s="3">
-        <v>-45</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="15">
-        <v>20001006</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>52</v>
@@ -3966,392 +3982,392 @@
         <v>181</v>
       </c>
       <c r="L44" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-45</v>
+      </c>
+      <c r="Q44" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="15">
         <v>20001006</v>
       </c>
-      <c r="M44" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N44" s="3">
-        <v>45</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="15">
-        <v>20001007</v>
-      </c>
       <c r="E45" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15">
+        <v>20001006</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N45" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="15">
         <v>20001007</v>
       </c>
-      <c r="M45" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="N45" s="3">
-        <v>150</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="15">
-        <v>20001008</v>
-      </c>
       <c r="E46" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
+        <v>20001007</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="N46" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q46" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="15">
         <v>20001008</v>
       </c>
-      <c r="M46" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-155</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="15">
-        <v>20001009</v>
-      </c>
       <c r="E47" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q47" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="H48" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="15">
+      <c r="I48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="15">
         <v>20001009</v>
       </c>
-      <c r="M47" s="17" t="s">
+      <c r="M48" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N48" s="3">
         <v>35</v>
       </c>
-      <c r="Q47" s="16" t="s">
+      <c r="Q48" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="18">
+    <row r="49" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="18">
         <v>20001010</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22" t="s">
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I48" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J48" s="22"/>
-      <c r="L48" s="20">
+      <c r="I49" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J49" s="22"/>
+      <c r="L49" s="20">
         <v>20001010</v>
       </c>
-      <c r="M48" s="19" t="s">
+      <c r="M49" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N49" s="19">
         <v>180</v>
       </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="25" t="s">
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-    </row>
-    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="15">
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+    </row>
+    <row r="50" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="15">
         <v>20001011</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E50" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="H49" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L49" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N49" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q49" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="15">
-        <v>20001012</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
+        <v>20001011</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="15">
         <v>20001012</v>
       </c>
-      <c r="M50" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N50" s="3">
-        <v>80</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="15">
-        <v>20001013</v>
-      </c>
       <c r="E51" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
+        <v>20001012</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N51" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="15">
         <v>20001013</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N51" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="15">
-        <v>20001014</v>
-      </c>
       <c r="E52" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N52" s="3">
         <v>180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
+        <v>20001014</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N53" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="15">
         <v>20001015</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="N53" s="3">
-        <v>128</v>
-      </c>
-      <c r="Q53" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="15">
-        <v>20001016</v>
-      </c>
       <c r="E54" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
+        <v>20001015</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N54" s="3">
+        <v>128</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="15">
         <v>20001016</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N54" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q54" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="15">
-        <v>20001017</v>
-      </c>
       <c r="E55" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
+        <v>20001016</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N55" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="15">
         <v>20001017</v>
       </c>
-      <c r="M55" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="N55" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q55" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="15">
-        <v>20001018</v>
-      </c>
       <c r="E56" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="L56" s="11">
-        <v>0</v>
+      <c r="L56" s="15">
+        <v>20001017</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N56" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L57" s="15">
+      <c r="J57" s="1"/>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N57" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q57" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="15">
         <v>20001019</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="15">
-        <v>20001020</v>
-      </c>
       <c r="E58" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
@@ -4360,21 +4376,21 @@
         <v>20001019</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
@@ -4384,81 +4400,83 @@
         <v>181</v>
       </c>
       <c r="L59" s="15">
+        <v>20001019</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N59" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q59" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="15">
         <v>20001021</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N59" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q59" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="15">
-        <v>20001022</v>
-      </c>
       <c r="E60" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L60" s="15">
+        <v>20001021</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N60" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="15">
+        <v>20001022</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="H61" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L60" s="15">
+      <c r="I61" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" s="15">
         <v>20001022</v>
       </c>
-      <c r="M60" s="3" t="s">
+      <c r="M61" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N61" s="3">
         <v>-106</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="Q61" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="15">
+    <row r="62" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="15">
         <v>20001023</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E62" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="1">
+      <c r="F62" s="15"/>
+      <c r="G62" s="1">
         <v>1004</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="15">
-        <v>20001023</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N61" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q61" s="15"/>
-    </row>
-    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="15">
-        <v>20001024</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
         <v>157</v>
       </c>
@@ -4466,29 +4484,24 @@
         <v>181</v>
       </c>
       <c r="L62" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N62" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q62" s="15"/>
+    </row>
+    <row r="63" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="15">
         <v>20001024</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N62" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q62" s="15"/>
-    </row>
-    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E63" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F63" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
         <v>157</v>
       </c>
@@ -4496,25 +4509,25 @@
         <v>181</v>
       </c>
       <c r="L63" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N63" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G64" s="1">
         <v>1009</v>
@@ -4526,65 +4539,68 @@
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N64" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F65" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1009</v>
+      </c>
       <c r="H65" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L65" s="11">
-        <v>20001007</v>
+      <c r="L65" s="15">
+        <v>20001002</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N65" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q65" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="15">
-        <v>20001005</v>
+      <c r="L66" s="11">
+        <v>20001007</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N66" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q66" s="16" t="s">
         <v>132</v>
@@ -4592,23 +4608,23 @@
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="11">
-        <v>20001009</v>
+      <c r="L67" s="15">
+        <v>20001005</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N67" s="3">
         <v>180</v>
@@ -4619,23 +4635,23 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="15">
-        <v>20001005</v>
+      <c r="L68" s="11">
+        <v>20001009</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N68" s="3">
         <v>180</v>
@@ -4646,14 +4662,14 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
@@ -4662,18 +4678,18 @@
         <v>20001005</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N69" s="3">
         <v>180</v>
       </c>
       <c r="Q69" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>52</v>
@@ -4695,15 +4711,15 @@
         <v>180</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
@@ -4712,14 +4728,14 @@
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="11">
-        <v>20001017</v>
+      <c r="L71" s="15">
+        <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N71" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
         <v>134</v>
@@ -4727,43 +4743,40 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001001</v>
+      <c r="L72" s="11">
+        <v>20001017</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N72" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q72" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q72" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F73" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G73" s="1">
         <v>1009</v>
@@ -4775,65 +4788,68 @@
         <v>181</v>
       </c>
       <c r="L73" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N73" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F74" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F74" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1009</v>
+      </c>
       <c r="H74" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="11">
-        <v>20001007</v>
+      <c r="L74" s="15">
+        <v>20001002</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N74" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q74" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L75" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N75" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="16" t="s">
         <v>132</v>
@@ -4841,26 +4857,26 @@
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L76" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N76" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>132</v>
@@ -4868,26 +4884,26 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001005</v>
+      <c r="L77" s="11">
+        <v>20001017</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N77" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>132</v>
@@ -4895,10 +4911,10 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
@@ -4911,18 +4927,18 @@
         <v>20001005</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N78" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q78" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>52</v>
@@ -4944,31 +4960,31 @@
         <v>180</v>
       </c>
       <c r="Q79" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L80" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="N80" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>134</v>
@@ -4976,26 +4992,26 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="11">
-        <v>20001011</v>
+      <c r="L81" s="15">
+        <v>20001008</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="N81" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>134</v>
@@ -5003,43 +5019,40 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001001</v>
+      <c r="L82" s="11">
+        <v>20001011</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N82" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q82" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q82" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F83" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G83" s="1">
         <v>1009</v>
@@ -5051,65 +5064,68 @@
         <v>181</v>
       </c>
       <c r="L83" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N83" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F84" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F84" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1009</v>
+      </c>
       <c r="H84" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11">
-        <v>20001007</v>
+      <c r="L84" s="15">
+        <v>20001002</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L85" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N85" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>132</v>
@@ -5117,26 +5133,26 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L86" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N86" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>132</v>
@@ -5144,34 +5160,34 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="15">
-        <v>20001005</v>
+      <c r="L87" s="11">
+        <v>20001013</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N87" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>52</v>
@@ -5193,31 +5209,31 @@
         <v>180</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="11">
-        <v>20001015</v>
+      <c r="L89" s="15">
+        <v>20001005</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N89" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
         <v>134</v>
@@ -5225,14 +5241,14 @@
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
@@ -5241,10 +5257,10 @@
         <v>20001015</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N90" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>134</v>
@@ -5252,43 +5268,40 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="15">
-        <v>20001001</v>
+      <c r="L91" s="11">
+        <v>20001015</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N91" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q91" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q91" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G92" s="1">
         <v>1009</v>
@@ -5300,65 +5313,68 @@
         <v>181</v>
       </c>
       <c r="L92" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N92" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q92" s="15"/>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F93" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F93" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1009</v>
+      </c>
       <c r="H93" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L93" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N93" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q93" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q93" s="15"/>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L94" s="11">
-        <v>20001012</v>
+      <c r="L94" s="15">
+        <v>20001003</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N94" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
         <v>132</v>
@@ -5366,26 +5382,26 @@
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L95" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N95" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q95" s="16" t="s">
         <v>132</v>
@@ -5393,26 +5409,26 @@
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L96" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N96" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
         <v>132</v>
@@ -5420,34 +5436,34 @@
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="15">
-        <v>20001005</v>
+      <c r="L97" s="11">
+        <v>20001013</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N97" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q97" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>52</v>
@@ -5469,15 +5485,15 @@
         <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="15">
-        <v>20099001</v>
+      <c r="C99" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
@@ -5486,8 +5502,8 @@
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>47</v>
+      <c r="L99" s="15">
+        <v>20001005</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>194</v>
@@ -5496,15 +5512,15 @@
         <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
@@ -5523,15 +5539,15 @@
         <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
@@ -5550,15 +5566,15 @@
         <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
@@ -5577,15 +5593,15 @@
         <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
@@ -5604,15 +5620,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5621,8 +5637,8 @@
       <c r="I104" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L104" s="15">
-        <v>20001005</v>
+      <c r="L104" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>194</v>
@@ -5631,10 +5647,36 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="H105" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L105" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N105" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q105" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5653,6 +5695,7 @@
     <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C5ECE-3AE7-476A-9A3A-E085E0E302AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB48E6B-E81A-44B6-B804-5D8D159B2E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1969,15 +1969,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>试炼副本</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>4000001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-3120,-395,-2682</t>
+    <t>伤害试炼大师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1732,365,8252</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2595,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3831,13 +3831,13 @@
         <v>365</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>363</v>
@@ -3846,7 +3846,7 @@
         <v>368</v>
       </c>
       <c r="N39" s="3">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="O39" s="27"/>
       <c r="Q39" s="11" t="s">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB48E6B-E81A-44B6-B804-5D8D159B2E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE2906-8524-4065-BDBF-B68F216D3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1575" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1973,11 +1973,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>伤害试炼大师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>-1732,365,8252</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之地</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2596,7 +2596,7 @@
   <dimension ref="C1:X124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3831,7 +3831,7 @@
         <v>365</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G39" s="1">
         <v>2</v>
@@ -3843,7 +3843,7 @@
         <v>363</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N39" s="3">
         <v>129</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CE2906-8524-4065-BDBF-B68F216D3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2C730-B834-49C2-85F0-66D6922F8B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1575" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25785" yWindow="1485" windowWidth="24990" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="368">
   <si>
     <t>#</t>
   </si>
@@ -1966,10 +1966,6 @@
   </si>
   <si>
     <t>20000030</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2595,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3807,10 +3803,7 @@
         <v>354</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
-      </c>
-      <c r="J38" s="6">
-        <v>2000003</v>
+        <v>1027</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>363</v>
@@ -3831,19 +3824,16 @@
         <v>365</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G39" s="1">
-        <v>2</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>366</v>
+        <v>1028</v>
       </c>
       <c r="L39" s="11" t="s">
         <v>363</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N39" s="3">
         <v>129</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2C730-B834-49C2-85F0-66D6922F8B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7B632-F70E-4145-BF72-FC379E53E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25785" yWindow="1485" windowWidth="24990" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29355" yWindow="570" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="369">
   <si>
     <t>#</t>
   </si>
@@ -1974,6 +1974,10 @@
   </si>
   <si>
     <t>试炼之地</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货药店老板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2591,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3848,7 +3852,7 @@
         <v>193</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>48</v>
+        <v>368</v>
       </c>
       <c r="F40" s="15">
         <v>10001101</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B7B632-F70E-4145-BF72-FC379E53E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8033327-D6D6-413C-A1E9-9E019921E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="570" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -2595,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3639,7 +3639,7 @@
         <v>5</v>
       </c>
       <c r="G32" s="1">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,23 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8033327-D6D6-413C-A1E9-9E019921E9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB7A72B-4435-4EF3-BA95-4E24ECC047C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -618,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="372">
   <si>
     <t>#</t>
   </si>
@@ -1538,10 +1529,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1978,6 +1965,22 @@
   </si>
   <si>
     <t>杂货药店老板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3049,365,5136</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2593,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X124"/>
+  <dimension ref="C1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2837,7 +2840,7 @@
         <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="1">
@@ -2862,7 +2865,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="1">
@@ -2887,7 +2890,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="1">
@@ -2912,7 +2915,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="1">
@@ -2931,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2957,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N10" s="3">
         <v>-90</v>
@@ -2987,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N11" s="3">
         <v>-280</v>
@@ -3002,7 +3005,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
@@ -3015,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N12" s="3">
         <v>-180</v>
@@ -3043,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N13" s="3">
         <v>-280</v>
@@ -3111,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N15" s="1">
         <v>-180</v>
@@ -3228,7 +3231,7 @@
         <v>250</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3239,10 +3242,10 @@
     </row>
     <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="1">
@@ -3255,24 +3258,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N19" s="3">
         <v>-270</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="1">
@@ -3285,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N20" s="3">
         <v>45</v>
@@ -3297,13 +3300,13 @@
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G21" s="1">
         <v>1007</v>
@@ -3315,27 +3318,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N21" s="3">
         <v>90</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G22" s="1">
         <v>1006</v>
@@ -3347,27 +3350,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N22" s="3">
         <v>90</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="G23" s="1">
         <v>1008</v>
@@ -3379,24 +3382,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N23" s="3">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" s="1">
         <v>1002</v>
@@ -3408,24 +3411,24 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -3437,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N25" s="3">
         <v>-90</v>
@@ -3449,10 +3452,10 @@
     </row>
     <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="G26" s="1">
         <v>1014</v>
@@ -3464,24 +3467,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N26" s="3">
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -3496,24 +3499,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3528,10 +3531,10 @@
         <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N28" s="3">
         <v>90</v>
@@ -3540,10 +3543,10 @@
     </row>
     <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3558,10 +3561,10 @@
         <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N29" s="3">
         <v>90</v>
@@ -3570,10 +3573,10 @@
     </row>
     <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3588,10 +3591,10 @@
         <v>54</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N30" s="3">
         <v>90</v>
@@ -3600,10 +3603,10 @@
     </row>
     <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>323</v>
       </c>
       <c r="F31" s="15">
         <v>100001</v>
@@ -3618,10 +3621,10 @@
         <v>181</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N31" s="3">
         <v>-110</v>
@@ -3630,10 +3633,10 @@
     </row>
     <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -3648,24 +3651,24 @@
         <v>0</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N32" s="3">
         <v>-30</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3677,24 +3680,24 @@
         <v>0</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N33" s="3">
         <v>180</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F34" s="36">
         <v>0</v>
@@ -3703,24 +3706,24 @@
         <v>1024</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N34" s="3">
         <v>-30</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
@@ -3735,24 +3738,24 @@
         <v>0</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N35" s="3">
         <v>-144</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -3761,24 +3764,24 @@
         <v>2000001</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N36" s="3">
         <v>-180</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -3787,105 +3790,105 @@
         <v>2000002</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N37" s="3">
         <v>90</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G38" s="1">
         <v>1027</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N38" s="3">
         <v>90</v>
       </c>
       <c r="O38" s="27"/>
       <c r="Q38" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G39" s="1">
         <v>1028</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N39" s="3">
         <v>129</v>
       </c>
       <c r="O39" s="27"/>
       <c r="Q39" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="N40" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="F40" s="15">
+      <c r="E41" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M40" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N40" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q40" s="15"/>
-    </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="15">
-        <v>10001201</v>
       </c>
       <c r="G41" s="1">
         <v>1009</v>
@@ -3899,74 +3902,77 @@
       <c r="L41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N41" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N42" s="3">
         <v>-45</v>
       </c>
-      <c r="Q41" s="15"/>
-    </row>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="15">
+      <c r="Q42" s="15"/>
+    </row>
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="15">
         <v>20001003</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="H42" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L42" s="15">
-        <v>20001003</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N42" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F43" s="15"/>
       <c r="H43" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L43" s="15">
+        <v>20001003</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N43" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q43" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="14">
         <v>20001004</v>
       </c>
-      <c r="M43" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="N43" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="15">
-        <v>20001005</v>
-      </c>
       <c r="E44" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
@@ -3976,21 +3982,21 @@
         <v>181</v>
       </c>
       <c r="L44" s="15">
-        <v>20001005</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>187</v>
+        <v>20001004</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N44" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>52</v>
@@ -4003,392 +4009,392 @@
         <v>181</v>
       </c>
       <c r="L45" s="15">
-        <v>20001006</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>188</v>
+        <v>20001005</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N45" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N46" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N47" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="15">
+        <v>20001008</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-155</v>
+      </c>
+      <c r="Q48" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="15">
+        <v>20001009</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="H49" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L48" s="15">
+      <c r="I49" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L49" s="15">
         <v>20001009</v>
       </c>
-      <c r="M48" s="17" t="s">
+      <c r="M49" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>35</v>
       </c>
-      <c r="Q48" s="16" t="s">
+      <c r="Q49" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="18">
+    <row r="50" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="18">
         <v>20001010</v>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="I49" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="22"/>
-      <c r="L49" s="20">
+      <c r="I50" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J50" s="22"/>
+      <c r="L50" s="20">
         <v>20001010</v>
       </c>
-      <c r="M49" s="19" t="s">
+      <c r="M50" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N50" s="19">
         <v>180</v>
       </c>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="25" t="s">
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
-      <c r="X49" s="19"/>
-    </row>
-    <row r="50" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="H50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L50" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="N50" s="3">
-        <v>-180</v>
-      </c>
-      <c r="Q50" s="16" t="s">
-        <v>138</v>
-      </c>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
     </row>
     <row r="51" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N51" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N53" s="3">
         <v>180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N54" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N55" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N56" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="L57" s="11">
-        <v>0</v>
+      <c r="L57" s="15">
+        <v>20001017</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L58" s="15">
-        <v>20001019</v>
+      <c r="J58" s="1"/>
+      <c r="L58" s="11">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N58" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
@@ -4397,21 +4403,21 @@
         <v>20001019</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
@@ -4421,81 +4427,83 @@
         <v>181</v>
       </c>
       <c r="L60" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N60" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N61" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="1">
-        <v>1004</v>
-      </c>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L62" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q62" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q62" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="63" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F63" s="15"/>
+      <c r="G63" s="1">
+        <v>1004</v>
+      </c>
       <c r="H63" s="6" t="s">
         <v>157</v>
       </c>
@@ -4503,29 +4511,24 @@
         <v>181</v>
       </c>
       <c r="L63" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N63" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q63" s="15"/>
+    </row>
+    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="15">
         <v>20001024</v>
       </c>
-      <c r="M63" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N63" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q63" s="15"/>
-    </row>
-    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E64" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F64" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
         <v>157</v>
       </c>
@@ -4533,25 +4536,25 @@
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N64" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q64" s="15"/>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F65" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G65" s="1">
         <v>1009</v>
@@ -4563,65 +4566,68 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N65" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F66" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F66" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1009</v>
+      </c>
       <c r="H66" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L66" s="11">
-        <v>20001007</v>
+      <c r="L66" s="15">
+        <v>20001002</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N66" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q66" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="15">
-        <v>20001005</v>
+      <c r="L67" s="11">
+        <v>20001007</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N67" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q67" s="16" t="s">
         <v>132</v>
@@ -4629,23 +4635,23 @@
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001009</v>
+      <c r="L68" s="15">
+        <v>20001005</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N68" s="3">
         <v>180</v>
@@ -4656,23 +4662,23 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="15">
-        <v>20001005</v>
+      <c r="L69" s="11">
+        <v>20001009</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N69" s="3">
         <v>180</v>
@@ -4683,14 +4689,14 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
@@ -4699,18 +4705,18 @@
         <v>20001005</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N70" s="3">
         <v>180</v>
       </c>
       <c r="Q70" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>52</v>
@@ -4732,15 +4738,15 @@
         <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
@@ -4749,14 +4755,14 @@
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="11">
-        <v>20001017</v>
+      <c r="L72" s="15">
+        <v>20001005</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N72" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>134</v>
@@ -4764,43 +4770,40 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F73" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="15">
-        <v>20001001</v>
+      <c r="L73" s="11">
+        <v>20001017</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N73" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q73" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q73" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F74" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G74" s="1">
         <v>1009</v>
@@ -4812,65 +4815,68 @@
         <v>181</v>
       </c>
       <c r="L74" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N74" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F75" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F75" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1009</v>
+      </c>
       <c r="H75" s="6" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="11">
-        <v>20001007</v>
+      <c r="L75" s="15">
+        <v>20001002</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N75" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q75" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L76" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N76" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>132</v>
@@ -4878,26 +4884,26 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N77" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>132</v>
@@ -4905,26 +4911,26 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="15">
-        <v>20001005</v>
+      <c r="L78" s="11">
+        <v>20001017</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N78" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q78" s="16" t="s">
         <v>132</v>
@@ -4932,10 +4938,10 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
@@ -4948,18 +4954,18 @@
         <v>20001005</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q79" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>52</v>
@@ -4981,31 +4987,31 @@
         <v>180</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="15">
-        <v>20001008</v>
+        <v>20001005</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="N81" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>134</v>
@@ -5013,26 +5019,26 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="11">
-        <v>20001011</v>
+      <c r="L82" s="15">
+        <v>20001008</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="N82" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>134</v>
@@ -5040,43 +5046,40 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G83" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15">
-        <v>20001001</v>
+      <c r="L83" s="11">
+        <v>20001011</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N83" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q83" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q83" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F84" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G84" s="1">
         <v>1009</v>
@@ -5088,65 +5091,68 @@
         <v>181</v>
       </c>
       <c r="L84" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N84" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F85" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1009</v>
+      </c>
       <c r="H85" s="6" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11">
-        <v>20001007</v>
+      <c r="L85" s="15">
+        <v>20001002</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L86" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N86" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>132</v>
@@ -5154,26 +5160,26 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L87" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N87" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q87" s="16" t="s">
         <v>132</v>
@@ -5181,34 +5187,34 @@
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="15">
-        <v>20001005</v>
+      <c r="L88" s="11">
+        <v>20001013</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N88" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E89" s="15" t="s">
         <v>52</v>
@@ -5230,31 +5236,31 @@
         <v>180</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="11">
-        <v>20001015</v>
+      <c r="L90" s="15">
+        <v>20001005</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N90" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>134</v>
@@ -5262,14 +5268,14 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
@@ -5278,10 +5284,10 @@
         <v>20001015</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N91" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>134</v>
@@ -5289,43 +5295,40 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="15">
-        <v>20001001</v>
+      <c r="L92" s="11">
+        <v>20001015</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N92" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q92" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q92" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G93" s="1">
         <v>1009</v>
@@ -5337,65 +5340,68 @@
         <v>181</v>
       </c>
       <c r="L93" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N93" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q93" s="15"/>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F94" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F94" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1009</v>
+      </c>
       <c r="H94" s="6" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L94" s="15">
-        <v>20001003</v>
+        <v>20001002</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N94" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q94" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q94" s="15"/>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="11">
-        <v>20001012</v>
+      <c r="L95" s="15">
+        <v>20001003</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N95" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
         <v>132</v>
@@ -5403,26 +5409,26 @@
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L96" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N96" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q96" s="16" t="s">
         <v>132</v>
@@ -5430,26 +5436,26 @@
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L97" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N97" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
         <v>132</v>
@@ -5457,34 +5463,34 @@
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L98" s="15">
-        <v>20001005</v>
+      <c r="L98" s="11">
+        <v>20001013</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N98" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E99" s="15" t="s">
         <v>52</v>
@@ -5506,15 +5512,15 @@
         <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="15">
-        <v>20099001</v>
+      <c r="C100" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
@@ -5523,8 +5529,8 @@
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>47</v>
+      <c r="L100" s="15">
+        <v>20001005</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>194</v>
@@ -5533,15 +5539,15 @@
         <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
@@ -5560,15 +5566,15 @@
         <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
@@ -5587,15 +5593,15 @@
         <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
@@ -5614,15 +5620,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5641,15 +5647,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5658,8 +5664,8 @@
       <c r="I105" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L105" s="15">
-        <v>20001005</v>
+      <c r="L105" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>194</v>
@@ -5668,10 +5674,36 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="H106" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L106" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N106" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q106" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5690,6 +5722,7 @@
     <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB7A72B-4435-4EF3-BA95-4E24ECC047C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D29A8B-5BD2-4365-B3F1-EFF6E480F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="373">
   <si>
     <t>#</t>
   </si>
@@ -1982,6 +1982,9 @@
   <si>
     <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_ShiBing</t>
   </si>
 </sst>
 </file>
@@ -2598,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3981,8 +3984,8 @@
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L44" s="15">
-        <v>20001004</v>
+      <c r="L44" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>189</v>
@@ -4008,8 +4011,8 @@
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L45" s="15">
-        <v>20001005</v>
+      <c r="L45" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>187</v>
@@ -4035,8 +4038,8 @@
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L46" s="15">
-        <v>20001006</v>
+      <c r="L46" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>188</v>
@@ -4728,8 +4731,8 @@
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="15">
-        <v>20001005</v>
+      <c r="L71" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>194</v>
@@ -4755,8 +4758,8 @@
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>194</v>
@@ -4977,8 +4980,8 @@
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="15">
-        <v>20001005</v>
+      <c r="L80" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>194</v>
@@ -5004,8 +5007,8 @@
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="15">
-        <v>20001005</v>
+      <c r="L81" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>194</v>
@@ -5226,8 +5229,8 @@
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="15">
-        <v>20001005</v>
+      <c r="L89" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>194</v>
@@ -5253,8 +5256,8 @@
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="15">
-        <v>20001005</v>
+      <c r="L90" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>194</v>
@@ -5502,8 +5505,8 @@
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="15">
-        <v>20001005</v>
+      <c r="L99" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>194</v>
@@ -5529,8 +5532,8 @@
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="15">
-        <v>20001005</v>
+      <c r="L100" s="15" t="s">
+        <v>372</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>194</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D29A8B-5BD2-4365-B3F1-EFF6E480F363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC890F02-7A18-43EB-8ED7-92D29FBE055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="374">
   <si>
     <t>#</t>
   </si>
@@ -1529,18 +1529,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>30040001,30040002,30040003,30040004,30040005,30040006,30040007,30040008,30040009,30040022,30040023,30040029,30040030,30040031,30040032,30040033</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>15088,3459,-7500</t>
   </si>
   <si>
@@ -1980,11 +1972,22 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>NPC_ShiBing</t>
+  </si>
+  <si>
+    <t>NPC_CunZhang</t>
+  </si>
+  <si>
+    <t>30020101,30020102,30020103,30020104,30020105,30020106,30020124,50000002,41001001,41001002,41001003,41001101,41001102,41001103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30030001,30030002,30030003,30030004,30030005,30030006,30030007,30030008,30030035,30030036,30030037,30030038,41002001,41002002,41002003,41002101,41002102,41002103,41003001,41003002,41003003,41003101,41003102,41003103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008,41004001,41004002,41004003,41004101,41004102,41004103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2100,7 +2103,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2122,12 +2125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2189,7 +2186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2240,28 +2237,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2291,6 +2266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2601,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2843,7 +2821,7 @@
         <v>10001</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F6" s="15"/>
       <c r="H6" s="1">
@@ -2868,7 +2846,7 @@
         <v>10002</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F7" s="15"/>
       <c r="H7" s="1">
@@ -2893,7 +2871,7 @@
         <v>10003</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F8" s="15"/>
       <c r="H8" s="1">
@@ -2918,7 +2896,7 @@
         <v>10004</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F9" s="15"/>
       <c r="H9" s="1">
@@ -2937,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="R9" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2963,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N10" s="3">
         <v>-90</v>
@@ -2993,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N11" s="3">
         <v>-280</v>
@@ -3008,7 +2986,7 @@
         <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="1">
@@ -3021,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N12" s="3">
         <v>-180</v>
@@ -3049,56 +3027,56 @@
         <v>0</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N13" s="3">
         <v>-280</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="28" t="s">
+    <row r="14" spans="3:24" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31">
+      <c r="F14" s="22"/>
+      <c r="G14" s="23">
         <v>1017</v>
       </c>
-      <c r="H14" s="31">
-        <v>0</v>
-      </c>
-      <c r="I14" s="31">
-        <v>0</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="L14" s="30">
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24"/>
+      <c r="L14" s="22">
         <v>20001007</v>
       </c>
-      <c r="M14" s="34" t="s">
+      <c r="M14" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="21">
         <v>-180</v>
       </c>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="30" t="s">
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
     </row>
     <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
@@ -3117,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>294</v>
+        <v>342</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="N15" s="1">
         <v>-180</v>
@@ -3131,87 +3109,87 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="28" t="s">
+    <row r="16" spans="3:24" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31">
+      <c r="F16" s="22"/>
+      <c r="G16" s="23">
         <v>1018</v>
       </c>
-      <c r="H16" s="31">
-        <v>0</v>
-      </c>
-      <c r="I16" s="31">
-        <v>0</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="L16" s="30">
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="L16" s="22">
         <v>20001024</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="21">
         <v>-90</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="30" t="s">
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-    </row>
-    <row r="17" spans="3:24" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="28" t="s">
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="3:24" s="25" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31">
+      <c r="F17" s="22"/>
+      <c r="G17" s="23">
         <v>1019</v>
       </c>
-      <c r="H17" s="31">
-        <v>0</v>
-      </c>
-      <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="32"/>
-      <c r="L17" s="30">
+      <c r="H17" s="23">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="L17" s="22">
         <v>20001024</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="M17" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="21">
         <v>90</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="30" t="s">
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
     </row>
     <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14" t="s">
@@ -3234,7 +3212,7 @@
         <v>250</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3245,10 +3223,10 @@
     </row>
     <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="1">
@@ -3261,24 +3239,24 @@
         <v>0</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N19" s="3">
         <v>-270</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="1">
@@ -3291,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N20" s="3">
         <v>45</v>
@@ -3303,13 +3281,13 @@
     </row>
     <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G21" s="1">
         <v>1007</v>
@@ -3321,27 +3299,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>287</v>
+        <v>276</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="N21" s="3">
         <v>90</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G22" s="1">
         <v>1006</v>
@@ -3353,27 +3331,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>295</v>
+        <v>330</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="N22" s="3">
         <v>90</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G23" s="1">
         <v>1008</v>
@@ -3385,24 +3363,24 @@
         <v>0</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>286</v>
+        <v>273</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="N23" s="3">
         <v>225</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G24" s="1">
         <v>1002</v>
@@ -3414,24 +3392,24 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>290</v>
+        <v>329</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
@@ -3443,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>297</v>
+        <v>277</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="N25" s="3">
         <v>-90</v>
@@ -3455,10 +3433,10 @@
     </row>
     <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G26" s="1">
         <v>1014</v>
@@ -3470,24 +3448,24 @@
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>293</v>
+        <v>328</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="N26" s="3">
         <v>180</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -3502,24 +3480,24 @@
         <v>0</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>307</v>
+        <v>277</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -3534,10 +3512,10 @@
         <v>52</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="N28" s="3">
         <v>90</v>
@@ -3546,10 +3524,10 @@
     </row>
     <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -3564,10 +3542,10 @@
         <v>53</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="N29" s="3">
         <v>90</v>
@@ -3576,10 +3554,10 @@
     </row>
     <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -3594,10 +3572,10 @@
         <v>54</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>320</v>
+        <v>315</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="N30" s="3">
         <v>90</v>
@@ -3606,10 +3584,10 @@
     </row>
     <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F31" s="15">
         <v>100001</v>
@@ -3624,10 +3602,10 @@
         <v>181</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>323</v>
+        <v>327</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="N31" s="3">
         <v>-110</v>
@@ -3636,10 +3614,10 @@
     </row>
     <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F32" s="3">
         <v>5</v>
@@ -3654,24 +3632,24 @@
         <v>0</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>337</v>
+        <v>331</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="N32" s="3">
         <v>-30</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
@@ -3683,50 +3661,50 @@
         <v>0</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>342</v>
+        <v>332</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="N33" s="3">
         <v>180</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F34" s="36">
+        <v>337</v>
+      </c>
+      <c r="F34" s="28">
         <v>0</v>
       </c>
       <c r="G34" s="1">
         <v>1024</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>328</v>
+        <v>341</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="N34" s="3">
         <v>-30</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
@@ -3741,24 +3719,24 @@
         <v>0</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="M35" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="N35" s="3">
         <v>-144</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -3767,24 +3745,24 @@
         <v>2000001</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="M36" s="27" t="s">
         <v>358</v>
+      </c>
+      <c r="M36" s="19" t="s">
+        <v>356</v>
       </c>
       <c r="N36" s="3">
         <v>-180</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -3793,72 +3771,72 @@
         <v>2000002</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>361</v>
+        <v>333</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="N37" s="3">
         <v>90</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G38" s="1">
         <v>1027</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="M38" s="19" t="s">
+        <v>357</v>
       </c>
       <c r="N38" s="3">
         <v>90</v>
       </c>
-      <c r="O38" s="27"/>
+      <c r="O38" s="19"/>
       <c r="Q38" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="G39" s="1">
         <v>1028</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>365</v>
+        <v>360</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>363</v>
       </c>
       <c r="N39" s="3">
         <v>129</v>
       </c>
-      <c r="O39" s="27"/>
+      <c r="O39" s="19"/>
       <c r="Q39" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3873,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>369</v>
+        <v>328</v>
+      </c>
+      <c r="M40" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="N40" s="3">
         <v>180</v>
@@ -3888,7 +3866,7 @@
         <v>193</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F41" s="15">
         <v>10001101</v>
@@ -3903,7 +3881,7 @@
         <v>181</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M41" s="17" t="s">
         <v>186</v>
@@ -3933,7 +3911,7 @@
         <v>181</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>185</v>
@@ -3957,8 +3935,8 @@
       <c r="I43" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L43" s="15">
-        <v>20001003</v>
+      <c r="L43" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>184</v>
@@ -3985,7 +3963,7 @@
         <v>181</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M44" s="17" t="s">
         <v>189</v>
@@ -4012,7 +3990,7 @@
         <v>181</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>187</v>
@@ -4039,7 +4017,7 @@
         <v>181</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M46" s="17" t="s">
         <v>188</v>
@@ -4105,7 +4083,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
         <v>20001009</v>
       </c>
@@ -4132,46 +4110,34 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="3:24" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="18">
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="15">
         <v>20001010</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22" t="s">
+      <c r="F50" s="15"/>
+      <c r="H50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I50" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J50" s="22"/>
-      <c r="L50" s="20">
+      <c r="I50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L50" s="15">
         <v>20001010</v>
       </c>
-      <c r="M50" s="19" t="s">
+      <c r="M50" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="3">
         <v>180</v>
       </c>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="25" t="s">
+      <c r="Q50" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
-      <c r="V50" s="19"/>
-      <c r="W50" s="19"/>
-      <c r="X50" s="19"/>
-    </row>
-    <row r="51" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
         <v>20001011</v>
       </c>
@@ -4198,7 +4164,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
         <v>20001012</v>
       </c>
@@ -4225,7 +4191,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
         <v>20001013</v>
       </c>
@@ -4252,7 +4218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
         <v>20001014</v>
       </c>
@@ -4279,7 +4245,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
         <v>20001015</v>
       </c>
@@ -4306,7 +4272,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
         <v>20001016</v>
       </c>
@@ -4333,7 +4299,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
         <v>20001017</v>
       </c>
@@ -4360,7 +4326,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
         <v>20001018</v>
       </c>
@@ -4388,7 +4354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
         <v>20001019</v>
       </c>
@@ -4415,7 +4381,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
         <v>20001020</v>
       </c>
@@ -4442,7 +4408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
         <v>20001021</v>
       </c>
@@ -4469,7 +4435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
         <v>20001022</v>
       </c>
@@ -4496,7 +4462,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
         <v>20001023</v>
       </c>
@@ -4524,7 +4490,7 @@
       </c>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
         <v>20001024</v>
       </c>
@@ -4732,7 +4698,7 @@
         <v>181</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>194</v>
@@ -4759,7 +4725,7 @@
         <v>181</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>194</v>
@@ -4867,7 +4833,7 @@
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
@@ -4981,7 +4947,7 @@
         <v>181</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>194</v>
@@ -5008,7 +4974,7 @@
         <v>181</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>194</v>
@@ -5038,7 +5004,7 @@
         <v>20001008</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N82" s="3">
         <v>-70</v>
@@ -5143,7 +5109,7 @@
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
@@ -5230,7 +5196,7 @@
         <v>181</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>194</v>
@@ -5257,7 +5223,7 @@
         <v>181</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>194</v>
@@ -5392,13 +5358,13 @@
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="15">
-        <v>20001003</v>
+      <c r="L95" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M95" s="3" t="s">
         <v>227</v>
@@ -5506,7 +5472,7 @@
         <v>181</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>194</v>
@@ -5533,7 +5499,7 @@
         <v>181</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>194</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC890F02-7A18-43EB-8ED7-92D29FBE055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213F07E-021F-4E50-8335-69EEDD7C7B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="378">
   <si>
     <t>#</t>
   </si>
@@ -1987,6 +1987,21 @@
   </si>
   <si>
     <t>30050001,30050002,30050003,30050004,30050005,30050006,30050007,30050008,41004001,41004002,41004003,41004101,41004102,41004103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑训练师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000032</t>
+  </si>
+  <si>
+    <t>NPC_ZuoQi</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000101,50000102,50000103,50000104,50000105</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2186,7 +2201,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2270,6 +2285,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2577,10 +2595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X125"/>
+  <dimension ref="C1:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3654,8 +3672,8 @@
       <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
+      <c r="H33" s="29" t="s">
+        <v>377</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -3863,16 +3881,14 @@
     </row>
     <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F41" s="15">
-        <v>10001101</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F41" s="15"/>
       <c r="G41" s="1">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>157</v>
@@ -3881,25 +3897,25 @@
         <v>181</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M41" s="17" t="s">
-        <v>186</v>
+        <v>376</v>
+      </c>
+      <c r="M41" s="30">
+        <v>48173553215</v>
       </c>
       <c r="N41" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="15"/>
     </row>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="14">
-        <v>20001002</v>
+      <c r="C42" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="F42" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G42" s="1">
         <v>1009</v>
@@ -3911,76 +3927,79 @@
         <v>181</v>
       </c>
       <c r="L42" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="15"/>
+    </row>
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L43" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M43" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N43" s="3">
         <v>-45</v>
       </c>
-      <c r="Q42" s="15"/>
-    </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="15">
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="15">
         <v>20001003</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="H43" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F44" s="15"/>
       <c r="H44" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>189</v>
+        <v>370</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N44" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="15">
-        <v>20001005</v>
+      <c r="C45" s="14">
+        <v>20001004</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
@@ -3992,19 +4011,19 @@
       <c r="L45" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>187</v>
+      <c r="M45" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N45" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>52</v>
@@ -4019,378 +4038,378 @@
       <c r="L46" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M46" s="17" t="s">
-        <v>188</v>
+      <c r="M46" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N46" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L47" s="15">
-        <v>20001007</v>
+      <c r="L47" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N47" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N48" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="N49" s="3">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001010</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>180</v>
+        <v>20001009</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N50" s="3">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>192</v>
+        <v>20001010</v>
+      </c>
+      <c r="M51" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="N51" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N52" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N54" s="3">
         <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N55" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N56" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N57" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="L58" s="11">
-        <v>0</v>
+      <c r="L58" s="15">
+        <v>20001017</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N58" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L59" s="15">
-        <v>20001019</v>
+      <c r="J59" s="1"/>
+      <c r="L59" s="11">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N59" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
@@ -4399,21 +4418,21 @@
         <v>20001019</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
@@ -4423,81 +4442,83 @@
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N61" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L62" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N62" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="1">
-        <v>1004</v>
-      </c>
       <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L63" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N63" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q63" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="15"/>
+      <c r="G64" s="1">
+        <v>1004</v>
+      </c>
       <c r="H64" s="6" t="s">
         <v>157</v>
       </c>
@@ -4505,29 +4526,24 @@
         <v>181</v>
       </c>
       <c r="L64" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N64" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q64" s="15"/>
+    </row>
+    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="15">
         <v>20001024</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N64" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q64" s="15"/>
-    </row>
-    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E65" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
         <v>157</v>
       </c>
@@ -4535,25 +4551,25 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N65" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F66" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G66" s="1">
         <v>1009</v>
@@ -4565,65 +4581,68 @@
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N66" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F67" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1009</v>
+      </c>
       <c r="H67" s="6" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L67" s="11">
-        <v>20001007</v>
+      <c r="L67" s="15">
+        <v>20001002</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N67" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q67" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q67" s="15"/>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="15">
-        <v>20001005</v>
+      <c r="L68" s="11">
+        <v>20001007</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N68" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>132</v>
@@ -4631,23 +4650,23 @@
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="11">
-        <v>20001009</v>
+      <c r="L69" s="15">
+        <v>20001005</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N69" s="3">
         <v>180</v>
@@ -4658,23 +4677,23 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="15">
-        <v>20001005</v>
+      <c r="L70" s="11">
+        <v>20001009</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N70" s="3">
         <v>180</v>
@@ -4685,34 +4704,34 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="15" t="s">
-        <v>369</v>
+      <c r="L71" s="15">
+        <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N71" s="3">
         <v>180</v>
       </c>
       <c r="Q71" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>52</v>
@@ -4734,15 +4753,15 @@
         <v>180</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
@@ -4751,14 +4770,14 @@
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="11">
-        <v>20001017</v>
+      <c r="L73" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N73" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q73" s="16" t="s">
         <v>134</v>
@@ -4766,43 +4785,40 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F74" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="15">
-        <v>20001001</v>
+      <c r="L74" s="11">
+        <v>20001017</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N74" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q74" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q74" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F75" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G75" s="1">
         <v>1009</v>
@@ -4814,65 +4830,68 @@
         <v>181</v>
       </c>
       <c r="L75" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N75" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F76" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F76" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1009</v>
+      </c>
       <c r="H76" s="6" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="11">
-        <v>20001007</v>
+      <c r="L76" s="15">
+        <v>20001002</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N76" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q76" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L77" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N77" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>132</v>
@@ -4880,26 +4899,26 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N78" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q78" s="16" t="s">
         <v>132</v>
@@ -4907,26 +4926,26 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="15">
-        <v>20001005</v>
+      <c r="L79" s="11">
+        <v>20001017</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N79" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q79" s="16" t="s">
         <v>132</v>
@@ -4934,10 +4953,10 @@
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
@@ -4946,22 +4965,22 @@
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="15" t="s">
-        <v>369</v>
+      <c r="L80" s="15">
+        <v>20001005</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N80" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>52</v>
@@ -4983,31 +5002,31 @@
         <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001008</v>
+      <c r="L82" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="N82" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>134</v>
@@ -5015,26 +5034,26 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="11">
-        <v>20001011</v>
+      <c r="L83" s="15">
+        <v>20001008</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="N83" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>134</v>
@@ -5042,43 +5061,40 @@
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="15">
-        <v>20001001</v>
+      <c r="L84" s="11">
+        <v>20001011</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N84" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q84" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q84" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F85" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G85" s="1">
         <v>1009</v>
@@ -5090,65 +5106,68 @@
         <v>181</v>
       </c>
       <c r="L85" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N85" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F86" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1009</v>
+      </c>
       <c r="H86" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="11">
-        <v>20001007</v>
+      <c r="L86" s="15">
+        <v>20001002</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L87" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N87" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="16" t="s">
         <v>132</v>
@@ -5156,26 +5175,26 @@
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L88" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N88" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q88" s="16" t="s">
         <v>132</v>
@@ -5183,34 +5202,34 @@
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="15" t="s">
-        <v>369</v>
+      <c r="L89" s="11">
+        <v>20001013</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N89" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q89" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E90" s="15" t="s">
         <v>52</v>
@@ -5232,31 +5251,31 @@
         <v>180</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="11">
-        <v>20001015</v>
+      <c r="L91" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N91" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>134</v>
@@ -5264,14 +5283,14 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
@@ -5280,10 +5299,10 @@
         <v>20001015</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N92" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q92" s="16" t="s">
         <v>134</v>
@@ -5291,43 +5310,40 @@
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G93" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="15">
-        <v>20001001</v>
+      <c r="L93" s="11">
+        <v>20001015</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N93" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q93" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q93" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G94" s="1">
         <v>1009</v>
@@ -5339,65 +5355,68 @@
         <v>181</v>
       </c>
       <c r="L94" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N94" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q94" s="15"/>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F95" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F95" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1009</v>
+      </c>
       <c r="H95" s="6" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="15" t="s">
-        <v>370</v>
+      <c r="L95" s="15">
+        <v>20001002</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N95" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q95" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q95" s="15"/>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L96" s="11">
-        <v>20001012</v>
+      <c r="L96" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N96" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q96" s="16" t="s">
         <v>132</v>
@@ -5405,26 +5424,26 @@
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L97" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N97" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q97" s="16" t="s">
         <v>132</v>
@@ -5432,26 +5451,26 @@
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L98" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N98" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
         <v>132</v>
@@ -5459,34 +5478,34 @@
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="15" t="s">
-        <v>369</v>
+      <c r="L99" s="11">
+        <v>20001013</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N99" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q99" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E100" s="15" t="s">
         <v>52</v>
@@ -5508,15 +5527,15 @@
         <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="15">
-        <v>20099001</v>
+      <c r="C101" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
@@ -5525,8 +5544,8 @@
       <c r="I101" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L101" s="11" t="s">
-        <v>47</v>
+      <c r="L101" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>194</v>
@@ -5535,15 +5554,15 @@
         <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
@@ -5562,15 +5581,15 @@
         <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
@@ -5589,15 +5608,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5616,15 +5635,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5643,15 +5662,15 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F106" s="15"/>
       <c r="H106" s="6" t="s">
@@ -5660,8 +5679,8 @@
       <c r="I106" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L106" s="15">
-        <v>20001005</v>
+      <c r="L106" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M106" s="3" t="s">
         <v>194</v>
@@ -5670,10 +5689,36 @@
         <v>180</v>
       </c>
       <c r="Q106" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="15"/>
+      <c r="H107" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L107" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N107" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q107" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5692,6 +5737,7 @@
     <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213F07E-021F-4E50-8335-69EEDD7C7B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C389B196-61B7-4667-AC2D-C6F5273895D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="379">
   <si>
     <t>#</t>
   </si>
@@ -2002,6 +2002,10 @@
   </si>
   <si>
     <t>50000101,50000102,50000103,50000104,50000105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4817,378,3215</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2205,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2285,9 +2289,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2597,8 +2598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3899,8 +3900,8 @@
       <c r="L41" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="M41" s="30">
-        <v>48173553215</v>
+      <c r="M41" s="19" t="s">
+        <v>378</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C389B196-61B7-4667-AC2D-C6F5273895D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9F41C-C591-48DB-9DD8-F32608D9F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="383">
   <si>
     <t>#</t>
   </si>
@@ -2006,6 +2006,21 @@
   </si>
   <si>
     <t>4817,378,3215</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000033</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>节日使者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC_JieRi</t>
+  </si>
+  <si>
+    <t>5195,-404,-97</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2596,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X126"/>
+  <dimension ref="C1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3910,16 +3925,14 @@
     </row>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="14" t="s">
-        <v>193</v>
+        <v>379</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F42" s="15">
-        <v>10001101</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="G42" s="1">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>157</v>
@@ -3928,25 +3941,25 @@
         <v>181</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M42" s="17" t="s">
-        <v>186</v>
+        <v>381</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="N42" s="3">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="15"/>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="14">
-        <v>20001002</v>
+      <c r="C43" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="F43" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G43" s="1">
         <v>1009</v>
@@ -3958,76 +3971,79 @@
         <v>181</v>
       </c>
       <c r="L43" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N43" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N44" s="3">
         <v>-45</v>
       </c>
-      <c r="Q43" s="15"/>
-    </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="15">
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="15">
         <v>20001003</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="H44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N44" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F45" s="15"/>
       <c r="H45" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M45" s="17" t="s">
-        <v>189</v>
+        <v>370</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N45" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="15">
-        <v>20001005</v>
+      <c r="C46" s="14">
+        <v>20001004</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
@@ -4039,19 +4055,19 @@
       <c r="L46" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>187</v>
+      <c r="M46" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N46" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>52</v>
@@ -4066,378 +4082,378 @@
       <c r="L47" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M47" s="17" t="s">
-        <v>188</v>
+      <c r="M47" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N47" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L48" s="15">
-        <v>20001007</v>
+      <c r="L48" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M48" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N48" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L49" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N49" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="N50" s="3">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001010</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>180</v>
+        <v>20001009</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N51" s="3">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>192</v>
+        <v>20001010</v>
+      </c>
+      <c r="M52" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="N52" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N53" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N54" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N55" s="3">
         <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N56" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N58" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="L59" s="11">
-        <v>0</v>
+      <c r="L59" s="15">
+        <v>20001017</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L60" s="15">
-        <v>20001019</v>
+      <c r="J60" s="1"/>
+      <c r="L60" s="11">
+        <v>0</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N60" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
@@ -4446,21 +4462,21 @@
         <v>20001019</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
@@ -4470,81 +4486,83 @@
         <v>181</v>
       </c>
       <c r="L62" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N62" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L63" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N63" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="1">
-        <v>1004</v>
-      </c>
       <c r="H64" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N64" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q64" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65" s="15"/>
+      <c r="G65" s="1">
+        <v>1004</v>
+      </c>
       <c r="H65" s="6" t="s">
         <v>157</v>
       </c>
@@ -4552,29 +4570,24 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N65" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q65" s="15"/>
+    </row>
+    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="15">
         <v>20001024</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N65" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q65" s="15"/>
-    </row>
-    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E66" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
         <v>157</v>
       </c>
@@ -4582,25 +4595,25 @@
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N66" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F67" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G67" s="1">
         <v>1009</v>
@@ -4612,65 +4625,68 @@
         <v>181</v>
       </c>
       <c r="L67" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N67" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q67" s="15"/>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F68" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F68" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1009</v>
+      </c>
       <c r="H68" s="6" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L68" s="11">
-        <v>20001007</v>
+      <c r="L68" s="15">
+        <v>20001002</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N68" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q68" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="15">
-        <v>20001005</v>
+      <c r="L69" s="11">
+        <v>20001007</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N69" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q69" s="16" t="s">
         <v>132</v>
@@ -4678,23 +4694,23 @@
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001009</v>
+      <c r="L70" s="15">
+        <v>20001005</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N70" s="3">
         <v>180</v>
@@ -4705,23 +4721,23 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="15">
-        <v>20001005</v>
+      <c r="L71" s="11">
+        <v>20001009</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N71" s="3">
         <v>180</v>
@@ -4732,34 +4748,34 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15" t="s">
-        <v>369</v>
+      <c r="L72" s="15">
+        <v>20001005</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N72" s="3">
         <v>180</v>
       </c>
       <c r="Q72" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>52</v>
@@ -4781,15 +4797,15 @@
         <v>180</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
@@ -4798,14 +4814,14 @@
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="11">
-        <v>20001017</v>
+      <c r="L74" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N74" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q74" s="16" t="s">
         <v>134</v>
@@ -4813,43 +4829,40 @@
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F75" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="15">
-        <v>20001001</v>
+      <c r="L75" s="11">
+        <v>20001017</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N75" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q75" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q75" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F76" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G76" s="1">
         <v>1009</v>
@@ -4861,65 +4874,68 @@
         <v>181</v>
       </c>
       <c r="L76" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N76" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F77" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1009</v>
+      </c>
       <c r="H77" s="6" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="11">
-        <v>20001007</v>
+      <c r="L77" s="15">
+        <v>20001002</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N77" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q77" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L78" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N78" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q78" s="16" t="s">
         <v>132</v>
@@ -4927,26 +4943,26 @@
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L79" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N79" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q79" s="16" t="s">
         <v>132</v>
@@ -4954,26 +4970,26 @@
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="15">
-        <v>20001005</v>
+      <c r="L80" s="11">
+        <v>20001017</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N80" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>132</v>
@@ -4981,10 +4997,10 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
@@ -4993,22 +5009,22 @@
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="15" t="s">
-        <v>369</v>
+      <c r="L81" s="15">
+        <v>20001005</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N81" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>52</v>
@@ -5030,31 +5046,31 @@
         <v>180</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15">
-        <v>20001008</v>
+      <c r="L83" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="N83" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>134</v>
@@ -5062,26 +5078,26 @@
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="11">
-        <v>20001011</v>
+      <c r="L84" s="15">
+        <v>20001008</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="N84" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q84" s="16" t="s">
         <v>134</v>
@@ -5089,43 +5105,40 @@
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G85" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="15">
-        <v>20001001</v>
+      <c r="L85" s="11">
+        <v>20001011</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N85" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q85" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q85" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F86" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G86" s="1">
         <v>1009</v>
@@ -5137,65 +5150,68 @@
         <v>181</v>
       </c>
       <c r="L86" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N86" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F87" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F87" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1009</v>
+      </c>
       <c r="H87" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="11">
-        <v>20001007</v>
+      <c r="L87" s="15">
+        <v>20001002</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L88" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N88" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="16" t="s">
         <v>132</v>
@@ -5203,26 +5219,26 @@
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L89" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N89" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q89" s="16" t="s">
         <v>132</v>
@@ -5230,34 +5246,34 @@
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="15" t="s">
-        <v>369</v>
+      <c r="L90" s="11">
+        <v>20001013</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N90" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q90" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" s="15" t="s">
         <v>52</v>
@@ -5279,31 +5295,31 @@
         <v>180</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="11">
-        <v>20001015</v>
+      <c r="L92" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N92" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
         <v>134</v>
@@ -5311,14 +5327,14 @@
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
@@ -5327,10 +5343,10 @@
         <v>20001015</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N93" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q93" s="16" t="s">
         <v>134</v>
@@ -5338,43 +5354,40 @@
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G94" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L94" s="15">
-        <v>20001001</v>
+      <c r="L94" s="11">
+        <v>20001015</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N94" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q94" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q94" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F95" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G95" s="1">
         <v>1009</v>
@@ -5386,65 +5399,68 @@
         <v>181</v>
       </c>
       <c r="L95" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N95" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q95" s="15"/>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F96" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F96" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1009</v>
+      </c>
       <c r="H96" s="6" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L96" s="15" t="s">
-        <v>370</v>
+      <c r="L96" s="15">
+        <v>20001002</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N96" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q96" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q96" s="15"/>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="11">
-        <v>20001012</v>
+      <c r="L97" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N97" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q97" s="16" t="s">
         <v>132</v>
@@ -5452,26 +5468,26 @@
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L98" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N98" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q98" s="16" t="s">
         <v>132</v>
@@ -5479,26 +5495,26 @@
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L99" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N99" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
         <v>132</v>
@@ -5506,34 +5522,34 @@
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="15" t="s">
-        <v>369</v>
+      <c r="L100" s="11">
+        <v>20001013</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N100" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q100" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E101" s="15" t="s">
         <v>52</v>
@@ -5555,15 +5571,15 @@
         <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="15">
-        <v>20099001</v>
+      <c r="C102" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
@@ -5572,8 +5588,8 @@
       <c r="I102" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L102" s="11" t="s">
-        <v>47</v>
+      <c r="L102" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>194</v>
@@ -5582,15 +5598,15 @@
         <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
@@ -5609,15 +5625,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5636,15 +5652,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5663,15 +5679,15 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F106" s="15"/>
       <c r="H106" s="6" t="s">
@@ -5690,15 +5706,15 @@
         <v>180</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F107" s="15"/>
       <c r="H107" s="6" t="s">
@@ -5707,8 +5723,8 @@
       <c r="I107" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L107" s="15">
-        <v>20001005</v>
+      <c r="L107" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M107" s="3" t="s">
         <v>194</v>
@@ -5717,10 +5733,36 @@
         <v>180</v>
       </c>
       <c r="Q107" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="15"/>
+      <c r="H108" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L108" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N108" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q108" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5739,6 +5781,7 @@
     <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB9F41C-C591-48DB-9DD8-F32608D9F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B20CA-BB20-4B0B-947C-8EFAA901919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="384">
   <si>
     <t>#</t>
   </si>
@@ -2021,6 +2021,10 @@
   </si>
   <si>
     <t>5195,-404,-97</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每到中国传统节日都可以来我这里领取奖励哦~</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2614,7 +2618,7 @@
   <dimension ref="C1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3949,7 +3953,9 @@
       <c r="N42" s="3">
         <v>270</v>
       </c>
-      <c r="Q42" s="15"/>
+      <c r="Q42" s="15" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="14" t="s">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B20CA-BB20-4B0B-947C-8EFAA901919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2C91E-B864-44DD-B8FE-EBB656FF32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,6 +176,7 @@
 3  循环任务
 4  魔能老人
 5  补偿大师
+6  节日使者
 &gt;1000 functionconfig
 </t>
         </r>
@@ -2617,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>157</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A2C91E-B864-44DD-B8FE-EBB656FF32B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA7D62-28AF-4224-8703-3E4C90696541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,6 +177,7 @@
 4  魔能老人
 5  补偿大师
 6  节日使者
+7  周长任务
 &gt;1000 functionconfig
 </t>
         </r>
@@ -610,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="387">
   <si>
     <t>#</t>
   </si>
@@ -2026,6 +2027,18 @@
   </si>
   <si>
     <t>每到中国传统节日都可以来我这里领取奖励哦~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000034</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>周任务使者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5295,-404,-100</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2616,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X127"/>
+  <dimension ref="C1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3960,16 +3973,14 @@
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="14" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F43" s="15">
-        <v>10001101</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F43" s="15"/>
       <c r="G43" s="1">
-        <v>1009</v>
+        <v>7</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>157</v>
@@ -3978,25 +3989,27 @@
         <v>181</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M43" s="17" t="s">
-        <v>186</v>
+        <v>381</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="N43" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q43" s="15"/>
+        <v>270</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="14">
-        <v>20001002</v>
+      <c r="C44" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="F44" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G44" s="1">
         <v>1009</v>
@@ -4008,76 +4021,79 @@
         <v>181</v>
       </c>
       <c r="L44" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N44" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L45" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N45" s="3">
         <v>-45</v>
       </c>
-      <c r="Q44" s="15"/>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="15">
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="15">
         <v>20001003</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="H45" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N45" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q45" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F46" s="15"/>
       <c r="H46" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M46" s="17" t="s">
-        <v>189</v>
+        <v>370</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N46" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="15">
-        <v>20001005</v>
+      <c r="C47" s="14">
+        <v>20001004</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
@@ -4089,19 +4105,19 @@
       <c r="L47" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>187</v>
+      <c r="M47" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N47" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>52</v>
@@ -4116,378 +4132,378 @@
       <c r="L48" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M48" s="17" t="s">
-        <v>188</v>
+      <c r="M48" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N48" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L49" s="15">
-        <v>20001007</v>
+      <c r="L49" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M49" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N49" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L50" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N50" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="N51" s="3">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001010</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>180</v>
+        <v>20001009</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N52" s="3">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>192</v>
+        <v>20001010</v>
+      </c>
+      <c r="M53" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="N53" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N54" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N55" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N56" s="3">
         <v>180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N57" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N58" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N59" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="L60" s="11">
-        <v>0</v>
+      <c r="L60" s="15">
+        <v>20001017</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N60" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L61" s="15">
-        <v>20001019</v>
+      <c r="J61" s="1"/>
+      <c r="L61" s="11">
+        <v>0</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N61" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
@@ -4496,21 +4512,21 @@
         <v>20001019</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
@@ -4520,81 +4536,83 @@
         <v>181</v>
       </c>
       <c r="L63" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N63" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N64" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="1">
-        <v>1004</v>
-      </c>
       <c r="H65" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N65" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q65" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q65" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F66" s="15"/>
+      <c r="G66" s="1">
+        <v>1004</v>
+      </c>
       <c r="H66" s="6" t="s">
         <v>157</v>
       </c>
@@ -4602,29 +4620,24 @@
         <v>181</v>
       </c>
       <c r="L66" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N66" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q66" s="15"/>
+    </row>
+    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="15">
         <v>20001024</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N66" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q66" s="15"/>
-    </row>
-    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E67" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F67" s="15"/>
       <c r="H67" s="6" t="s">
         <v>157</v>
       </c>
@@ -4632,25 +4645,25 @@
         <v>181</v>
       </c>
       <c r="L67" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N67" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q67" s="15"/>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G68" s="1">
         <v>1009</v>
@@ -4662,65 +4675,68 @@
         <v>181</v>
       </c>
       <c r="L68" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N68" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F69" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F69" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1009</v>
+      </c>
       <c r="H69" s="6" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L69" s="11">
-        <v>20001007</v>
+      <c r="L69" s="15">
+        <v>20001002</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N69" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q69" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F70" s="15"/>
       <c r="H70" s="6" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="15">
-        <v>20001005</v>
+      <c r="L70" s="11">
+        <v>20001007</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N70" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q70" s="16" t="s">
         <v>132</v>
@@ -4728,23 +4744,23 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="11">
-        <v>20001009</v>
+      <c r="L71" s="15">
+        <v>20001005</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N71" s="3">
         <v>180</v>
@@ -4755,23 +4771,23 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="11">
+        <v>20001009</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N72" s="3">
         <v>180</v>
@@ -4782,34 +4798,34 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="15" t="s">
-        <v>369</v>
+      <c r="L73" s="15">
+        <v>20001005</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N73" s="3">
         <v>180</v>
       </c>
       <c r="Q73" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>52</v>
@@ -4831,15 +4847,15 @@
         <v>180</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
@@ -4848,14 +4864,14 @@
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="11">
-        <v>20001017</v>
+      <c r="L75" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N75" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
         <v>134</v>
@@ -4863,43 +4879,40 @@
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F76" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="15">
-        <v>20001001</v>
+      <c r="L76" s="11">
+        <v>20001017</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N76" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q76" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q76" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F77" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G77" s="1">
         <v>1009</v>
@@ -4911,65 +4924,68 @@
         <v>181</v>
       </c>
       <c r="L77" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N77" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F78" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1009</v>
+      </c>
       <c r="H78" s="6" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="11">
-        <v>20001007</v>
+      <c r="L78" s="15">
+        <v>20001002</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N78" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q78" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F79" s="15"/>
       <c r="H79" s="6" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L79" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N79" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q79" s="16" t="s">
         <v>132</v>
@@ -4977,26 +4993,26 @@
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L80" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N80" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>132</v>
@@ -5004,26 +5020,26 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L81" s="15">
-        <v>20001005</v>
+      <c r="L81" s="11">
+        <v>20001017</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N81" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>132</v>
@@ -5031,10 +5047,10 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
@@ -5043,22 +5059,22 @@
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15" t="s">
-        <v>369</v>
+      <c r="L82" s="15">
+        <v>20001005</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N82" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q82" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>52</v>
@@ -5080,31 +5096,31 @@
         <v>180</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="15">
-        <v>20001008</v>
+      <c r="L84" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="N84" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q84" s="16" t="s">
         <v>134</v>
@@ -5112,26 +5128,26 @@
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="11">
-        <v>20001011</v>
+      <c r="L85" s="15">
+        <v>20001008</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="N85" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>134</v>
@@ -5139,43 +5155,40 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="15">
-        <v>20001001</v>
+      <c r="L86" s="11">
+        <v>20001011</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N86" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q86" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q86" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F87" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G87" s="1">
         <v>1009</v>
@@ -5187,65 +5200,68 @@
         <v>181</v>
       </c>
       <c r="L87" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N87" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F88" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F88" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1009</v>
+      </c>
       <c r="H88" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="11">
-        <v>20001007</v>
+      <c r="L88" s="15">
+        <v>20001002</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N88" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F89" s="15"/>
       <c r="H89" s="6" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L89" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N89" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="16" t="s">
         <v>132</v>
@@ -5253,26 +5269,26 @@
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L90" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N90" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>132</v>
@@ -5280,34 +5296,34 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L91" s="15" t="s">
-        <v>369</v>
+      <c r="L91" s="11">
+        <v>20001013</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N91" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q91" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" s="15" t="s">
         <v>52</v>
@@ -5329,31 +5345,31 @@
         <v>180</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="11">
-        <v>20001015</v>
+      <c r="L93" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N93" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
         <v>134</v>
@@ -5361,14 +5377,14 @@
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
@@ -5377,10 +5393,10 @@
         <v>20001015</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N94" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q94" s="16" t="s">
         <v>134</v>
@@ -5388,43 +5404,40 @@
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G95" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="15">
-        <v>20001001</v>
+      <c r="L95" s="11">
+        <v>20001015</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N95" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q95" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q95" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G96" s="1">
         <v>1009</v>
@@ -5436,65 +5449,68 @@
         <v>181</v>
       </c>
       <c r="L96" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N96" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q96" s="15"/>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F97" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F97" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1009</v>
+      </c>
       <c r="H97" s="6" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="15" t="s">
-        <v>370</v>
+      <c r="L97" s="15">
+        <v>20001002</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N97" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q97" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F98" s="15"/>
       <c r="H98" s="6" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L98" s="11">
-        <v>20001012</v>
+      <c r="L98" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N98" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q98" s="16" t="s">
         <v>132</v>
@@ -5502,26 +5518,26 @@
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L99" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N99" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q99" s="16" t="s">
         <v>132</v>
@@ -5529,26 +5545,26 @@
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L100" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N100" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
         <v>132</v>
@@ -5556,34 +5572,34 @@
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L101" s="15" t="s">
-        <v>369</v>
+      <c r="L101" s="11">
+        <v>20001013</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N101" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q101" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E102" s="15" t="s">
         <v>52</v>
@@ -5605,15 +5621,15 @@
         <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="15">
-        <v>20099001</v>
+      <c r="C103" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
@@ -5622,8 +5638,8 @@
       <c r="I103" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L103" s="11" t="s">
-        <v>47</v>
+      <c r="L103" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>194</v>
@@ -5632,15 +5648,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5659,15 +5675,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5686,15 +5702,15 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F106" s="15"/>
       <c r="H106" s="6" t="s">
@@ -5713,15 +5729,15 @@
         <v>180</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F107" s="15"/>
       <c r="H107" s="6" t="s">
@@ -5740,15 +5756,15 @@
         <v>180</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F108" s="15"/>
       <c r="H108" s="6" t="s">
@@ -5757,8 +5773,8 @@
       <c r="I108" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L108" s="15">
-        <v>20001005</v>
+      <c r="L108" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M108" s="3" t="s">
         <v>194</v>
@@ -5767,10 +5783,36 @@
         <v>180</v>
       </c>
       <c r="Q108" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="15"/>
+      <c r="H109" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L109" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N109" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q109" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5789,6 +5831,7 @@
     <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA7D62-28AF-4224-8703-3E4C90696541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E5CEF0-4292-4CD6-A2CD-097A1EDAFAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,7 +2038,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5295,-404,-100</t>
+    <t>5300,-404,-474</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3995,7 +3995,7 @@
         <v>386</v>
       </c>
       <c r="N43" s="3">
-        <v>270</v>
+        <v>-146</v>
       </c>
       <c r="Q43" s="15" t="s">
         <v>383</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E5CEF0-4292-4CD6-A2CD-097A1EDAFAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7D5FBF-A899-42BD-97D9-B473808841A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="388">
   <si>
     <t>#</t>
   </si>
@@ -2026,19 +2026,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每到中国传统节日都可以来我这里领取奖励哦~</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20000034</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>周任务使者</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>5300,-404,-474</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务使者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>我这里有许许多多的奇怪任务哦!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每到中国传统节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2631,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="I31" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3968,12 +3972,12 @@
         <v>270</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>385</v>
@@ -3992,13 +3996,13 @@
         <v>381</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N43" s="3">
         <v>-146</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7D5FBF-A899-42BD-97D9-B473808841A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C849ED3-2BB0-45C6-8C04-7ECDCE9CE699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="392">
   <si>
     <t>#</t>
   </si>
@@ -2043,6 +2043,20 @@
   </si>
   <si>
     <t>每到中国传统节日的时候,超过20级的玩家都可以来我这里领取奖励哦~</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000035</t>
+  </si>
+  <si>
+    <t>勇士角斗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000001</t>
+  </si>
+  <si>
+    <t>5500,-404,-474</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2633,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X128"/>
+  <dimension ref="C1:X129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4007,43 +4021,43 @@
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-146</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E45" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>10001101</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1009</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M44" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N44" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q44" s="15"/>
-    </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="14">
-        <v>20001002</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="15">
-        <v>10001201</v>
       </c>
       <c r="G45" s="1">
         <v>1009</v>
@@ -4055,76 +4069,79 @@
         <v>181</v>
       </c>
       <c r="L45" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N45" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M46" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N46" s="3">
         <v>-45</v>
       </c>
-      <c r="Q45" s="15"/>
-    </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="15">
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="15">
         <v>20001003</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E47" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F46" s="15"/>
-      <c r="H46" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N46" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q46" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F47" s="15"/>
       <c r="H47" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M47" s="17" t="s">
-        <v>189</v>
+        <v>370</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N47" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="15">
-        <v>20001005</v>
+      <c r="C48" s="14">
+        <v>20001004</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
@@ -4136,19 +4153,19 @@
       <c r="L48" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>187</v>
+      <c r="M48" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N48" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>52</v>
@@ -4163,378 +4180,378 @@
       <c r="L49" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="M49" s="17" t="s">
-        <v>188</v>
+      <c r="M49" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N49" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="15"/>
       <c r="H50" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L50" s="15">
-        <v>20001007</v>
+      <c r="L50" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M50" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N50" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L51" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N51" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="N52" s="3">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001010</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>180</v>
+        <v>20001009</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N53" s="3">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>192</v>
+        <v>20001010</v>
+      </c>
+      <c r="M54" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="N54" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N55" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N56" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N57" s="3">
         <v>180</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N58" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N59" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L60" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N60" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="L61" s="11">
-        <v>0</v>
+      <c r="L61" s="15">
+        <v>20001017</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N61" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L62" s="15">
-        <v>20001019</v>
+      <c r="J62" s="1"/>
+      <c r="L62" s="11">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N62" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
@@ -4543,21 +4560,21 @@
         <v>20001019</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N63" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
@@ -4567,81 +4584,83 @@
         <v>181</v>
       </c>
       <c r="L64" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N64" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N65" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F66" s="15"/>
-      <c r="G66" s="1">
-        <v>1004</v>
-      </c>
       <c r="H66" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N66" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q66" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" s="15"/>
+      <c r="G67" s="1">
+        <v>1004</v>
+      </c>
       <c r="H67" s="6" t="s">
         <v>157</v>
       </c>
@@ -4649,29 +4668,24 @@
         <v>181</v>
       </c>
       <c r="L67" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N67" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q67" s="15"/>
+    </row>
+    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="15">
         <v>20001024</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N67" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q67" s="15"/>
-    </row>
-    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E68" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F68" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F68" s="15"/>
       <c r="H68" s="6" t="s">
         <v>157</v>
       </c>
@@ -4679,25 +4693,25 @@
         <v>181</v>
       </c>
       <c r="L68" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N68" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q68" s="15"/>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F69" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G69" s="1">
         <v>1009</v>
@@ -4709,65 +4723,68 @@
         <v>181</v>
       </c>
       <c r="L69" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N69" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F70" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1009</v>
+      </c>
       <c r="H70" s="6" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L70" s="11">
-        <v>20001007</v>
+      <c r="L70" s="15">
+        <v>20001002</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N70" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q70" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>169</v>
+        <v>371</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="15">
-        <v>20001005</v>
+      <c r="L71" s="11">
+        <v>20001007</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N71" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q71" s="16" t="s">
         <v>132</v>
@@ -4775,23 +4792,23 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="11">
-        <v>20001009</v>
+      <c r="L72" s="15">
+        <v>20001005</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N72" s="3">
         <v>180</v>
@@ -4802,23 +4819,23 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="15">
-        <v>20001005</v>
+      <c r="L73" s="11">
+        <v>20001009</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N73" s="3">
         <v>180</v>
@@ -4829,34 +4846,34 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="15" t="s">
-        <v>369</v>
+      <c r="L74" s="15">
+        <v>20001005</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N74" s="3">
         <v>180</v>
       </c>
       <c r="Q74" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>52</v>
@@ -4878,15 +4895,15 @@
         <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F76" s="15"/>
       <c r="H76" s="6" t="s">
@@ -4895,14 +4912,14 @@
       <c r="I76" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L76" s="11">
-        <v>20001017</v>
+      <c r="L76" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N76" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q76" s="16" t="s">
         <v>134</v>
@@ -4910,43 +4927,40 @@
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F77" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="15">
-        <v>20001001</v>
+      <c r="L77" s="11">
+        <v>20001017</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N77" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q77" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q77" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F78" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G78" s="1">
         <v>1009</v>
@@ -4958,65 +4972,68 @@
         <v>181</v>
       </c>
       <c r="L78" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N78" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F79" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1009</v>
+      </c>
       <c r="H79" s="6" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L79" s="11">
-        <v>20001007</v>
+      <c r="L79" s="15">
+        <v>20001002</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N79" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q79" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L80" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N80" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q80" s="16" t="s">
         <v>132</v>
@@ -5024,26 +5041,26 @@
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N81" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>132</v>
@@ -5051,26 +5068,26 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L82" s="15">
-        <v>20001005</v>
+      <c r="L82" s="11">
+        <v>20001017</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N82" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>132</v>
@@ -5078,10 +5095,10 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
@@ -5090,22 +5107,22 @@
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15" t="s">
-        <v>369</v>
+      <c r="L83" s="15">
+        <v>20001005</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N83" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q83" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E84" s="15" t="s">
         <v>52</v>
@@ -5127,31 +5144,31 @@
         <v>180</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F85" s="15"/>
       <c r="H85" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L85" s="15">
-        <v>20001008</v>
+      <c r="L85" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="N85" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
         <v>134</v>
@@ -5159,26 +5176,26 @@
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="11">
-        <v>20001011</v>
+      <c r="L86" s="15">
+        <v>20001008</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="N86" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>134</v>
@@ -5186,43 +5203,40 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="15">
-        <v>20001001</v>
+      <c r="L87" s="11">
+        <v>20001011</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N87" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q87" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q87" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F88" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G88" s="1">
         <v>1009</v>
@@ -5234,65 +5248,68 @@
         <v>181</v>
       </c>
       <c r="L88" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N88" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F89" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F89" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1009</v>
+      </c>
       <c r="H89" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L89" s="11">
-        <v>20001007</v>
+      <c r="L89" s="15">
+        <v>20001002</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q89" s="15"/>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F90" s="15"/>
       <c r="H90" s="6" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L90" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N90" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q90" s="16" t="s">
         <v>132</v>
@@ -5300,26 +5317,26 @@
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L91" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N91" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>132</v>
@@ -5327,34 +5344,34 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L92" s="15" t="s">
-        <v>369</v>
+      <c r="L92" s="11">
+        <v>20001013</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N92" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q92" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" s="15" t="s">
         <v>52</v>
@@ -5376,31 +5393,31 @@
         <v>180</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F94" s="15"/>
       <c r="H94" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L94" s="11">
-        <v>20001015</v>
+      <c r="L94" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N94" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
         <v>134</v>
@@ -5408,14 +5425,14 @@
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
@@ -5424,10 +5441,10 @@
         <v>20001015</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N95" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q95" s="16" t="s">
         <v>134</v>
@@ -5435,43 +5452,40 @@
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L96" s="15">
-        <v>20001001</v>
+      <c r="L96" s="11">
+        <v>20001015</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N96" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q96" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q96" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F97" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G97" s="1">
         <v>1009</v>
@@ -5483,65 +5497,68 @@
         <v>181</v>
       </c>
       <c r="L97" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N97" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q97" s="15"/>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F98" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1009</v>
+      </c>
       <c r="H98" s="6" t="s">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L98" s="15" t="s">
-        <v>370</v>
+      <c r="L98" s="15">
+        <v>20001002</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N98" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q98" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q98" s="15"/>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="11">
-        <v>20001012</v>
+      <c r="L99" s="15" t="s">
+        <v>370</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N99" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q99" s="16" t="s">
         <v>132</v>
@@ -5549,26 +5566,26 @@
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L100" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N100" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q100" s="16" t="s">
         <v>132</v>
@@ -5576,26 +5593,26 @@
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L101" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N101" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q101" s="16" t="s">
         <v>132</v>
@@ -5603,34 +5620,34 @@
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L102" s="15" t="s">
-        <v>369</v>
+      <c r="L102" s="11">
+        <v>20001013</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N102" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q102" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E103" s="15" t="s">
         <v>52</v>
@@ -5652,15 +5669,15 @@
         <v>180</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="15">
-        <v>20099001</v>
+      <c r="C104" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F104" s="15"/>
       <c r="H104" s="6" t="s">
@@ -5669,8 +5686,8 @@
       <c r="I104" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L104" s="11" t="s">
-        <v>47</v>
+      <c r="L104" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>194</v>
@@ -5679,15 +5696,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5706,15 +5723,15 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F106" s="15"/>
       <c r="H106" s="6" t="s">
@@ -5733,15 +5750,15 @@
         <v>180</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F107" s="15"/>
       <c r="H107" s="6" t="s">
@@ -5760,15 +5777,15 @@
         <v>180</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F108" s="15"/>
       <c r="H108" s="6" t="s">
@@ -5787,15 +5804,15 @@
         <v>180</v>
       </c>
       <c r="Q108" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F109" s="15"/>
       <c r="H109" s="6" t="s">
@@ -5804,8 +5821,8 @@
       <c r="I109" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L109" s="15">
-        <v>20001005</v>
+      <c r="L109" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>194</v>
@@ -5814,10 +5831,36 @@
         <v>180</v>
       </c>
       <c r="Q109" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="15"/>
+      <c r="H110" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L110" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N110" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q110" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5836,6 +5879,7 @@
     <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C849ED3-2BB0-45C6-8C04-7ECDCE9CE699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCBEE3-E2C9-4841-8C76-28AA4AF4EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="392">
   <si>
     <t>#</t>
   </si>
@@ -2056,7 +2056,7 @@
     <t>6000001</t>
   </si>
   <si>
-    <t>5500,-404,-474</t>
+    <t>5500,-404,-574</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2650,7 +2650,7 @@
   <dimension ref="C1:X129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4031,10 +4031,13 @@
         <v>2</v>
       </c>
       <c r="H44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="L44" s="15" t="s">
         <v>381</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CCBEE3-E2C9-4841-8C76-28AA4AF4EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2A8EAA-F77D-4864-BA82-67D3AD063FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -1806,10 +1806,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>赏金猎人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1747,-428,-3552</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2003,10 +1999,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>50000101,50000102,50000103,50000104,50000105</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>4817,378,3215</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2057,6 +2049,14 @@
   </si>
   <si>
     <t>5500,-404,-574</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务使者:赛利</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000101,50000102,50000103,50000104,50000105,50000201,50000202,50000203,50000301,50000302,50000303</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2650,7 +2650,7 @@
   <dimension ref="C1:X129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>282</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>280</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>281</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M15" s="18" t="s">
         <v>292</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>293</v>
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>288</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>291</v>
@@ -3672,7 +3672,7 @@
         <v>181</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>321</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N32" s="3">
         <v>-30</v>
@@ -3719,36 +3719,36 @@
         <v>324</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N33" s="3">
         <v>180</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F34" s="28">
         <v>0</v>
@@ -3757,24 +3757,24 @@
         <v>1024</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N34" s="3">
         <v>-30</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
@@ -3789,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N35" s="3">
         <v>-144</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G36" s="1">
         <v>2</v>
@@ -3815,24 +3815,24 @@
         <v>2000001</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N36" s="3">
         <v>-180</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G37" s="1">
         <v>2</v>
@@ -3841,72 +3841,72 @@
         <v>2000002</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N37" s="3">
         <v>90</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G38" s="1">
         <v>1027</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N38" s="3">
         <v>90</v>
       </c>
       <c r="O38" s="19"/>
       <c r="Q38" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G39" s="1">
         <v>1028</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N39" s="3">
         <v>129</v>
       </c>
       <c r="O39" s="19"/>
       <c r="Q39" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N40" s="3">
         <v>180</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F41" s="15"/>
       <c r="G41" s="1">
@@ -3949,10 +3949,10 @@
         <v>181</v>
       </c>
       <c r="L41" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" s="19" t="s">
         <v>376</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3961,10 +3961,10 @@
     </row>
     <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="1">
@@ -3977,24 +3977,24 @@
         <v>181</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="N42" s="3">
         <v>270</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>385</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="1">
@@ -4007,24 +4007,24 @@
         <v>181</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N43" s="3">
         <v>-146</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="1">
@@ -4037,19 +4037,19 @@
         <v>181</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N44" s="3">
         <v>-146</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4057,7 +4057,7 @@
         <v>193</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F45" s="15">
         <v>10001101</v>
@@ -4072,7 +4072,7 @@
         <v>181</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M45" s="17" t="s">
         <v>186</v>
@@ -4102,7 +4102,7 @@
         <v>181</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>185</v>
@@ -4127,7 +4127,7 @@
         <v>181</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>184</v>
@@ -4154,7 +4154,7 @@
         <v>181</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M48" s="17" t="s">
         <v>189</v>
@@ -4181,7 +4181,7 @@
         <v>181</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>187</v>
@@ -4208,7 +4208,7 @@
         <v>181</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>188</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="F71" s="15"/>
       <c r="H71" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
@@ -4889,7 +4889,7 @@
         <v>181</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>194</v>
@@ -4916,7 +4916,7 @@
         <v>181</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>194</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="F80" s="15"/>
       <c r="H80" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
@@ -5138,7 +5138,7 @@
         <v>181</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>194</v>
@@ -5165,7 +5165,7 @@
         <v>181</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>194</v>
@@ -5387,7 +5387,7 @@
         <v>181</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>194</v>
@@ -5414,7 +5414,7 @@
         <v>181</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>194</v>
@@ -5549,13 +5549,13 @@
       </c>
       <c r="F99" s="15"/>
       <c r="H99" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L99" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>227</v>
@@ -5663,7 +5663,7 @@
         <v>181</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>194</v>
@@ -5690,7 +5690,7 @@
         <v>181</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>194</v>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2A8EAA-F77D-4864-BA82-67D3AD063FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D662A872-91A1-421D-BF4F-7AF3347BE419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="395">
   <si>
     <t>#</t>
   </si>
@@ -2057,6 +2057,17 @@
   </si>
   <si>
     <t>50000101,50000102,50000103,50000104,50000105,50000201,50000202,50000203,50000301,50000302,50000303</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000036</t>
+  </si>
+  <si>
+    <t>珍宝商人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4107,615,6479</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2647,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X129"/>
+  <dimension ref="C1:X130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4054,43 +4065,43 @@
     </row>
     <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="14" t="s">
-        <v>193</v>
+        <v>392</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="F45" s="15">
-        <v>10001101</v>
+        <v>50000001</v>
       </c>
       <c r="G45" s="1">
         <v>1009</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>181</v>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="N45" s="3">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="Q45" s="15"/>
     </row>
     <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="14">
-        <v>20001002</v>
+      <c r="C46" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="F46" s="15">
-        <v>10001201</v>
+        <v>10001101</v>
       </c>
       <c r="G46" s="1">
         <v>1009</v>
@@ -4102,76 +4113,79 @@
         <v>181</v>
       </c>
       <c r="L46" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="N46" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="14">
+        <v>20001002</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="15">
+        <v>10001201</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1009</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="M46" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N47" s="3">
         <v>-45</v>
       </c>
-      <c r="Q46" s="15"/>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="15">
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="15">
         <v>20001003</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E48" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="H47" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="N47" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q47" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="14">
-        <v>20001004</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="F48" s="15"/>
       <c r="H48" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="M48" s="17" t="s">
-        <v>189</v>
+        <v>369</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="N48" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="15">
-        <v>20001005</v>
+      <c r="C49" s="14">
+        <v>20001004</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="15"/>
       <c r="H49" s="6" t="s">
@@ -4183,19 +4197,19 @@
       <c r="L49" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>187</v>
+      <c r="M49" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="N49" s="3">
-        <v>-45</v>
+        <v>90</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="15">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>52</v>
@@ -4210,378 +4224,378 @@
       <c r="L50" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="M50" s="17" t="s">
-        <v>188</v>
+      <c r="M50" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="N50" s="3">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="15">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F51" s="15"/>
       <c r="H51" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L51" s="15">
-        <v>20001007</v>
+      <c r="L51" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M51" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="N51" s="3">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="15"/>
       <c r="H52" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L52" s="15">
-        <v>20001008</v>
+        <v>20001007</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N52" s="3">
-        <v>-155</v>
+        <v>150</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53" s="15"/>
       <c r="H53" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L53" s="15">
-        <v>20001009</v>
+        <v>20001008</v>
       </c>
       <c r="M53" s="17" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="N53" s="3">
-        <v>35</v>
+        <v>-155</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="15">
-        <v>20001010</v>
+        <v>20001009</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="15"/>
       <c r="H54" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L54" s="15">
-        <v>20001010</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>180</v>
+        <v>20001009</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>251</v>
       </c>
       <c r="N54" s="3">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="15">
-        <v>20001011</v>
+        <v>20001010</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F55" s="15"/>
       <c r="H55" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L55" s="15">
-        <v>20001011</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>192</v>
+        <v>20001010</v>
+      </c>
+      <c r="M55" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="N55" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F56" s="15"/>
       <c r="H56" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L56" s="15">
-        <v>20001012</v>
+        <v>20001011</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N56" s="3">
-        <v>80</v>
+        <v>-180</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F57" s="15"/>
       <c r="H57" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L57" s="15">
-        <v>20001013</v>
+        <v>20001012</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N57" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="15"/>
       <c r="H58" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L58" s="15">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N58" s="3">
         <v>180</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F59" s="15"/>
       <c r="H59" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L59" s="15">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N59" s="3">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" s="15"/>
       <c r="H60" s="6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L60" s="15">
-        <v>20001016</v>
+        <v>20001015</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N60" s="3">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="15"/>
       <c r="H61" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L61" s="15">
-        <v>20001017</v>
+        <v>20001016</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N61" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="15">
-        <v>20001018</v>
+        <v>20001017</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F62" s="15"/>
       <c r="H62" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="L62" s="11">
-        <v>0</v>
+      <c r="L62" s="15">
+        <v>20001017</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N62" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="15">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F63" s="15"/>
       <c r="H63" s="6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="15">
-        <v>20001019</v>
+      <c r="J63" s="1"/>
+      <c r="L63" s="11">
+        <v>0</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N63" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="15">
-        <v>20001020</v>
+        <v>20001019</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F64" s="15"/>
       <c r="H64" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>181</v>
@@ -4590,21 +4604,21 @@
         <v>20001019</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N64" s="3">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="15">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F65" s="15"/>
       <c r="H65" s="6" t="s">
@@ -4614,81 +4628,83 @@
         <v>181</v>
       </c>
       <c r="L65" s="15">
-        <v>20001021</v>
+        <v>20001019</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N65" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q65" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F66" s="15"/>
       <c r="H66" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L66" s="15">
-        <v>20001022</v>
+        <v>20001021</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N66" s="3">
-        <v>-106</v>
+        <v>-180</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" s="15"/>
-      <c r="G67" s="1">
-        <v>1004</v>
-      </c>
       <c r="H67" s="6" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L67" s="15">
-        <v>20001023</v>
+        <v>20001022</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N67" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q67" s="15"/>
+        <v>-106</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="15">
-        <v>20001024</v>
+        <v>20001023</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F68" s="15"/>
+      <c r="G68" s="1">
+        <v>1004</v>
+      </c>
       <c r="H68" s="6" t="s">
         <v>157</v>
       </c>
@@ -4696,29 +4712,24 @@
         <v>181</v>
       </c>
       <c r="L68" s="15">
+        <v>20001023</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N68" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q68" s="15"/>
+    </row>
+    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="15">
         <v>20001024</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N68" s="3">
-        <v>-152</v>
-      </c>
-      <c r="Q68" s="15"/>
-    </row>
-    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="14" t="s">
-        <v>71</v>
-      </c>
       <c r="E69" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="15">
-        <v>10002101</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1009</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F69" s="15"/>
       <c r="H69" s="6" t="s">
         <v>157</v>
       </c>
@@ -4726,25 +4737,25 @@
         <v>181</v>
       </c>
       <c r="L69" s="15">
-        <v>20001001</v>
+        <v>20001024</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N69" s="3">
-        <v>-147</v>
+        <v>-152</v>
       </c>
       <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" s="15">
-        <v>10002201</v>
+        <v>10002101</v>
       </c>
       <c r="G70" s="1">
         <v>1009</v>
@@ -4756,65 +4767,68 @@
         <v>181</v>
       </c>
       <c r="L70" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N70" s="3">
-        <v>-129</v>
+        <v>-147</v>
       </c>
       <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F71" s="15">
+        <v>10002201</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1009</v>
+      </c>
       <c r="H71" s="6" t="s">
-        <v>370</v>
+        <v>157</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L71" s="11">
-        <v>20001007</v>
+      <c r="L71" s="15">
+        <v>20001002</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N71" s="3">
-        <v>-131</v>
-      </c>
-      <c r="Q71" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-129</v>
+      </c>
+      <c r="Q71" s="15"/>
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F72" s="15"/>
       <c r="H72" s="6" t="s">
-        <v>169</v>
+        <v>370</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L72" s="15">
-        <v>20001005</v>
+      <c r="L72" s="11">
+        <v>20001007</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N72" s="3">
-        <v>180</v>
+        <v>-131</v>
       </c>
       <c r="Q72" s="16" t="s">
         <v>132</v>
@@ -4822,23 +4836,23 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F73" s="15"/>
       <c r="H73" s="6" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L73" s="11">
-        <v>20001009</v>
+      <c r="L73" s="15">
+        <v>20001005</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N73" s="3">
         <v>180</v>
@@ -4849,23 +4863,23 @@
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F74" s="15"/>
       <c r="H74" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="15">
-        <v>20001005</v>
+      <c r="L74" s="11">
+        <v>20001009</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N74" s="3">
         <v>180</v>
@@ -4876,34 +4890,34 @@
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F75" s="15"/>
       <c r="H75" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L75" s="15" t="s">
-        <v>368</v>
+      <c r="L75" s="15">
+        <v>20001005</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="N75" s="3">
         <v>180</v>
       </c>
       <c r="Q75" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>52</v>
@@ -4925,15 +4939,15 @@
         <v>180</v>
       </c>
       <c r="Q76" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F77" s="15"/>
       <c r="H77" s="6" t="s">
@@ -4942,14 +4956,14 @@
       <c r="I77" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L77" s="11">
-        <v>20001017</v>
+      <c r="L77" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="N77" s="3">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="Q77" s="16" t="s">
         <v>134</v>
@@ -4957,43 +4971,40 @@
     </row>
     <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" s="15">
-        <v>10003101</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1009</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F78" s="15"/>
       <c r="H78" s="6" t="s">
         <v>157</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L78" s="15">
-        <v>20001001</v>
+      <c r="L78" s="11">
+        <v>20001017</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N78" s="3">
-        <v>123</v>
-      </c>
-      <c r="Q78" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="Q78" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F79" s="15">
-        <v>10003201</v>
+        <v>10003101</v>
       </c>
       <c r="G79" s="1">
         <v>1009</v>
@@ -5005,65 +5016,68 @@
         <v>181</v>
       </c>
       <c r="L79" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N79" s="3">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F80" s="15">
+        <v>10003201</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1009</v>
+      </c>
       <c r="H80" s="6" t="s">
-        <v>371</v>
+        <v>157</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L80" s="11">
-        <v>20001007</v>
+      <c r="L80" s="15">
+        <v>20001002</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N80" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q80" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F81" s="15"/>
       <c r="H81" s="6" t="s">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L81" s="11">
-        <v>20001011</v>
+        <v>20001007</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N81" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q81" s="16" t="s">
         <v>132</v>
@@ -5071,26 +5085,26 @@
     </row>
     <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F82" s="15"/>
       <c r="H82" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L82" s="11">
-        <v>20001017</v>
+        <v>20001011</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N82" s="3">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="Q82" s="16" t="s">
         <v>132</v>
@@ -5098,26 +5112,26 @@
     </row>
     <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F83" s="15"/>
       <c r="H83" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L83" s="15">
-        <v>20001005</v>
+      <c r="L83" s="11">
+        <v>20001017</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N83" s="3">
-        <v>-70</v>
+        <v>95</v>
       </c>
       <c r="Q83" s="16" t="s">
         <v>132</v>
@@ -5125,10 +5139,10 @@
     </row>
     <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F84" s="15"/>
       <c r="H84" s="6" t="s">
@@ -5137,22 +5151,22 @@
       <c r="I84" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L84" s="15" t="s">
-        <v>368</v>
+      <c r="L84" s="15">
+        <v>20001005</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="N84" s="3">
-        <v>180</v>
+        <v>-70</v>
       </c>
       <c r="Q84" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E85" s="15" t="s">
         <v>52</v>
@@ -5174,31 +5188,31 @@
         <v>180</v>
       </c>
       <c r="Q85" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F86" s="15"/>
       <c r="H86" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L86" s="15">
-        <v>20001008</v>
+      <c r="L86" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="N86" s="3">
-        <v>-70</v>
+        <v>180</v>
       </c>
       <c r="Q86" s="16" t="s">
         <v>134</v>
@@ -5206,26 +5220,26 @@
     </row>
     <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F87" s="15"/>
       <c r="H87" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L87" s="11">
-        <v>20001011</v>
+      <c r="L87" s="15">
+        <v>20001008</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="N87" s="3">
-        <v>-180</v>
+        <v>-70</v>
       </c>
       <c r="Q87" s="16" t="s">
         <v>134</v>
@@ -5233,43 +5247,40 @@
     </row>
     <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="15">
-        <v>10004101</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1009</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F88" s="15"/>
       <c r="H88" s="6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L88" s="15">
-        <v>20001001</v>
+      <c r="L88" s="11">
+        <v>20001011</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N88" s="3">
-        <v>35</v>
-      </c>
-      <c r="Q88" s="15"/>
+        <v>-180</v>
+      </c>
+      <c r="Q88" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F89" s="15">
-        <v>10004201</v>
+        <v>10004101</v>
       </c>
       <c r="G89" s="1">
         <v>1009</v>
@@ -5281,65 +5292,68 @@
         <v>181</v>
       </c>
       <c r="L89" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N89" s="3">
-        <v>-41</v>
+        <v>35</v>
       </c>
       <c r="Q89" s="15"/>
     </row>
     <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F90" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F90" s="15">
+        <v>10004201</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1009</v>
+      </c>
       <c r="H90" s="6" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L90" s="11">
-        <v>20001007</v>
+      <c r="L90" s="15">
+        <v>20001002</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N90" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-41</v>
+      </c>
+      <c r="Q90" s="15"/>
     </row>
     <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F91" s="15"/>
       <c r="H91" s="6" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L91" s="11">
-        <v>20001017</v>
+        <v>20001007</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N91" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="16" t="s">
         <v>132</v>
@@ -5347,26 +5361,26 @@
     </row>
     <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F92" s="15"/>
       <c r="H92" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L92" s="11">
-        <v>20001013</v>
+        <v>20001017</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N92" s="3">
-        <v>-3</v>
+        <v>101</v>
       </c>
       <c r="Q92" s="16" t="s">
         <v>132</v>
@@ -5374,34 +5388,34 @@
     </row>
     <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="F93" s="15"/>
       <c r="H93" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L93" s="15" t="s">
-        <v>368</v>
+      <c r="L93" s="11">
+        <v>20001013</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="N93" s="3">
-        <v>180</v>
+        <v>-3</v>
       </c>
       <c r="Q93" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="15" t="s">
         <v>52</v>
@@ -5423,31 +5437,31 @@
         <v>180</v>
       </c>
       <c r="Q94" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="F95" s="15"/>
       <c r="H95" s="6" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L95" s="11">
-        <v>20001015</v>
+      <c r="L95" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="N95" s="3">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="Q95" s="16" t="s">
         <v>134</v>
@@ -5455,14 +5469,14 @@
     </row>
     <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F96" s="15"/>
       <c r="H96" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>181</v>
@@ -5471,10 +5485,10 @@
         <v>20001015</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N96" s="3">
-        <v>83</v>
+        <v>-180</v>
       </c>
       <c r="Q96" s="16" t="s">
         <v>134</v>
@@ -5482,43 +5496,40 @@
     </row>
     <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" s="15">
-        <v>10005101</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1009</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F97" s="15"/>
       <c r="H97" s="6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L97" s="15">
-        <v>20001001</v>
+      <c r="L97" s="11">
+        <v>20001015</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N97" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q97" s="15"/>
+        <v>83</v>
+      </c>
+      <c r="Q97" s="16" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F98" s="15">
-        <v>10005201</v>
+        <v>10005101</v>
       </c>
       <c r="G98" s="1">
         <v>1009</v>
@@ -5530,65 +5541,68 @@
         <v>181</v>
       </c>
       <c r="L98" s="15">
-        <v>20001002</v>
+        <v>20001001</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N98" s="3">
-        <v>-44</v>
+        <v>51</v>
       </c>
       <c r="Q98" s="15"/>
     </row>
     <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="F99" s="15">
+        <v>10005201</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1009</v>
+      </c>
       <c r="H99" s="6" t="s">
-        <v>372</v>
+        <v>157</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L99" s="15" t="s">
-        <v>369</v>
+      <c r="L99" s="15">
+        <v>20001002</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N99" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q99" s="16" t="s">
-        <v>132</v>
-      </c>
+        <v>-44</v>
+      </c>
+      <c r="Q99" s="15"/>
     </row>
     <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E100" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" s="6" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="11">
-        <v>20001012</v>
+      <c r="L100" s="15" t="s">
+        <v>369</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N100" s="3">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="Q100" s="16" t="s">
         <v>132</v>
@@ -5596,26 +5610,26 @@
     </row>
     <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E101" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" s="6" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L101" s="11">
-        <v>20001015</v>
+        <v>20001012</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N101" s="3">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="Q101" s="16" t="s">
         <v>132</v>
@@ -5623,26 +5637,26 @@
     </row>
     <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L102" s="11">
-        <v>20001013</v>
+        <v>20001015</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="N102" s="3">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="Q102" s="16" t="s">
         <v>132</v>
@@ -5650,34 +5664,34 @@
     </row>
     <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E103" s="15" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F103" s="15"/>
       <c r="H103" s="6" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L103" s="15" t="s">
-        <v>368</v>
+      <c r="L103" s="11">
+        <v>20001013</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="N103" s="3">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q103" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E104" s="15" t="s">
         <v>52</v>
@@ -5699,15 +5713,15 @@
         <v>180</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="15">
-        <v>20099001</v>
+      <c r="C105" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="E105" s="15" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F105" s="15"/>
       <c r="H105" s="6" t="s">
@@ -5716,8 +5730,8 @@
       <c r="I105" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L105" s="11" t="s">
-        <v>47</v>
+      <c r="L105" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="M105" s="3" t="s">
         <v>194</v>
@@ -5726,15 +5740,15 @@
         <v>180</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="15">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F106" s="15"/>
       <c r="H106" s="6" t="s">
@@ -5753,15 +5767,15 @@
         <v>180</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="15">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E107" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F107" s="15"/>
       <c r="H107" s="6" t="s">
@@ -5780,15 +5794,15 @@
         <v>180</v>
       </c>
       <c r="Q107" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="15">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F108" s="15"/>
       <c r="H108" s="6" t="s">
@@ -5807,15 +5821,15 @@
         <v>180</v>
       </c>
       <c r="Q108" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="15">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F109" s="15"/>
       <c r="H109" s="6" t="s">
@@ -5834,15 +5848,15 @@
         <v>180</v>
       </c>
       <c r="Q109" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="15">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="F110" s="15"/>
       <c r="H110" s="6" t="s">
@@ -5851,8 +5865,8 @@
       <c r="I110" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="L110" s="15">
-        <v>20001005</v>
+      <c r="L110" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>194</v>
@@ -5861,10 +5875,36 @@
         <v>180</v>
       </c>
       <c r="Q110" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="15">
+        <v>20099006</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="15"/>
+      <c r="H111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L111" s="15">
+        <v>20001005</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N111" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q111" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5883,6 +5923,7 @@
     <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415">
   <si>
     <t>#</t>
   </si>
@@ -2048,22 +2048,85 @@
     <t>农场管理员</t>
   </si>
   <si>
+    <t>NPC_JiaYuanNongChang</t>
+  </si>
+  <si>
+    <t>3012,0,1186</t>
+  </si>
+  <si>
     <t>30000002</t>
   </si>
   <si>
     <t>牧场管理员</t>
   </si>
   <si>
+    <t>NPC_JiaYuanMuChang</t>
+  </si>
+  <si>
+    <t>-468,0,-2912</t>
+  </si>
+  <si>
     <t>30000003</t>
   </si>
   <si>
     <t>家园管家</t>
   </si>
   <si>
+    <t>NPC_JiaYuanGuanLi</t>
+  </si>
+  <si>
+    <t>-109,0,-1494</t>
+  </si>
+  <si>
     <t>30000004</t>
   </si>
   <si>
     <t>家园公告牌</t>
+  </si>
+  <si>
+    <t>NPC_JiaYuanGongGao</t>
+  </si>
+  <si>
+    <t>1450,0,-3250</t>
+  </si>
+  <si>
+    <t>30000005</t>
+  </si>
+  <si>
+    <t>采购管理员</t>
+  </si>
+  <si>
+    <t>2953,0,-2789</t>
+  </si>
+  <si>
+    <t>30000006</t>
+  </si>
+  <si>
+    <t>宠物存放员</t>
+  </si>
+  <si>
+    <t>NPC_JiaYuanPet</t>
+  </si>
+  <si>
+    <t>-1293,0,1892</t>
+  </si>
+  <si>
+    <t>30000007</t>
+  </si>
+  <si>
+    <t>家园士兵</t>
+  </si>
+  <si>
+    <t>NPC_JiaYuanShiBing</t>
+  </si>
+  <si>
+    <t>949,0,-4357</t>
+  </si>
+  <si>
+    <t>30000008</t>
+  </si>
+  <si>
+    <t>1532,0,-4366</t>
   </si>
 </sst>
 </file>
@@ -2073,10 +2136,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,6 +2195,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2139,7 +2209,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2153,16 +2252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,36 +2262,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2221,17 +2291,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2244,23 +2316,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2268,22 +2325,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2316,7 +2365,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2328,79 +2533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2412,91 +2545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,6 +2603,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2564,6 +2628,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2582,32 +2670,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2635,31 +2699,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2668,139 +2717,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2875,6 +2924,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3241,8 +3293,8 @@
   <sheetPr/>
   <dimension ref="A1:X130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3605,7 +3657,7 @@
       <c r="L10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="29" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3635,7 +3687,7 @@
       <c r="L11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="29" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5">
@@ -3663,7 +3715,7 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="29" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="5">
@@ -3691,7 +3743,7 @@
       <c r="L13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="29" t="s">
         <v>67</v>
       </c>
       <c r="N13" s="5">
@@ -3721,7 +3773,7 @@
       <c r="L14" s="16">
         <v>20001007</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="30" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="15">
@@ -3759,7 +3811,7 @@
       <c r="L15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="31" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="4">
@@ -3793,7 +3845,7 @@
       <c r="L16" s="16">
         <v>20001024</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="30" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="15">
@@ -3834,7 +3886,7 @@
       <c r="L17" s="16">
         <v>20001024</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="30" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="15">
@@ -3873,7 +3925,7 @@
       <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="29" t="s">
         <v>86</v>
       </c>
       <c r="N18" s="5">
@@ -3903,7 +3955,7 @@
       <c r="L19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="29" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="5">
@@ -3933,7 +3985,7 @@
       <c r="L20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="29" t="s">
         <v>94</v>
       </c>
       <c r="N20" s="5">
@@ -3963,7 +4015,7 @@
       <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="32" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="5">
@@ -3995,7 +4047,7 @@
       <c r="L22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="32" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="5">
@@ -4027,7 +4079,7 @@
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="32" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="5">
@@ -4056,7 +4108,7 @@
       <c r="L24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="32" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="5">
@@ -4085,7 +4137,7 @@
       <c r="L25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="32" t="s">
         <v>121</v>
       </c>
       <c r="N25" s="5">
@@ -4112,7 +4164,7 @@
       <c r="L26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="32" t="s">
         <v>125</v>
       </c>
       <c r="N26" s="5">
@@ -4144,7 +4196,7 @@
       <c r="L27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="32" t="s">
         <v>129</v>
       </c>
       <c r="N27" s="5">
@@ -4176,7 +4228,7 @@
       <c r="L28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="32" t="s">
         <v>133</v>
       </c>
       <c r="N28" s="5">
@@ -4206,7 +4258,7 @@
       <c r="L29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="32" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="5">
@@ -4236,7 +4288,7 @@
       <c r="L30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="32" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="5">
@@ -4266,7 +4318,7 @@
       <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="32" t="s">
         <v>146</v>
       </c>
       <c r="N31" s="5">
@@ -4296,7 +4348,7 @@
       <c r="L32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="31" t="s">
+      <c r="M32" s="32" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="5">
@@ -4316,7 +4368,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="33" t="s">
         <v>153</v>
       </c>
       <c r="I33" s="4">
@@ -4325,7 +4377,7 @@
       <c r="L33" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="31" t="s">
+      <c r="M33" s="32" t="s">
         <v>155</v>
       </c>
       <c r="N33" s="5">
@@ -4351,7 +4403,7 @@
       <c r="L34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="31" t="s">
+      <c r="M34" s="32" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="5">
@@ -4383,7 +4435,7 @@
       <c r="L35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="31" t="s">
+      <c r="M35" s="32" t="s">
         <v>163</v>
       </c>
       <c r="N35" s="5">
@@ -4409,7 +4461,7 @@
       <c r="L36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="32" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="5">
@@ -4435,7 +4487,7 @@
       <c r="L37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="32" t="s">
         <v>170</v>
       </c>
       <c r="N37" s="5">
@@ -4458,7 +4510,7 @@
       <c r="L38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="32" t="s">
         <v>174</v>
       </c>
       <c r="N38" s="5">
@@ -4482,7 +4534,7 @@
       <c r="L39" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="32" t="s">
         <v>178</v>
       </c>
       <c r="N39" s="5">
@@ -4515,7 +4567,7 @@
       <c r="L40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="31" t="s">
+      <c r="M40" s="32" t="s">
         <v>181</v>
       </c>
       <c r="N40" s="5">
@@ -4543,7 +4595,7 @@
       <c r="L41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="32" t="s">
         <v>185</v>
       </c>
       <c r="N41" s="5">
@@ -4571,7 +4623,7 @@
       <c r="L42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="31" t="s">
+      <c r="M42" s="32" t="s">
         <v>189</v>
       </c>
       <c r="N42" s="5">
@@ -4601,7 +4653,7 @@
       <c r="L43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="32" t="s">
         <v>193</v>
       </c>
       <c r="N43" s="5">
@@ -4634,7 +4686,7 @@
       <c r="L44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="32" t="s">
         <v>198</v>
       </c>
       <c r="N44" s="5">
@@ -4666,7 +4718,7 @@
       <c r="L45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="28" t="s">
+      <c r="M45" s="29" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="5">
@@ -4696,7 +4748,7 @@
       <c r="L46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="28" t="s">
+      <c r="M46" s="29" t="s">
         <v>204</v>
       </c>
       <c r="N46" s="5">
@@ -4778,7 +4830,7 @@
       <c r="L49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M49" s="28" t="s">
+      <c r="M49" s="29" t="s">
         <v>213</v>
       </c>
       <c r="N49" s="5">
@@ -4832,7 +4884,7 @@
       <c r="L51" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M51" s="28" t="s">
+      <c r="M51" s="29" t="s">
         <v>218</v>
       </c>
       <c r="N51" s="5">
@@ -4859,7 +4911,7 @@
       <c r="L52" s="12">
         <v>20001007</v>
       </c>
-      <c r="M52" s="28" t="s">
+      <c r="M52" s="29" t="s">
         <v>222</v>
       </c>
       <c r="N52" s="5">
@@ -4886,7 +4938,7 @@
       <c r="L53" s="12">
         <v>20001008</v>
       </c>
-      <c r="M53" s="28" t="s">
+      <c r="M53" s="29" t="s">
         <v>225</v>
       </c>
       <c r="N53" s="5">
@@ -4913,7 +4965,7 @@
       <c r="L54" s="12">
         <v>20001009</v>
       </c>
-      <c r="M54" s="28" t="s">
+      <c r="M54" s="29" t="s">
         <v>229</v>
       </c>
       <c r="N54" s="5">
@@ -4940,7 +4992,7 @@
       <c r="L55" s="12">
         <v>20001010</v>
       </c>
-      <c r="M55" s="32" t="s">
+      <c r="M55" s="33" t="s">
         <v>232</v>
       </c>
       <c r="N55" s="5">
@@ -6506,24 +6558,18 @@
       <c r="I112" s="4">
         <v>0</v>
       </c>
-      <c r="J112" s="4">
-        <v>52</v>
-      </c>
+      <c r="J112" s="4"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M112" s="31" t="s">
-        <v>133</v>
+      <c r="L112" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="M112" s="24" t="s">
+        <v>389</v>
       </c>
       <c r="N112" s="5">
-        <v>90</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
+        <v>230</v>
+      </c>
       <c r="Q112" s="25"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
@@ -6534,11 +6580,11 @@
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
@@ -6550,15 +6596,13 @@
       <c r="I113" s="4">
         <v>0</v>
       </c>
-      <c r="J113" s="4">
-        <v>52</v>
-      </c>
+      <c r="J113" s="4"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>133</v>
+      <c r="L113" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="M113" s="32" t="s">
+        <v>393</v>
       </c>
       <c r="N113" s="5">
         <v>90</v>
@@ -6574,11 +6618,11 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
@@ -6590,15 +6634,13 @@
       <c r="I114" s="4">
         <v>0</v>
       </c>
-      <c r="J114" s="4">
-        <v>52</v>
-      </c>
+      <c r="J114" s="4"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M114" s="31" t="s">
-        <v>133</v>
+      <c r="L114" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="M114" s="32" t="s">
+        <v>397</v>
       </c>
       <c r="N114" s="5">
         <v>90</v>
@@ -6614,11 +6656,11 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="13" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="27" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
@@ -6630,18 +6672,16 @@
       <c r="I115" s="4">
         <v>0</v>
       </c>
-      <c r="J115" s="4">
-        <v>52</v>
-      </c>
+      <c r="J115" s="4"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="M115" s="31" t="s">
-        <v>133</v>
+      <c r="L115" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="M115" s="24" t="s">
+        <v>401</v>
       </c>
       <c r="N115" s="5">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="Q115" s="25"/>
       <c r="T115" s="5"/>
@@ -6650,10 +6690,114 @@
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" ht="20.1" customHeight="1"/>
-    <row r="117" ht="20.1" customHeight="1"/>
-    <row r="118" ht="20.1" customHeight="1"/>
-    <row r="119" ht="20.1" customHeight="1"/>
+    <row r="116" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C116" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="4"/>
+      <c r="L116" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M116" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="N116" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C117" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="4"/>
+      <c r="L117" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="M117" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="N117" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C118" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G118" s="4">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4"/>
+      <c r="L118" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="M118" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="N118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C119" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4"/>
+      <c r="L119" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="M119" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="N119" s="5">
+        <v>270</v>
+      </c>
+    </row>
     <row r="120" ht="20.1" customHeight="1"/>
     <row r="121" ht="20.1" customHeight="1"/>
     <row r="122" ht="20.1" customHeight="1"/>

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -2135,9 +2135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2194,8 +2194,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2215,27 +2300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2244,32 +2308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2283,49 +2324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2371,7 +2371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2383,7 +2395,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,43 +2473,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,61 +2521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,31 +2533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2602,6 +2602,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2632,21 +2650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2667,20 +2670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2705,10 +2705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2717,139 +2717,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2924,9 +2924,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3294,7 +3291,7 @@
   <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3657,7 +3654,7 @@
       <c r="L10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="28" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3687,7 +3684,7 @@
       <c r="L11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="28" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5">
@@ -3715,7 +3712,7 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="28" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="5">
@@ -3743,7 +3740,7 @@
       <c r="L13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="28" t="s">
         <v>67</v>
       </c>
       <c r="N13" s="5">
@@ -3773,7 +3770,7 @@
       <c r="L14" s="16">
         <v>20001007</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="15">
@@ -3811,7 +3808,7 @@
       <c r="L15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="31" t="s">
+      <c r="M15" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="4">
@@ -3845,7 +3842,7 @@
       <c r="L16" s="16">
         <v>20001024</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="29" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="15">
@@ -3886,7 +3883,7 @@
       <c r="L17" s="16">
         <v>20001024</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="29" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="15">
@@ -3925,7 +3922,7 @@
       <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="28" t="s">
         <v>86</v>
       </c>
       <c r="N18" s="5">
@@ -3955,7 +3952,7 @@
       <c r="L19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="5">
@@ -3985,7 +3982,7 @@
       <c r="L20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>94</v>
       </c>
       <c r="N20" s="5">
@@ -4015,7 +4012,7 @@
       <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="31" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="5">
@@ -4047,7 +4044,7 @@
       <c r="L22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="5">
@@ -4079,7 +4076,7 @@
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="32" t="s">
+      <c r="M23" s="31" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="5">
@@ -4108,7 +4105,7 @@
       <c r="L24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="31" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="5">
@@ -4137,7 +4134,7 @@
       <c r="L25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="32" t="s">
+      <c r="M25" s="31" t="s">
         <v>121</v>
       </c>
       <c r="N25" s="5">
@@ -4164,7 +4161,7 @@
       <c r="L26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="31" t="s">
         <v>125</v>
       </c>
       <c r="N26" s="5">
@@ -4196,7 +4193,7 @@
       <c r="L27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="32" t="s">
+      <c r="M27" s="31" t="s">
         <v>129</v>
       </c>
       <c r="N27" s="5">
@@ -4228,7 +4225,7 @@
       <c r="L28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="32" t="s">
+      <c r="M28" s="31" t="s">
         <v>133</v>
       </c>
       <c r="N28" s="5">
@@ -4258,7 +4255,7 @@
       <c r="L29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="31" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="5">
@@ -4288,7 +4285,7 @@
       <c r="L30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="31" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="5">
@@ -4318,7 +4315,7 @@
       <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="32" t="s">
+      <c r="M31" s="31" t="s">
         <v>146</v>
       </c>
       <c r="N31" s="5">
@@ -4348,7 +4345,7 @@
       <c r="L32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="31" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="5">
@@ -4368,7 +4365,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="32" t="s">
         <v>153</v>
       </c>
       <c r="I33" s="4">
@@ -4377,7 +4374,7 @@
       <c r="L33" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="32" t="s">
+      <c r="M33" s="31" t="s">
         <v>155</v>
       </c>
       <c r="N33" s="5">
@@ -4403,7 +4400,7 @@
       <c r="L34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="32" t="s">
+      <c r="M34" s="31" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="5">
@@ -4435,7 +4432,7 @@
       <c r="L35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="32" t="s">
+      <c r="M35" s="31" t="s">
         <v>163</v>
       </c>
       <c r="N35" s="5">
@@ -4461,7 +4458,7 @@
       <c r="L36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="32" t="s">
+      <c r="M36" s="31" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="5">
@@ -4487,7 +4484,7 @@
       <c r="L37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="32" t="s">
+      <c r="M37" s="31" t="s">
         <v>170</v>
       </c>
       <c r="N37" s="5">
@@ -4510,7 +4507,7 @@
       <c r="L38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="32" t="s">
+      <c r="M38" s="31" t="s">
         <v>174</v>
       </c>
       <c r="N38" s="5">
@@ -4534,7 +4531,7 @@
       <c r="L39" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="32" t="s">
+      <c r="M39" s="31" t="s">
         <v>178</v>
       </c>
       <c r="N39" s="5">
@@ -4567,7 +4564,7 @@
       <c r="L40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="32" t="s">
+      <c r="M40" s="31" t="s">
         <v>181</v>
       </c>
       <c r="N40" s="5">
@@ -4595,7 +4592,7 @@
       <c r="L41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="32" t="s">
+      <c r="M41" s="31" t="s">
         <v>185</v>
       </c>
       <c r="N41" s="5">
@@ -4623,7 +4620,7 @@
       <c r="L42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="31" t="s">
         <v>189</v>
       </c>
       <c r="N42" s="5">
@@ -4653,7 +4650,7 @@
       <c r="L43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="32" t="s">
+      <c r="M43" s="31" t="s">
         <v>193</v>
       </c>
       <c r="N43" s="5">
@@ -4686,7 +4683,7 @@
       <c r="L44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="32" t="s">
+      <c r="M44" s="31" t="s">
         <v>198</v>
       </c>
       <c r="N44" s="5">
@@ -4718,7 +4715,7 @@
       <c r="L45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="28" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="5">
@@ -4748,7 +4745,7 @@
       <c r="L46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="28" t="s">
         <v>204</v>
       </c>
       <c r="N46" s="5">
@@ -4830,7 +4827,7 @@
       <c r="L49" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="28" t="s">
         <v>213</v>
       </c>
       <c r="N49" s="5">
@@ -4884,7 +4881,7 @@
       <c r="L51" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M51" s="28" t="s">
         <v>218</v>
       </c>
       <c r="N51" s="5">
@@ -4911,7 +4908,7 @@
       <c r="L52" s="12">
         <v>20001007</v>
       </c>
-      <c r="M52" s="29" t="s">
+      <c r="M52" s="28" t="s">
         <v>222</v>
       </c>
       <c r="N52" s="5">
@@ -4938,7 +4935,7 @@
       <c r="L53" s="12">
         <v>20001008</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="28" t="s">
         <v>225</v>
       </c>
       <c r="N53" s="5">
@@ -4965,7 +4962,7 @@
       <c r="L54" s="12">
         <v>20001009</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="28" t="s">
         <v>229</v>
       </c>
       <c r="N54" s="5">
@@ -4992,7 +4989,7 @@
       <c r="L55" s="12">
         <v>20001010</v>
       </c>
-      <c r="M55" s="33" t="s">
+      <c r="M55" s="32" t="s">
         <v>232</v>
       </c>
       <c r="N55" s="5">
@@ -6560,7 +6557,7 @@
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="3"/>
-      <c r="L112" s="28" t="s">
+      <c r="L112" s="27" t="s">
         <v>388</v>
       </c>
       <c r="M112" s="24" t="s">
@@ -6598,10 +6595,10 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="28" t="s">
+      <c r="L113" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="M113" s="32" t="s">
+      <c r="M113" s="31" t="s">
         <v>393</v>
       </c>
       <c r="N113" s="5">
@@ -6636,10 +6633,10 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="28" t="s">
+      <c r="L114" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="M114" s="32" t="s">
+      <c r="M114" s="31" t="s">
         <v>397</v>
       </c>
       <c r="N114" s="5">
@@ -6674,7 +6671,7 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="28" t="s">
+      <c r="L115" s="27" t="s">
         <v>400</v>
       </c>
       <c r="M115" s="24" t="s">
@@ -6694,7 +6691,7 @@
       <c r="C116" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E116" s="28" t="s">
+      <c r="E116" s="27" t="s">
         <v>403</v>
       </c>
       <c r="G116" s="4">
@@ -6707,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="4"/>
-      <c r="L116" s="28" t="s">
+      <c r="L116" s="27" t="s">
         <v>66</v>
       </c>
       <c r="M116" s="24" t="s">
@@ -6721,7 +6718,7 @@
       <c r="C117" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="E117" s="28" t="s">
+      <c r="E117" s="27" t="s">
         <v>406</v>
       </c>
       <c r="G117" s="4">
@@ -6734,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="J117" s="4"/>
-      <c r="L117" s="28" t="s">
+      <c r="L117" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="M117" s="32" t="s">
+      <c r="M117" s="31" t="s">
         <v>408</v>
       </c>
       <c r="N117" s="5">
@@ -6748,7 +6745,7 @@
       <c r="C118" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E118" s="27" t="s">
         <v>410</v>
       </c>
       <c r="G118" s="4">
@@ -6761,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="4"/>
-      <c r="L118" s="28" t="s">
+      <c r="L118" s="27" t="s">
         <v>411</v>
       </c>
       <c r="M118" s="24" t="s">
@@ -6775,7 +6772,7 @@
       <c r="C119" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="27" t="s">
         <v>410</v>
       </c>
       <c r="G119" s="4">
@@ -6788,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="4"/>
-      <c r="L119" s="28" t="s">
+      <c r="L119" s="27" t="s">
         <v>411</v>
       </c>
       <c r="M119" s="24" t="s">

--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAB91F-0B3C-4F66-B563-DD3A3D7C468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="-225" yWindow="540" windowWidth="27870" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -14,19 +20,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -35,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -45,6 +53,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为0：</t>
@@ -53,6 +62,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -62,6 +72,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具ID，道具数量
@@ -72,6 +83,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为1：</t>
@@ -80,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,6 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">出现概率，
@@ -98,6 +112,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具ID，
@@ -107,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具数量，
@@ -116,6 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">购买次数， 
@@ -125,6 +142,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">购买类型（ 0 表示 金币  1表示钻石）
@@ -135,6 +153,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为2：</t>
@@ -143,6 +162,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,6 +172,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">出现最小等级，出现最大等级，道具ID，道具数量
@@ -162,6 +183,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>商店类型为3：</t>
@@ -170,6 +192,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -179,19 +202,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>出现最小等级，出现最大等级，道具ID，道具数量，购买使用什么道具，购买使用道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -200,7 +225,61 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对应Function
+功能表ID
+1  宠物兑换
+2  挑战之地 
+3  循环任务
+4  魔能老人
+5  补偿大师
+6  节日使者
+7  周长任务
+8  经验兑换
+&gt;1000 functionconfig
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示不拉近</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -208,25 +287,39 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">对应Function
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">功能表ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：表示拉近</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -236,69 +329,183 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1  宠物兑换
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2  挑战之地 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3  循环任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4  魔能老人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5  补偿大师
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6  节日使者
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">7  周长任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>播放音效</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文件存储在</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UI</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>文件夹下</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个音效用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号间隔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>将会随机播放一个</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果有概率不播放就写成</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">100;0  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>就表示</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>50%</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>概率播放</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>号音效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -308,47 +515,82 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">&gt;1000 functionconfig
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>玩家等级在此区间才会显示此</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NPC
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>例如</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:10;20 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 10-20</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>级会出现</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>0:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示不拉近</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -357,28 +599,82 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：表示拉近</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0.默认,不执行
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1.NPC出现时间
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">2.地图内击败指定数量的怪物
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3.地图内击败指定ID的怪物后NPC出现
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">4.当自身某个ID的任务完成后出现
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">5.穿戴要求指定数量的装备出现(玩家进地图时)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>6.背包内有某个道具出现(玩家进地图时)</t>
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -387,6 +683,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -396,163 +693,101 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>播放音效</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ID,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>文件存储在</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>UI</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>文件夹下</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>多个音效用</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>;</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>号间隔</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>将会随机播放一个</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果有概率不播放就写成</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">100;0  </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>就表示</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>50%</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>概率播放</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>100</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>号音效</t>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0. 不需要填写
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1. 以秒为单位,最大86400。
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">出现秒，消失秒。（例如10000,20000）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">2. 指定击败怪物数量
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3. 指定击败怪物的ID
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">4. 指定任务ID
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">5. 要求装备数量;装备ID_1,装备ID_2,装备ID_3……
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">6. 背包内有某个道具出现
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>指定道具ID,指定数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -561,6 +796,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -570,271 +806,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>玩家等级在此区间才会显示此</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">NPC
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>例如</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">:10;20 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>表示</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> 10-20</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级会出现</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0.默认,不执行
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1.NPC出现时间
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2.地图内击败指定数量的怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3.地图内击败指定ID的怪物后NPC出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4.当自身某个ID的任务完成后出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5.穿戴要求指定数量的装备出现(玩家进地图时)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>6.背包内有某个道具出现(玩家进地图时)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">0. 不需要填写
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1. 以秒为单位,最大86400。
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">出现秒，消失秒。（例如10000,20000）
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2. 指定击败怪物数量
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3. 指定击败怪物的ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4. 指定任务ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5. 要求装备数量;装备ID_1,装备ID_2,装备ID_3……
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">6. 背包内有某个道具出现
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>指定道具ID,指定数量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="X4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">此字段目前没使用,留存的
@@ -844,6 +816,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0：普通商店
@@ -853,6 +826,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1：随机商店
@@ -862,6 +836,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2：普通购买消失商店
@@ -871,6 +846,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>3：随机购买消失商店</t>
@@ -882,7 +858,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="418">
   <si>
     <t>#</t>
   </si>
@@ -2127,19 +2103,25 @@
   </si>
   <si>
     <t>1532,0,-4366</t>
+  </si>
+  <si>
+    <t>20000037</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验兑换</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4407,615,6079</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2151,12 +2133,14 @@
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2164,12 +2148,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2177,6 +2163,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2184,6 +2171,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2191,154 +2179,49 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2359,198 +2242,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2601,255 +2298,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2914,9 +2369,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2928,76 +2380,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3282,19 +2695,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:X130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -3321,13 +2734,13 @@
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:24">
+    <row r="3" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3395,7 +2808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:24">
+    <row r="4" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3461,7 +2874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:24">
+    <row r="5" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
@@ -3527,7 +2940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:17">
+    <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12">
         <v>10001</v>
       </c>
@@ -3550,9 +2963,9 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>10002</v>
       </c>
@@ -3575,9 +2988,9 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <v>10003</v>
       </c>
@@ -3600,9 +3013,9 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:18">
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
         <v>10004</v>
       </c>
@@ -3625,14 +3038,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:17">
+    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
@@ -3654,7 +3067,7 @@
       <c r="L10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3662,7 +3075,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:17">
+    <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -3684,7 +3097,7 @@
       <c r="L11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5">
@@ -3692,7 +3105,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:17">
+    <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>60</v>
       </c>
@@ -3712,7 +3125,7 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="5">
@@ -3720,7 +3133,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:17">
+    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>64</v>
       </c>
@@ -3740,7 +3153,7 @@
       <c r="L13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="27" t="s">
         <v>67</v>
       </c>
       <c r="N13" s="5">
@@ -3748,7 +3161,7 @@
       </c>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="14" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
         <v>68</v>
       </c>
@@ -3770,7 +3183,7 @@
       <c r="L14" s="16">
         <v>20001007</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="28" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="15">
@@ -3789,7 +3202,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:17">
+    <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -3808,7 +3221,7 @@
       <c r="L15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="4">
@@ -3816,11 +3229,11 @@
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="16" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>77</v>
       </c>
@@ -3842,7 +3255,7 @@
       <c r="L16" s="16">
         <v>20001024</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="15">
@@ -3861,7 +3274,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="17" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>80</v>
       </c>
@@ -3883,7 +3296,7 @@
       <c r="L17" s="16">
         <v>20001024</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="15">
@@ -3902,7 +3315,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:17">
+    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>83</v>
       </c>
@@ -3922,7 +3335,7 @@
       <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="27" t="s">
         <v>86</v>
       </c>
       <c r="N18" s="5">
@@ -3932,7 +3345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:17">
+    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>87</v>
       </c>
@@ -3952,7 +3365,7 @@
       <c r="L19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="5">
@@ -3962,7 +3375,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:17">
+    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>91</v>
       </c>
@@ -3982,7 +3395,7 @@
       <c r="L20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>94</v>
       </c>
       <c r="N20" s="5">
@@ -3990,7 +3403,7 @@
       </c>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:17">
+    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>95</v>
       </c>
@@ -4012,17 +3425,17 @@
       <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="30" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:17">
+    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
@@ -4044,17 +3457,17 @@
       <c r="L22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="30" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:17">
+    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
         <v>107</v>
       </c>
@@ -4076,17 +3489,17 @@
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="30" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:17">
+    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
         <v>113</v>
       </c>
@@ -4105,17 +3518,17 @@
       <c r="L24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="30" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:17">
+    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>118</v>
       </c>
@@ -4134,15 +3547,15 @@
       <c r="L25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="30" t="s">
         <v>121</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
       </c>
-      <c r="Q25" s="25"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>122</v>
       </c>
@@ -4161,17 +3574,17 @@
       <c r="L26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="30" t="s">
         <v>125</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:17">
+    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
         <v>127</v>
       </c>
@@ -4193,17 +3606,17 @@
       <c r="L27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="30" t="s">
         <v>129</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:17">
+    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
@@ -4225,15 +3638,15 @@
       <c r="L28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="30" t="s">
         <v>133</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
       </c>
-      <c r="Q28" s="25"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>134</v>
       </c>
@@ -4255,15 +3668,15 @@
       <c r="L29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="30" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
       </c>
-      <c r="Q29" s="25"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
         <v>138</v>
       </c>
@@ -4285,15 +3698,15 @@
       <c r="L30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="30" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>142</v>
       </c>
@@ -4315,7 +3728,7 @@
       <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="30" t="s">
         <v>146</v>
       </c>
       <c r="N31" s="5">
@@ -4323,7 +3736,7 @@
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:17">
+    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>147</v>
       </c>
@@ -4345,17 +3758,17 @@
       <c r="L32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="31" t="s">
+      <c r="M32" s="30" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:17">
+    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>151</v>
       </c>
@@ -4365,7 +3778,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I33" s="4">
@@ -4374,17 +3787,17 @@
       <c r="L33" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="31" t="s">
+      <c r="M33" s="30" t="s">
         <v>155</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:17">
+    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
         <v>157</v>
       </c>
@@ -4400,17 +3813,17 @@
       <c r="L34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="31" t="s">
+      <c r="M34" s="30" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:17">
+    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
         <v>161</v>
       </c>
@@ -4432,17 +3845,17 @@
       <c r="L35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="31" t="s">
+      <c r="M35" s="30" t="s">
         <v>163</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:17">
+    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
         <v>164</v>
       </c>
@@ -4455,20 +3868,20 @@
       <c r="J36" s="4">
         <v>2000001</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="30" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:17">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
         <v>168</v>
       </c>
@@ -4481,20 +3894,20 @@
       <c r="J37" s="6">
         <v>2000002</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="30" t="s">
         <v>170</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:17">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13" t="s">
         <v>172</v>
       </c>
@@ -4504,21 +3917,21 @@
       <c r="G38" s="4">
         <v>1027</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="30" t="s">
         <v>174</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
-      <c r="O38" s="24"/>
-      <c r="Q38" s="25" t="s">
+      <c r="O38" s="23"/>
+      <c r="Q38" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:17">
+    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
         <v>176</v>
       </c>
@@ -4528,21 +3941,21 @@
       <c r="G39" s="4">
         <v>1028</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="30" t="s">
         <v>178</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="Q39" s="25" t="s">
+      <c r="O39" s="23"/>
+      <c r="Q39" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:17">
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="13" t="s">
         <v>179</v>
       </c>
@@ -4564,15 +3977,15 @@
       <c r="L40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="31" t="s">
+      <c r="M40" s="30" t="s">
         <v>181</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
       </c>
-      <c r="Q40" s="25"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q40" s="24"/>
+    </row>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13" t="s">
         <v>182</v>
       </c>
@@ -4592,7 +4005,7 @@
       <c r="L41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="30" t="s">
         <v>185</v>
       </c>
       <c r="N41" s="5">
@@ -4600,7 +4013,7 @@
       </c>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:17">
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
         <v>186</v>
       </c>
@@ -4620,7 +4033,7 @@
       <c r="L42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="31" t="s">
+      <c r="M42" s="30" t="s">
         <v>189</v>
       </c>
       <c r="N42" s="5">
@@ -4630,7 +4043,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:17">
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="13" t="s">
         <v>191</v>
       </c>
@@ -4650,7 +4063,7 @@
       <c r="L43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="30" t="s">
         <v>193</v>
       </c>
       <c r="N43" s="5">
@@ -4660,7 +4073,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:17">
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="13" t="s">
         <v>195</v>
       </c>
@@ -4683,7 +4096,7 @@
       <c r="L44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="30" t="s">
         <v>198</v>
       </c>
       <c r="N44" s="5">
@@ -4693,7 +4106,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:17">
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="13" t="s">
         <v>199</v>
       </c>
@@ -4715,7 +4128,7 @@
       <c r="L45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="28" t="s">
+      <c r="M45" s="27" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="5">
@@ -4723,45 +4136,45 @@
       </c>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:17">
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4">
+        <v>8</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="N46" s="5">
+        <v>106</v>
+      </c>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F47" s="12">
         <v>10001101</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="N46" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q46" s="12"/>
-    </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C47" s="13">
-        <v>20001002</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="12">
-        <v>10001201</v>
       </c>
       <c r="G47" s="4">
         <v>1009</v>
@@ -4773,76 +4186,79 @@
         <v>144</v>
       </c>
       <c r="L47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="N47" s="5">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="12"/>
+    </row>
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="13">
+        <v>20001002</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="12">
+        <v>10001201</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N48" s="5">
         <v>-45</v>
       </c>
-      <c r="Q47" s="12"/>
-    </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C48" s="12">
+      <c r="Q48" s="12"/>
+    </row>
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="12">
         <v>20001003</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="H48" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L48" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N48" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q48" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C49" s="13">
-        <v>20001004</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>211</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="6" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="M49" s="28" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="N49" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q49" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C50" s="12">
-        <v>20001005</v>
+        <v>180</v>
+      </c>
+      <c r="Q49" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="13">
+        <v>20001004</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="6" t="s">
@@ -4854,19 +4270,19 @@
       <c r="L50" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>216</v>
+      <c r="M50" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="N50" s="5">
-        <v>-45</v>
-      </c>
-      <c r="Q50" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:17">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
-        <v>20001006</v>
+        <v>20001005</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>215</v>
@@ -4881,378 +4297,378 @@
       <c r="L51" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="M51" s="28" t="s">
-        <v>218</v>
+      <c r="M51" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="N51" s="5">
-        <v>45</v>
-      </c>
-      <c r="Q51" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:17">
+        <v>-45</v>
+      </c>
+      <c r="Q51" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="12">
-        <v>20001007</v>
+        <v>20001006</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="6" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="N52" s="5">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="12">
         <v>20001007</v>
       </c>
-      <c r="M52" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="N52" s="5">
-        <v>150</v>
-      </c>
-      <c r="Q52" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C53" s="12">
-        <v>20001008</v>
-      </c>
       <c r="E53" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="6" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L53" s="12">
+        <v>20001007</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="N53" s="5">
+        <v>150</v>
+      </c>
+      <c r="Q53" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="12">
         <v>20001008</v>
       </c>
-      <c r="M53" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="N53" s="5">
-        <v>-155</v>
-      </c>
-      <c r="Q53" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C54" s="12">
-        <v>20001009</v>
-      </c>
       <c r="E54" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="6" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L54" s="12">
+        <v>20001008</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="N54" s="5">
+        <v>-155</v>
+      </c>
+      <c r="Q54" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="12">
         <v>20001009</v>
       </c>
-      <c r="M54" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="N54" s="5">
-        <v>35</v>
-      </c>
-      <c r="Q54" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C55" s="12">
-        <v>20001010</v>
-      </c>
       <c r="E55" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="6" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L55" s="12">
+        <v>20001009</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="N55" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q55" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="12">
         <v>20001010</v>
       </c>
-      <c r="M55" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="N55" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q55" s="26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C56" s="12">
-        <v>20001011</v>
-      </c>
       <c r="E56" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="6" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L56" s="12">
+        <v>20001010</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="N56" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q56" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="12">
         <v>20001011</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="N56" s="5">
-        <v>-180</v>
-      </c>
-      <c r="Q56" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C57" s="12">
-        <v>20001012</v>
-      </c>
       <c r="E57" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L57" s="12">
+        <v>20001011</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="N57" s="5">
+        <v>-180</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="12">
         <v>20001012</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="N57" s="5">
-        <v>80</v>
-      </c>
-      <c r="Q57" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C58" s="12">
-        <v>20001013</v>
-      </c>
       <c r="E58" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L58" s="12">
+        <v>20001012</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="N58" s="5">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="12">
         <v>20001013</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="N58" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q58" s="26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C59" s="12">
-        <v>20001014</v>
-      </c>
       <c r="E59" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="6" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L59" s="12">
-        <v>20001014</v>
+        <v>20001013</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N59" s="5">
         <v>180</v>
       </c>
-      <c r="Q59" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q59" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="12">
-        <v>20001015</v>
+        <v>20001014</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L60" s="12">
+        <v>20001014</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N60" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="12">
         <v>20001015</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="N60" s="5">
-        <v>128</v>
-      </c>
-      <c r="Q60" s="26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C61" s="12">
-        <v>20001016</v>
-      </c>
       <c r="E61" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="6" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L61" s="12">
+        <v>20001015</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="N61" s="5">
+        <v>128</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="12">
         <v>20001016</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="N61" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q61" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C62" s="12">
-        <v>20001017</v>
-      </c>
       <c r="E62" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="6" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L62" s="12">
+        <v>20001016</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N62" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="12">
         <v>20001017</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="N62" s="5">
-        <v>120</v>
-      </c>
-      <c r="Q62" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C63" s="12">
-        <v>20001018</v>
-      </c>
       <c r="E63" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="6" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="L63" s="25">
-        <v>0</v>
+      <c r="L63" s="12">
+        <v>20001017</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="N63" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q63" s="26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:17">
+        <v>120</v>
+      </c>
+      <c r="Q63" s="25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="12">
-        <v>20001019</v>
+        <v>20001018</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="6" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L64" s="12">
+      <c r="J64" s="4"/>
+      <c r="L64" s="24">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N64" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q64" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="12">
         <v>20001019</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="N64" s="5">
-        <v>-180</v>
-      </c>
-      <c r="Q64" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C65" s="12">
-        <v>20001020</v>
-      </c>
       <c r="E65" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="6" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>144</v>
@@ -5261,21 +4677,21 @@
         <v>20001019</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="N65" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q65" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:17">
+        <v>-180</v>
+      </c>
+      <c r="Q65" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="12">
-        <v>20001021</v>
+        <v>20001020</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="6" t="s">
@@ -5285,137 +4701,134 @@
         <v>144</v>
       </c>
       <c r="L66" s="12">
+        <v>20001019</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N66" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="12">
         <v>20001021</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="N66" s="5">
-        <v>-180</v>
-      </c>
-      <c r="Q66" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C67" s="12">
-        <v>20001022</v>
-      </c>
       <c r="E67" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L67" s="12">
+        <v>20001021</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="N67" s="5">
+        <v>-180</v>
+      </c>
+      <c r="Q67" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="12">
+        <v>20001022</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="H68" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L67" s="12">
+      <c r="I68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L68" s="12">
         <v>20001022</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M68" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N68" s="5">
         <v>-106</v>
       </c>
-      <c r="Q67" s="26" t="s">
+      <c r="Q68" s="25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C68" s="12">
+    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="12">
         <v>20001023</v>
       </c>
-      <c r="E68" s="12" t="s">
+      <c r="E69" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="4">
+      <c r="F69" s="12"/>
+      <c r="G69" s="4">
         <v>1004</v>
       </c>
-      <c r="H68" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L68" s="12">
+      <c r="H69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L69" s="12">
         <v>20001023</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N69" s="5">
         <v>180</v>
       </c>
-      <c r="Q68" s="12"/>
-    </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C69" s="12">
+      <c r="Q69" s="12"/>
+    </row>
+    <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="12">
         <v>20001024</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="E70" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="H69" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L69" s="12">
+      <c r="F70" s="12"/>
+      <c r="H70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L70" s="12">
         <v>20001024</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M70" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N70" s="5">
         <v>-152</v>
       </c>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C70" s="13" t="s">
+      <c r="Q70" s="12"/>
+    </row>
+    <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E71" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F71" s="12">
         <v>10002101</v>
-      </c>
-      <c r="G70" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L70" s="12">
-        <v>20001001</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="N70" s="5">
-        <v>-147</v>
-      </c>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C71" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="12">
-        <v>10002201</v>
       </c>
       <c r="G71" s="4">
         <v>1009</v>
@@ -5427,154 +4840,157 @@
         <v>144</v>
       </c>
       <c r="L71" s="12">
+        <v>20001001</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N71" s="5">
+        <v>-147</v>
+      </c>
+      <c r="Q71" s="12"/>
+    </row>
+    <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="12">
+        <v>10002201</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L72" s="12">
         <v>20001002</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M72" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N72" s="5">
         <v>-129</v>
       </c>
-      <c r="Q71" s="12"/>
-    </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C72" s="13" t="s">
+      <c r="Q72" s="12"/>
+    </row>
+    <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="F72" s="12"/>
-      <c r="H72" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L72" s="25">
-        <v>20001007</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="N72" s="5">
-        <v>-131</v>
-      </c>
-      <c r="Q72" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C73" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="12">
-        <v>20001005</v>
+      <c r="L73" s="24">
+        <v>20001007</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N73" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q73" s="26" t="s">
+        <v>-131</v>
+      </c>
+      <c r="Q73" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:17">
+    <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L74" s="25">
-        <v>20001009</v>
+      <c r="L74" s="12">
+        <v>20001005</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N74" s="5">
         <v>180</v>
       </c>
-      <c r="Q74" s="26" t="s">
+      <c r="Q74" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:17">
+    <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="13" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L75" s="12">
-        <v>20001005</v>
+      <c r="L75" s="24">
+        <v>20001009</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N75" s="5">
         <v>180</v>
       </c>
-      <c r="Q75" s="26" t="s">
+      <c r="Q75" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:17">
+    <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="6" t="s">
-        <v>144</v>
+        <v>294</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L76" s="12" t="s">
-        <v>212</v>
+      <c r="L76" s="12">
+        <v>20001005</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="N76" s="5">
         <v>180</v>
       </c>
-      <c r="Q76" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q76" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>215</v>
@@ -5595,16 +5011,16 @@
       <c r="N77" s="5">
         <v>180</v>
       </c>
-      <c r="Q77" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q77" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="6" t="s">
@@ -5613,58 +5029,55 @@
       <c r="I78" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L78" s="25">
+      <c r="L78" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N78" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q78" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="H79" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L79" s="24">
         <v>20001017</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M79" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N79" s="5">
         <v>27</v>
       </c>
-      <c r="Q78" s="26" t="s">
+      <c r="Q79" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C79" s="13" t="s">
+    <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E80" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F80" s="12">
         <v>10003101</v>
-      </c>
-      <c r="G79" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L79" s="12">
-        <v>20001001</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="N79" s="5">
-        <v>123</v>
-      </c>
-      <c r="Q79" s="12"/>
-    </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C80" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="12">
-        <v>10003201</v>
       </c>
       <c r="G80" s="4">
         <v>1009</v>
@@ -5676,130 +5089,133 @@
         <v>144</v>
       </c>
       <c r="L80" s="12">
+        <v>20001001</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N80" s="5">
+        <v>123</v>
+      </c>
+      <c r="Q80" s="12"/>
+    </row>
+    <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="12">
+        <v>10003201</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L81" s="12">
         <v>20001002</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M81" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N81" s="5">
         <v>45</v>
       </c>
-      <c r="Q80" s="12"/>
-    </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C81" s="13" t="s">
+      <c r="Q81" s="12"/>
+    </row>
+    <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E82" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="H81" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L81" s="25">
-        <v>20001007</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="N81" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q81" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C82" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="F82" s="12"/>
       <c r="H82" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L82" s="25">
-        <v>20001011</v>
+      <c r="L82" s="24">
+        <v>20001007</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N82" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q82" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q82" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:17">
+    <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="25">
-        <v>20001017</v>
+      <c r="L83" s="24">
+        <v>20001011</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N83" s="5">
-        <v>95</v>
-      </c>
-      <c r="Q83" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q83" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:17">
+    <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="13" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="6" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L84" s="12">
-        <v>20001005</v>
+      <c r="L84" s="24">
+        <v>20001017</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N84" s="5">
-        <v>-70</v>
-      </c>
-      <c r="Q84" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q84" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:17">
+    <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="6" t="s">
@@ -5808,22 +5224,22 @@
       <c r="I85" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L85" s="12" t="s">
-        <v>212</v>
+      <c r="L85" s="12">
+        <v>20001005</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="N85" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q85" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:17">
+        <v>-70</v>
+      </c>
+      <c r="Q85" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>215</v>
@@ -5844,103 +5260,100 @@
       <c r="N86" s="5">
         <v>180</v>
       </c>
-      <c r="Q86" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q86" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="6" t="s">
-        <v>322</v>
+        <v>144</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L87" s="12">
-        <v>20001008</v>
+      <c r="L87" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="N87" s="5">
-        <v>-70</v>
-      </c>
-      <c r="Q87" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q87" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:17">
+    <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="13" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L88" s="12">
+        <v>20001008</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="N88" s="5">
+        <v>-70</v>
+      </c>
+      <c r="Q88" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="H89" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L88" s="25">
+      <c r="I89" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L89" s="24">
         <v>20001011</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M89" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="N88" s="5">
+      <c r="N89" s="5">
         <v>-180</v>
       </c>
-      <c r="Q88" s="26" t="s">
+      <c r="Q89" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C89" s="13" t="s">
+    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E90" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F90" s="12">
         <v>10004101</v>
-      </c>
-      <c r="G89" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L89" s="12">
-        <v>20001001</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="N89" s="5">
-        <v>35</v>
-      </c>
-      <c r="Q89" s="12"/>
-    </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C90" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F90" s="12">
-        <v>10004201</v>
       </c>
       <c r="G90" s="4">
         <v>1009</v>
@@ -5952,127 +5365,130 @@
         <v>144</v>
       </c>
       <c r="L90" s="12">
+        <v>20001001</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N90" s="5">
+        <v>35</v>
+      </c>
+      <c r="Q90" s="12"/>
+    </row>
+    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="12">
+        <v>10004201</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L91" s="12">
         <v>20001002</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M91" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="N90" s="5">
+      <c r="N91" s="5">
         <v>-41</v>
       </c>
-      <c r="Q90" s="12"/>
-    </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C91" s="13" t="s">
+      <c r="Q91" s="12"/>
+    </row>
+    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E92" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="H91" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L91" s="25">
-        <v>20001007</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="N91" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C92" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L92" s="25">
-        <v>20001017</v>
+      <c r="L92" s="24">
+        <v>20001007</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N92" s="5">
-        <v>101</v>
-      </c>
-      <c r="Q92" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:17">
+    <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L93" s="25">
-        <v>20001013</v>
+      <c r="L93" s="24">
+        <v>20001017</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N93" s="5">
-        <v>-3</v>
-      </c>
-      <c r="Q93" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q93" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:17">
+    <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="13" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>215</v>
+        <v>341</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="6" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L94" s="12" t="s">
-        <v>212</v>
+      <c r="L94" s="24">
+        <v>20001013</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="N94" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q94" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:17">
+        <v>-3</v>
+      </c>
+      <c r="Q94" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>215</v>
@@ -6093,103 +5509,100 @@
       <c r="N95" s="5">
         <v>180</v>
       </c>
-      <c r="Q95" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q95" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>347</v>
+        <v>215</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="6" t="s">
-        <v>348</v>
+        <v>144</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L96" s="25">
-        <v>20001015</v>
+      <c r="L96" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="N96" s="5">
-        <v>-180</v>
-      </c>
-      <c r="Q96" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q96" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:17">
+    <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="13" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L97" s="24">
+        <v>20001015</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="N97" s="5">
+        <v>-180</v>
+      </c>
+      <c r="Q97" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="H98" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="I97" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L97" s="25">
+      <c r="I98" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L98" s="24">
         <v>20001015</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M98" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N98" s="5">
         <v>83</v>
       </c>
-      <c r="Q97" s="26" t="s">
+      <c r="Q98" s="25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C98" s="13" t="s">
+    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E99" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F99" s="12">
         <v>10005101</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1009</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L98" s="12">
-        <v>20001001</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="N98" s="5">
-        <v>51</v>
-      </c>
-      <c r="Q98" s="12"/>
-    </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C99" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F99" s="12">
-        <v>10005201</v>
       </c>
       <c r="G99" s="4">
         <v>1009</v>
@@ -6201,154 +5614,157 @@
         <v>144</v>
       </c>
       <c r="L99" s="12">
+        <v>20001001</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="N99" s="5">
+        <v>51</v>
+      </c>
+      <c r="Q99" s="12"/>
+    </row>
+    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="12">
+        <v>10005201</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1009</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L100" s="12">
         <v>20001002</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="M100" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="N99" s="5">
+      <c r="N100" s="5">
         <v>-44</v>
       </c>
-      <c r="Q99" s="12"/>
-    </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C100" s="13" t="s">
+      <c r="Q100" s="12"/>
+    </row>
+    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E101" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="F100" s="12"/>
-      <c r="H100" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L100" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="N100" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q100" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C101" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="F101" s="12"/>
       <c r="H101" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L101" s="25">
-        <v>20001012</v>
+      <c r="L101" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="N101" s="5">
-        <v>92</v>
-      </c>
-      <c r="Q101" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q101" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:17">
+    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="6" t="s">
-        <v>144</v>
+        <v>364</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L102" s="25">
-        <v>20001015</v>
+      <c r="L102" s="24">
+        <v>20001012</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="N102" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q102" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q102" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:17">
+    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="6" t="s">
-        <v>370</v>
+        <v>144</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L103" s="25">
-        <v>20001013</v>
+      <c r="L103" s="24">
+        <v>20001015</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>371</v>
+        <v>232</v>
       </c>
       <c r="N103" s="5">
-        <v>145</v>
-      </c>
-      <c r="Q103" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q103" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:17">
+    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>215</v>
+        <v>369</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="6" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L104" s="12" t="s">
-        <v>212</v>
+      <c r="L104" s="24">
+        <v>20001013</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="N104" s="5">
-        <v>180</v>
-      </c>
-      <c r="Q104" s="26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:17">
+        <v>145</v>
+      </c>
+      <c r="Q104" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>215</v>
@@ -6369,16 +5785,16 @@
       <c r="N105" s="5">
         <v>180</v>
       </c>
-      <c r="Q105" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:17">
-      <c r="C106" s="12">
-        <v>20099001</v>
+      <c r="Q105" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="13" t="s">
+        <v>373</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>374</v>
+        <v>215</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="6" t="s">
@@ -6387,8 +5803,8 @@
       <c r="I106" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L106" s="25" t="s">
-        <v>375</v>
+      <c r="L106" s="12" t="s">
+        <v>212</v>
       </c>
       <c r="M106" s="5" t="s">
         <v>232</v>
@@ -6396,16 +5812,16 @@
       <c r="N106" s="5">
         <v>180</v>
       </c>
-      <c r="Q106" s="26" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q106" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="12">
-        <v>20099002</v>
+        <v>20099001</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="6" t="s">
@@ -6414,7 +5830,7 @@
       <c r="I107" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="25" t="s">
+      <c r="L107" s="24" t="s">
         <v>375</v>
       </c>
       <c r="M107" s="5" t="s">
@@ -6423,16 +5839,16 @@
       <c r="N107" s="5">
         <v>180</v>
       </c>
-      <c r="Q107" s="26" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q107" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="12">
-        <v>20099003</v>
+        <v>20099002</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="6" t="s">
@@ -6441,7 +5857,7 @@
       <c r="I108" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L108" s="25" t="s">
+      <c r="L108" s="24" t="s">
         <v>375</v>
       </c>
       <c r="M108" s="5" t="s">
@@ -6450,16 +5866,16 @@
       <c r="N108" s="5">
         <v>180</v>
       </c>
-      <c r="Q108" s="26" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q108" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="12">
-        <v>20099004</v>
+        <v>20099003</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F109" s="12"/>
       <c r="H109" s="6" t="s">
@@ -6468,7 +5884,7 @@
       <c r="I109" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L109" s="25" t="s">
+      <c r="L109" s="24" t="s">
         <v>375</v>
       </c>
       <c r="M109" s="5" t="s">
@@ -6477,16 +5893,16 @@
       <c r="N109" s="5">
         <v>180</v>
       </c>
-      <c r="Q109" s="26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q109" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="12">
-        <v>20099005</v>
+        <v>20099004</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F110" s="12"/>
       <c r="H110" s="6" t="s">
@@ -6495,7 +5911,7 @@
       <c r="I110" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L110" s="25" t="s">
+      <c r="L110" s="24" t="s">
         <v>375</v>
       </c>
       <c r="M110" s="5" t="s">
@@ -6504,16 +5920,16 @@
       <c r="N110" s="5">
         <v>180</v>
       </c>
-      <c r="Q110" s="26" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q110" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="12">
-        <v>20099006</v>
+        <v>20099005</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>215</v>
+        <v>383</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
@@ -6522,8 +5938,8 @@
       <c r="I111" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L111" s="12">
-        <v>20001005</v>
+      <c r="L111" s="24" t="s">
+        <v>375</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>232</v>
@@ -6531,57 +5947,46 @@
       <c r="N111" s="5">
         <v>180</v>
       </c>
-      <c r="Q111" s="26" t="s">
+      <c r="Q111" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="12">
+        <v>20099006</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="H112" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L112" s="12">
+        <v>20001005</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="N112" s="5">
+        <v>180</v>
+      </c>
+      <c r="Q112" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="4">
-        <v>1</v>
-      </c>
-      <c r="H112" s="4">
-        <v>0</v>
-      </c>
-      <c r="I112" s="4">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="M112" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="N112" s="5">
-        <v>230</v>
-      </c>
-      <c r="Q112" s="25"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-    </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="113" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="27" t="s">
-        <v>391</v>
+      <c r="E113" s="26" t="s">
+        <v>387</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
@@ -6595,31 +6000,31 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="M113" s="31" t="s">
-        <v>393</v>
+      <c r="L113" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="N113" s="5">
-        <v>90</v>
-      </c>
-      <c r="Q113" s="25"/>
+        <v>230</v>
+      </c>
+      <c r="Q113" s="24"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="114" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="27" t="s">
-        <v>395</v>
+      <c r="E114" s="26" t="s">
+        <v>391</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
@@ -6633,31 +6038,31 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="M114" s="31" t="s">
-        <v>397</v>
+      <c r="L114" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="M114" s="30" t="s">
+        <v>393</v>
       </c>
       <c r="N114" s="5">
         <v>90</v>
       </c>
-      <c r="Q114" s="25"/>
+      <c r="Q114" s="24"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="115" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115" s="27" t="s">
-        <v>399</v>
+      <c r="E115" s="26" t="s">
+        <v>395</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
@@ -6671,29 +6076,33 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="M115" s="24" t="s">
-        <v>401</v>
+      <c r="L115" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="M115" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="N115" s="5">
-        <v>230</v>
-      </c>
-      <c r="Q115" s="25"/>
+        <v>90</v>
+      </c>
+      <c r="Q115" s="24"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:14">
+    <row r="116" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>403</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="4">
         <v>1</v>
       </c>
@@ -6704,22 +6113,29 @@
         <v>0</v>
       </c>
       <c r="J116" s="4"/>
-      <c r="L116" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M116" s="24" t="s">
-        <v>404</v>
+      <c r="K116" s="3"/>
+      <c r="L116" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="M116" s="23" t="s">
+        <v>401</v>
       </c>
       <c r="N116" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:14">
+        <v>230</v>
+      </c>
+      <c r="Q116" s="24"/>
+      <c r="T116" s="5"/>
+      <c r="U116" s="5"/>
+      <c r="V116" s="5"/>
+      <c r="W116" s="5"/>
+      <c r="X116" s="5"/>
+    </row>
+    <row r="117" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
@@ -6731,22 +6147,22 @@
         <v>0</v>
       </c>
       <c r="J117" s="4"/>
-      <c r="L117" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="M117" s="31" t="s">
-        <v>408</v>
+      <c r="L117" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M117" s="23" t="s">
+        <v>404</v>
       </c>
       <c r="N117" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>410</v>
+        <v>405</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>406</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
@@ -6758,21 +6174,21 @@
         <v>0</v>
       </c>
       <c r="J118" s="4"/>
-      <c r="L118" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="M118" s="24" t="s">
-        <v>412</v>
+      <c r="L118" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="M118" s="30" t="s">
+        <v>408</v>
       </c>
       <c r="N118" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E119" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E119" s="26" t="s">
         <v>410</v>
       </c>
       <c r="G119" s="4">
@@ -6785,31 +6201,58 @@
         <v>0</v>
       </c>
       <c r="J119" s="4"/>
-      <c r="L119" s="27" t="s">
+      <c r="L119" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="M119" s="24" t="s">
+      <c r="M119" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="N119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4"/>
+      <c r="L120" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="M120" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="N119" s="5">
+      <c r="N120" s="5">
         <v>270</v>
       </c>
     </row>
-    <row r="120" ht="20.1" customHeight="1"/>
-    <row r="121" ht="20.1" customHeight="1"/>
-    <row r="122" ht="20.1" customHeight="1"/>
-    <row r="123" ht="20.1" customHeight="1"/>
-    <row r="124" ht="20.1" customHeight="1"/>
-    <row r="125" ht="20.1" customHeight="1"/>
-    <row r="126" ht="20.1" customHeight="1"/>
-    <row r="127" ht="20.1" customHeight="1"/>
-    <row r="128" ht="20.1" customHeight="1"/>
-    <row r="129" ht="20.1" customHeight="1"/>
-    <row r="130" ht="20.1" customHeight="1"/>
+    <row r="121" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAB91F-0B3C-4F66-B563-DD3A3D7C468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="540" windowWidth="27870" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -20,20 +14,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +45,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为0：</t>
@@ -62,7 +53,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -72,7 +62,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具ID，道具数量
@@ -83,7 +72,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为1：</t>
@@ -92,7 +80,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,7 +89,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">出现概率，
@@ -112,7 +98,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具ID，
@@ -122,7 +107,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">道具数量，
@@ -132,7 +116,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">购买次数， 
@@ -142,7 +125,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">购买类型（ 0 表示 金币  1表示钻石）
@@ -153,7 +135,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>NPC类型为2：</t>
@@ -162,7 +143,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -172,7 +152,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">出现最小等级，出现最大等级，道具ID，道具数量
@@ -183,7 +162,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>商店类型为3：</t>
@@ -192,7 +170,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -202,21 +179,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>出现最小等级，出现最大等级，道具ID，道具数量，购买使用什么道具，购买使用道具数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -225,33 +200,138 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对应Function
-功能表ID
-1  宠物兑换
-2  挑战之地 
-3  循环任务
-4  魔能老人
-5  补偿大师
-6  节日使者
-7  周长任务
-8  经验兑换
-&gt;1000 functionconfig
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">对应Function
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">功能表ID
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">1  宠物兑换
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">2  挑战之地 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">3  循环任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">4  魔能老人
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">5  补偿大师
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">6  节日使者
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">7  周长任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">8  经验兑换
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">&gt;1000 functionconfig
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -261,7 +341,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0:</t>
         </r>
@@ -270,7 +350,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示不拉近</t>
@@ -279,7 +358,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -288,7 +367,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -296,21 +375,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：表示拉近</t>
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -319,7 +396,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -329,7 +405,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>播放音效</t>
@@ -338,7 +413,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ID,</t>
         </r>
@@ -346,7 +421,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件存储在</t>
@@ -355,7 +429,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>UI</t>
         </r>
@@ -363,7 +437,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>文件夹下</t>
@@ -372,7 +445,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -380,7 +453,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>多个音效用</t>
@@ -389,7 +461,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>;</t>
         </r>
@@ -397,7 +469,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号间隔</t>
@@ -406,7 +477,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -414,7 +485,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>将会随机播放一个</t>
@@ -423,7 +493,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>,</t>
         </r>
@@ -431,7 +501,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>如果有概率不播放就写成</t>
@@ -440,7 +509,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">100;0  </t>
         </r>
@@ -448,7 +517,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>就表示</t>
@@ -457,7 +525,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>50%</t>
         </r>
@@ -465,7 +533,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概率播放</t>
@@ -474,7 +541,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>100</t>
         </r>
@@ -482,21 +549,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>号音效</t>
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -505,7 +570,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -515,7 +579,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>玩家等级在此区间才会显示此</t>
@@ -524,7 +587,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">NPC
 </t>
@@ -533,7 +596,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>例如</t>
@@ -542,7 +604,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:10;20 </t>
         </r>
@@ -550,7 +612,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示</t>
@@ -559,7 +620,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 10-20</t>
         </r>
@@ -567,21 +628,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>级会出现</t>
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="V3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -590,7 +649,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -600,7 +658,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0.默认,不执行
@@ -610,7 +667,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1.NPC出现时间
@@ -620,7 +676,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2.地图内击败指定数量的怪物
@@ -630,7 +685,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3.地图内击败指定ID的怪物后NPC出现
@@ -640,7 +694,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4.当自身某个ID的任务完成后出现
@@ -650,7 +703,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5.穿戴要求指定数量的装备出现(玩家进地图时)
@@ -660,21 +712,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6.背包内有某个道具出现(玩家进地图时)</t>
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="W3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -683,7 +733,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -693,7 +742,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0. 不需要填写
@@ -703,7 +751,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1. 以秒为单位,最大86400。
@@ -713,7 +760,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">出现秒，消失秒。（例如10000,20000）
@@ -723,7 +769,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2. 指定击败怪物数量
@@ -733,7 +778,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">3. 指定击败怪物的ID
@@ -743,7 +787,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">4. 指定任务ID
@@ -753,7 +796,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5. 要求装备数量;装备ID_1,装备ID_2,装备ID_3……
@@ -763,7 +805,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">6. 背包内有某个道具出现
@@ -773,21 +814,19 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>指定道具ID,指定数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="X4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -796,7 +835,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -806,7 +844,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">此字段目前没使用,留存的
@@ -816,7 +853,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0：普通商店
@@ -826,7 +862,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1：随机商店
@@ -836,7 +871,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">2：普通购买消失商店
@@ -846,7 +880,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>3：随机购买消失商店</t>
@@ -858,7 +891,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
   <si>
     <t>#</t>
   </si>
@@ -1466,6 +1499,18 @@
     <t>-4107,615,6479</t>
   </si>
   <si>
+    <t>20000037</t>
+  </si>
+  <si>
+    <t>经验老头</t>
+  </si>
+  <si>
+    <t>-3090,-424,-1153</t>
+  </si>
+  <si>
+    <t>当你的等级达到上限时无法获得经验时,你可以用多余的20%经验来我这里换取一份不错的奖励哦!</t>
+  </si>
+  <si>
     <t>20001001</t>
   </si>
   <si>
@@ -2103,25 +2148,19 @@
   </si>
   <si>
     <t>1532,0,-4366</t>
-  </si>
-  <si>
-    <t>20000037</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验兑换</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4407,615,6079</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,14 +2172,12 @@
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2148,14 +2185,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2163,7 +2198,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2171,7 +2205,6 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2179,49 +2212,161 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2242,12 +2387,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2298,13 +2629,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2369,6 +2942,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2380,37 +2956,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="计算" xfId="26" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
+    <cellStyle name="汇总" xfId="31" builtinId="25"/>
+    <cellStyle name="好" xfId="32" builtinId="26"/>
+    <cellStyle name="适中" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 5" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2695,19 +3310,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -2734,13 +3349,13 @@
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:24">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2808,7 +3423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:24">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +3489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:24">
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
@@ -2940,7 +3555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="20.1" customHeight="1" spans="3:17">
       <c r="C6" s="12">
         <v>10001</v>
       </c>
@@ -2963,9 +3578,9 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="26"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="3:17">
       <c r="C7" s="12">
         <v>10002</v>
       </c>
@@ -2988,9 +3603,9 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="3:17">
       <c r="C8" s="12">
         <v>10003</v>
       </c>
@@ -3013,9 +3628,9 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="3:18">
       <c r="C9" s="12">
         <v>10004</v>
       </c>
@@ -3038,14 +3653,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:17">
       <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
@@ -3067,7 +3682,7 @@
       <c r="L10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="28" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3075,7 +3690,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:17">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -3097,7 +3712,7 @@
       <c r="L11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="28" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5">
@@ -3105,7 +3720,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:17">
       <c r="C12" s="13" t="s">
         <v>60</v>
       </c>
@@ -3125,7 +3740,7 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="28" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="5">
@@ -3133,7 +3748,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:17">
       <c r="C13" s="13" t="s">
         <v>64</v>
       </c>
@@ -3153,7 +3768,7 @@
       <c r="L13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="28" t="s">
         <v>67</v>
       </c>
       <c r="N13" s="5">
@@ -3161,7 +3776,7 @@
       </c>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C14" s="14" t="s">
         <v>68</v>
       </c>
@@ -3183,7 +3798,7 @@
       <c r="L14" s="16">
         <v>20001007</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="29" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="15">
@@ -3202,7 +3817,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
     </row>
-    <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:17">
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -3221,7 +3836,7 @@
       <c r="L15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="4">
@@ -3229,11 +3844,11 @@
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C16" s="14" t="s">
         <v>77</v>
       </c>
@@ -3255,7 +3870,7 @@
       <c r="L16" s="16">
         <v>20001024</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="29" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="15">
@@ -3274,7 +3889,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
     </row>
-    <row r="17" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C17" s="14" t="s">
         <v>80</v>
       </c>
@@ -3296,7 +3911,7 @@
       <c r="L17" s="16">
         <v>20001024</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="29" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="15">
@@ -3315,7 +3930,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:17">
       <c r="C18" s="13" t="s">
         <v>83</v>
       </c>
@@ -3335,7 +3950,7 @@
       <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="28" t="s">
         <v>86</v>
       </c>
       <c r="N18" s="5">
@@ -3345,7 +3960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:17">
       <c r="C19" s="13" t="s">
         <v>87</v>
       </c>
@@ -3365,7 +3980,7 @@
       <c r="L19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="28" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="5">
@@ -3375,7 +3990,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:17">
       <c r="C20" s="13" t="s">
         <v>91</v>
       </c>
@@ -3395,7 +4010,7 @@
       <c r="L20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="28" t="s">
         <v>94</v>
       </c>
       <c r="N20" s="5">
@@ -3403,7 +4018,7 @@
       </c>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="20.1" customHeight="1" spans="3:17">
       <c r="C21" s="13" t="s">
         <v>95</v>
       </c>
@@ -3425,17 +4040,17 @@
       <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="31" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="20.1" customHeight="1" spans="3:17">
       <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
@@ -3457,17 +4072,17 @@
       <c r="L22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="30" t="s">
+      <c r="M22" s="31" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="20.1" customHeight="1" spans="3:17">
       <c r="C23" s="13" t="s">
         <v>107</v>
       </c>
@@ -3489,17 +4104,17 @@
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="31" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="20.1" customHeight="1" spans="3:17">
       <c r="C24" s="13" t="s">
         <v>113</v>
       </c>
@@ -3518,17 +4133,17 @@
       <c r="L24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="M24" s="31" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="25" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="20.1" customHeight="1" spans="3:17">
       <c r="C25" s="13" t="s">
         <v>118</v>
       </c>
@@ -3547,15 +4162,15 @@
       <c r="L25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="31" t="s">
         <v>121</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
       </c>
-      <c r="Q25" s="24"/>
-    </row>
-    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="25"/>
+    </row>
+    <row r="26" ht="20.1" customHeight="1" spans="3:17">
       <c r="C26" s="13" t="s">
         <v>122</v>
       </c>
@@ -3574,17 +4189,17 @@
       <c r="L26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="30" t="s">
+      <c r="M26" s="31" t="s">
         <v>125</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="20.1" customHeight="1" spans="3:17">
       <c r="C27" s="13" t="s">
         <v>127</v>
       </c>
@@ -3606,17 +4221,17 @@
       <c r="L27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="31" t="s">
         <v>129</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27" s="24" t="s">
+      <c r="Q27" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="20.1" customHeight="1" spans="3:17">
       <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
@@ -3638,15 +4253,15 @@
       <c r="L28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="30" t="s">
+      <c r="M28" s="31" t="s">
         <v>133</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
       </c>
-      <c r="Q28" s="24"/>
-    </row>
-    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="25"/>
+    </row>
+    <row r="29" ht="20.1" customHeight="1" spans="3:17">
       <c r="C29" s="13" t="s">
         <v>134</v>
       </c>
@@ -3668,15 +4283,15 @@
       <c r="L29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="31" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
       </c>
-      <c r="Q29" s="24"/>
-    </row>
-    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" ht="20.1" customHeight="1" spans="3:17">
       <c r="C30" s="13" t="s">
         <v>138</v>
       </c>
@@ -3698,15 +4313,15 @@
       <c r="L30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="30" t="s">
+      <c r="M30" s="31" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="Q30" s="24"/>
-    </row>
-    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" ht="20.1" customHeight="1" spans="3:17">
       <c r="C31" s="13" t="s">
         <v>142</v>
       </c>
@@ -3728,7 +4343,7 @@
       <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="M31" s="31" t="s">
         <v>146</v>
       </c>
       <c r="N31" s="5">
@@ -3736,7 +4351,7 @@
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:17">
       <c r="C32" s="13" t="s">
         <v>147</v>
       </c>
@@ -3758,17 +4373,17 @@
       <c r="L32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="30" t="s">
+      <c r="M32" s="31" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="25" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:17">
       <c r="C33" s="13" t="s">
         <v>151</v>
       </c>
@@ -3778,7 +4393,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="32" t="s">
         <v>153</v>
       </c>
       <c r="I33" s="4">
@@ -3787,17 +4402,17 @@
       <c r="L33" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="M33" s="31" t="s">
         <v>155</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="25" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:17">
       <c r="C34" s="13" t="s">
         <v>157</v>
       </c>
@@ -3813,17 +4428,17 @@
       <c r="L34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="30" t="s">
+      <c r="M34" s="31" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
-      <c r="Q34" s="24" t="s">
+      <c r="Q34" s="25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:17">
       <c r="C35" s="13" t="s">
         <v>161</v>
       </c>
@@ -3845,17 +4460,17 @@
       <c r="L35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="31" t="s">
         <v>163</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:17">
       <c r="C36" s="13" t="s">
         <v>164</v>
       </c>
@@ -3868,20 +4483,20 @@
       <c r="J36" s="4">
         <v>2000001</v>
       </c>
-      <c r="L36" s="24" t="s">
+      <c r="L36" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="30" t="s">
+      <c r="M36" s="31" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
-      <c r="Q36" s="24" t="s">
+      <c r="Q36" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:17">
       <c r="C37" s="13" t="s">
         <v>168</v>
       </c>
@@ -3894,20 +4509,20 @@
       <c r="J37" s="6">
         <v>2000002</v>
       </c>
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="31" t="s">
         <v>170</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
-      <c r="Q37" s="24" t="s">
+      <c r="Q37" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:17">
       <c r="C38" s="13" t="s">
         <v>172</v>
       </c>
@@ -3917,21 +4532,21 @@
       <c r="G38" s="4">
         <v>1027</v>
       </c>
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="30" t="s">
+      <c r="M38" s="31" t="s">
         <v>174</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
-      <c r="O38" s="23"/>
-      <c r="Q38" s="24" t="s">
+      <c r="O38" s="24"/>
+      <c r="Q38" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:17">
       <c r="C39" s="13" t="s">
         <v>176</v>
       </c>
@@ -3941,21 +4556,21 @@
       <c r="G39" s="4">
         <v>1028</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="30" t="s">
+      <c r="M39" s="31" t="s">
         <v>178</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
-      <c r="O39" s="23"/>
-      <c r="Q39" s="24" t="s">
+      <c r="O39" s="24"/>
+      <c r="Q39" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:17">
       <c r="C40" s="13" t="s">
         <v>179</v>
       </c>
@@ -3977,15 +4592,15 @@
       <c r="L40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="30" t="s">
+      <c r="M40" s="31" t="s">
         <v>181</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
       </c>
-      <c r="Q40" s="24"/>
-    </row>
-    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" ht="20.1" customHeight="1" spans="3:17">
       <c r="C41" s="13" t="s">
         <v>182</v>
       </c>
@@ -4005,7 +4620,7 @@
       <c r="L41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="30" t="s">
+      <c r="M41" s="31" t="s">
         <v>185</v>
       </c>
       <c r="N41" s="5">
@@ -4013,7 +4628,7 @@
       </c>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:17">
       <c r="C42" s="13" t="s">
         <v>186</v>
       </c>
@@ -4033,7 +4648,7 @@
       <c r="L42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="30" t="s">
+      <c r="M42" s="31" t="s">
         <v>189</v>
       </c>
       <c r="N42" s="5">
@@ -4043,7 +4658,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:17">
       <c r="C43" s="13" t="s">
         <v>191</v>
       </c>
@@ -4063,7 +4678,7 @@
       <c r="L43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="30" t="s">
+      <c r="M43" s="31" t="s">
         <v>193</v>
       </c>
       <c r="N43" s="5">
@@ -4073,7 +4688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:17">
       <c r="C44" s="13" t="s">
         <v>195</v>
       </c>
@@ -4096,7 +4711,7 @@
       <c r="L44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="30" t="s">
+      <c r="M44" s="31" t="s">
         <v>198</v>
       </c>
       <c r="N44" s="5">
@@ -4106,7 +4721,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:17">
       <c r="C45" s="13" t="s">
         <v>199</v>
       </c>
@@ -4128,7 +4743,7 @@
       <c r="L45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="27" t="s">
+      <c r="M45" s="28" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="5">
@@ -4136,12 +4751,12 @@
       </c>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:17">
       <c r="C46" s="13" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="F46" s="12">
         <v>0</v>
@@ -4156,22 +4771,24 @@
         <v>0</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>417</v>
+        <v>124</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="N46" s="5">
-        <v>106</v>
-      </c>
-      <c r="Q46" s="12"/>
-    </row>
-    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-90</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" ht="20.1" customHeight="1" spans="3:17">
       <c r="C47" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F47" s="12">
         <v>10001101</v>
@@ -4188,15 +4805,15 @@
       <c r="L47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="27" t="s">
-        <v>204</v>
+      <c r="M47" s="28" t="s">
+        <v>208</v>
       </c>
       <c r="N47" s="5">
         <v>60</v>
       </c>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:17">
       <c r="C48" s="13">
         <v>20001002</v>
       </c>
@@ -4219,46 +4836,46 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N48" s="5">
         <v>-45</v>
       </c>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:17">
       <c r="C49" s="12">
         <v>20001003</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N49" s="5">
         <v>180</v>
       </c>
-      <c r="Q49" s="25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q49" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" ht="20.1" customHeight="1" spans="3:17">
       <c r="C50" s="13">
         <v>20001004</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="6" t="s">
@@ -4268,24 +4885,24 @@
         <v>144</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>217</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
-      <c r="Q50" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q50" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" ht="20.1" customHeight="1" spans="3:17">
       <c r="C51" s="12">
         <v>20001005</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F51" s="12"/>
       <c r="H51" s="6" t="s">
@@ -4295,24 +4912,24 @@
         <v>144</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N51" s="5">
         <v>-45</v>
       </c>
-      <c r="Q51" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q51" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" ht="20.1" customHeight="1" spans="3:17">
       <c r="C52" s="12">
         <v>20001006</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="6" t="s">
@@ -4322,28 +4939,28 @@
         <v>144</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>222</v>
       </c>
       <c r="N52" s="5">
         <v>45</v>
       </c>
-      <c r="Q52" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q52" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" ht="20.1" customHeight="1" spans="3:17">
       <c r="C53" s="12">
         <v>20001007</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>144</v>
@@ -4351,22 +4968,22 @@
       <c r="L53" s="12">
         <v>20001007</v>
       </c>
-      <c r="M53" s="27" t="s">
-        <v>222</v>
+      <c r="M53" s="28" t="s">
+        <v>226</v>
       </c>
       <c r="N53" s="5">
         <v>150</v>
       </c>
-      <c r="Q53" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q53" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" ht="20.1" customHeight="1" spans="3:17">
       <c r="C54" s="12">
         <v>20001008</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="6" t="s">
@@ -4378,26 +4995,26 @@
       <c r="L54" s="12">
         <v>20001008</v>
       </c>
-      <c r="M54" s="27" t="s">
-        <v>225</v>
+      <c r="M54" s="28" t="s">
+        <v>229</v>
       </c>
       <c r="N54" s="5">
         <v>-155</v>
       </c>
-      <c r="Q54" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q54" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" ht="20.1" customHeight="1" spans="3:17">
       <c r="C55" s="12">
         <v>20001009</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>144</v>
@@ -4405,22 +5022,22 @@
       <c r="L55" s="12">
         <v>20001009</v>
       </c>
-      <c r="M55" s="27" t="s">
-        <v>229</v>
+      <c r="M55" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="N55" s="5">
         <v>35</v>
       </c>
-      <c r="Q55" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q55" s="26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" ht="20.1" customHeight="1" spans="3:17">
       <c r="C56" s="12">
         <v>20001010</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="6" t="s">
@@ -4432,26 +5049,26 @@
       <c r="L56" s="12">
         <v>20001010</v>
       </c>
-      <c r="M56" s="31" t="s">
-        <v>232</v>
+      <c r="M56" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="N56" s="5">
         <v>180</v>
       </c>
-      <c r="Q56" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q56" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" ht="20.1" customHeight="1" spans="3:17">
       <c r="C57" s="12">
         <v>20001011</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>144</v>
@@ -4460,25 +5077,25 @@
         <v>20001011</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N57" s="5">
         <v>-180</v>
       </c>
-      <c r="Q57" s="25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q57" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" ht="20.1" customHeight="1" spans="3:17">
       <c r="C58" s="12">
         <v>20001012</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>144</v>
@@ -4487,25 +5104,25 @@
         <v>20001012</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N58" s="5">
         <v>80</v>
       </c>
-      <c r="Q58" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q58" s="26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" ht="20.1" customHeight="1" spans="3:17">
       <c r="C59" s="12">
         <v>20001013</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>144</v>
@@ -4514,25 +5131,25 @@
         <v>20001013</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N59" s="5">
         <v>180</v>
       </c>
-      <c r="Q59" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q59" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" ht="20.1" customHeight="1" spans="3:17">
       <c r="C60" s="12">
         <v>20001014</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="6" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>144</v>
@@ -4541,25 +5158,25 @@
         <v>20001014</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N60" s="5">
         <v>180</v>
       </c>
-      <c r="Q60" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q60" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" ht="20.1" customHeight="1" spans="3:17">
       <c r="C61" s="12">
         <v>20001015</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>144</v>
@@ -4568,21 +5185,21 @@
         <v>20001015</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N61" s="5">
         <v>128</v>
       </c>
-      <c r="Q61" s="25" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q61" s="26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="62" ht="20.1" customHeight="1" spans="3:17">
       <c r="C62" s="12">
         <v>20001016</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="6" t="s">
@@ -4595,25 +5212,25 @@
         <v>20001016</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N62" s="5">
         <v>180</v>
       </c>
-      <c r="Q62" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q62" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" ht="20.1" customHeight="1" spans="3:17">
       <c r="C63" s="12">
         <v>20001017</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>144</v>
@@ -4622,21 +5239,21 @@
         <v>20001017</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N63" s="5">
         <v>120</v>
       </c>
-      <c r="Q63" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q63" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" ht="20.1" customHeight="1" spans="3:17">
       <c r="C64" s="12">
         <v>20001018</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="6" t="s">
@@ -4646,29 +5263,29 @@
         <v>144</v>
       </c>
       <c r="J64" s="4"/>
-      <c r="L64" s="24">
+      <c r="L64" s="25">
         <v>0</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N64" s="5">
         <v>180</v>
       </c>
-      <c r="Q64" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q64" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" ht="20.1" customHeight="1" spans="3:17">
       <c r="C65" s="12">
         <v>20001019</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>144</v>
@@ -4677,21 +5294,21 @@
         <v>20001019</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N65" s="5">
         <v>-180</v>
       </c>
-      <c r="Q65" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q65" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" ht="20.1" customHeight="1" spans="3:17">
       <c r="C66" s="12">
         <v>20001020</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="6" t="s">
@@ -4704,21 +5321,21 @@
         <v>20001019</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N66" s="5">
         <v>180</v>
       </c>
-      <c r="Q66" s="25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q66" s="26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" ht="20.1" customHeight="1" spans="3:17">
       <c r="C67" s="12">
         <v>20001021</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="6" t="s">
@@ -4731,25 +5348,25 @@
         <v>20001021</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N67" s="5">
         <v>-180</v>
       </c>
-      <c r="Q67" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q67" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" ht="20.1" customHeight="1" spans="3:17">
       <c r="C68" s="12">
         <v>20001022</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>144</v>
@@ -4758,21 +5375,21 @@
         <v>20001022</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N68" s="5">
         <v>-106</v>
       </c>
-      <c r="Q68" s="25" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q68" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" ht="20.1" customHeight="1" spans="3:17">
       <c r="C69" s="12">
         <v>20001023</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="4">
@@ -4788,14 +5405,14 @@
         <v>20001023</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N69" s="5">
         <v>180</v>
       </c>
       <c r="Q69" s="12"/>
     </row>
-    <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:17">
       <c r="C70" s="12">
         <v>20001024</v>
       </c>
@@ -4813,16 +5430,16 @@
         <v>20001024</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N70" s="5">
         <v>-152</v>
       </c>
       <c r="Q70" s="12"/>
     </row>
-    <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:17">
       <c r="C71" s="13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>53</v>
@@ -4843,16 +5460,16 @@
         <v>20001001</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N71" s="5">
         <v>-147</v>
       </c>
       <c r="Q71" s="12"/>
     </row>
-    <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:17">
       <c r="C72" s="13" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>57</v>
@@ -4873,50 +5490,50 @@
         <v>20001002</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N72" s="5">
         <v>-129</v>
       </c>
       <c r="Q72" s="12"/>
     </row>
-    <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:17">
       <c r="C73" s="13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L73" s="25">
         <v>20001007</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N73" s="5">
         <v>-131</v>
       </c>
-      <c r="Q73" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q73" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="20.1" customHeight="1" spans="3:17">
       <c r="C74" s="13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="6" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>144</v>
@@ -4925,52 +5542,52 @@
         <v>20001005</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N74" s="5">
         <v>180</v>
       </c>
-      <c r="Q74" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q74" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" ht="20.1" customHeight="1" spans="3:17">
       <c r="C75" s="13" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L75" s="24">
+      <c r="L75" s="25">
         <v>20001009</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N75" s="5">
         <v>180</v>
       </c>
-      <c r="Q75" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q75" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" ht="20.1" customHeight="1" spans="3:17">
       <c r="C76" s="13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>144</v>
@@ -4979,21 +5596,21 @@
         <v>20001005</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N76" s="5">
         <v>180</v>
       </c>
-      <c r="Q76" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q76" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" ht="20.1" customHeight="1" spans="3:17">
       <c r="C77" s="13" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F77" s="12"/>
       <c r="H77" s="6" t="s">
@@ -5003,24 +5620,24 @@
         <v>144</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N77" s="5">
         <v>180</v>
       </c>
-      <c r="Q77" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q77" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" ht="20.1" customHeight="1" spans="3:17">
       <c r="C78" s="13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F78" s="12"/>
       <c r="H78" s="6" t="s">
@@ -5030,21 +5647,21 @@
         <v>144</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N78" s="5">
         <v>180</v>
       </c>
-      <c r="Q78" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q78" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" ht="20.1" customHeight="1" spans="3:17">
       <c r="C79" s="13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>180</v>
@@ -5056,22 +5673,22 @@
       <c r="I79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L79" s="24">
+      <c r="L79" s="25">
         <v>20001017</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N79" s="5">
         <v>27</v>
       </c>
-      <c r="Q79" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q79" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" ht="20.1" customHeight="1" spans="3:17">
       <c r="C80" s="13" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>53</v>
@@ -5092,16 +5709,16 @@
         <v>20001001</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N80" s="5">
         <v>123</v>
       </c>
       <c r="Q80" s="12"/>
     </row>
-    <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="20.1" customHeight="1" spans="3:17">
       <c r="C81" s="13" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>57</v>
@@ -5122,100 +5739,100 @@
         <v>20001002</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="N81" s="5">
         <v>45</v>
       </c>
       <c r="Q81" s="12"/>
     </row>
-    <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="20.1" customHeight="1" spans="3:17">
       <c r="C82" s="13" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F82" s="12"/>
       <c r="H82" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L82" s="24">
+      <c r="L82" s="25">
         <v>20001007</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="N82" s="5">
         <v>90</v>
       </c>
-      <c r="Q82" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q82" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" ht="20.1" customHeight="1" spans="3:17">
       <c r="C83" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F83" s="12"/>
       <c r="H83" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="24">
+      <c r="L83" s="25">
         <v>20001011</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N83" s="5">
         <v>180</v>
       </c>
-      <c r="Q83" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q83" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" ht="20.1" customHeight="1" spans="3:17">
       <c r="C84" s="13" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F84" s="12"/>
       <c r="H84" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L84" s="24">
+      <c r="L84" s="25">
         <v>20001017</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N84" s="5">
         <v>95</v>
       </c>
-      <c r="Q84" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q84" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" ht="20.1" customHeight="1" spans="3:17">
       <c r="C85" s="13" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F85" s="12"/>
       <c r="H85" s="6" t="s">
@@ -5228,21 +5845,21 @@
         <v>20001005</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N85" s="5">
         <v>-70</v>
       </c>
-      <c r="Q85" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q85" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" ht="20.1" customHeight="1" spans="3:17">
       <c r="C86" s="13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F86" s="12"/>
       <c r="H86" s="6" t="s">
@@ -5252,24 +5869,24 @@
         <v>144</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N86" s="5">
         <v>180</v>
       </c>
-      <c r="Q86" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q86" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" ht="20.1" customHeight="1" spans="3:17">
       <c r="C87" s="13" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F87" s="12"/>
       <c r="H87" s="6" t="s">
@@ -5279,28 +5896,28 @@
         <v>144</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N87" s="5">
         <v>180</v>
       </c>
-      <c r="Q87" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q87" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="88" ht="20.1" customHeight="1" spans="3:17">
       <c r="C88" s="13" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F88" s="12"/>
       <c r="H88" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>144</v>
@@ -5309,45 +5926,45 @@
         <v>20001008</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N88" s="5">
         <v>-70</v>
       </c>
-      <c r="Q88" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q88" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" ht="20.1" customHeight="1" spans="3:17">
       <c r="C89" s="13" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F89" s="12"/>
       <c r="H89" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L89" s="24">
+      <c r="L89" s="25">
         <v>20001011</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N89" s="5">
         <v>-180</v>
       </c>
-      <c r="Q89" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q89" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" ht="20.1" customHeight="1" spans="3:17">
       <c r="C90" s="13" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>53</v>
@@ -5368,16 +5985,16 @@
         <v>20001001</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N90" s="5">
         <v>35</v>
       </c>
       <c r="Q90" s="12"/>
     </row>
-    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="20.1" customHeight="1" spans="3:17">
       <c r="C91" s="13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>57</v>
@@ -5398,100 +6015,100 @@
         <v>20001002</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N91" s="5">
         <v>-41</v>
       </c>
       <c r="Q91" s="12"/>
     </row>
-    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="20.1" customHeight="1" spans="3:17">
       <c r="C92" s="13" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F92" s="12"/>
       <c r="H92" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L92" s="24">
+      <c r="L92" s="25">
         <v>20001007</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N92" s="5">
         <v>0</v>
       </c>
-      <c r="Q92" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q92" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="93" ht="20.1" customHeight="1" spans="3:17">
       <c r="C93" s="13" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F93" s="12"/>
       <c r="H93" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L93" s="24">
+      <c r="L93" s="25">
         <v>20001017</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N93" s="5">
         <v>101</v>
       </c>
-      <c r="Q93" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q93" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" ht="20.1" customHeight="1" spans="3:17">
       <c r="C94" s="13" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F94" s="12"/>
       <c r="H94" s="6" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L94" s="24">
+      <c r="L94" s="25">
         <v>20001013</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N94" s="5">
         <v>-3</v>
       </c>
-      <c r="Q94" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q94" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" ht="20.1" customHeight="1" spans="3:17">
       <c r="C95" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F95" s="12"/>
       <c r="H95" s="6" t="s">
@@ -5501,24 +6118,24 @@
         <v>144</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N95" s="5">
         <v>180</v>
       </c>
-      <c r="Q95" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q95" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" ht="20.1" customHeight="1" spans="3:17">
       <c r="C96" s="13" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F96" s="12"/>
       <c r="H96" s="6" t="s">
@@ -5528,75 +6145,75 @@
         <v>144</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N96" s="5">
         <v>180</v>
       </c>
-      <c r="Q96" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q96" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="97" ht="20.1" customHeight="1" spans="3:17">
       <c r="C97" s="13" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F97" s="12"/>
       <c r="H97" s="6" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L97" s="24">
+      <c r="L97" s="25">
         <v>20001015</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="N97" s="5">
         <v>-180</v>
       </c>
-      <c r="Q97" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q97" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="98" ht="20.1" customHeight="1" spans="3:17">
       <c r="C98" s="13" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F98" s="12"/>
       <c r="H98" s="6" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L98" s="24">
+      <c r="L98" s="25">
         <v>20001015</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N98" s="5">
         <v>83</v>
       </c>
-      <c r="Q98" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q98" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="99" ht="20.1" customHeight="1" spans="3:17">
       <c r="C99" s="13" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>53</v>
@@ -5617,16 +6234,16 @@
         <v>20001001</v>
       </c>
       <c r="M99" s="5" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="N99" s="5">
         <v>51</v>
       </c>
       <c r="Q99" s="12"/>
     </row>
-    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="20.1" customHeight="1" spans="3:17">
       <c r="C100" s="13" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>57</v>
@@ -5647,73 +6264,73 @@
         <v>20001002</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="N100" s="5">
         <v>-44</v>
       </c>
       <c r="Q100" s="12"/>
     </row>
-    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="20.1" customHeight="1" spans="3:17">
       <c r="C101" s="13" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F101" s="12"/>
       <c r="H101" s="6" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>144</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="N101" s="5">
         <v>180</v>
       </c>
-      <c r="Q101" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q101" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" ht="20.1" customHeight="1" spans="3:17">
       <c r="C102" s="13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F102" s="12"/>
       <c r="H102" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L102" s="24">
+      <c r="L102" s="25">
         <v>20001012</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="N102" s="5">
         <v>92</v>
       </c>
-      <c r="Q102" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q102" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" ht="20.1" customHeight="1" spans="3:17">
       <c r="C103" s="13" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F103" s="12"/>
       <c r="H103" s="6" t="s">
@@ -5722,52 +6339,52 @@
       <c r="I103" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L103" s="24">
+      <c r="L103" s="25">
         <v>20001015</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N103" s="5">
         <v>180</v>
       </c>
-      <c r="Q103" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q103" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="104" ht="20.1" customHeight="1" spans="3:17">
       <c r="C104" s="13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F104" s="12"/>
       <c r="H104" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L104" s="24">
+      <c r="L104" s="25">
         <v>20001013</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N104" s="5">
         <v>145</v>
       </c>
-      <c r="Q104" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q104" s="26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" ht="20.1" customHeight="1" spans="3:17">
       <c r="C105" s="13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F105" s="12"/>
       <c r="H105" s="6" t="s">
@@ -5777,24 +6394,24 @@
         <v>144</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N105" s="5">
         <v>180</v>
       </c>
-      <c r="Q105" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q105" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" ht="20.1" customHeight="1" spans="3:17">
       <c r="C106" s="13" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F106" s="12"/>
       <c r="H106" s="6" t="s">
@@ -5804,24 +6421,24 @@
         <v>144</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N106" s="5">
         <v>180</v>
       </c>
-      <c r="Q106" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q106" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" ht="20.1" customHeight="1" spans="3:17">
       <c r="C107" s="12">
         <v>20099001</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F107" s="12"/>
       <c r="H107" s="6" t="s">
@@ -5830,25 +6447,25 @@
       <c r="I107" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="24" t="s">
-        <v>375</v>
+      <c r="L107" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N107" s="5">
         <v>180</v>
       </c>
-      <c r="Q107" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q107" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108" ht="20.1" customHeight="1" spans="3:17">
       <c r="C108" s="12">
         <v>20099002</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F108" s="12"/>
       <c r="H108" s="6" t="s">
@@ -5857,25 +6474,25 @@
       <c r="I108" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L108" s="24" t="s">
-        <v>375</v>
+      <c r="L108" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N108" s="5">
         <v>180</v>
       </c>
-      <c r="Q108" s="25" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q108" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" ht="20.1" customHeight="1" spans="3:17">
       <c r="C109" s="12">
         <v>20099003</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F109" s="12"/>
       <c r="H109" s="6" t="s">
@@ -5884,25 +6501,25 @@
       <c r="I109" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L109" s="24" t="s">
-        <v>375</v>
+      <c r="L109" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N109" s="5">
         <v>180</v>
       </c>
-      <c r="Q109" s="25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q109" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" ht="20.1" customHeight="1" spans="3:17">
       <c r="C110" s="12">
         <v>20099004</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F110" s="12"/>
       <c r="H110" s="6" t="s">
@@ -5911,25 +6528,25 @@
       <c r="I110" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L110" s="24" t="s">
-        <v>375</v>
+      <c r="L110" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N110" s="5">
         <v>180</v>
       </c>
-      <c r="Q110" s="25" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q110" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="111" ht="20.1" customHeight="1" spans="3:17">
       <c r="C111" s="12">
         <v>20099005</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F111" s="12"/>
       <c r="H111" s="6" t="s">
@@ -5938,25 +6555,25 @@
       <c r="I111" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L111" s="24" t="s">
-        <v>375</v>
+      <c r="L111" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N111" s="5">
         <v>180</v>
       </c>
-      <c r="Q111" s="25" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q111" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" ht="20.1" customHeight="1" spans="3:17">
       <c r="C112" s="12">
         <v>20099006</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F112" s="12"/>
       <c r="H112" s="6" t="s">
@@ -5969,24 +6586,24 @@
         <v>20001005</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N112" s="5">
         <v>180</v>
       </c>
-      <c r="Q112" s="25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q112" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="26" t="s">
-        <v>387</v>
+      <c r="E113" s="27" t="s">
+        <v>391</v>
       </c>
       <c r="F113" s="5"/>
       <c r="G113" s="4">
@@ -6000,31 +6617,31 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="M113" s="23" t="s">
-        <v>389</v>
+      <c r="L113" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="M113" s="24" t="s">
+        <v>393</v>
       </c>
       <c r="N113" s="5">
         <v>230</v>
       </c>
-      <c r="Q113" s="24"/>
+      <c r="Q113" s="25"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="13" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D114" s="5"/>
-      <c r="E114" s="26" t="s">
-        <v>391</v>
+      <c r="E114" s="27" t="s">
+        <v>395</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
@@ -6038,31 +6655,31 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="M114" s="30" t="s">
-        <v>393</v>
+      <c r="L114" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="M114" s="31" t="s">
+        <v>397</v>
       </c>
       <c r="N114" s="5">
         <v>90</v>
       </c>
-      <c r="Q114" s="24"/>
+      <c r="Q114" s="25"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="13" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D115" s="5"/>
-      <c r="E115" s="26" t="s">
-        <v>395</v>
+      <c r="E115" s="27" t="s">
+        <v>399</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
@@ -6076,31 +6693,31 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="M115" s="30" t="s">
-        <v>397</v>
+      <c r="L115" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>401</v>
       </c>
       <c r="N115" s="5">
         <v>90</v>
       </c>
-      <c r="Q115" s="24"/>
+      <c r="Q115" s="25"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D116" s="5"/>
-      <c r="E116" s="26" t="s">
-        <v>399</v>
+      <c r="E116" s="27" t="s">
+        <v>403</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="4">
@@ -6114,28 +6731,28 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="M116" s="23" t="s">
-        <v>401</v>
+      <c r="L116" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="M116" s="24" t="s">
+        <v>405</v>
       </c>
       <c r="N116" s="5">
         <v>230</v>
       </c>
-      <c r="Q116" s="24"/>
+      <c r="Q116" s="25"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
     </row>
-    <row r="117" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="20.1" customHeight="1" spans="3:14">
       <c r="C117" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>403</v>
+        <v>406</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>407</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
@@ -6147,22 +6764,22 @@
         <v>0</v>
       </c>
       <c r="J117" s="4"/>
-      <c r="L117" s="26" t="s">
+      <c r="L117" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M117" s="23" t="s">
-        <v>404</v>
+      <c r="M117" s="24" t="s">
+        <v>408</v>
       </c>
       <c r="N117" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="20.1" customHeight="1" spans="3:14">
       <c r="C118" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>406</v>
+        <v>409</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>410</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
@@ -6174,22 +6791,22 @@
         <v>0</v>
       </c>
       <c r="J118" s="4"/>
-      <c r="L118" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="M118" s="30" t="s">
-        <v>408</v>
+      <c r="L118" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="M118" s="31" t="s">
+        <v>412</v>
       </c>
       <c r="N118" s="5">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="20.1" customHeight="1" spans="3:14">
       <c r="C119" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>410</v>
+        <v>413</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>414</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
@@ -6201,22 +6818,22 @@
         <v>0</v>
       </c>
       <c r="J119" s="4"/>
-      <c r="L119" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="M119" s="23" t="s">
-        <v>412</v>
+      <c r="L119" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M119" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="N119" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="20.1" customHeight="1" spans="3:14">
       <c r="C120" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>410</v>
+        <v>417</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>414</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
@@ -6228,31 +6845,31 @@
         <v>0</v>
       </c>
       <c r="J120" s="4"/>
-      <c r="L120" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="M120" s="23" t="s">
-        <v>414</v>
+      <c r="L120" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="M120" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="N120" s="5">
         <v>270</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="20.1" customHeight="1"/>
+    <row r="122" ht="20.1" customHeight="1"/>
+    <row r="123" ht="20.1" customHeight="1"/>
+    <row r="124" ht="20.1" customHeight="1"/>
+    <row r="125" ht="20.1" customHeight="1"/>
+    <row r="126" ht="20.1" customHeight="1"/>
+    <row r="127" ht="20.1" customHeight="1"/>
+    <row r="128" ht="20.1" customHeight="1"/>
+    <row r="129" ht="20.1" customHeight="1"/>
+    <row r="130" ht="20.1" customHeight="1"/>
+    <row r="131" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60314A-45C1-49D7-93D1-CFA375DC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NpcProto" sheetId="1" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -324,14 +330,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">作者:
 </t>
@@ -341,7 +347,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>0:</t>
         </r>
@@ -358,7 +364,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -367,7 +373,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>1</t>
         </r>
@@ -381,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +419,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>ID,</t>
         </r>
@@ -429,7 +435,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>UI</t>
         </r>
@@ -445,7 +451,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -461,7 +467,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>;</t>
         </r>
@@ -477,7 +483,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -493,7 +499,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>,</t>
         </r>
@@ -509,7 +515,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">100;0  </t>
         </r>
@@ -525,7 +531,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>50%</t>
         </r>
@@ -541,7 +547,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>100</t>
         </r>
@@ -555,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="0">
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -587,7 +593,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">NPC
 </t>
@@ -604,7 +610,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:10;20 </t>
         </r>
@@ -620,7 +626,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> 10-20</t>
         </r>
@@ -634,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="0">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -718,7 +724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="0">
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -820,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="0">
+    <comment ref="X4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -891,7 +897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="419">
   <si>
     <t>#</t>
   </si>
@@ -2072,9 +2078,6 @@
     <t>NPC_JiaYuanNongChang</t>
   </si>
   <si>
-    <t>3012,0,1186</t>
-  </si>
-  <si>
     <t>30000002</t>
   </si>
   <si>
@@ -2148,19 +2151,17 @@
   </si>
   <si>
     <t>1532,0,-4366</t>
+  </si>
+  <si>
+    <t>-109,0,-1494</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2212,29 +2213,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2244,129 +2223,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2387,198 +2279,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2629,255 +2335,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2942,9 +2406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2956,76 +2417,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3310,19 +2735,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="C102" workbookViewId="0">
+      <selection activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -3349,13 +2774,13 @@
     <col min="25" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+    <row r="1" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:24">
+    <row r="3" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +2848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:24">
+    <row r="4" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:24">
+    <row r="5" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="7" t="s">
         <v>43</v>
       </c>
@@ -3555,7 +2980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:17">
+    <row r="6" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="12">
         <v>10001</v>
       </c>
@@ -3578,9 +3003,9 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>10002</v>
       </c>
@@ -3603,9 +3028,9 @@
       <c r="N7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <v>10003</v>
       </c>
@@ -3628,9 +3053,9 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:18">
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12">
         <v>10004</v>
       </c>
@@ -3653,14 +3078,14 @@
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:17">
+    <row r="10" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
@@ -3682,7 +3107,7 @@
       <c r="L10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="27" t="s">
         <v>55</v>
       </c>
       <c r="N10" s="5">
@@ -3690,7 +3115,7 @@
       </c>
       <c r="Q10" s="12"/>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:17">
+    <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="13" t="s">
         <v>56</v>
       </c>
@@ -3712,7 +3137,7 @@
       <c r="L11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="27" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="5">
@@ -3720,7 +3145,7 @@
       </c>
       <c r="Q11" s="12"/>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:17">
+    <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="13" t="s">
         <v>60</v>
       </c>
@@ -3740,7 +3165,7 @@
       <c r="L12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="27" t="s">
         <v>63</v>
       </c>
       <c r="N12" s="5">
@@ -3748,7 +3173,7 @@
       </c>
       <c r="Q12" s="12"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:17">
+    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>64</v>
       </c>
@@ -3768,7 +3193,7 @@
       <c r="L13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="27" t="s">
         <v>67</v>
       </c>
       <c r="N13" s="5">
@@ -3776,7 +3201,7 @@
       </c>
       <c r="Q13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="14" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
         <v>68</v>
       </c>
@@ -3798,7 +3223,7 @@
       <c r="L14" s="16">
         <v>20001007</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="28" t="s">
         <v>70</v>
       </c>
       <c r="N14" s="15">
@@ -3817,7 +3242,7 @@
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:17">
+    <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +3261,7 @@
       <c r="L15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="29" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="4">
@@ -3844,11 +3269,11 @@
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="16" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>77</v>
       </c>
@@ -3870,7 +3295,7 @@
       <c r="L16" s="16">
         <v>20001024</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>79</v>
       </c>
       <c r="N16" s="15">
@@ -3889,7 +3314,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="17" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>80</v>
       </c>
@@ -3911,7 +3336,7 @@
       <c r="L17" s="16">
         <v>20001024</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>82</v>
       </c>
       <c r="N17" s="15">
@@ -3930,7 +3355,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:17">
+    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
         <v>83</v>
       </c>
@@ -3950,7 +3375,7 @@
       <c r="L18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="27" t="s">
         <v>86</v>
       </c>
       <c r="N18" s="5">
@@ -3960,7 +3385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:17">
+    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13" t="s">
         <v>87</v>
       </c>
@@ -3980,7 +3405,7 @@
       <c r="L19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="27" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="5">
@@ -3990,7 +3415,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:17">
+    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="13" t="s">
         <v>91</v>
       </c>
@@ -4010,7 +3435,7 @@
       <c r="L20" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="27" t="s">
         <v>94</v>
       </c>
       <c r="N20" s="5">
@@ -4018,7 +3443,7 @@
       </c>
       <c r="Q20" s="12"/>
     </row>
-    <row r="21" ht="20.1" customHeight="1" spans="3:17">
+    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="13" t="s">
         <v>95</v>
       </c>
@@ -4040,17 +3465,17 @@
       <c r="L21" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="30" t="s">
         <v>99</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
       </c>
-      <c r="Q21" s="25" t="s">
+      <c r="Q21" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:17">
+    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
@@ -4072,17 +3497,17 @@
       <c r="L22" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="30" t="s">
         <v>105</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:17">
+    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="13" t="s">
         <v>107</v>
       </c>
@@ -4104,17 +3529,17 @@
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="M23" s="30" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="5">
         <v>225</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:17">
+    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="13" t="s">
         <v>113</v>
       </c>
@@ -4133,17 +3558,17 @@
       <c r="L24" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="30" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:17">
+    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="13" t="s">
         <v>118</v>
       </c>
@@ -4162,15 +3587,15 @@
       <c r="L25" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="30" t="s">
         <v>121</v>
       </c>
       <c r="N25" s="5">
         <v>-90</v>
       </c>
-      <c r="Q25" s="25"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q25" s="24"/>
+    </row>
+    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="13" t="s">
         <v>122</v>
       </c>
@@ -4189,17 +3614,17 @@
       <c r="L26" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="M26" s="30" t="s">
         <v>125</v>
       </c>
       <c r="N26" s="5">
         <v>180</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:17">
+    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="13" t="s">
         <v>127</v>
       </c>
@@ -4221,17 +3646,17 @@
       <c r="L27" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="30" t="s">
         <v>129</v>
       </c>
       <c r="N27" s="5">
         <v>0</v>
       </c>
-      <c r="Q27" s="25" t="s">
+      <c r="Q27" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:17">
+    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
@@ -4253,15 +3678,15 @@
       <c r="L28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="M28" s="31" t="s">
+      <c r="M28" s="30" t="s">
         <v>133</v>
       </c>
       <c r="N28" s="5">
         <v>90</v>
       </c>
-      <c r="Q28" s="25"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q28" s="24"/>
+    </row>
+    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="13" t="s">
         <v>134</v>
       </c>
@@ -4283,15 +3708,15 @@
       <c r="L29" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="30" t="s">
         <v>137</v>
       </c>
       <c r="N29" s="5">
         <v>90</v>
       </c>
-      <c r="Q29" s="25"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q29" s="24"/>
+    </row>
+    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="13" t="s">
         <v>138</v>
       </c>
@@ -4313,15 +3738,15 @@
       <c r="L30" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="31" t="s">
+      <c r="M30" s="30" t="s">
         <v>141</v>
       </c>
       <c r="N30" s="5">
         <v>90</v>
       </c>
-      <c r="Q30" s="25"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q30" s="24"/>
+    </row>
+    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="13" t="s">
         <v>142</v>
       </c>
@@ -4343,7 +3768,7 @@
       <c r="L31" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="30" t="s">
         <v>146</v>
       </c>
       <c r="N31" s="5">
@@ -4351,7 +3776,7 @@
       </c>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:17">
+    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="13" t="s">
         <v>147</v>
       </c>
@@ -4373,17 +3798,17 @@
       <c r="L32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="M32" s="31" t="s">
+      <c r="M32" s="30" t="s">
         <v>150</v>
       </c>
       <c r="N32" s="5">
         <v>-30</v>
       </c>
-      <c r="Q32" s="25" t="s">
+      <c r="Q32" s="24" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:17">
+    <row r="33" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>151</v>
       </c>
@@ -4393,7 +3818,7 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>153</v>
       </c>
       <c r="I33" s="4">
@@ -4402,17 +3827,17 @@
       <c r="L33" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="31" t="s">
+      <c r="M33" s="30" t="s">
         <v>155</v>
       </c>
       <c r="N33" s="5">
         <v>180</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:17">
+    <row r="34" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="13" t="s">
         <v>157</v>
       </c>
@@ -4428,17 +3853,17 @@
       <c r="L34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="31" t="s">
+      <c r="M34" s="30" t="s">
         <v>159</v>
       </c>
       <c r="N34" s="5">
         <v>-30</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="Q34" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:17">
+    <row r="35" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="13" t="s">
         <v>161</v>
       </c>
@@ -4460,17 +3885,17 @@
       <c r="L35" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="31" t="s">
+      <c r="M35" s="30" t="s">
         <v>163</v>
       </c>
       <c r="N35" s="5">
         <v>-144</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:17">
+    <row r="36" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="13" t="s">
         <v>164</v>
       </c>
@@ -4483,20 +3908,20 @@
       <c r="J36" s="4">
         <v>2000001</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="31" t="s">
+      <c r="M36" s="30" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="5">
         <v>-180</v>
       </c>
-      <c r="Q36" s="25" t="s">
+      <c r="Q36" s="24" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:17">
+    <row r="37" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="13" t="s">
         <v>168</v>
       </c>
@@ -4509,20 +3934,20 @@
       <c r="J37" s="6">
         <v>2000002</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="30" t="s">
         <v>170</v>
       </c>
       <c r="N37" s="5">
         <v>90</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="Q37" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:17">
+    <row r="38" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="13" t="s">
         <v>172</v>
       </c>
@@ -4532,21 +3957,21 @@
       <c r="G38" s="4">
         <v>1027</v>
       </c>
-      <c r="L38" s="25" t="s">
+      <c r="L38" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="M38" s="31" t="s">
+      <c r="M38" s="30" t="s">
         <v>174</v>
       </c>
       <c r="N38" s="5">
         <v>90</v>
       </c>
-      <c r="O38" s="24"/>
-      <c r="Q38" s="25" t="s">
+      <c r="O38" s="23"/>
+      <c r="Q38" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:17">
+    <row r="39" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
         <v>176</v>
       </c>
@@ -4556,21 +3981,21 @@
       <c r="G39" s="4">
         <v>1028</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="M39" s="31" t="s">
+      <c r="M39" s="30" t="s">
         <v>178</v>
       </c>
       <c r="N39" s="5">
         <v>129</v>
       </c>
-      <c r="O39" s="24"/>
-      <c r="Q39" s="25" t="s">
+      <c r="O39" s="23"/>
+      <c r="Q39" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:17">
+    <row r="40" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="13" t="s">
         <v>179</v>
       </c>
@@ -4592,15 +4017,15 @@
       <c r="L40" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="31" t="s">
+      <c r="M40" s="30" t="s">
         <v>181</v>
       </c>
       <c r="N40" s="5">
         <v>180</v>
       </c>
-      <c r="Q40" s="25"/>
-    </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:17">
+      <c r="Q40" s="24"/>
+    </row>
+    <row r="41" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="13" t="s">
         <v>182</v>
       </c>
@@ -4620,7 +4045,7 @@
       <c r="L41" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="M41" s="31" t="s">
+      <c r="M41" s="30" t="s">
         <v>185</v>
       </c>
       <c r="N41" s="5">
@@ -4628,7 +4053,7 @@
       </c>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:17">
+    <row r="42" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="13" t="s">
         <v>186</v>
       </c>
@@ -4648,7 +4073,7 @@
       <c r="L42" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="31" t="s">
+      <c r="M42" s="30" t="s">
         <v>189</v>
       </c>
       <c r="N42" s="5">
@@ -4658,7 +4083,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:17">
+    <row r="43" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="13" t="s">
         <v>191</v>
       </c>
@@ -4678,7 +4103,7 @@
       <c r="L43" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M43" s="31" t="s">
+      <c r="M43" s="30" t="s">
         <v>193</v>
       </c>
       <c r="N43" s="5">
@@ -4688,7 +4113,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:17">
+    <row r="44" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="13" t="s">
         <v>195</v>
       </c>
@@ -4711,7 +4136,7 @@
       <c r="L44" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="31" t="s">
+      <c r="M44" s="30" t="s">
         <v>198</v>
       </c>
       <c r="N44" s="5">
@@ -4721,7 +4146,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:17">
+    <row r="45" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="13" t="s">
         <v>199</v>
       </c>
@@ -4743,7 +4168,7 @@
       <c r="L45" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="M45" s="28" t="s">
+      <c r="M45" s="27" t="s">
         <v>201</v>
       </c>
       <c r="N45" s="5">
@@ -4751,7 +4176,7 @@
       </c>
       <c r="Q45" s="12"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:17">
+    <row r="46" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="13" t="s">
         <v>202</v>
       </c>
@@ -4773,7 +4198,7 @@
       <c r="L46" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="28" t="s">
+      <c r="M46" s="27" t="s">
         <v>204</v>
       </c>
       <c r="N46" s="5">
@@ -4783,7 +4208,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:17">
+    <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="13" t="s">
         <v>206</v>
       </c>
@@ -4805,7 +4230,7 @@
       <c r="L47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="28" t="s">
+      <c r="M47" s="27" t="s">
         <v>208</v>
       </c>
       <c r="N47" s="5">
@@ -4813,7 +4238,7 @@
       </c>
       <c r="Q47" s="12"/>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:17">
+    <row r="48" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="13">
         <v>20001002</v>
       </c>
@@ -4843,7 +4268,7 @@
       </c>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:17">
+    <row r="49" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="12">
         <v>20001003</v>
       </c>
@@ -4866,11 +4291,11 @@
       <c r="N49" s="5">
         <v>180</v>
       </c>
-      <c r="Q49" s="26" t="s">
+      <c r="Q49" s="25" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:17">
+    <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13">
         <v>20001004</v>
       </c>
@@ -4887,17 +4312,17 @@
       <c r="L50" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="M50" s="28" t="s">
+      <c r="M50" s="27" t="s">
         <v>217</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
-      <c r="Q50" s="26" t="s">
+      <c r="Q50" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:17">
+    <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
         <v>20001005</v>
       </c>
@@ -4920,11 +4345,11 @@
       <c r="N51" s="5">
         <v>-45</v>
       </c>
-      <c r="Q51" s="26" t="s">
+      <c r="Q51" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:17">
+    <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="12">
         <v>20001006</v>
       </c>
@@ -4941,17 +4366,17 @@
       <c r="L52" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="M52" s="28" t="s">
+      <c r="M52" s="27" t="s">
         <v>222</v>
       </c>
       <c r="N52" s="5">
         <v>45</v>
       </c>
-      <c r="Q52" s="26" t="s">
+      <c r="Q52" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:17">
+    <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
         <v>20001007</v>
       </c>
@@ -4968,17 +4393,17 @@
       <c r="L53" s="12">
         <v>20001007</v>
       </c>
-      <c r="M53" s="28" t="s">
+      <c r="M53" s="27" t="s">
         <v>226</v>
       </c>
       <c r="N53" s="5">
         <v>150</v>
       </c>
-      <c r="Q53" s="26" t="s">
+      <c r="Q53" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:17">
+    <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="12">
         <v>20001008</v>
       </c>
@@ -4995,17 +4420,17 @@
       <c r="L54" s="12">
         <v>20001008</v>
       </c>
-      <c r="M54" s="28" t="s">
+      <c r="M54" s="27" t="s">
         <v>229</v>
       </c>
       <c r="N54" s="5">
         <v>-155</v>
       </c>
-      <c r="Q54" s="26" t="s">
+      <c r="Q54" s="25" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:17">
+    <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="12">
         <v>20001009</v>
       </c>
@@ -5022,17 +4447,17 @@
       <c r="L55" s="12">
         <v>20001009</v>
       </c>
-      <c r="M55" s="28" t="s">
+      <c r="M55" s="27" t="s">
         <v>233</v>
       </c>
       <c r="N55" s="5">
         <v>35</v>
       </c>
-      <c r="Q55" s="26" t="s">
+      <c r="Q55" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:17">
+    <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="12">
         <v>20001010</v>
       </c>
@@ -5049,17 +4474,17 @@
       <c r="L56" s="12">
         <v>20001010</v>
       </c>
-      <c r="M56" s="32" t="s">
+      <c r="M56" s="31" t="s">
         <v>236</v>
       </c>
       <c r="N56" s="5">
         <v>180</v>
       </c>
-      <c r="Q56" s="26" t="s">
+      <c r="Q56" s="25" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:17">
+    <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="12">
         <v>20001011</v>
       </c>
@@ -5082,11 +4507,11 @@
       <c r="N57" s="5">
         <v>-180</v>
       </c>
-      <c r="Q57" s="26" t="s">
+      <c r="Q57" s="25" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:17">
+    <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="12">
         <v>20001012</v>
       </c>
@@ -5109,11 +4534,11 @@
       <c r="N58" s="5">
         <v>80</v>
       </c>
-      <c r="Q58" s="26" t="s">
+      <c r="Q58" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:17">
+    <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="12">
         <v>20001013</v>
       </c>
@@ -5136,11 +4561,11 @@
       <c r="N59" s="5">
         <v>180</v>
       </c>
-      <c r="Q59" s="26" t="s">
+      <c r="Q59" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:17">
+    <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="12">
         <v>20001014</v>
       </c>
@@ -5163,11 +4588,11 @@
       <c r="N60" s="5">
         <v>180</v>
       </c>
-      <c r="Q60" s="26" t="s">
+      <c r="Q60" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:17">
+    <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
         <v>20001015</v>
       </c>
@@ -5190,11 +4615,11 @@
       <c r="N61" s="5">
         <v>128</v>
       </c>
-      <c r="Q61" s="26" t="s">
+      <c r="Q61" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:17">
+    <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="12">
         <v>20001016</v>
       </c>
@@ -5217,11 +4642,11 @@
       <c r="N62" s="5">
         <v>180</v>
       </c>
-      <c r="Q62" s="26" t="s">
+      <c r="Q62" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:17">
+    <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
         <v>20001017</v>
       </c>
@@ -5244,11 +4669,11 @@
       <c r="N63" s="5">
         <v>120</v>
       </c>
-      <c r="Q63" s="26" t="s">
+      <c r="Q63" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:17">
+    <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="12">
         <v>20001018</v>
       </c>
@@ -5263,7 +4688,7 @@
         <v>144</v>
       </c>
       <c r="J64" s="4"/>
-      <c r="L64" s="25">
+      <c r="L64" s="24">
         <v>0</v>
       </c>
       <c r="M64" s="5" t="s">
@@ -5272,11 +4697,11 @@
       <c r="N64" s="5">
         <v>180</v>
       </c>
-      <c r="Q64" s="26" t="s">
+      <c r="Q64" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:17">
+    <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="12">
         <v>20001019</v>
       </c>
@@ -5299,11 +4724,11 @@
       <c r="N65" s="5">
         <v>-180</v>
       </c>
-      <c r="Q65" s="26" t="s">
+      <c r="Q65" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:17">
+    <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="12">
         <v>20001020</v>
       </c>
@@ -5326,11 +4751,11 @@
       <c r="N66" s="5">
         <v>180</v>
       </c>
-      <c r="Q66" s="26" t="s">
+      <c r="Q66" s="25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:17">
+    <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="12">
         <v>20001021</v>
       </c>
@@ -5353,11 +4778,11 @@
       <c r="N67" s="5">
         <v>-180</v>
       </c>
-      <c r="Q67" s="26" t="s">
+      <c r="Q67" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:17">
+    <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="12">
         <v>20001022</v>
       </c>
@@ -5380,11 +4805,11 @@
       <c r="N68" s="5">
         <v>-106</v>
       </c>
-      <c r="Q68" s="26" t="s">
+      <c r="Q68" s="25" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:17">
+    <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="12">
         <v>20001023</v>
       </c>
@@ -5412,7 +4837,7 @@
       </c>
       <c r="Q69" s="12"/>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:17">
+    <row r="70" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="12">
         <v>20001024</v>
       </c>
@@ -5437,7 +4862,7 @@
       </c>
       <c r="Q70" s="12"/>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:17">
+    <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="13" t="s">
         <v>280</v>
       </c>
@@ -5467,7 +4892,7 @@
       </c>
       <c r="Q71" s="12"/>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:17">
+    <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="13" t="s">
         <v>282</v>
       </c>
@@ -5497,7 +4922,7 @@
       </c>
       <c r="Q72" s="12"/>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:17">
+    <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="13" t="s">
         <v>284</v>
       </c>
@@ -5511,7 +4936,7 @@
       <c r="I73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L73" s="25">
+      <c r="L73" s="24">
         <v>20001007</v>
       </c>
       <c r="M73" s="5" t="s">
@@ -5520,11 +4945,11 @@
       <c r="N73" s="5">
         <v>-131</v>
       </c>
-      <c r="Q73" s="26" t="s">
+      <c r="Q73" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:17">
+    <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="13" t="s">
         <v>288</v>
       </c>
@@ -5547,11 +4972,11 @@
       <c r="N74" s="5">
         <v>180</v>
       </c>
-      <c r="Q74" s="26" t="s">
+      <c r="Q74" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:17">
+    <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="13" t="s">
         <v>292</v>
       </c>
@@ -5565,7 +4990,7 @@
       <c r="I75" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L75" s="25">
+      <c r="L75" s="24">
         <v>20001009</v>
       </c>
       <c r="M75" s="5" t="s">
@@ -5574,11 +4999,11 @@
       <c r="N75" s="5">
         <v>180</v>
       </c>
-      <c r="Q75" s="26" t="s">
+      <c r="Q75" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:17">
+    <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="13" t="s">
         <v>296</v>
       </c>
@@ -5601,11 +5026,11 @@
       <c r="N76" s="5">
         <v>180</v>
       </c>
-      <c r="Q76" s="26" t="s">
+      <c r="Q76" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:17">
+    <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="13" t="s">
         <v>300</v>
       </c>
@@ -5628,11 +5053,11 @@
       <c r="N77" s="5">
         <v>180</v>
       </c>
-      <c r="Q77" s="26" t="s">
+      <c r="Q77" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:17">
+    <row r="78" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="13" t="s">
         <v>301</v>
       </c>
@@ -5655,11 +5080,11 @@
       <c r="N78" s="5">
         <v>180</v>
       </c>
-      <c r="Q78" s="26" t="s">
+      <c r="Q78" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:17">
+    <row r="79" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="13" t="s">
         <v>302</v>
       </c>
@@ -5673,7 +5098,7 @@
       <c r="I79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L79" s="25">
+      <c r="L79" s="24">
         <v>20001017</v>
       </c>
       <c r="M79" s="5" t="s">
@@ -5682,11 +5107,11 @@
       <c r="N79" s="5">
         <v>27</v>
       </c>
-      <c r="Q79" s="26" t="s">
+      <c r="Q79" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:17">
+    <row r="80" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="13" t="s">
         <v>304</v>
       </c>
@@ -5716,7 +5141,7 @@
       </c>
       <c r="Q80" s="12"/>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:17">
+    <row r="81" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="13" t="s">
         <v>306</v>
       </c>
@@ -5746,7 +5171,7 @@
       </c>
       <c r="Q81" s="12"/>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:17">
+    <row r="82" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="13" t="s">
         <v>308</v>
       </c>
@@ -5760,7 +5185,7 @@
       <c r="I82" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L82" s="25">
+      <c r="L82" s="24">
         <v>20001007</v>
       </c>
       <c r="M82" s="5" t="s">
@@ -5769,11 +5194,11 @@
       <c r="N82" s="5">
         <v>90</v>
       </c>
-      <c r="Q82" s="26" t="s">
+      <c r="Q82" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:17">
+    <row r="83" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="13" t="s">
         <v>312</v>
       </c>
@@ -5787,7 +5212,7 @@
       <c r="I83" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L83" s="25">
+      <c r="L83" s="24">
         <v>20001011</v>
       </c>
       <c r="M83" s="5" t="s">
@@ -5796,11 +5221,11 @@
       <c r="N83" s="5">
         <v>180</v>
       </c>
-      <c r="Q83" s="26" t="s">
+      <c r="Q83" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:17">
+    <row r="84" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="13" t="s">
         <v>316</v>
       </c>
@@ -5814,7 +5239,7 @@
       <c r="I84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L84" s="25">
+      <c r="L84" s="24">
         <v>20001017</v>
       </c>
       <c r="M84" s="5" t="s">
@@ -5823,11 +5248,11 @@
       <c r="N84" s="5">
         <v>95</v>
       </c>
-      <c r="Q84" s="26" t="s">
+      <c r="Q84" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:17">
+    <row r="85" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="13" t="s">
         <v>320</v>
       </c>
@@ -5850,11 +5275,11 @@
       <c r="N85" s="5">
         <v>-70</v>
       </c>
-      <c r="Q85" s="26" t="s">
+      <c r="Q85" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:17">
+    <row r="86" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="13" t="s">
         <v>322</v>
       </c>
@@ -5877,11 +5302,11 @@
       <c r="N86" s="5">
         <v>180</v>
       </c>
-      <c r="Q86" s="26" t="s">
+      <c r="Q86" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:17">
+    <row r="87" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="13" t="s">
         <v>323</v>
       </c>
@@ -5904,11 +5329,11 @@
       <c r="N87" s="5">
         <v>180</v>
       </c>
-      <c r="Q87" s="26" t="s">
+      <c r="Q87" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:17">
+    <row r="88" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="13" t="s">
         <v>324</v>
       </c>
@@ -5931,11 +5356,11 @@
       <c r="N88" s="5">
         <v>-70</v>
       </c>
-      <c r="Q88" s="26" t="s">
+      <c r="Q88" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:17">
+    <row r="89" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="13" t="s">
         <v>328</v>
       </c>
@@ -5949,7 +5374,7 @@
       <c r="I89" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L89" s="25">
+      <c r="L89" s="24">
         <v>20001011</v>
       </c>
       <c r="M89" s="5" t="s">
@@ -5958,11 +5383,11 @@
       <c r="N89" s="5">
         <v>-180</v>
       </c>
-      <c r="Q89" s="26" t="s">
+      <c r="Q89" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:17">
+    <row r="90" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="13" t="s">
         <v>332</v>
       </c>
@@ -5992,7 +5417,7 @@
       </c>
       <c r="Q90" s="12"/>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:17">
+    <row r="91" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="13" t="s">
         <v>334</v>
       </c>
@@ -6022,7 +5447,7 @@
       </c>
       <c r="Q91" s="12"/>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:17">
+    <row r="92" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="13" t="s">
         <v>336</v>
       </c>
@@ -6036,7 +5461,7 @@
       <c r="I92" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L92" s="25">
+      <c r="L92" s="24">
         <v>20001007</v>
       </c>
       <c r="M92" s="5" t="s">
@@ -6045,11 +5470,11 @@
       <c r="N92" s="5">
         <v>0</v>
       </c>
-      <c r="Q92" s="26" t="s">
+      <c r="Q92" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:17">
+    <row r="93" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="13" t="s">
         <v>340</v>
       </c>
@@ -6063,7 +5488,7 @@
       <c r="I93" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L93" s="25">
+      <c r="L93" s="24">
         <v>20001017</v>
       </c>
       <c r="M93" s="5" t="s">
@@ -6072,11 +5497,11 @@
       <c r="N93" s="5">
         <v>101</v>
       </c>
-      <c r="Q93" s="26" t="s">
+      <c r="Q93" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:17">
+    <row r="94" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="13" t="s">
         <v>344</v>
       </c>
@@ -6090,7 +5515,7 @@
       <c r="I94" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L94" s="25">
+      <c r="L94" s="24">
         <v>20001013</v>
       </c>
       <c r="M94" s="5" t="s">
@@ -6099,11 +5524,11 @@
       <c r="N94" s="5">
         <v>-3</v>
       </c>
-      <c r="Q94" s="26" t="s">
+      <c r="Q94" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:17">
+    <row r="95" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C95" s="13" t="s">
         <v>348</v>
       </c>
@@ -6126,11 +5551,11 @@
       <c r="N95" s="5">
         <v>180</v>
       </c>
-      <c r="Q95" s="26" t="s">
+      <c r="Q95" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:17">
+    <row r="96" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="13" t="s">
         <v>349</v>
       </c>
@@ -6153,11 +5578,11 @@
       <c r="N96" s="5">
         <v>180</v>
       </c>
-      <c r="Q96" s="26" t="s">
+      <c r="Q96" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:17">
+    <row r="97" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="13" t="s">
         <v>350</v>
       </c>
@@ -6171,7 +5596,7 @@
       <c r="I97" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L97" s="25">
+      <c r="L97" s="24">
         <v>20001015</v>
       </c>
       <c r="M97" s="5" t="s">
@@ -6180,11 +5605,11 @@
       <c r="N97" s="5">
         <v>-180</v>
       </c>
-      <c r="Q97" s="26" t="s">
+      <c r="Q97" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:17">
+    <row r="98" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="13" t="s">
         <v>354</v>
       </c>
@@ -6198,7 +5623,7 @@
       <c r="I98" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L98" s="25">
+      <c r="L98" s="24">
         <v>20001015</v>
       </c>
       <c r="M98" s="5" t="s">
@@ -6207,11 +5632,11 @@
       <c r="N98" s="5">
         <v>83</v>
       </c>
-      <c r="Q98" s="26" t="s">
+      <c r="Q98" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:17">
+    <row r="99" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="13" t="s">
         <v>358</v>
       </c>
@@ -6241,7 +5666,7 @@
       </c>
       <c r="Q99" s="12"/>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:17">
+    <row r="100" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="13" t="s">
         <v>360</v>
       </c>
@@ -6271,7 +5696,7 @@
       </c>
       <c r="Q100" s="12"/>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:17">
+    <row r="101" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="13" t="s">
         <v>362</v>
       </c>
@@ -6294,11 +5719,11 @@
       <c r="N101" s="5">
         <v>180</v>
       </c>
-      <c r="Q101" s="26" t="s">
+      <c r="Q101" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:17">
+    <row r="102" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="13" t="s">
         <v>366</v>
       </c>
@@ -6312,7 +5737,7 @@
       <c r="I102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L102" s="25">
+      <c r="L102" s="24">
         <v>20001012</v>
       </c>
       <c r="M102" s="5" t="s">
@@ -6321,11 +5746,11 @@
       <c r="N102" s="5">
         <v>92</v>
       </c>
-      <c r="Q102" s="26" t="s">
+      <c r="Q102" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:17">
+    <row r="103" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="13" t="s">
         <v>370</v>
       </c>
@@ -6339,7 +5764,7 @@
       <c r="I103" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L103" s="25">
+      <c r="L103" s="24">
         <v>20001015</v>
       </c>
       <c r="M103" s="5" t="s">
@@ -6348,11 +5773,11 @@
       <c r="N103" s="5">
         <v>180</v>
       </c>
-      <c r="Q103" s="26" t="s">
+      <c r="Q103" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:17">
+    <row r="104" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="13" t="s">
         <v>372</v>
       </c>
@@ -6366,7 +5791,7 @@
       <c r="I104" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L104" s="25">
+      <c r="L104" s="24">
         <v>20001013</v>
       </c>
       <c r="M104" s="5" t="s">
@@ -6375,11 +5800,11 @@
       <c r="N104" s="5">
         <v>145</v>
       </c>
-      <c r="Q104" s="26" t="s">
+      <c r="Q104" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:17">
+    <row r="105" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="13" t="s">
         <v>376</v>
       </c>
@@ -6402,11 +5827,11 @@
       <c r="N105" s="5">
         <v>180</v>
       </c>
-      <c r="Q105" s="26" t="s">
+      <c r="Q105" s="25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:17">
+    <row r="106" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="13" t="s">
         <v>377</v>
       </c>
@@ -6429,11 +5854,11 @@
       <c r="N106" s="5">
         <v>180</v>
       </c>
-      <c r="Q106" s="26" t="s">
+      <c r="Q106" s="25" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:17">
+    <row r="107" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="12">
         <v>20099001</v>
       </c>
@@ -6447,7 +5872,7 @@
       <c r="I107" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L107" s="25" t="s">
+      <c r="L107" s="24" t="s">
         <v>379</v>
       </c>
       <c r="M107" s="5" t="s">
@@ -6456,11 +5881,11 @@
       <c r="N107" s="5">
         <v>180</v>
       </c>
-      <c r="Q107" s="26" t="s">
+      <c r="Q107" s="25" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:17">
+    <row r="108" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="12">
         <v>20099002</v>
       </c>
@@ -6474,7 +5899,7 @@
       <c r="I108" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L108" s="25" t="s">
+      <c r="L108" s="24" t="s">
         <v>379</v>
       </c>
       <c r="M108" s="5" t="s">
@@ -6483,11 +5908,11 @@
       <c r="N108" s="5">
         <v>180</v>
       </c>
-      <c r="Q108" s="26" t="s">
+      <c r="Q108" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:17">
+    <row r="109" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="12">
         <v>20099003</v>
       </c>
@@ -6501,7 +5926,7 @@
       <c r="I109" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L109" s="25" t="s">
+      <c r="L109" s="24" t="s">
         <v>379</v>
       </c>
       <c r="M109" s="5" t="s">
@@ -6510,11 +5935,11 @@
       <c r="N109" s="5">
         <v>180</v>
       </c>
-      <c r="Q109" s="26" t="s">
+      <c r="Q109" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:17">
+    <row r="110" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="12">
         <v>20099004</v>
       </c>
@@ -6528,7 +5953,7 @@
       <c r="I110" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L110" s="25" t="s">
+      <c r="L110" s="24" t="s">
         <v>379</v>
       </c>
       <c r="M110" s="5" t="s">
@@ -6537,11 +5962,11 @@
       <c r="N110" s="5">
         <v>180</v>
       </c>
-      <c r="Q110" s="26" t="s">
+      <c r="Q110" s="25" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:17">
+    <row r="111" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="12">
         <v>20099005</v>
       </c>
@@ -6555,7 +5980,7 @@
       <c r="I111" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="L111" s="25" t="s">
+      <c r="L111" s="24" t="s">
         <v>379</v>
       </c>
       <c r="M111" s="5" t="s">
@@ -6564,11 +5989,11 @@
       <c r="N111" s="5">
         <v>180</v>
       </c>
-      <c r="Q111" s="26" t="s">
+      <c r="Q111" s="25" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:17">
+    <row r="112" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C112" s="12">
         <v>20099006</v>
       </c>
@@ -6591,18 +6016,18 @@
       <c r="N112" s="5">
         <v>180</v>
       </c>
-      <c r="Q112" s="26" t="s">
+      <c r="Q112" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="113" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="13" t="s">
         <v>390</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="27" t="s">
+      <c r="E113" s="26" t="s">
         <v>391</v>
       </c>
       <c r="F113" s="5"/>
@@ -6617,31 +6042,32 @@
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="3"/>
-      <c r="L113" s="27" t="s">
+      <c r="L113" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="M113" s="24" t="s">
-        <v>393</v>
+      <c r="M113" s="30" t="s">
+        <v>396</v>
       </c>
       <c r="N113" s="5">
-        <v>230</v>
-      </c>
-      <c r="Q113" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="30"/>
+      <c r="Q113" s="24"/>
       <c r="T113" s="5"/>
       <c r="U113" s="5"/>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
     </row>
-    <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="114" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="26" t="s">
         <v>394</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="27" t="s">
-        <v>395</v>
       </c>
       <c r="F114" s="5"/>
       <c r="G114" s="4">
@@ -6655,31 +6081,32 @@
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="3"/>
-      <c r="L114" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="M114" s="31" t="s">
-        <v>397</v>
+      <c r="L114" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="M114" s="32" t="s">
+        <v>418</v>
       </c>
       <c r="N114" s="5">
         <v>90</v>
       </c>
-      <c r="Q114" s="25"/>
+      <c r="O114" s="23"/>
+      <c r="Q114" s="24"/>
       <c r="T114" s="5"/>
       <c r="U114" s="5"/>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="115" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="26" t="s">
         <v>398</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="27" t="s">
-        <v>399</v>
       </c>
       <c r="F115" s="5"/>
       <c r="G115" s="4">
@@ -6693,31 +6120,31 @@
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="3"/>
-      <c r="L115" s="27" t="s">
+      <c r="L115" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="M115" s="30" t="s">
         <v>400</v>
-      </c>
-      <c r="M115" s="31" t="s">
-        <v>401</v>
       </c>
       <c r="N115" s="5">
         <v>90</v>
       </c>
-      <c r="Q115" s="25"/>
+      <c r="Q115" s="24"/>
       <c r="T115" s="5"/>
       <c r="U115" s="5"/>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
     </row>
-    <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:24">
+    <row r="116" spans="1:24" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="26" t="s">
         <v>402</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="27" t="s">
-        <v>403</v>
       </c>
       <c r="F116" s="5"/>
       <c r="G116" s="4">
@@ -6731,28 +6158,28 @@
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="3"/>
-      <c r="L116" s="27" t="s">
+      <c r="L116" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="M116" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="M116" s="24" t="s">
-        <v>405</v>
-      </c>
       <c r="N116" s="5">
-        <v>230</v>
-      </c>
-      <c r="Q116" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="24"/>
       <c r="T116" s="5"/>
       <c r="U116" s="5"/>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:14">
+    <row r="117" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E117" s="26" t="s">
         <v>406</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>407</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
@@ -6764,22 +6191,22 @@
         <v>0</v>
       </c>
       <c r="J117" s="4"/>
-      <c r="L117" s="27" t="s">
+      <c r="L117" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="M117" s="24" t="s">
+      <c r="M117" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="N117" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="N117" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C118" s="13" t="s">
+      <c r="E118" s="26" t="s">
         <v>409</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>410</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
@@ -6791,22 +6218,22 @@
         <v>0</v>
       </c>
       <c r="J118" s="4"/>
-      <c r="L118" s="27" t="s">
+      <c r="L118" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="M118" s="30" t="s">
         <v>411</v>
-      </c>
-      <c r="M118" s="31" t="s">
-        <v>412</v>
       </c>
       <c r="N118" s="5">
         <v>123</v>
       </c>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:14">
+    <row r="119" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E119" s="26" t="s">
         <v>413</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>414</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
@@ -6818,22 +6245,22 @@
         <v>0</v>
       </c>
       <c r="J119" s="4"/>
-      <c r="L119" s="27" t="s">
+      <c r="L119" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="M119" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="M119" s="24" t="s">
+      <c r="N119" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="N119" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:14">
-      <c r="C120" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>414</v>
+      <c r="E120" s="26" t="s">
+        <v>413</v>
       </c>
       <c r="G120" s="4">
         <v>1</v>
@@ -6845,31 +6272,31 @@
         <v>0</v>
       </c>
       <c r="J120" s="4"/>
-      <c r="L120" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="M120" s="24" t="s">
-        <v>418</v>
+      <c r="L120" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="M120" s="23" t="s">
+        <v>417</v>
       </c>
       <c r="N120" s="5">
         <v>270</v>
       </c>
     </row>
-    <row r="121" ht="20.1" customHeight="1"/>
-    <row r="122" ht="20.1" customHeight="1"/>
-    <row r="123" ht="20.1" customHeight="1"/>
-    <row r="124" ht="20.1" customHeight="1"/>
-    <row r="125" ht="20.1" customHeight="1"/>
-    <row r="126" ht="20.1" customHeight="1"/>
-    <row r="127" ht="20.1" customHeight="1"/>
-    <row r="128" ht="20.1" customHeight="1"/>
-    <row r="129" ht="20.1" customHeight="1"/>
-    <row r="130" ht="20.1" customHeight="1"/>
-    <row r="131" ht="20.1" customHeight="1"/>
+    <row r="121" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/NpcConfig.xlsx
+++ b/Excel/NpcConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A60314A-45C1-49D7-93D1-CFA375DC7403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E68320-4B10-4AE3-85CC-C3A2DFF5201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,9 +1511,6 @@
     <t>经验老头</t>
   </si>
   <si>
-    <t>-3090,-424,-1153</t>
-  </si>
-  <si>
     <t>当你的等级达到上限时无法获得经验时,你可以用多余的20%经验来我这里换取一份不错的奖励哦!</t>
   </si>
   <si>
@@ -2099,9 +2096,6 @@
     <t>NPC_JiaYuanGuanLi</t>
   </si>
   <si>
-    <t>-109,0,-1494</t>
-  </si>
-  <si>
     <t>30000004</t>
   </si>
   <si>
@@ -2153,7 +2147,15 @@
     <t>1532,0,-4366</t>
   </si>
   <si>
-    <t>-109,0,-1494</t>
+    <t>-1090,0,-1494</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3061,0,1224</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3090,-424,-1153</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2341,7 +2343,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2433,6 +2435,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2743,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C102" workbookViewId="0">
-      <selection activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -4198,22 +4203,22 @@
       <c r="L46" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M46" s="27" t="s">
-        <v>204</v>
+      <c r="M46" s="33" t="s">
+        <v>418</v>
       </c>
       <c r="N46" s="5">
         <v>-90</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="F47" s="12">
         <v>10001101</v>
@@ -4231,7 +4236,7 @@
         <v>54</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N47" s="5">
         <v>60</v>
@@ -4261,7 +4266,7 @@
         <v>58</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N48" s="5">
         <v>-45</v>
@@ -4273,26 +4278,26 @@
         <v>20001003</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49" s="12"/>
       <c r="H49" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L49" s="12" t="s">
+      <c r="M49" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="N49" s="5">
         <v>180</v>
       </c>
       <c r="Q49" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4300,7 +4305,7 @@
         <v>20001004</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F50" s="12"/>
       <c r="H50" s="6" t="s">
@@ -4310,16 +4315,16 @@
         <v>144</v>
       </c>
       <c r="L50" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="M50" s="27" t="s">
         <v>216</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>217</v>
       </c>
       <c r="N50" s="5">
         <v>90</v>
       </c>
       <c r="Q50" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4327,7 +4332,7 @@
         <v>20001005</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F51" s="12"/>
       <c r="H51" s="6" t="s">
@@ -4337,16 +4342,16 @@
         <v>144</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N51" s="5">
         <v>-45</v>
       </c>
       <c r="Q51" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4354,7 +4359,7 @@
         <v>20001006</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F52" s="12"/>
       <c r="H52" s="6" t="s">
@@ -4364,16 +4369,16 @@
         <v>144</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N52" s="5">
         <v>45</v>
       </c>
       <c r="Q52" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4381,11 +4386,11 @@
         <v>20001007</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" s="12"/>
       <c r="H53" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>144</v>
@@ -4394,13 +4399,13 @@
         <v>20001007</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N53" s="5">
         <v>150</v>
       </c>
       <c r="Q53" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4408,7 +4413,7 @@
         <v>20001008</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="12"/>
       <c r="H54" s="6" t="s">
@@ -4421,13 +4426,13 @@
         <v>20001008</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N54" s="5">
         <v>-155</v>
       </c>
       <c r="Q54" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4435,11 +4440,11 @@
         <v>20001009</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F55" s="12"/>
       <c r="H55" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>144</v>
@@ -4448,13 +4453,13 @@
         <v>20001009</v>
       </c>
       <c r="M55" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N55" s="5">
         <v>35</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4462,7 +4467,7 @@
         <v>20001010</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" s="12"/>
       <c r="H56" s="6" t="s">
@@ -4475,13 +4480,13 @@
         <v>20001010</v>
       </c>
       <c r="M56" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N56" s="5">
         <v>180</v>
       </c>
       <c r="Q56" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4489,11 +4494,11 @@
         <v>20001011</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" s="12"/>
       <c r="H57" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>144</v>
@@ -4502,13 +4507,13 @@
         <v>20001011</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N57" s="5">
         <v>-180</v>
       </c>
       <c r="Q57" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4516,11 +4521,11 @@
         <v>20001012</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F58" s="12"/>
       <c r="H58" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>144</v>
@@ -4529,13 +4534,13 @@
         <v>20001012</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N58" s="5">
         <v>80</v>
       </c>
       <c r="Q58" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4543,11 +4548,11 @@
         <v>20001013</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F59" s="12"/>
       <c r="H59" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>144</v>
@@ -4556,13 +4561,13 @@
         <v>20001013</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N59" s="5">
         <v>180</v>
       </c>
       <c r="Q59" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4570,11 +4575,11 @@
         <v>20001014</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F60" s="12"/>
       <c r="H60" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>144</v>
@@ -4583,13 +4588,13 @@
         <v>20001014</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N60" s="5">
         <v>180</v>
       </c>
       <c r="Q60" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4597,11 +4602,11 @@
         <v>20001015</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F61" s="12"/>
       <c r="H61" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>144</v>
@@ -4610,13 +4615,13 @@
         <v>20001015</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N61" s="5">
         <v>128</v>
       </c>
       <c r="Q61" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4624,7 +4629,7 @@
         <v>20001016</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F62" s="12"/>
       <c r="H62" s="6" t="s">
@@ -4637,13 +4642,13 @@
         <v>20001016</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N62" s="5">
         <v>180</v>
       </c>
       <c r="Q62" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4651,11 +4656,11 @@
         <v>20001017</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F63" s="12"/>
       <c r="H63" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>144</v>
@@ -4664,13 +4669,13 @@
         <v>20001017</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N63" s="5">
         <v>120</v>
       </c>
       <c r="Q63" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4678,7 +4683,7 @@
         <v>20001018</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F64" s="12"/>
       <c r="H64" s="6" t="s">
@@ -4692,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N64" s="5">
         <v>180</v>
       </c>
       <c r="Q64" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,11 +4711,11 @@
         <v>20001019</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F65" s="12"/>
       <c r="H65" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>144</v>
@@ -4719,13 +4724,13 @@
         <v>20001019</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N65" s="5">
         <v>-180</v>
       </c>
       <c r="Q65" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4733,7 +4738,7 @@
         <v>20001020</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F66" s="12"/>
       <c r="H66" s="6" t="s">
@@ -4746,13 +4751,13 @@
         <v>20001019</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N66" s="5">
         <v>180</v>
       </c>
       <c r="Q66" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4760,7 +4765,7 @@
         <v>20001021</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F67" s="12"/>
       <c r="H67" s="6" t="s">
@@ -4773,13 +4778,13 @@
         <v>20001021</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N67" s="5">
         <v>-180</v>
       </c>
       <c r="Q67" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4787,11 +4792,11 @@
         <v>20001022</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F68" s="12"/>
       <c r="H68" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>144</v>
@@ -4800,13 +4805,13 @@
         <v>20001022</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N68" s="5">
         <v>-106</v>
       </c>
       <c r="Q68" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -4814,7 +4819,7 @@
         <v>20001023</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="4">
@@ -4830,7 +4835,7 @@
         <v>20001023</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N69" s="5">
         <v>180</v>
@@ -4855,7 +4860,7 @@
         <v>20001024</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N70" s="5">
         <v>-152</v>
@@ -4864,7 +4869,7 @@
     </row>
     <row r="71" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>53</v>
@@ -4885,7 +4890,7 @@
         <v>20001001</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N71" s="5">
         <v>-147</v>
@@ -4894,7 +4899,7 @@
     </row>
     <row r="72" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>57</v>
@@ -4915,7 +4920,7 @@
         <v>20001002</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N72" s="5">
         <v>-129</v>
@@ -4924,14 +4929,14 @@
     </row>
     <row r="73" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="F73" s="12"/>
       <c r="H73" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>144</v>
@@ -4940,25 +4945,25 @@
         <v>20001007</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N73" s="5">
         <v>-131</v>
       </c>
       <c r="Q73" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="F74" s="12"/>
       <c r="H74" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>144</v>
@@ -4967,25 +4972,25 @@
         <v>20001005</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N74" s="5">
         <v>180</v>
       </c>
       <c r="Q74" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="F75" s="12"/>
       <c r="H75" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>144</v>
@@ -4994,25 +4999,25 @@
         <v>20001009</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N75" s="5">
         <v>180</v>
       </c>
       <c r="Q75" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E76" s="12" t="s">
         <v>296</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>297</v>
       </c>
       <c r="F76" s="12"/>
       <c r="H76" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>144</v>
@@ -5021,21 +5026,21 @@
         <v>20001005</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N76" s="5">
         <v>180</v>
       </c>
       <c r="Q76" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="3:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E77" s="12" t="s">
-     